--- a/Technical documentation/AL table analysis.xlsx
+++ b/Technical documentation/AL table analysis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martema\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martema\Documents\GitHub\AtariLegend\Technical documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="112">
   <si>
     <t>Table name</t>
   </si>
@@ -313,9 +313,6 @@
     <t>game_music</t>
   </si>
   <si>
-    <t>The cross table between the game and the music structure</t>
-  </si>
-  <si>
     <t>game_developer</t>
   </si>
   <si>
@@ -355,15 +352,9 @@
     <t>The language table - this one is derived from the 'lingo' table</t>
   </si>
   <si>
-    <t>release_individual</t>
-  </si>
-  <si>
     <t>This is the cross table between the release and its creators/individuals. This table also contains the link to the author_type table (programmer, graphics artist, Musician ...)</t>
   </si>
   <si>
-    <t>emulator_incompatibility_release</t>
-  </si>
-  <si>
     <t>This is the cross table between the release table, emulator table and the incompatibility table</t>
   </si>
   <si>
@@ -382,9 +373,6 @@
     <t>to do</t>
   </si>
   <si>
-    <t>release_system_enhanced</t>
-  </si>
-  <si>
     <t>Crosstable between the release, the system and the enhancement tables</t>
   </si>
   <si>
@@ -397,15 +385,9 @@
     <t>This table holds all the enhancements in the games we encounter</t>
   </si>
   <si>
-    <t>release_system_compatibility</t>
-  </si>
-  <si>
     <t>Crosstable between the release, the system and the incompatibility tables</t>
   </si>
   <si>
-    <t>release_resolution</t>
-  </si>
-  <si>
     <t>Crosstable between the release and the resolution table</t>
   </si>
   <si>
@@ -433,9 +415,6 @@
     <t>replaced by game_genre_cross</t>
   </si>
   <si>
-    <t>release_location</t>
-  </si>
-  <si>
     <t>Crosstable between the release and the location table</t>
   </si>
   <si>
@@ -445,9 +424,6 @@
     <t>Table holding countries (UK, France, US, ...) + regions (Europe, Asia, ...)</t>
   </si>
   <si>
-    <t>release_memory_enhanced</t>
-  </si>
-  <si>
     <t>Crosstable between the release, the memory and the enhancement tables</t>
   </si>
   <si>
@@ -457,9 +433,6 @@
     <t>Table holding the RAM amounts (512, 1024, 2048, 4096)</t>
   </si>
   <si>
-    <t>tos_version_incompatibility_release</t>
-  </si>
-  <si>
     <t>Crosstable between the release, the tos version and the incompatibility tables</t>
   </si>
   <si>
@@ -521,6 +494,51 @@
   </si>
   <si>
     <t>game_unreleased</t>
+  </si>
+  <si>
+    <t>game_release_distributor</t>
+  </si>
+  <si>
+    <t>Crosstable between the distributor and the game_release table</t>
+  </si>
+  <si>
+    <t>game_release_individual</t>
+  </si>
+  <si>
+    <t>game_release_emulator_incompatibility</t>
+  </si>
+  <si>
+    <t>game_release_system_enhanced</t>
+  </si>
+  <si>
+    <t>game_release_system_compatibility</t>
+  </si>
+  <si>
+    <t>game_release_resolution</t>
+  </si>
+  <si>
+    <t>game_release_location</t>
+  </si>
+  <si>
+    <t>game_release_memory_enhanced</t>
+  </si>
+  <si>
+    <t>game_release_music</t>
+  </si>
+  <si>
+    <t>The cross table between the game_release and the music structure</t>
+  </si>
+  <si>
+    <t>Cross between game and music - replaced by game_release_music</t>
+  </si>
+  <si>
+    <t>game_release_tos_version_incompatibility</t>
+  </si>
+  <si>
+    <t>game_release_tos_region_incompatibility</t>
+  </si>
+  <si>
+    <t>Crosstable between the release, the tos version, location and the incompatibility tables</t>
   </si>
 </sst>
 </file>
@@ -1115,14 +1133,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="78.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="40.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="9.7109375" style="17" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="18" customWidth="1"/>
     <col min="5" max="5" width="58.85546875" style="18" customWidth="1"/>
@@ -1229,7 +1249,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C5" s="48" t="s">
         <v>7</v>
@@ -1249,7 +1269,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="25"/>
@@ -1267,7 +1287,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C7" s="48" t="s">
         <v>7</v>
@@ -1287,7 +1307,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="25"/>
@@ -1305,7 +1325,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C9" s="48" t="s">
         <v>7</v>
@@ -1325,7 +1345,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="25"/>
@@ -1423,25 +1443,31 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="45" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="36" t="s">
-        <v>12</v>
+      <c r="B16" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="12"/>
+      <c r="H16" s="46" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>7</v>
@@ -1452,10 +1478,10 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="43" t="s">
         <v>39</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>40</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="10"/>
@@ -1470,10 +1496,10 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>7</v>
@@ -1490,10 +1516,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="43" t="s">
         <v>42</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>43</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
@@ -1508,10 +1534,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>7</v>
@@ -1528,10 +1554,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="43" t="s">
         <v>48</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>49</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
@@ -1546,10 +1572,10 @@
     </row>
     <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="10"/>
@@ -1562,12 +1588,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="10"/>
@@ -1580,12 +1606,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
@@ -1600,10 +1626,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B26" s="43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="10"/>
@@ -1613,15 +1639,15 @@
         <v>7</v>
       </c>
       <c r="H26" s="51" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
@@ -1636,10 +1662,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B28" s="43" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
@@ -1654,10 +1680,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
@@ -1667,15 +1693,15 @@
         <v>7</v>
       </c>
       <c r="H29" s="51" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="10"/>
@@ -1690,10 +1716,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="10"/>
@@ -1708,10 +1734,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B32" s="43" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="10"/>
@@ -1726,10 +1752,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="43" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="10"/>
@@ -1744,10 +1770,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="43" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B34" s="43" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="10"/>
@@ -1762,10 +1788,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="43" t="s">
-        <v>80</v>
+        <v>105</v>
       </c>
       <c r="B35" s="43" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="10"/>
@@ -1780,10 +1806,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="43" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="10"/>
@@ -1796,12 +1822,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="43" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="10"/>
@@ -1814,81 +1840,81 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G38" s="13"/>
-      <c r="H38" s="36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="B40" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12" t="s">
-        <v>13</v>
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="H38" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="H39" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="H40" s="28" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="B41" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" s="6"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12" t="s">
-        <v>13</v>
+      <c r="A41" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="13"/>
+      <c r="H41" s="36" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="45" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B42" s="45" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C42" s="6"/>
       <c r="D42" s="7"/>
@@ -1903,10 +1929,10 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="45" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="B43" s="45" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C43" s="6"/>
       <c r="D43" s="7"/>
@@ -1921,10 +1947,10 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="45" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B44" s="45" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="7"/>
@@ -1939,10 +1965,10 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="45" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B45" s="45" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C45" s="6"/>
       <c r="D45" s="7"/>
@@ -1957,10 +1983,10 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="45" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B46" s="45" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C46" s="6"/>
       <c r="D46" s="7"/>
@@ -1975,10 +2001,10 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="45" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B47" s="45" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C47" s="6"/>
       <c r="D47" s="7"/>
@@ -1993,10 +2019,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="45" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B48" s="45" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="7"/>
@@ -2011,10 +2037,10 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="45" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B49" s="45" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="7"/>
@@ -2029,10 +2055,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="45" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B50" s="45" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="7"/>
@@ -2047,10 +2073,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="45" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B51" s="45" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="7"/>
@@ -2065,10 +2091,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="45" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B52" s="45" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="7"/>
@@ -2078,6 +2104,60 @@
       </c>
       <c r="G52" s="12"/>
       <c r="H52" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B53" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="6"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Technical documentation/AL table analysis.xlsx
+++ b/Technical documentation/AL table analysis.xlsx
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="124">
   <si>
     <t>Table name</t>
   </si>
@@ -535,10 +535,46 @@
     <t>game_release_tos_version_incompatibility</t>
   </si>
   <si>
-    <t>game_release_tos_region_incompatibility</t>
-  </si>
-  <si>
-    <t>Crosstable between the release, the tos version, location and the incompatibility tables</t>
+    <t>game_release_copy_protection</t>
+  </si>
+  <si>
+    <t>The cross table between the copy_protection table and the game release table</t>
+  </si>
+  <si>
+    <t>copy_protection</t>
+  </si>
+  <si>
+    <t>table containing all types of copy protection (word in manual, wheel...)</t>
+  </si>
+  <si>
+    <t>game_release_disk_protection</t>
+  </si>
+  <si>
+    <t>The cross table between the disk_protection table and the game release table</t>
+  </si>
+  <si>
+    <t>disk_protection</t>
+  </si>
+  <si>
+    <t>table containing all types of disk protection</t>
+  </si>
+  <si>
+    <t>game_engine</t>
+  </si>
+  <si>
+    <t>the cross between the game and the engine tabel</t>
+  </si>
+  <si>
+    <t>engine</t>
+  </si>
+  <si>
+    <t>The engine table</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>From which system is this game ported (C64, Amiga, Arcade)</t>
   </si>
 </sst>
 </file>
@@ -1133,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="G46" sqref="G46:H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1570,7 +1606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
         <v>99</v>
       </c>
@@ -1840,12 +1876,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="B38" s="43" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="10"/>
@@ -1860,10 +1896,10 @@
     </row>
     <row r="39" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="43" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="B39" s="43" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="10"/>
@@ -1878,10 +1914,10 @@
     </row>
     <row r="40" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="43" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B40" s="43" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="10"/>
@@ -1894,135 +1930,135 @@
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+    <row r="41" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="43" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="H42" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="H43" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="H44" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="H45" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="H46" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B47" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="G41" s="13"/>
-      <c r="H41" s="36" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="B42" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="6"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="B45" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="B46" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="F46" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="B47" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="C47" s="6"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12" t="s">
-        <v>13</v>
+      <c r="C47" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="13"/>
+      <c r="H47" s="36" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="45" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="B48" s="45" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="7"/>
@@ -2037,10 +2073,10 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="45" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B49" s="45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="7"/>
@@ -2055,7 +2091,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="45" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B50" s="45" t="s">
         <v>84</v>
@@ -2073,10 +2109,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="45" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B51" s="45" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="7"/>
@@ -2091,7 +2127,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="45" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B52" s="45" t="s">
         <v>84</v>
@@ -2109,7 +2145,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="45" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B53" s="45" t="s">
         <v>84</v>
@@ -2127,7 +2163,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="45" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B54" s="45" t="s">
         <v>84</v>
@@ -2145,7 +2181,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="45" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B55" s="45" t="s">
         <v>84</v>
@@ -2158,6 +2194,114 @@
       </c>
       <c r="G55" s="12"/>
       <c r="H55" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="6"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57" s="6"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="45" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="B59" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B60" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" s="6"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12" t="s">
         <v>13</v>
       </c>
     </row>

--- a/Technical documentation/AL table analysis.xlsx
+++ b/Technical documentation/AL table analysis.xlsx
@@ -203,7 +203,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="146">
   <si>
     <t>Table name</t>
   </si>
@@ -575,6 +575,72 @@
   </si>
   <si>
     <t>From which system is this game ported (C64, Amiga, Arcade)</t>
+  </si>
+  <si>
+    <t>media</t>
+  </si>
+  <si>
+    <t>This table contains the media of a release.  A release can have multiple media, for example games spread across multiple disks, or games with SS and DS disks. A media has a type like Floppy SS, Floppy DS, Cartridge, Digital...</t>
+  </si>
+  <si>
+    <t>dumps.mwb</t>
+  </si>
+  <si>
+    <t>media_scan</t>
+  </si>
+  <si>
+    <t>This table contains the artwork of the game. A media can have multiple scan images (e.g. front of the floppy, back, goodies...)</t>
+  </si>
+  <si>
+    <t>dump</t>
+  </si>
+  <si>
+    <t>Table containing the actual dump/download of a media. A media can have multiple dumps, for example a Pasti one and a MSA one .</t>
+  </si>
+  <si>
+    <t>game_release_trainer_options</t>
+  </si>
+  <si>
+    <t>Cross between release table and trainer options - this one replaces the game_download_trainer table</t>
+  </si>
+  <si>
+    <t>game_download_trainer</t>
+  </si>
+  <si>
+    <t>replaced by game_release_trainer_options</t>
+  </si>
+  <si>
+    <t>downloads_game.mwb</t>
+  </si>
+  <si>
+    <t>trainer_options</t>
+  </si>
+  <si>
+    <t>table containing all types of trainers</t>
+  </si>
+  <si>
+    <t>game_release_cracktro</t>
+  </si>
+  <si>
+    <t>Cross table between the release and the cracktro table - this table replaces the game_download_intro table</t>
+  </si>
+  <si>
+    <t>game_download_intro</t>
+  </si>
+  <si>
+    <t>This table is replaced by the game_release_cracktro table</t>
+  </si>
+  <si>
+    <t>dump_info</t>
+  </si>
+  <si>
+    <t>Contains extra info about the dump. Its size, who downloaded it, how many times it is downloaded...This table replaces game_download_info</t>
+  </si>
+  <si>
+    <t>game_download_info</t>
+  </si>
+  <si>
+    <t>This table is replaced by the dump_info table</t>
   </si>
 </sst>
 </file>
@@ -1169,10 +1235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46:H46"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,7 +1250,7 @@
     <col min="5" max="5" width="58.85546875" style="18" customWidth="1"/>
     <col min="6" max="6" width="7" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="5"/>
-    <col min="8" max="8" width="16.42578125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2303,6 +2369,182 @@
       <c r="G61" s="12"/>
       <c r="H61" s="12" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="H62" s="44" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="H63" s="44" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="9"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="H64" s="44" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="9"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="H65" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C67" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H67" s="36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="B68" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" s="9"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="H68" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="B69" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="B70" s="43" t="s">
+        <v>143</v>
+      </c>
+      <c r="C70" s="9"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="H70" s="44" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="B71" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" s="6"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/Technical documentation/AL table analysis.xlsx
+++ b/Technical documentation/AL table analysis.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Table overview" sheetId="1" r:id="rId1"/>
+    <sheet name="Game structure" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -202,8 +203,43 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Martens Maarten</author>
+  </authors>
+  <commentList>
+    <comment ref="C53" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martens Maarten:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra info on some of the fields of the table
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="169">
   <si>
     <t>Table name</t>
   </si>
@@ -641,6 +677,75 @@
   </si>
   <si>
     <t>This table is replaced by the dump_info table</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">game </t>
+  </si>
+  <si>
+    <t>Fields</t>
+  </si>
+  <si>
+    <t>A game is a port from a single origin system (The system the game appeared on first)</t>
+  </si>
+  <si>
+    <t>Explanation</t>
+  </si>
+  <si>
+    <t>Extra</t>
+  </si>
+  <si>
+    <t>Is the game a port (from an Arcade or another system)</t>
+  </si>
+  <si>
+    <t>port_id</t>
+  </si>
+  <si>
+    <t>game_series_id</t>
+  </si>
+  <si>
+    <t>A game is part of a single series</t>
+  </si>
+  <si>
+    <t>eg. Turrican, Ultima, ...</t>
+  </si>
+  <si>
+    <t>This is the main game table which everything will be connected with</t>
+  </si>
+  <si>
+    <t>The table which holds all programming languages. Eg C, STOS, ASM, GFA...A game can be a mix of STOS + ASM</t>
+  </si>
+  <si>
+    <t>Port</t>
+  </si>
+  <si>
+    <t>This is the cross table between the game and its creators/individuals. This table also contains the link to the author_type table (programmer, graphics artist, Musician ...)</t>
+  </si>
+  <si>
+    <t>What engine was the game built with eg. STOS, STAC, SEUCK ... A game can only be build with 1 engine</t>
+  </si>
+  <si>
+    <t>game_similar_cross</t>
+  </si>
+  <si>
+    <t>contains a game_id</t>
+  </si>
+  <si>
+    <t>This is the cross table between the game and its genre, A game can be part of multiple genres,</t>
+  </si>
+  <si>
+    <t>The table which holds all the genres eg. Action, platformer, adventure</t>
+  </si>
+  <si>
+    <t>nr_of_players</t>
+  </si>
+  <si>
+    <t>How many players can play the game together</t>
+  </si>
+  <si>
+    <t>A game has a single count of maximum players</t>
   </si>
 </sst>
 </file>
@@ -683,7 +788,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -708,8 +813,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -798,11 +915,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -953,6 +1090,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -970,6 +1125,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2438399</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>71078</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13477874" cy="9596078"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1237,9 +1441,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1251,6 +1453,7 @@
     <col min="6" max="6" width="7" style="19" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="5"/>
     <col min="8" max="8" width="23.85546875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="2.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2552,4 +2755,235 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A53:E69"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="77.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="B53" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="53" t="s">
+        <v>148</v>
+      </c>
+      <c r="D53" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="E53" s="53" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C54" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54" t="s">
+        <v>152</v>
+      </c>
+      <c r="E54" s="58" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="58"/>
+      <c r="C55" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="D55" t="s">
+        <v>167</v>
+      </c>
+      <c r="E55" s="58" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="59"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="59" t="s">
+        <v>154</v>
+      </c>
+      <c r="D56" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="E56" s="59" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="60"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="60"/>
+    </row>
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B58" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="C58" s="60"/>
+      <c r="D58" s="56"/>
+      <c r="E58" s="60"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="60" t="s">
+        <v>159</v>
+      </c>
+      <c r="B59" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" s="60"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="60"/>
+    </row>
+    <row r="60" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" s="60"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="60"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" s="57" t="s">
+        <v>119</v>
+      </c>
+      <c r="C61" s="61"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="61"/>
+    </row>
+    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="C62" s="61"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="61"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63" s="57" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" s="61"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="61"/>
+    </row>
+    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="C64" s="61"/>
+      <c r="D64" s="57"/>
+      <c r="E64" s="61"/>
+    </row>
+    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="61" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="61"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="61"/>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="B66" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C66" s="61" t="s">
+        <v>162</v>
+      </c>
+      <c r="D66" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="E66" s="61"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="C67" s="61"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="61"/>
+    </row>
+    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B68" s="57" t="s">
+        <v>164</v>
+      </c>
+      <c r="C68" s="61"/>
+      <c r="D68" s="57"/>
+      <c r="E68" s="61"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="C69" s="61"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="61"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/Technical documentation/AL table analysis.xlsx
+++ b/Technical documentation/AL table analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table overview" sheetId="1" r:id="rId1"/>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="207">
   <si>
     <t>Table name</t>
   </si>
@@ -746,6 +746,120 @@
   </si>
   <si>
     <t>A game has a single count of maximum players</t>
+  </si>
+  <si>
+    <t>memory_minimum</t>
+  </si>
+  <si>
+    <t>hd_installable</t>
+  </si>
+  <si>
+    <t>license</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Minimum RAM to run the game (eg. 512, 1024, 2048, 4096)</t>
+  </si>
+  <si>
+    <t>A release has a single minimum required RAM amount</t>
+  </si>
+  <si>
+    <t>What disk protection system is used</t>
+  </si>
+  <si>
+    <t>A release disk is protected by a single copy protection system</t>
+  </si>
+  <si>
+    <t>Is the release HD installable</t>
+  </si>
+  <si>
+    <t>A release is either HD installable or not</t>
+  </si>
+  <si>
+    <t>License of the release eg. Commercial, Shareware, Open Source</t>
+  </si>
+  <si>
+    <t>A release has a single license</t>
+  </si>
+  <si>
+    <t>Date of the release</t>
+  </si>
+  <si>
+    <t>A release has a single release date</t>
+  </si>
+  <si>
+    <t>Status of the release (unfinished, unreleased, in development)</t>
+  </si>
+  <si>
+    <t>*only* if it differs from the main game title (e.g. because it is translated)</t>
+  </si>
+  <si>
+    <t>Title of the release</t>
+  </si>
+  <si>
+    <t>game_release_language</t>
+  </si>
+  <si>
+    <t>The language table</t>
+  </si>
+  <si>
+    <t>eg. English</t>
+  </si>
+  <si>
+    <t>language_short</t>
+  </si>
+  <si>
+    <t>eg. EN</t>
+  </si>
+  <si>
+    <t>Cross table between the release and the cracktro table</t>
+  </si>
+  <si>
+    <t>This is the cross table between the release and its creators/individuals. This table also contains the link to the author_type table (programmer, graphics artist, Musician ...). Individuals involved in modifying this release from the original code, or adding music, ...</t>
+  </si>
+  <si>
+    <t>Crosstable between the distributor and the game_release table. A release has a single publisher (but there may be multiple releases of the game with different publishers).</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the cross table between a release and the language table. A release may have multiple languages.</t>
+  </si>
+  <si>
+    <t>This is the cross table between the release table, emulator table and the incompatibility table. Which emulators the release is NOT compatible with. A release may be incompatible with multiple emulators.</t>
+  </si>
+  <si>
+    <t>Crosstable between the release, the system and the enhancement tables. Platforms the release is enhanced for. A release can be enhanced for STe, and further enhanced for Falcon.</t>
+  </si>
+  <si>
+    <t>Crosstable between the release, the system and the incompatibility tables. Minimum platforms that can run the release. A release can run both on ST + STe, without enhancements</t>
+  </si>
+  <si>
+    <t>Crosstable between the release and the resolution table. A release may support multiple resolutions.</t>
+  </si>
+  <si>
+    <t>Crosstable between the release and the location table. Region or Country the release was done. A release may be released to multiple countries (FR, UK) or regions (Europe, Asia).</t>
+  </si>
+  <si>
+    <t>Crosstable between the release, the memory and the enhancement tables. Enhancements provided by additional memory. A release may be enhanced for 1MB, further enhanced for 2MB.</t>
+  </si>
+  <si>
+    <t>The cross table between the copy_protection table and the game release table. What disk protection system is used? A release can be protected by multiple copy protection systems</t>
+  </si>
+  <si>
+    <t>Crosstable between the release, the tos version and the incompatibility tables.Which version of TOS the release is NOT compatible with. A release may be incompatible with multiple TOS versions.</t>
+  </si>
+  <si>
+    <t>Table holding all the tos versions (1.0, 1.02, 1.04, 1.06, 1.62, 2.02, 2.05, 2.06, 2.07, 2.08, 3.01, 3.05, 3.06, 4.00, 4.01, 4.02, 4.04, 4.92, 4.98)</t>
+  </si>
+  <si>
+    <t>The cross table between the disk_protection table and the game release table. What disk protection system is used?</t>
   </si>
 </sst>
 </file>
@@ -939,7 +1053,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1092,7 +1206,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1100,7 +1213,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1109,6 +1221,28 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1138,13 +1272,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>2438399</xdr:colOff>
+      <xdr:colOff>1714499</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>71078</xdr:rowOff>
+      <xdr:rowOff>179585</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1164,7 +1298,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13477874" cy="9596078"/>
+          <a:ext cx="13630274" cy="9704585"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1441,7 +1575,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2759,226 +2895,604 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A53:E69"/>
+  <dimension ref="A53:E102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" style="67" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="69.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="49" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="77.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="53" t="s">
+      <c r="A53" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="B53" s="54" t="s">
+      <c r="B53" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="53" t="s">
+      <c r="C53" s="52" t="s">
         <v>148</v>
       </c>
       <c r="D53" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="E53" s="53" t="s">
+      <c r="E53" s="52" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="58" t="s">
+    <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="64" t="s">
         <v>147</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C54" s="58" t="s">
+      <c r="C54" s="56" t="s">
         <v>153</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E54" s="58" t="s">
+      <c r="E54" s="56" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="58"/>
-      <c r="C55" s="58" t="s">
+      <c r="A55" s="64"/>
+      <c r="C55" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="E55" s="58" t="s">
+      <c r="E55" s="56" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="59"/>
-      <c r="B56" s="55"/>
-      <c r="C56" s="59" t="s">
+      <c r="A56" s="65"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="D56" s="52" t="s">
+      <c r="D56" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="E56" s="59" t="s">
+      <c r="E56" s="57" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="60" t="s">
+      <c r="A57" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="57" t="s">
+      <c r="B57" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="60"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="60"/>
+      <c r="C57" s="58"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="58"/>
     </row>
     <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="60" t="s">
+      <c r="A58" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="B58" s="57" t="s">
+      <c r="B58" s="55" t="s">
         <v>158</v>
       </c>
-      <c r="C58" s="60"/>
-      <c r="D58" s="56"/>
-      <c r="E58" s="60"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="55"/>
+      <c r="E58" s="58"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="60" t="s">
+      <c r="A59" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="B59" s="57" t="s">
+      <c r="B59" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="C59" s="60"/>
-      <c r="D59" s="56"/>
-      <c r="E59" s="60"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="58"/>
     </row>
     <row r="60" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A60" s="60" t="s">
+      <c r="A60" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B60" s="57" t="s">
+      <c r="B60" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="C60" s="60"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="60"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="58"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="61" t="s">
+      <c r="A61" s="66" t="s">
         <v>118</v>
       </c>
-      <c r="B61" s="57" t="s">
+      <c r="B61" s="55" t="s">
         <v>119</v>
       </c>
-      <c r="C61" s="61"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="61"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="59"/>
     </row>
     <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="61" t="s">
+      <c r="A62" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="57" t="s">
+      <c r="B62" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="C62" s="61"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="61"/>
+      <c r="C62" s="59"/>
+      <c r="D62" s="55"/>
+      <c r="E62" s="59"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="61" t="s">
+      <c r="A63" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B63" s="57" t="s">
+      <c r="B63" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="C63" s="61"/>
-      <c r="D63" s="57"/>
-      <c r="E63" s="61"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="59"/>
     </row>
     <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="61" t="s">
+      <c r="A64" s="66" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="57" t="s">
+      <c r="B64" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C64" s="61"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="61"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="55"/>
+      <c r="E64" s="59"/>
     </row>
     <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="61" t="s">
+      <c r="A65" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="B65" s="57" t="s">
+      <c r="B65" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C65" s="61"/>
-      <c r="D65" s="57"/>
-      <c r="E65" s="61"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="59"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="61" t="s">
+      <c r="A66" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B66" s="57" t="s">
+      <c r="B66" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C66" s="61" t="s">
+      <c r="C66" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="D66" s="57" t="s">
+      <c r="D66" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="E66" s="61"/>
+      <c r="E66" s="59"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="61" t="s">
+      <c r="A67" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B67" s="57" t="s">
+      <c r="B67" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="C67" s="61"/>
-      <c r="D67" s="57"/>
-      <c r="E67" s="61"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="59"/>
     </row>
     <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="61" t="s">
+      <c r="A68" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="B68" s="57" t="s">
+      <c r="B68" s="55" t="s">
         <v>164</v>
       </c>
-      <c r="C68" s="61"/>
-      <c r="D68" s="57"/>
-      <c r="E68" s="61"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="55"/>
+      <c r="E68" s="59"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="61" t="s">
+      <c r="A69" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="B69" s="57" t="s">
+      <c r="B69" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="C69" s="61"/>
-      <c r="D69" s="57"/>
-      <c r="E69" s="61"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="59"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="B70" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="C70" s="60" t="s">
+        <v>174</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E70" s="56" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="64"/>
+      <c r="C71" s="56" t="s">
+        <v>169</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="E71" s="56" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="64"/>
+      <c r="C72" s="56" t="s">
+        <v>116</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E72" s="56" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="64"/>
+      <c r="C73" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E73" s="56" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="64"/>
+      <c r="C74" s="56" t="s">
+        <v>171</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="E74" s="56" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="64"/>
+      <c r="C75" s="56" t="s">
+        <v>172</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E75" s="56" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="65"/>
+      <c r="B76" s="54"/>
+      <c r="C76" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="D76" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="E76" s="57"/>
+    </row>
+    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="65" t="s">
+        <v>188</v>
+      </c>
+      <c r="B77" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="C77" s="57"/>
+      <c r="D77" s="54"/>
+      <c r="E77" s="57"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="B78" s="61" t="s">
+        <v>189</v>
+      </c>
+      <c r="C78" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="E78" s="56"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="65"/>
+      <c r="B79" s="54"/>
+      <c r="C79" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="D79" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="E79" s="57"/>
+    </row>
+    <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="65" t="s">
+        <v>97</v>
+      </c>
+      <c r="B80" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="C80" s="57"/>
+      <c r="D80" s="54"/>
+      <c r="E80" s="57"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="65" t="s">
+        <v>138</v>
+      </c>
+      <c r="B81" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="C81" s="57"/>
+      <c r="D81" s="54"/>
+      <c r="E81" s="57"/>
+    </row>
+    <row r="82" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A82" s="65" t="s">
+        <v>99</v>
+      </c>
+      <c r="B82" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="C82" s="57"/>
+      <c r="D82" s="54"/>
+      <c r="E82" s="57"/>
+    </row>
+    <row r="83" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="65" t="s">
+        <v>100</v>
+      </c>
+      <c r="B83" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="C83" s="57"/>
+      <c r="D83" s="54"/>
+      <c r="E83" s="57"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="B84" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C84" s="57"/>
+      <c r="D84" s="54"/>
+      <c r="E84" s="57"/>
+    </row>
+    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="B85" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="C85" s="57"/>
+      <c r="D85" s="54"/>
+      <c r="E85" s="57"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="B86" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="C86" s="57"/>
+      <c r="D86" s="54"/>
+      <c r="E86" s="57"/>
+    </row>
+    <row r="87" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A87" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="B87" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="C87" s="57"/>
+      <c r="D87" s="54"/>
+      <c r="E87" s="57"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="B88" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C88" s="57"/>
+      <c r="D88" s="54"/>
+      <c r="E88" s="57"/>
+    </row>
+    <row r="89" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="B89" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="C89" s="57"/>
+      <c r="D89" s="54"/>
+      <c r="E89" s="57"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="65" t="s">
+        <v>106</v>
+      </c>
+      <c r="B90" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="C90" s="57"/>
+      <c r="D90" s="54"/>
+      <c r="E90" s="57"/>
+    </row>
+    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A91" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="B91" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="C91" s="57"/>
+      <c r="D91" s="54"/>
+      <c r="E91" s="57"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="B92" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C92" s="57"/>
+      <c r="D92" s="54"/>
+      <c r="E92" s="57"/>
+    </row>
+    <row r="93" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A93" s="65" t="s">
+        <v>104</v>
+      </c>
+      <c r="B93" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="C93" s="57"/>
+      <c r="D93" s="54"/>
+      <c r="E93" s="57"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B94" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="C94" s="57"/>
+      <c r="D94" s="54"/>
+      <c r="E94" s="57"/>
+    </row>
+    <row r="95" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A95" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="B95" s="54" t="s">
+        <v>202</v>
+      </c>
+      <c r="C95" s="57"/>
+      <c r="D95" s="54"/>
+      <c r="E95" s="57"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="B96" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C96" s="57"/>
+      <c r="D96" s="54"/>
+      <c r="E96" s="57"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="B97" s="54" t="s">
+        <v>113</v>
+      </c>
+      <c r="C97" s="57"/>
+      <c r="D97" s="54"/>
+      <c r="E97" s="57"/>
+    </row>
+    <row r="98" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="B98" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="C98" s="57"/>
+      <c r="D98" s="54"/>
+      <c r="E98" s="57"/>
+    </row>
+    <row r="99" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A99" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="B99" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="C99" s="57"/>
+      <c r="D99" s="54"/>
+      <c r="E99" s="57"/>
+    </row>
+    <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="B100" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="C100" s="57"/>
+      <c r="D100" s="54"/>
+      <c r="E100" s="57"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="65" t="s">
+        <v>116</v>
+      </c>
+      <c r="B101" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C101" s="57"/>
+      <c r="D101" s="54"/>
+      <c r="E101" s="57"/>
+    </row>
+    <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="B102" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="C102" s="57"/>
+      <c r="D102" s="54"/>
+      <c r="E102" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Technical documentation/AL table analysis.xlsx
+++ b/Technical documentation/AL table analysis.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Table overview" sheetId="1" r:id="rId1"/>
     <sheet name="Game structure" sheetId="2" r:id="rId2"/>
+    <sheet name="Dump Structure" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -238,8 +239,43 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Martens Maarten</author>
+  </authors>
+  <commentList>
+    <comment ref="C38" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martens Maarten:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra info on some of the fields of the table
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="218">
   <si>
     <t>Table name</t>
   </si>
@@ -364,9 +400,6 @@
     <t>lingo_game</t>
   </si>
   <si>
-    <t>release_language</t>
-  </si>
-  <si>
     <t xml:space="preserve"> the cross table between a release and the language table</t>
   </si>
   <si>
@@ -670,9 +703,6 @@
     <t>dump_info</t>
   </si>
   <si>
-    <t>Contains extra info about the dump. Its size, who downloaded it, how many times it is downloaded...This table replaces game_download_info</t>
-  </si>
-  <si>
     <t>game_download_info</t>
   </si>
   <si>
@@ -718,9 +748,6 @@
     <t>The table which holds all programming languages. Eg C, STOS, ASM, GFA...A game can be a mix of STOS + ASM</t>
   </si>
   <si>
-    <t>Port</t>
-  </si>
-  <si>
     <t>This is the cross table between the game and its creators/individuals. This table also contains the link to the author_type table (programmer, graphics artist, Musician ...)</t>
   </si>
   <si>
@@ -860,6 +887,50 @@
   </si>
   <si>
     <t>The cross table between the disk_protection table and the game release table. What disk protection system is used?</t>
+  </si>
+  <si>
+    <t>The cross table between a release and the language table</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>Field to add  bugs and other info regarding the release</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>A media has a type like Floppy SS, Floppy DS, Cartridge, Digital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- A release can have multiple media, for example games spread across multiple disks, or games with SS and DS disks
+- A media can have multiple scan images (e.g. front of the floppy, back)
+- A media can have multiple dumps, for example a STX (Pasti), MSA (Magic Shadow Archiver) , RAW (Kryoflux), SCP (SuperCard Pro) </t>
+  </si>
+  <si>
+    <t>imgext</t>
+  </si>
+  <si>
+    <t>Front of the floppy, back, goodies...</t>
+  </si>
+  <si>
+    <t>Extension of the image</t>
+  </si>
+  <si>
+    <t>format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STX (Pasti), MSA (Magic Shadow Archiver) , RAW (Kryoflux), SCP (SuperCard Pro) </t>
+  </si>
+  <si>
+    <t>extra info regarding the dump, bugs ...</t>
+  </si>
+  <si>
+    <t>dump_user_info</t>
+  </si>
+  <si>
+    <t>Extra info regarding who downloaded the dump and when</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1243,6 +1314,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1272,13 +1373,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1714499</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>179585</xdr:rowOff>
+      <xdr:colOff>1078491</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1298,7 +1399,56 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13630274" cy="9704585"/>
+          <a:ext cx="13699116" cy="9753600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="7467600" cy="6886575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1575,8 +1725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1690,7 +1840,7 @@
         <v>19</v>
       </c>
       <c r="B5" s="49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="48" t="s">
         <v>7</v>
@@ -1710,7 +1860,7 @@
         <v>20</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="25"/>
@@ -1728,7 +1878,7 @@
         <v>23</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="48" t="s">
         <v>7</v>
@@ -1748,7 +1898,7 @@
         <v>22</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C8" s="26"/>
       <c r="D8" s="25"/>
@@ -1766,7 +1916,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="48" t="s">
         <v>7</v>
@@ -1786,7 +1936,7 @@
         <v>24</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="25"/>
@@ -1888,7 +2038,7 @@
         <v>35</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>7</v>
@@ -1940,7 +2090,7 @@
         <v>40</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>7</v>
@@ -1957,10 +2107,10 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" s="43" t="s">
         <v>41</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>42</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="10"/>
@@ -1975,10 +2125,10 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>7</v>
@@ -1995,10 +2145,10 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="43" t="s">
         <v>47</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>48</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="10"/>
@@ -2013,10 +2163,10 @@
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="10"/>
@@ -2031,10 +2181,10 @@
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="10"/>
@@ -2049,10 +2199,10 @@
     </row>
     <row r="25" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="43" t="s">
         <v>51</v>
-      </c>
-      <c r="B25" s="43" t="s">
-        <v>52</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="10"/>
@@ -2067,10 +2217,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="43" t="s">
         <v>53</v>
-      </c>
-      <c r="B26" s="43" t="s">
-        <v>54</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="10"/>
@@ -2080,15 +2230,15 @@
         <v>7</v>
       </c>
       <c r="H26" s="51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="10"/>
@@ -2103,10 +2253,10 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="43" t="s">
         <v>57</v>
-      </c>
-      <c r="B28" s="43" t="s">
-        <v>58</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
@@ -2121,10 +2271,10 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B29" s="43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="10"/>
@@ -2134,15 +2284,15 @@
         <v>7</v>
       </c>
       <c r="H29" s="51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B30" s="43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="10"/>
@@ -2157,10 +2307,10 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B31" s="43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="10"/>
@@ -2175,10 +2325,10 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="43" t="s">
         <v>62</v>
-      </c>
-      <c r="B32" s="43" t="s">
-        <v>63</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="10"/>
@@ -2193,10 +2343,10 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B33" s="43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="10"/>
@@ -2211,10 +2361,10 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="43" t="s">
         <v>71</v>
-      </c>
-      <c r="B34" s="43" t="s">
-        <v>72</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="10"/>
@@ -2229,10 +2379,10 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="43" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B35" s="43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="10"/>
@@ -2247,10 +2397,10 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="43" t="s">
         <v>74</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>75</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="10"/>
@@ -2265,10 +2415,10 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B37" s="43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="10"/>
@@ -2283,10 +2433,10 @@
     </row>
     <row r="38" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="43" t="s">
         <v>97</v>
-      </c>
-      <c r="B38" s="43" t="s">
-        <v>98</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="10"/>
@@ -2301,10 +2451,10 @@
     </row>
     <row r="39" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" s="43" t="s">
         <v>106</v>
-      </c>
-      <c r="B39" s="43" t="s">
-        <v>107</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="10"/>
@@ -2319,10 +2469,10 @@
     </row>
     <row r="40" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="43" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" s="43" t="s">
         <v>112</v>
-      </c>
-      <c r="B40" s="43" t="s">
-        <v>113</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="10"/>
@@ -2337,10 +2487,10 @@
     </row>
     <row r="41" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" s="43" t="s">
         <v>110</v>
-      </c>
-      <c r="B41" s="43" t="s">
-        <v>111</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="10"/>
@@ -2355,10 +2505,10 @@
     </row>
     <row r="42" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" s="43" t="s">
         <v>116</v>
-      </c>
-      <c r="B42" s="43" t="s">
-        <v>117</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="10"/>
@@ -2373,10 +2523,10 @@
     </row>
     <row r="43" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="43" t="s">
         <v>114</v>
-      </c>
-      <c r="B43" s="43" t="s">
-        <v>115</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="10"/>
@@ -2391,10 +2541,10 @@
     </row>
     <row r="44" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" s="43" t="s">
         <v>118</v>
-      </c>
-      <c r="B44" s="43" t="s">
-        <v>119</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="10"/>
@@ -2409,10 +2559,10 @@
     </row>
     <row r="45" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="B45" s="43" t="s">
         <v>120</v>
-      </c>
-      <c r="B45" s="43" t="s">
-        <v>121</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="10"/>
@@ -2427,10 +2577,10 @@
     </row>
     <row r="46" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" s="43" t="s">
         <v>122</v>
-      </c>
-      <c r="B46" s="43" t="s">
-        <v>123</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="10"/>
@@ -2445,10 +2595,10 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="C47" s="17" t="s">
         <v>7</v>
@@ -2460,10 +2610,10 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B48" s="45" t="s">
         <v>79</v>
-      </c>
-      <c r="B48" s="45" t="s">
-        <v>80</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="7"/>
@@ -2478,10 +2628,10 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="45" t="s">
         <v>81</v>
-      </c>
-      <c r="B49" s="45" t="s">
-        <v>82</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="7"/>
@@ -2496,10 +2646,10 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="45" t="s">
         <v>83</v>
-      </c>
-      <c r="B50" s="45" t="s">
-        <v>84</v>
       </c>
       <c r="C50" s="6"/>
       <c r="D50" s="7"/>
@@ -2514,10 +2664,10 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="45" t="s">
         <v>85</v>
-      </c>
-      <c r="B51" s="45" t="s">
-        <v>86</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="7"/>
@@ -2532,10 +2682,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B52" s="45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="7"/>
@@ -2550,10 +2700,10 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B53" s="45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C53" s="6"/>
       <c r="D53" s="7"/>
@@ -2568,10 +2718,10 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B54" s="45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C54" s="6"/>
       <c r="D54" s="7"/>
@@ -2586,10 +2736,10 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="45" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B55" s="45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="7"/>
@@ -2604,10 +2754,10 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B56" s="45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C56" s="6"/>
       <c r="D56" s="7"/>
@@ -2622,10 +2772,10 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B57" s="45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="7"/>
@@ -2640,10 +2790,10 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="45" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B58" s="45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C58" s="6"/>
       <c r="D58" s="7"/>
@@ -2658,10 +2808,10 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B59" s="45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C59" s="6"/>
       <c r="D59" s="7"/>
@@ -2676,10 +2826,10 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="45" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B60" s="45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="7"/>
@@ -2694,10 +2844,10 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B61" s="45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="7"/>
@@ -2712,10 +2862,10 @@
     </row>
     <row r="62" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B62" s="43" t="s">
         <v>124</v>
-      </c>
-      <c r="B62" s="43" t="s">
-        <v>125</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="10"/>
@@ -2725,15 +2875,15 @@
         <v>7</v>
       </c>
       <c r="H62" s="44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" s="43" t="s">
         <v>127</v>
-      </c>
-      <c r="B63" s="43" t="s">
-        <v>128</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="10"/>
@@ -2743,15 +2893,15 @@
         <v>7</v>
       </c>
       <c r="H63" s="44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="43" t="s">
         <v>129</v>
-      </c>
-      <c r="B64" s="43" t="s">
-        <v>130</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="10"/>
@@ -2761,15 +2911,15 @@
         <v>7</v>
       </c>
       <c r="H64" s="44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" s="43" t="s">
         <v>131</v>
-      </c>
-      <c r="B65" s="43" t="s">
-        <v>132</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="10"/>
@@ -2784,10 +2934,10 @@
     </row>
     <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="45" t="s">
         <v>133</v>
-      </c>
-      <c r="B66" s="45" t="s">
-        <v>134</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="7"/>
@@ -2797,15 +2947,15 @@
       </c>
       <c r="G66" s="12"/>
       <c r="H66" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>136</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>137</v>
       </c>
       <c r="C67" s="17" t="s">
         <v>7</v>
@@ -2816,10 +2966,10 @@
     </row>
     <row r="68" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" s="43" t="s">
         <v>138</v>
-      </c>
-      <c r="B68" s="43" t="s">
-        <v>139</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="10"/>
@@ -2834,10 +2984,10 @@
     </row>
     <row r="69" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" s="45" t="s">
         <v>140</v>
-      </c>
-      <c r="B69" s="45" t="s">
-        <v>141</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="7"/>
@@ -2847,15 +2997,15 @@
       </c>
       <c r="G69" s="12"/>
       <c r="H69" s="12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="43" t="s">
-        <v>142</v>
-      </c>
-      <c r="B70" s="43" t="s">
-        <v>143</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="76" t="s">
+        <v>216</v>
+      </c>
+      <c r="B70" s="77" t="s">
+        <v>217</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="10"/>
@@ -2865,15 +3015,15 @@
         <v>7</v>
       </c>
       <c r="H70" s="44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="45" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B71" s="45" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C71" s="6"/>
       <c r="D71" s="7"/>
@@ -2883,7 +3033,7 @@
       </c>
       <c r="G71" s="12"/>
       <c r="H71" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2895,78 +3045,78 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A53:E102"/>
+  <dimension ref="A53:E104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A54" sqref="A54:E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" style="67" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.5703125" style="67" customWidth="1"/>
     <col min="2" max="2" width="69.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="62.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="60.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="77.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="63" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B53" s="53" t="s">
         <v>1</v>
       </c>
       <c r="C53" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" s="53" t="s">
         <v>148</v>
       </c>
-      <c r="D53" s="53" t="s">
-        <v>150</v>
-      </c>
       <c r="E53" s="52" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="64" t="s">
+        <v>145</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E54" s="56" t="s">
         <v>147</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C54" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E54" s="56" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="64"/>
       <c r="C55" s="56" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E55" s="56" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="65"/>
       <c r="B56" s="54"/>
       <c r="C56" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="D56" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="E56" s="57" t="s">
         <v>154</v>
-      </c>
-      <c r="D56" s="54" t="s">
-        <v>155</v>
-      </c>
-      <c r="E56" s="57" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2985,7 +3135,7 @@
         <v>17</v>
       </c>
       <c r="B58" s="55" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C58" s="58"/>
       <c r="D58" s="55"/>
@@ -2993,10 +3143,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="66" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="B59" s="55" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C59" s="58"/>
       <c r="D59" s="55"/>
@@ -3007,7 +3157,7 @@
         <v>24</v>
       </c>
       <c r="B60" s="55" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C60" s="58"/>
       <c r="D60" s="55"/>
@@ -3015,10 +3165,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="B61" s="55" t="s">
         <v>118</v>
-      </c>
-      <c r="B61" s="55" t="s">
-        <v>119</v>
       </c>
       <c r="C61" s="59"/>
       <c r="D61" s="55"/>
@@ -3026,10 +3176,10 @@
     </row>
     <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="66" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B62" s="55" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="55"/>
@@ -3076,10 +3226,10 @@
         <v>28</v>
       </c>
       <c r="C66" s="59" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D66" s="55" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E66" s="59"/>
     </row>
@@ -3099,7 +3249,7 @@
         <v>20</v>
       </c>
       <c r="B68" s="55" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C68" s="59"/>
       <c r="D68" s="55"/>
@@ -3110,7 +3260,7 @@
         <v>22</v>
       </c>
       <c r="B69" s="55" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="55"/>
@@ -3124,305 +3274,304 @@
         <v>39</v>
       </c>
       <c r="C70" s="60" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E70" s="56" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="64"/>
       <c r="C71" s="56" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E71" s="56" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="64"/>
       <c r="C72" s="56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E72" s="56" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="64"/>
       <c r="C73" s="56" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E73" s="56" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="64"/>
       <c r="C74" s="56" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E74" s="56" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="64"/>
       <c r="C75" s="56" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E75" s="56" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="65"/>
-      <c r="B76" s="54"/>
-      <c r="C76" s="57" t="s">
-        <v>173</v>
-      </c>
-      <c r="D76" s="54" t="s">
+      <c r="A76" s="64"/>
+      <c r="C76" s="56" t="s">
+        <v>205</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E76" s="56"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="65"/>
+      <c r="B77" s="54"/>
+      <c r="C77" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="D77" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="E77" s="57"/>
+    </row>
+    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="65" t="s">
         <v>185</v>
       </c>
-      <c r="E76" s="57"/>
-    </row>
-    <row r="77" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="65" t="s">
+      <c r="B78" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="C78" s="57"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="57"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="B79" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="C79" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E79" s="56"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="65"/>
+      <c r="B80" s="54"/>
+      <c r="C80" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="B77" s="54" t="s">
-        <v>196</v>
-      </c>
-      <c r="C77" s="57"/>
-      <c r="D77" s="54"/>
-      <c r="E77" s="57"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="B78" s="61" t="s">
+      <c r="D80" s="54" t="s">
         <v>189</v>
       </c>
-      <c r="C78" s="62" t="s">
-        <v>47</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E78" s="56"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="65"/>
-      <c r="B79" s="54"/>
-      <c r="C79" s="57" t="s">
-        <v>191</v>
-      </c>
-      <c r="D79" s="54" t="s">
+      <c r="E80" s="57"/>
+    </row>
+    <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A81" s="65" t="s">
+        <v>96</v>
+      </c>
+      <c r="B81" s="54" t="s">
         <v>192</v>
-      </c>
-      <c r="E79" s="57"/>
-    </row>
-    <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="65" t="s">
-        <v>97</v>
-      </c>
-      <c r="B80" s="54" t="s">
-        <v>195</v>
-      </c>
-      <c r="C80" s="57"/>
-      <c r="D80" s="54"/>
-      <c r="E80" s="57"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="B81" s="54" t="s">
-        <v>193</v>
       </c>
       <c r="C81" s="57"/>
       <c r="D81" s="54"/>
       <c r="E81" s="57"/>
     </row>
-    <row r="82" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="65" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="B82" s="54" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C82" s="57"/>
       <c r="D82" s="54"/>
       <c r="E82" s="57"/>
     </row>
-    <row r="83" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="65" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B83" s="54" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C83" s="57"/>
       <c r="D83" s="54"/>
       <c r="E83" s="57"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="65" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="B84" s="54" t="s">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="C84" s="57"/>
       <c r="D84" s="54"/>
       <c r="E84" s="57"/>
     </row>
-    <row r="85" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="65" t="s">
-        <v>131</v>
+        <v>50</v>
       </c>
       <c r="B85" s="54" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="C85" s="57"/>
       <c r="D85" s="54"/>
       <c r="E85" s="57"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="65" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B86" s="54" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C86" s="57"/>
       <c r="D86" s="54"/>
       <c r="E86" s="57"/>
     </row>
-    <row r="87" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="65" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="B87" s="54" t="s">
-        <v>198</v>
+        <v>136</v>
       </c>
       <c r="C87" s="57"/>
       <c r="D87" s="54"/>
       <c r="E87" s="57"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="65" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="B88" s="54" t="s">
-        <v>58</v>
+        <v>195</v>
       </c>
       <c r="C88" s="57"/>
       <c r="D88" s="54"/>
       <c r="E88" s="57"/>
     </row>
-    <row r="89" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="65" t="s">
-        <v>102</v>
+        <v>56</v>
       </c>
       <c r="B89" s="54" t="s">
-        <v>199</v>
+        <v>57</v>
       </c>
       <c r="C89" s="57"/>
       <c r="D89" s="54"/>
       <c r="E89" s="57"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="65" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B90" s="54" t="s">
-        <v>107</v>
+        <v>196</v>
       </c>
       <c r="C90" s="57"/>
       <c r="D90" s="54"/>
       <c r="E90" s="57"/>
     </row>
-    <row r="91" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="65" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B91" s="54" t="s">
-        <v>200</v>
+        <v>106</v>
       </c>
       <c r="C91" s="57"/>
       <c r="D91" s="54"/>
       <c r="E91" s="57"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="65" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="B92" s="54" t="s">
-        <v>63</v>
+        <v>197</v>
       </c>
       <c r="C92" s="57"/>
       <c r="D92" s="54"/>
       <c r="E92" s="57"/>
     </row>
-    <row r="93" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="65" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="B93" s="54" t="s">
-        <v>201</v>
+        <v>62</v>
       </c>
       <c r="C93" s="57"/>
       <c r="D93" s="54"/>
       <c r="E93" s="57"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="65" t="s">
-        <v>71</v>
+        <v>103</v>
       </c>
       <c r="B94" s="54" t="s">
-        <v>72</v>
+        <v>198</v>
       </c>
       <c r="C94" s="57"/>
       <c r="D94" s="54"/>
       <c r="E94" s="57"/>
     </row>
-    <row r="95" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="65" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="B95" s="54" t="s">
-        <v>202</v>
+        <v>71</v>
       </c>
       <c r="C95" s="57"/>
       <c r="D95" s="54"/>
       <c r="E95" s="57"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="65" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="B96" s="54" t="s">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="C96" s="57"/>
       <c r="D96" s="54"/>
@@ -3430,21 +3579,21 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="65" t="s">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="B97" s="54" t="s">
-        <v>113</v>
+        <v>74</v>
       </c>
       <c r="C97" s="57"/>
       <c r="D97" s="54"/>
       <c r="E97" s="57"/>
     </row>
-    <row r="98" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="65" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B98" s="54" t="s">
-        <v>203</v>
+        <v>112</v>
       </c>
       <c r="C98" s="57"/>
       <c r="D98" s="54"/>
@@ -3455,44 +3604,186 @@
         <v>109</v>
       </c>
       <c r="B99" s="54" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C99" s="57"/>
       <c r="D99" s="54"/>
       <c r="E99" s="57"/>
     </row>
-    <row r="100" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="65" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="B100" s="54" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C100" s="57"/>
       <c r="D100" s="54"/>
       <c r="E100" s="57"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="65" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="B101" s="54" t="s">
-        <v>117</v>
+        <v>202</v>
       </c>
       <c r="C101" s="57"/>
       <c r="D101" s="54"/>
       <c r="E101" s="57"/>
     </row>
-    <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="65" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B102" s="54" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
       <c r="C102" s="57"/>
       <c r="D102" s="54"/>
       <c r="E102" s="57"/>
+    </row>
+    <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="B103" s="54" t="s">
+        <v>203</v>
+      </c>
+      <c r="C103" s="57"/>
+      <c r="D103" s="54"/>
+      <c r="E103" s="57"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="65" t="s">
+        <v>185</v>
+      </c>
+      <c r="B104" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="C104" s="57"/>
+      <c r="D104" s="54"/>
+      <c r="E104" s="57"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A38:E44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:B44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.42578125" style="70" customWidth="1"/>
+    <col min="2" max="2" width="68.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="70" customWidth="1"/>
+    <col min="4" max="4" width="73.85546875" style="70" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="75.5703125" style="67" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="63" t="s">
+        <v>144</v>
+      </c>
+      <c r="B38" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="D38" s="63" t="s">
+        <v>148</v>
+      </c>
+      <c r="E38" s="63" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="66" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="75" t="s">
+        <v>209</v>
+      </c>
+      <c r="C39" s="72" t="s">
+        <v>207</v>
+      </c>
+      <c r="D39" s="73" t="s">
+        <v>208</v>
+      </c>
+      <c r="E39" s="72"/>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="68" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="D40" s="70" t="s">
+        <v>211</v>
+      </c>
+      <c r="E40" s="64"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="69"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="69" t="s">
+        <v>210</v>
+      </c>
+      <c r="D41" s="74" t="s">
+        <v>212</v>
+      </c>
+      <c r="E41" s="65"/>
+    </row>
+    <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="68" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="D42" s="70" t="s">
+        <v>214</v>
+      </c>
+      <c r="E42" s="64"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="69"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" s="74" t="s">
+        <v>215</v>
+      </c>
+      <c r="E43" s="65"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="B44" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="C44" s="69"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="65"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Technical documentation/AL table analysis.xlsx
+++ b/Technical documentation/AL table analysis.xlsx
@@ -16,6 +16,9 @@
     <sheet name="Game structure" sheetId="2" r:id="rId2"/>
     <sheet name="Dump Structure" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table overview'!$A$66:$E$66</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -31,7 +34,7 @@
     <author>Martens Maarten</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +58,55 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martens Maarten:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+In which ER diagram can it be found?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B66" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martens Maarten:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+What does the table do?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D66" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +130,103 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E66" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martens Maarten:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+In which ER diagram can it be found?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A76" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martens Maarten:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tables can be used in more structures</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B78" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martens Maarten:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+What does the table do?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D78" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martens Maarten:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Explain the change</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E78" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -178,7 +325,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="221">
   <si>
     <t>Table name</t>
   </si>
@@ -294,9 +441,6 @@
     <t>lingo_game</t>
   </si>
   <si>
-    <t xml:space="preserve"> the cross table between a release and the language table</t>
-  </si>
-  <si>
     <t>This is the cross table between the game and its creators/individuals. This table also contains the link to the author_type table (programmer, graphics artist, Musician ...) - This will be the new version of the game_author table</t>
   </si>
   <si>
@@ -363,12 +507,6 @@
     <t>enhancements</t>
   </si>
   <si>
-    <t>replaced by 'language' table</t>
-  </si>
-  <si>
-    <t>replaced by  'release_language' table</t>
-  </si>
-  <si>
     <t>Replaced by game_individual</t>
   </si>
   <si>
@@ -543,9 +681,6 @@
     <t>media</t>
   </si>
   <si>
-    <t>This table contains the media of a release.  A release can have multiple media, for example games spread across multiple disks, or games with SS and DS disks. A media has a type like Floppy SS, Floppy DS, Cartridge, Digital...</t>
-  </si>
-  <si>
     <t>dumps.mwb</t>
   </si>
   <si>
@@ -598,9 +733,6 @@
   </si>
   <si>
     <t>game_download_info</t>
-  </si>
-  <si>
-    <t>This table is replaced by the dump_info table</t>
   </si>
   <si>
     <t>Table</t>
@@ -831,13 +963,40 @@
   </si>
   <si>
     <t>Action</t>
+  </si>
+  <si>
+    <t>Game Structure</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Replaced by  'game_release_language' table</t>
+  </si>
+  <si>
+    <t>Table containing all types of disk protection</t>
+  </si>
+  <si>
+    <t>Table containing all types of copy protection (word in manual, wheel...)</t>
+  </si>
+  <si>
+    <t>Replaced by 'language' table</t>
+  </si>
+  <si>
+    <t>The cross between the game and the engine tabel</t>
+  </si>
+  <si>
+    <t>Dump structure</t>
+  </si>
+  <si>
+    <t>This table is replaced by the dump_user_info table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -872,8 +1031,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -892,8 +1059,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -984,11 +1157,105 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1055,75 +1322,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1158,168 +1459,21 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0"/>
+          <bgColor rgb="FFC2E49C"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFFDB69"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
+          <bgColor rgb="FFFF5757"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1704,1065 +1858,1206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80.28515625" style="34" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="34" customWidth="1"/>
-    <col min="4" max="4" width="58.140625" style="32" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="34" customWidth="1"/>
+    <col min="1" max="1" width="40.140625" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.28515625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="38" customWidth="1"/>
+    <col min="4" max="4" width="58.140625" style="39" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="38" customWidth="1"/>
     <col min="6" max="6" width="2.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="40"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="40"/>
+    </row>
+    <row r="3" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C3" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="42"/>
+      <c r="E6" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>218</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="35" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B34" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="B35" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B36" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E37" s="39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="B38" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="C38" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" s="45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="39" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B48" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="39" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="39" t="s">
         <v>216</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="C52" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="C54" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="39"/>
+      <c r="E54" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="39"/>
+      <c r="E55" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="C56" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="D56" s="39"/>
+      <c r="E56" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="39"/>
+      <c r="E57" s="39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" s="47" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D59" s="47"/>
+      <c r="E59" s="47" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="34"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="49"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="34"/>
+      <c r="B61" s="34"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="34"/>
+      <c r="B62" s="34"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="34"/>
+      <c r="E62" s="34"/>
+    </row>
+    <row r="63" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="34"/>
+      <c r="B63" s="34"/>
+      <c r="C63" s="49"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+    </row>
+    <row r="64" spans="1:5" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="B64" s="40"/>
+      <c r="C64" s="40"/>
+      <c r="D64" s="34"/>
+      <c r="E64" s="40"/>
+    </row>
+    <row r="65" spans="1:5" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="37"/>
+      <c r="B65" s="51"/>
+      <c r="C65" s="40"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="40"/>
+    </row>
+    <row r="66" spans="1:5" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="D66" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E66" s="32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="31" t="s">
+    <row r="67" spans="1:5" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="B67" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="C67" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="D67" s="39"/>
+      <c r="E67" s="39" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="B68" s="35" t="s">
+        <v>209</v>
+      </c>
+      <c r="C68" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="39"/>
+      <c r="E68" s="39" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B69" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="C69" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E69" s="39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A70" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70" s="53" t="s">
+        <v>201</v>
+      </c>
+      <c r="C70" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="34"/>
+      <c r="E70" s="39" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="C71" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="56"/>
+      <c r="E71" s="47" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="33"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="49"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="40"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="33"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="49"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="40"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="33"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="49"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="40"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="40"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="40"/>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="B76" s="40"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="40"/>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="51"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="40"/>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="D78" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E78" s="32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B79" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C79" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="D79" s="42"/>
+      <c r="E79" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B80" s="39" t="s">
+        <v>217</v>
+      </c>
+      <c r="C80" s="42" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="31" t="s">
+      <c r="E80" s="43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B81" s="39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C81" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E81" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B82" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C82" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E82" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B83" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C83" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E83" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B84" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C84" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E84" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B85" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="C85" s="42" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="31" t="s">
+      <c r="E85" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B86" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C86" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="31" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="E12" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
-        <v>96</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="B31" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E31" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E33" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C34" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
+      <c r="E86" s="42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B87" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E36" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E37" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="B38" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="C38" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E38" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="C40" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="C41" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="B42" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="C42" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="B43" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="C43" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="B44" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="C44" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="B45" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="C45" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="27" t="s">
-        <v>118</v>
-      </c>
-      <c r="B46" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C47" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="E47" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="B48" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="C48" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E48" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B49" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="C49" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E49" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="B50" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C50" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E50" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="B51" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C51" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E51" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="B52" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E52" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="B53" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C53" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E53" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="B54" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C54" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E54" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="B55" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C55" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E55" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="B56" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C56" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E56" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="B57" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C57" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E57" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="B58" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C58" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="B59" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E59" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="B60" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C60" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E60" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="B61" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="C61" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61" s="32" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A62" s="27" t="s">
-        <v>120</v>
-      </c>
-      <c r="B62" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C62" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="27" t="s">
-        <v>123</v>
-      </c>
-      <c r="B63" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="C63" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E63" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="27" t="s">
-        <v>125</v>
-      </c>
-      <c r="B64" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="C64" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E64" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="B65" s="32" t="s">
-        <v>128</v>
-      </c>
-      <c r="C65" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E65" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="B66" s="32" t="s">
-        <v>130</v>
-      </c>
-      <c r="C66" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E66" s="32" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="27" t="s">
-        <v>132</v>
-      </c>
-      <c r="B67" s="32" t="s">
-        <v>133</v>
-      </c>
-      <c r="C67" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="E67" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="B68" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="C68" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E68" s="31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="27" t="s">
-        <v>136</v>
-      </c>
-      <c r="B69" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="C69" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" s="32" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="29" t="s">
-        <v>213</v>
-      </c>
-      <c r="B70" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="C70" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="E70" s="32" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="B71" s="32" t="s">
-        <v>140</v>
-      </c>
-      <c r="C71" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="E71" s="32" t="s">
-        <v>131</v>
+      <c r="C87" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="E87" s="42" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C71">
-    <cfRule type="containsText" dxfId="6" priority="2" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C2)))</formula>
+  <conditionalFormatting sqref="C79:C87 C4:C63 C67:C74">
+    <cfRule type="containsText" dxfId="3" priority="2" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C2)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C2)))</formula>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C71">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C2)))</formula>
+  <conditionalFormatting sqref="C79:C87 C4:C63 C67:C74">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C71">
-      <formula1>$G$2:$G$5</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C79:C87 C67:C74 C4:C59 C60:C63">
+      <formula1>$G$4:$G$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2775,8 +3070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A53:E104"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:A76"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2790,61 +3085,61 @@
   <sheetData>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="E54" s="6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="14"/>
       <c r="C55" s="6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
       <c r="B56" s="4"/>
       <c r="C56" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -2863,7 +3158,7 @@
         <v>14</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="5"/>
@@ -2871,10 +3166,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="5"/>
@@ -2885,7 +3180,7 @@
         <v>21</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="5"/>
@@ -2893,10 +3188,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="5"/>
@@ -2904,10 +3199,10 @@
     </row>
     <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="5"/>
@@ -2954,10 +3249,10 @@
         <v>25</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E66" s="9"/>
     </row>
@@ -2977,7 +3272,7 @@
         <v>17</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="5"/>
@@ -2988,7 +3283,7 @@
         <v>19</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="5"/>
@@ -3002,82 +3297,82 @@
         <v>36</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="14"/>
       <c r="C71" s="6" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="14"/>
       <c r="C72" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="14"/>
       <c r="C73" s="6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="14"/>
       <c r="C74" s="6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="14"/>
       <c r="C75" s="6" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="14"/>
       <c r="C76" s="6" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="E76" s="6"/>
     </row>
@@ -3085,19 +3380,19 @@
       <c r="A77" s="15"/>
       <c r="B77" s="4"/>
       <c r="C77" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E77" s="7"/>
     </row>
     <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="4"/>
@@ -3105,16 +3400,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E79" s="6"/>
     </row>
@@ -3122,19 +3417,19 @@
       <c r="A80" s="15"/>
       <c r="B80" s="4"/>
       <c r="C80" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="E80" s="7"/>
     </row>
     <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="4"/>
@@ -3142,10 +3437,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="4"/>
@@ -3153,10 +3448,10 @@
     </row>
     <row r="83" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="15" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="4"/>
@@ -3164,10 +3459,10 @@
     </row>
     <row r="84" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="4"/>
@@ -3175,10 +3470,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>47</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>48</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="4"/>
@@ -3186,10 +3481,10 @@
     </row>
     <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="4"/>
@@ -3197,10 +3492,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="4"/>
@@ -3208,10 +3503,10 @@
     </row>
     <row r="88" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="4"/>
@@ -3219,10 +3514,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="4"/>
@@ -3230,10 +3525,10 @@
     </row>
     <row r="90" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="4"/>
@@ -3241,10 +3536,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="4"/>
@@ -3252,10 +3547,10 @@
     </row>
     <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="4"/>
@@ -3263,10 +3558,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>59</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="4"/>
@@ -3274,10 +3569,10 @@
     </row>
     <row r="94" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="4"/>
@@ -3285,10 +3580,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="4"/>
@@ -3296,10 +3591,10 @@
     </row>
     <row r="96" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="4"/>
@@ -3307,10 +3602,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="4"/>
@@ -3318,10 +3613,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="4"/>
@@ -3329,10 +3624,10 @@
     </row>
     <row r="99" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="4"/>
@@ -3340,10 +3635,10 @@
     </row>
     <row r="100" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="4"/>
@@ -3351,10 +3646,10 @@
     </row>
     <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="4"/>
@@ -3362,10 +3657,10 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="4"/>
@@ -3373,10 +3668,10 @@
     </row>
     <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="4"/>
@@ -3384,10 +3679,10 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="4"/>
@@ -3405,8 +3700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A38:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:B44"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3420,48 +3715,48 @@
   <sheetData>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E39" s="22"/>
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E40" s="14"/>
     </row>
@@ -3469,25 +3764,25 @@
       <c r="A41" s="19"/>
       <c r="B41" s="4"/>
       <c r="C41" s="19" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E41" s="15"/>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E42" s="14"/>
     </row>
@@ -3495,19 +3790,19 @@
       <c r="A43" s="19"/>
       <c r="B43" s="4"/>
       <c r="C43" s="19" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E43" s="15"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="24"/>

--- a/Technical documentation/AL table analysis.xlsx
+++ b/Technical documentation/AL table analysis.xlsx
@@ -250,6 +250,102 @@
         </r>
       </text>
     </comment>
+    <comment ref="A88" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martens Maarten:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tables can be used in more structures</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B90" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martens Maarten:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+What does the table do?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D90" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martens Maarten:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Explain the change</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E90" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martens Maarten:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+In which ER diagram can it be found?</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -325,7 +421,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="249">
   <si>
     <t>Table name</t>
   </si>
@@ -990,6 +1086,103 @@
   </si>
   <si>
     <t>This table is replaced by the dump_user_info table</t>
+  </si>
+  <si>
+    <t>andreas</t>
+  </si>
+  <si>
+    <t>Table holding the comments on the Andreas Wahlin memory page</t>
+  </si>
+  <si>
+    <t>Articles structure</t>
+  </si>
+  <si>
+    <t>article_comments</t>
+  </si>
+  <si>
+    <t>article_main</t>
+  </si>
+  <si>
+    <t>Main article table linking user, article and article type</t>
+  </si>
+  <si>
+    <t>article_text</t>
+  </si>
+  <si>
+    <t>Table containing the actual article</t>
+  </si>
+  <si>
+    <t>Table holding the screenshots comments used for an article - link to screenshot and comment table</t>
+  </si>
+  <si>
+    <t>article_type</t>
+  </si>
+  <si>
+    <t>Table containing the article types</t>
+  </si>
+  <si>
+    <t>artcile_user_comments</t>
+  </si>
+  <si>
+    <t>Crosstable between the article and the user comments</t>
+  </si>
+  <si>
+    <t>author</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This table holds the actual individual and his job within a certain project --&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">I don't think this table is ever used! </t>
+    </r>
+  </si>
+  <si>
+    <t>author_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This table holds all the types of jobs of people involved in the creation of a product. Like the coders, the graphics artists, producer, musicians </t>
+  </si>
+  <si>
+    <t>bug_report</t>
+  </si>
+  <si>
+    <t>Table used to store the reported bugs by visitors</t>
+  </si>
+  <si>
+    <t>bug_report_type</t>
+  </si>
+  <si>
+    <t>Table containing the different types of bugs which are reported by visitors</t>
+  </si>
+  <si>
+    <t>change_log</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main table holding all the changes done to the database </t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>This is the main user_comments table holding all the comments by visitors. This table is linked to the game, demo, music, article, review ... Sections</t>
+  </si>
+  <si>
+    <t>continent</t>
+  </si>
+  <si>
+    <t>This table will be replaced by the location table</t>
+  </si>
+  <si>
+    <t>NEXT : CREW table</t>
   </si>
 </sst>
 </file>
@@ -1255,7 +1448,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1416,11 +1609,695 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="104">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1858,9 +2735,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G87"/>
+  <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2873,15 +3752,15 @@
       <c r="E74" s="40"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="40"/>
-      <c r="B75" s="40"/>
-      <c r="C75" s="40"/>
+      <c r="A75" s="33"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="49"/>
       <c r="D75" s="34"/>
       <c r="E75" s="40"/>
     </row>
     <row r="76" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="50" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="B76" s="40"/>
       <c r="C76" s="40"/>
@@ -2911,152 +3790,596 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="41" t="s">
+    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="58" t="s">
+        <v>224</v>
+      </c>
+      <c r="B79" s="41" t="s">
+        <v>229</v>
+      </c>
+      <c r="C79" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="D79" s="42"/>
+      <c r="E79" s="45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="26" t="s">
+        <v>225</v>
+      </c>
+      <c r="B80" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="C80" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="D80" s="34"/>
+      <c r="E80" s="45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="26" t="s">
+        <v>227</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C81" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="D81" s="34"/>
+      <c r="E81" s="45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="26" t="s">
+        <v>230</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="C82" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="D82" s="34"/>
+      <c r="E82" s="45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="B83" s="61" t="s">
+        <v>233</v>
+      </c>
+      <c r="C83" s="48" t="s">
+        <v>210</v>
+      </c>
+      <c r="D83" s="56"/>
+      <c r="E83" s="45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="59"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="49"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="60"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="59"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="49"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="60"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="33"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="49"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="40"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="40"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="40"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="40"/>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="B88" s="40"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="40"/>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="51"/>
+      <c r="C89" s="40"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="40"/>
+    </row>
+    <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="D90" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E90" s="32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="B79" s="42" t="s">
+      <c r="B91" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="C79" s="42" t="s">
+      <c r="C91" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D79" s="42"/>
-      <c r="E79" s="42" t="s">
+      <c r="D91" s="42"/>
+      <c r="E91" s="42" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="35" t="s">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B80" s="39" t="s">
+      <c r="B92" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="C80" s="42" t="s">
+      <c r="C92" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E80" s="43" t="s">
+      <c r="E92" s="43" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="35" t="s">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B81" s="39" t="s">
+      <c r="B93" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="C81" s="42" t="s">
+      <c r="C93" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E81" s="42" t="s">
+      <c r="E93" s="42" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="35" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B82" s="39" t="s">
+      <c r="B94" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="C82" s="42" t="s">
+      <c r="C94" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E82" s="42" t="s">
+      <c r="E94" s="42" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="35" t="s">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B83" s="39" t="s">
+      <c r="B95" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="C83" s="42" t="s">
+      <c r="C95" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E83" s="42" t="s">
+      <c r="E95" s="42" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="35" t="s">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B84" s="39" t="s">
+      <c r="B96" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="C84" s="42" t="s">
+      <c r="C96" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E84" s="42" t="s">
+      <c r="E96" s="42" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="35" t="s">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B85" s="39" t="s">
+      <c r="B97" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="C85" s="42" t="s">
+      <c r="C97" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E85" s="42" t="s">
+      <c r="E97" s="42" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="35" t="s">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="B98" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="C98" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E98" s="43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="B86" s="39" t="s">
+      <c r="B99" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="C86" s="42" t="s">
+      <c r="C99" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="E86" s="42" t="s">
+      <c r="E99" s="42" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="35" t="s">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B87" s="39" t="s">
+      <c r="B100" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="C87" s="42" t="s">
+      <c r="C100" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="E87" s="42" t="s">
+      <c r="E100" s="42" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="B101" s="38" t="s">
+        <v>222</v>
+      </c>
+      <c r="C101" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="E101" s="43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A102" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="B102" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="C102" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E102" s="43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="B103" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="C103" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="E103" s="43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="B104" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="C104" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="E104" s="43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="B105" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="C105" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="E105" s="43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="B106" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="C106" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="E106" s="43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="B107" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="C107" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="E107" s="43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="37" t="s">
+        <v>248</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C79:C87 C4:C63 C67:C74">
-    <cfRule type="containsText" dxfId="3" priority="2" stopIfTrue="1" operator="containsText" text="Delete">
+  <conditionalFormatting sqref="C4:C63 C67:C75 C86 C91:C97 C99:C101">
+    <cfRule type="containsText" dxfId="51" priority="50" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="50" priority="51" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="49" priority="52" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C79:C87 C4:C63 C67:C74">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="None">
+  <conditionalFormatting sqref="C4:C63 C67:C75 C86 C91:C97 C99:C101">
+    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C79">
+    <cfRule type="containsText" dxfId="47" priority="46" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C79)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="48" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C79">
+    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C79)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81">
+    <cfRule type="containsText" dxfId="43" priority="37" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C81)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C80">
+    <cfRule type="containsText" dxfId="42" priority="42" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C80)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C80)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C80)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C80">
+    <cfRule type="containsText" dxfId="39" priority="41" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C80)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C81">
+    <cfRule type="containsText" dxfId="38" priority="38" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C81)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C81)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="40" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C81)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C83:C85">
+    <cfRule type="containsText" dxfId="35" priority="29" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C83)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82">
+    <cfRule type="containsText" dxfId="34" priority="33" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C82)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82">
+    <cfRule type="containsText" dxfId="33" priority="34" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C82)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="35" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C82)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="31" priority="36" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C82)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98">
+    <cfRule type="containsText" dxfId="30" priority="1" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C98)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C83:C85">
+    <cfRule type="containsText" dxfId="29" priority="30" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C83)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="28" priority="31" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C83)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="27" priority="32" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C83)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C102">
+    <cfRule type="containsText" dxfId="26" priority="26" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C102)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C102)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C102)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C102">
+    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C102)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C103">
+    <cfRule type="containsText" dxfId="22" priority="22" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C103)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C103)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C103)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C103">
+    <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C103)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C104">
+    <cfRule type="containsText" dxfId="18" priority="18" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C104)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C104)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C104)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C104">
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C104)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C105">
+    <cfRule type="containsText" dxfId="14" priority="14" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C105)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C105)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C105)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C105">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C105)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C106">
+    <cfRule type="containsText" dxfId="10" priority="10" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C106)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C106)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C106)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C106">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C106)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C107">
+    <cfRule type="containsText" dxfId="6" priority="6" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C107)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C107)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C107)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C107">
+    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C107)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C98">
+    <cfRule type="containsText" dxfId="2" priority="2" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C98)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C98)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C98)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C79:C87 C67:C74 C4:C59 C60:C63">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C63 C67:C75 C79:C86 C91:C107">
       <formula1>$G$4:$G$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -3070,8 +4393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A53:E104"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Technical documentation/AL table analysis.xlsx
+++ b/Technical documentation/AL table analysis.xlsx
@@ -15,6 +15,8 @@
     <sheet name="Table overview" sheetId="1" r:id="rId1"/>
     <sheet name="Game structure" sheetId="2" r:id="rId2"/>
     <sheet name="Dump Structure" sheetId="3" r:id="rId3"/>
+    <sheet name="Crew Structure" sheetId="4" r:id="rId4"/>
+    <sheet name="Doc Disk Structure" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table overview'!$A$66:$E$66</definedName>
@@ -154,30 +156,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="A76" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Martens Maarten:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Tables can be used in more structures</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B78" authorId="0" shapeId="0">
       <text>
         <r>
@@ -250,30 +228,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="A88" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Martens Maarten:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-Tables can be used in more structures</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="B90" authorId="0" shapeId="0">
       <text>
         <r>
@@ -323,6 +277,174 @@
       </text>
     </comment>
     <comment ref="E90" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martens Maarten:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+In which ER diagram can it be found?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B101" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martens Maarten:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+What does the table do?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D101" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martens Maarten:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Explain the change</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E101" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martens Maarten:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+In which ER diagram can it be found?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A125" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martens Maarten:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Tables can be used in more structures</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B127" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martens Maarten:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+What does the table do?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D127" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martens Maarten:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Explain the change</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E127" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -420,8 +542,78 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Martens Maarten</author>
+  </authors>
+  <commentList>
+    <comment ref="C43" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martens Maarten:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra info on some of the fields of the table
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Martens Maarten</author>
+  </authors>
+  <commentList>
+    <comment ref="C24" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martens Maarten:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra info on some of the fields of the table
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="309">
   <si>
     <t>Table name</t>
   </si>
@@ -450,9 +642,6 @@
     <t>New fields will be added</t>
   </si>
   <si>
-    <t>game.mwb</t>
-  </si>
-  <si>
     <t>n/a</t>
   </si>
   <si>
@@ -777,9 +966,6 @@
     <t>media</t>
   </si>
   <si>
-    <t>dumps.mwb</t>
-  </si>
-  <si>
     <t>media_scan</t>
   </si>
   <si>
@@ -802,9 +988,6 @@
   </si>
   <si>
     <t>replaced by game_release_trainer_options</t>
-  </si>
-  <si>
-    <t>downloads_game.mwb</t>
   </si>
   <si>
     <t>trainer_options</t>
@@ -1182,14 +1365,203 @@
     <t>This table will be replaced by the location table</t>
   </si>
   <si>
-    <t>NEXT : CREW table</t>
+    <t>crew</t>
+  </si>
+  <si>
+    <t>The main crew table containing all the crews</t>
+  </si>
+  <si>
+    <t>crew_logo</t>
+  </si>
+  <si>
+    <t>extension of the logo</t>
+  </si>
+  <si>
+    <t>crew_info</t>
+  </si>
+  <si>
+    <t>Info on the crew</t>
+  </si>
+  <si>
+    <t>Currently not used</t>
+  </si>
+  <si>
+    <t>crew_history</t>
+  </si>
+  <si>
+    <t>History of the crew</t>
+  </si>
+  <si>
+    <t>sub_crew</t>
+  </si>
+  <si>
+    <t>A crew sometimes consists of subcrews</t>
+  </si>
+  <si>
+    <t>crew_individual</t>
+  </si>
+  <si>
+    <t>The cross table linking the individuals(hackers, coders, musicians…) to their crew</t>
+  </si>
+  <si>
+    <t>crew_menu_prod</t>
+  </si>
+  <si>
+    <t>crew_demo_prod</t>
+  </si>
+  <si>
+    <t>ind_demo_prod</t>
+  </si>
+  <si>
+    <t>ind_menu_prod</t>
+  </si>
+  <si>
+    <t>The cross tables linking the crews and individuals to their work. Every crew or individual has got their own productions, these are always demos or menus. Games are dealt with in the game tables structure.</t>
+  </si>
+  <si>
+    <t>Crew structure</t>
+  </si>
+  <si>
+    <t>crew structure</t>
+  </si>
+  <si>
+    <t>game structure</t>
+  </si>
+  <si>
+    <t>dump structure</t>
+  </si>
+  <si>
+    <t>The cross tables linking the crews to their work. Every crew has got their own productions, these are always demos or menus</t>
+  </si>
+  <si>
+    <t>currently not used</t>
+  </si>
+  <si>
+    <t>database_change</t>
+  </si>
+  <si>
+    <t>The table containing (the status of) all the update scripts</t>
+  </si>
+  <si>
+    <t>Demo structure</t>
+  </si>
+  <si>
+    <t>demo</t>
+  </si>
+  <si>
+    <t>demo structure is currently not used and outdated. These tables may be removed</t>
+  </si>
+  <si>
+    <t>demo_aka</t>
+  </si>
+  <si>
+    <t>demo_author</t>
+  </si>
+  <si>
+    <t>demo_cat</t>
+  </si>
+  <si>
+    <t>demo_cat_cross</t>
+  </si>
+  <si>
+    <t>demo_download</t>
+  </si>
+  <si>
+    <t>demo_emulator</t>
+  </si>
+  <si>
+    <t>demo_falcon_enhanced</t>
+  </si>
+  <si>
+    <t>demo_falcon_only</t>
+  </si>
+  <si>
+    <t>demo_info</t>
+  </si>
+  <si>
+    <t>demo_mono_only</t>
+  </si>
+  <si>
+    <t>demo_music</t>
+  </si>
+  <si>
+    <t>demo_series</t>
+  </si>
+  <si>
+    <t>demo_series_cross</t>
+  </si>
+  <si>
+    <t>demo_ste_enhanced</t>
+  </si>
+  <si>
+    <t>demo_ste_only</t>
+  </si>
+  <si>
+    <t>demo_submit_info</t>
+  </si>
+  <si>
+    <t>demo_user_comments</t>
+  </si>
+  <si>
+    <t>demo_year</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>doc_disk_game</t>
+  </si>
+  <si>
+    <t>This is the cross table linking the doc disk title (in this case a game doc) with the actual doc table.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overhere we see a visual overview of how the doc tables are linked to the menu section by use of doc disks. As you also can see, not only doc disks are linked to the doc table. Other sections will be linked as wel. Some examples : </t>
+  </si>
+  <si>
+    <t>- Let's say we are dealing with a SEWER DOC DISK containing a manual of "Xenon 2" and a cheat code for "Supercars". Both docs have got an entry in the menu_disk_title_doc_games, in the doc_disk_game and in the doc table. There can be more docs of the same</t>
+  </si>
+  <si>
+    <t>- The game "Xenon 2" by itself can also be linked to the doc table. What if we are dealing with the official manual of the game. This has nothing to do with a doc disk. So a cross table between the game table and the doc table is used, in this case the do</t>
+  </si>
+  <si>
+    <t>This is the cross table linking the doc disk title (in this case a tool doc) with the actual doc table.</t>
+  </si>
+  <si>
+    <t>doc_disk_tool</t>
+  </si>
+  <si>
+    <t>doc_game</t>
+  </si>
+  <si>
+    <t>This is the cross table linking the game table with the doc table</t>
+  </si>
+  <si>
+    <t>Main documents table containing all docs used on the site</t>
+  </si>
+  <si>
+    <t>doc</t>
+  </si>
+  <si>
+    <t>doc_type</t>
+  </si>
+  <si>
+    <t>The type of document we are dealing with eg. a cheatcode, a walkthrough, a manual ...</t>
+  </si>
+  <si>
+    <t>doc_category</t>
+  </si>
+  <si>
+    <t>The category this document belongs to eg. doc disk game, doc disk tool, doc game, doc tool ...</t>
+  </si>
+  <si>
+    <t>LAST ONE : doc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1232,6 +1604,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1259,7 +1638,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1444,11 +1823,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1621,11 +2013,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="104">
+  <dxfs count="204">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1818,6 +2240,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFC2E49C"/>
         </patternFill>
       </fill>
@@ -1874,6 +2303,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -1937,6 +2387,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -2133,6 +2604,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -2189,6 +2681,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFC2E49C"/>
         </patternFill>
       </fill>
@@ -2239,6 +2738,622 @@
       <fill>
         <patternFill>
           <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2428,13 +3543,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
+      <xdr:colOff>942975</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
@@ -2459,8 +3574,106 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="57150" y="0"/>
+          <a:ext cx="7467600" cy="6886575"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7467600" cy="6886575"/>
+          <a:ext cx="9124950" cy="7772400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2000250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="8963025" cy="5562600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2735,10 +3948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G110"/>
+  <dimension ref="A1:G169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A107" sqref="A107"/>
+      <selection activeCell="A151" sqref="A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2748,12 +3961,12 @@
     <col min="3" max="3" width="11.5703125" style="38" customWidth="1"/>
     <col min="4" max="4" width="58.140625" style="39" customWidth="1"/>
     <col min="5" max="5" width="23.85546875" style="38" customWidth="1"/>
-    <col min="6" max="6" width="2.140625" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="57" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -2772,16 +3985,19 @@
         <v>0</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="29" t="s">
         <v>4</v>
+      </c>
+      <c r="F3" s="67" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2798,856 +4014,912 @@
         <v>8</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" t="s">
-        <v>210</v>
+        <v>265</v>
+      </c>
+      <c r="F4" s="70"/>
+      <c r="G4" s="64" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="42" t="s">
-        <v>13</v>
-      </c>
       <c r="C5" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="42"/>
       <c r="E5" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F5" s="70"/>
+      <c r="G5" s="64" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C6" s="42" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="42"/>
       <c r="E6" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="F6" s="70"/>
+      <c r="G6" s="64" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="42" t="s">
         <v>17</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>18</v>
       </c>
       <c r="D7" s="42"/>
       <c r="E7" s="42" t="s">
-        <v>9</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="F7" s="70"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="42" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="42"/>
       <c r="E8" s="42" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F8" s="70"/>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="42"/>
       <c r="E9" s="42" t="s">
-        <v>9</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="F9" s="70"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="41" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="42" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="42"/>
       <c r="E10" s="43" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F10" s="70"/>
     </row>
     <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="42"/>
       <c r="E11" s="42" t="s">
-        <v>9</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="F11" s="70"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="42" t="s">
-        <v>23</v>
-      </c>
       <c r="C12" s="42" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D12" s="42"/>
       <c r="E12" s="42" t="s">
-        <v>9</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="F12" s="70"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="39" t="s">
-        <v>25</v>
-      </c>
       <c r="C13" s="42" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>9</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="F13" s="70"/>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D14" s="42"/>
       <c r="E14" s="42" t="s">
-        <v>9</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="F14" s="70"/>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="43" t="s">
         <v>27</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>28</v>
       </c>
       <c r="C15" s="42" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="43"/>
       <c r="E15" s="43" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F15" s="70"/>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="C16" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="F16" s="70"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
-        <v>32</v>
-      </c>
       <c r="B17" s="39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C17" s="42" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F17" s="70"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="39" t="s">
+      <c r="C18" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="F18" s="70"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C18" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+      <c r="B19" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="C19" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="F19" s="70"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
-        <v>37</v>
-      </c>
       <c r="B20" s="39" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C20" s="42" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F20" s="70"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="B21" s="39" t="s">
-        <v>116</v>
-      </c>
       <c r="C21" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="F21" s="70"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="F22" s="70"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="39" t="s">
-        <v>114</v>
-      </c>
       <c r="C23" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="F23" s="70"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="39" t="s">
         <v>72</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>73</v>
       </c>
       <c r="C24" s="42" t="s">
         <v>3</v>
       </c>
       <c r="E24" s="39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F24" s="70"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="39" t="s">
         <v>74</v>
-      </c>
-      <c r="B25" s="39" t="s">
-        <v>75</v>
       </c>
       <c r="C25" s="42" t="s">
         <v>3</v>
       </c>
       <c r="E25" s="39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F25" s="70"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="39" t="s">
         <v>76</v>
-      </c>
-      <c r="B26" s="39" t="s">
-        <v>77</v>
       </c>
       <c r="C26" s="42" t="s">
         <v>3</v>
       </c>
       <c r="E26" s="39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F26" s="70"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="39" t="s">
         <v>78</v>
-      </c>
-      <c r="B27" s="39" t="s">
-        <v>79</v>
       </c>
       <c r="C27" s="42" t="s">
         <v>3</v>
       </c>
       <c r="E27" s="39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F27" s="70"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C28" s="42" t="s">
         <v>3</v>
       </c>
       <c r="E28" s="39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F28" s="70"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29" s="42" t="s">
         <v>3</v>
       </c>
       <c r="E29" s="39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F29" s="70"/>
+    </row>
+    <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B30" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="42" t="s">
         <v>3</v>
       </c>
       <c r="E30" s="39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F30" s="70"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B31" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C31" s="42" t="s">
         <v>3</v>
       </c>
       <c r="E31" s="39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F31" s="70"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B32" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C32" s="42" t="s">
         <v>3</v>
       </c>
       <c r="E32" s="39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F32" s="70"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B33" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="42" t="s">
         <v>3</v>
       </c>
       <c r="E33" s="39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F33" s="70"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" s="42" t="s">
         <v>3</v>
       </c>
       <c r="E34" s="39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F34" s="70"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B35" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C35" s="42" t="s">
         <v>3</v>
       </c>
       <c r="E35" s="39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F35" s="70"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B36" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="42" t="s">
         <v>3</v>
       </c>
       <c r="E36" s="39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F36" s="70"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="42" t="s">
         <v>3</v>
       </c>
       <c r="E37" s="39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F37" s="70"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="35" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E38" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="F38" s="70"/>
+    </row>
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="F39" s="70"/>
+    </row>
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="42" t="s">
+      <c r="B40" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="C39" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="35" t="s">
+      <c r="C40" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="F40" s="70"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="B40" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C40" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="35" t="s">
+      <c r="B41" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C41" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E41" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="F41" s="70"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" s="70"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="B41" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="B42" s="39" t="s">
+      <c r="B43" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="45" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="35" t="s">
+      <c r="C43" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="F43" s="70"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" s="70"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="B43" s="39" t="s">
+      <c r="B45" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E44" s="45" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="35" t="s">
+      <c r="C45" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="F45" s="70"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="35" t="s">
+      <c r="B46" s="39" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E46" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="F46" s="70"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="B46" s="39" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="35" t="s">
+      <c r="B47" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="F47" s="70"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="F48" s="70"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="39" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E49" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="F49" s="70"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="B47" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C47" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E47" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="35" t="s">
+      <c r="B50" s="39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="F50" s="70"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="B48" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E48" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="B49" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="C49" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E49" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" s="39" t="s">
-        <v>100</v>
-      </c>
-      <c r="C50" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E50" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="35" t="s">
+      <c r="B51" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="B51" s="39" t="s">
+      <c r="C51" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="F51" s="70"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="C51" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="35" t="s">
-        <v>105</v>
-      </c>
       <c r="B52" s="39" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C52" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E52" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="F52" s="70"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="B53" s="39" t="s">
+      <c r="C53" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="F53" s="70"/>
+    </row>
+    <row r="54" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="C53" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E53" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="35" t="s">
-        <v>109</v>
-      </c>
       <c r="B54" s="39" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C54" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D54" s="39"/>
       <c r="E54" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="F54" s="70"/>
+    </row>
+    <row r="55" spans="1:6" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="35" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B55" s="39" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C55" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D55" s="39"/>
       <c r="E55" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="F55" s="70"/>
+    </row>
+    <row r="56" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="35" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B56" s="39" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C56" s="42" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D56" s="39"/>
       <c r="E56" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+      <c r="F56" s="70"/>
+    </row>
+    <row r="57" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C57" s="42" t="s">
         <v>3</v>
       </c>
       <c r="D57" s="39"/>
       <c r="E57" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="70"/>
+    </row>
+    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="35" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="35" t="s">
+      <c r="B58" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E58" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="F58" s="70"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59" s="47" t="s">
         <v>130</v>
-      </c>
-      <c r="B58" s="39" t="s">
-        <v>131</v>
-      </c>
-      <c r="C58" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="B59" s="47" t="s">
-        <v>133</v>
       </c>
       <c r="C59" s="48" t="s">
         <v>3</v>
       </c>
       <c r="D59" s="47"/>
       <c r="E59" s="47" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F59" s="71"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="34"/>
       <c r="B60" s="34"/>
       <c r="C60" s="49"/>
       <c r="D60" s="34"/>
       <c r="E60" s="34"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="34"/>
       <c r="B61" s="34"/>
       <c r="C61" s="49"/>
       <c r="D61" s="34"/>
       <c r="E61" s="34"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="34"/>
       <c r="B62" s="34"/>
       <c r="C62" s="49"/>
       <c r="D62" s="34"/>
       <c r="E62" s="34"/>
     </row>
-    <row r="63" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="34"/>
       <c r="B63" s="34"/>
       <c r="C63" s="49"/>
       <c r="D63" s="34"/>
       <c r="E63" s="34"/>
     </row>
-    <row r="64" spans="1:5" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="50" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B64" s="40"/>
       <c r="C64" s="40"/>
       <c r="D64" s="34"/>
       <c r="E64" s="40"/>
     </row>
-    <row r="65" spans="1:5" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="37"/>
       <c r="B65" s="51"/>
       <c r="C65" s="40"/>
       <c r="D65" s="34"/>
       <c r="E65" s="40"/>
     </row>
-    <row r="66" spans="1:5" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C66" s="31" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D66" s="31" t="s">
         <v>1</v>
@@ -3655,133 +4927,141 @@
       <c r="E66" s="32" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="F66" s="67" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="52" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B67" s="35" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C67" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D67" s="39"/>
       <c r="E67" s="39" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" s="30" customFormat="1" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="F67" s="70"/>
+    </row>
+    <row r="68" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="26" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B68" s="35" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C68" s="42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D68" s="39"/>
       <c r="E68" s="39" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="F68" s="70"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="35" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B69" s="39" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C69" s="42" t="s">
         <v>3</v>
       </c>
       <c r="E69" s="39" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="F69" s="70"/>
+    </row>
+    <row r="70" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A70" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B70" s="53" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C70" s="41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D70" s="34"/>
       <c r="E70" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="F70" s="70"/>
+    </row>
+    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="B71" s="54" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="B71" s="54" t="s">
-        <v>120</v>
-      </c>
       <c r="C71" s="55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D71" s="56"/>
       <c r="E71" s="47" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+      <c r="F71" s="71"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="33"/>
       <c r="B72" s="17"/>
       <c r="C72" s="49"/>
       <c r="D72" s="34"/>
       <c r="E72" s="40"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="33"/>
       <c r="B73" s="17"/>
       <c r="C73" s="49"/>
       <c r="D73" s="34"/>
       <c r="E73" s="40"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="33"/>
       <c r="B74" s="17"/>
       <c r="C74" s="49"/>
       <c r="D74" s="34"/>
       <c r="E74" s="40"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="33"/>
       <c r="B75" s="17"/>
       <c r="C75" s="49"/>
       <c r="D75" s="34"/>
       <c r="E75" s="40"/>
     </row>
-    <row r="76" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="50" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B76" s="40"/>
       <c r="C76" s="40"/>
       <c r="D76" s="34"/>
       <c r="E76" s="40"/>
     </row>
-    <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="51"/>
       <c r="C77" s="40"/>
       <c r="D77" s="34"/>
       <c r="E77" s="40"/>
     </row>
-    <row r="78" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B78" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C78" s="31" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D78" s="31" t="s">
         <v>1</v>
@@ -3789,134 +5069,142 @@
       <c r="E78" s="32" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="F78" s="67" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="58" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B79" s="41" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C79" s="42" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D79" s="42"/>
       <c r="E79" s="45" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="F79" s="70"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="26" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C80" s="42" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D80" s="34"/>
       <c r="E80" s="45" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="F80" s="70"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="26" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C81" s="42" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D81" s="34"/>
       <c r="E81" s="45" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="F81" s="70"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="26" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B82" s="17" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C82" s="42" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D82" s="34"/>
       <c r="E82" s="45" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="F82" s="70"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="36" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B83" s="61" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C83" s="48" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D83" s="56"/>
-      <c r="E83" s="45" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E83" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="F83" s="71"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="59"/>
       <c r="B84" s="17"/>
       <c r="C84" s="49"/>
       <c r="D84" s="34"/>
       <c r="E84" s="60"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="59"/>
       <c r="B85" s="17"/>
       <c r="C85" s="49"/>
       <c r="D85" s="34"/>
       <c r="E85" s="60"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="33"/>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="59"/>
       <c r="B86" s="17"/>
       <c r="C86" s="49"/>
       <c r="D86" s="34"/>
-      <c r="E86" s="40"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="40"/>
-      <c r="B87" s="40"/>
-      <c r="C87" s="40"/>
+      <c r="E86" s="60"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="59"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="49"/>
       <c r="D87" s="34"/>
-      <c r="E87" s="40"/>
-    </row>
-    <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E87" s="60"/>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="50" t="s">
-        <v>213</v>
+        <v>263</v>
       </c>
       <c r="B88" s="40"/>
       <c r="C88" s="40"/>
       <c r="D88" s="34"/>
       <c r="E88" s="40"/>
     </row>
-    <row r="89" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B89" s="51"/>
       <c r="C89" s="40"/>
       <c r="D89" s="34"/>
       <c r="E89" s="40"/>
     </row>
-    <row r="90" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B90" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C90" s="31" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D90" s="31" t="s">
         <v>1</v>
@@ -3924,462 +5212,1382 @@
       <c r="E90" s="32" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="B91" s="42" t="s">
-        <v>15</v>
+      <c r="F90" s="67" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="58" t="s">
+        <v>245</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>246</v>
       </c>
       <c r="C91" s="42" t="s">
-        <v>18</v>
+        <v>207</v>
       </c>
       <c r="D91" s="42"/>
       <c r="E91" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B92" s="39" t="s">
-        <v>217</v>
+        <v>264</v>
+      </c>
+      <c r="F91" s="70"/>
+    </row>
+    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A92" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="B92" s="38" t="s">
+        <v>267</v>
       </c>
       <c r="C92" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="E92" s="43" t="s">
+        <v>207</v>
+      </c>
+      <c r="D92" s="34" t="s">
+        <v>268</v>
+      </c>
+      <c r="E92" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="F92" s="70"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="B93" s="66" t="s">
+        <v>257</v>
+      </c>
+      <c r="C93" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="E93" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="F93" s="70"/>
+    </row>
+    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="36" t="s">
+        <v>258</v>
+      </c>
+      <c r="B94" s="54" t="s">
+        <v>267</v>
+      </c>
+      <c r="C94" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="D94" s="47"/>
+      <c r="E94" s="54" t="s">
+        <v>264</v>
+      </c>
+      <c r="F94" s="71"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="59"/>
+      <c r="B95" s="40"/>
+      <c r="C95" s="49"/>
+      <c r="D95" s="34"/>
+      <c r="E95" s="40"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="59"/>
+      <c r="B96" s="40"/>
+      <c r="C96" s="49"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="40"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="33"/>
+      <c r="B97" s="65"/>
+      <c r="C97" s="49"/>
+      <c r="D97" s="34"/>
+      <c r="E97" s="40"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="33"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="49"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="40"/>
+    </row>
+    <row r="99" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="50" t="s">
+        <v>271</v>
+      </c>
+      <c r="B99" s="40"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="34"/>
+      <c r="E99" s="40"/>
+    </row>
+    <row r="100" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="51"/>
+      <c r="C100" s="40"/>
+      <c r="D100" s="34"/>
+      <c r="E100" s="40"/>
+    </row>
+    <row r="101" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" s="28" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B93" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C93" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E93" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B94" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="C94" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E94" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B95" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="C95" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E95" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="B96" s="39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C96" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E96" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B97" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="C97" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E97" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="37" t="s">
-        <v>246</v>
-      </c>
-      <c r="B98" s="38" t="s">
-        <v>247</v>
-      </c>
-      <c r="C98" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="E98" s="43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="B99" s="39" t="s">
-        <v>68</v>
-      </c>
-      <c r="C99" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="E99" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="B100" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="C100" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="E100" s="42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="B101" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="C101" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="E101" s="43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A102" s="37" t="s">
-        <v>234</v>
-      </c>
-      <c r="B102" s="38" t="s">
-        <v>235</v>
+      <c r="C101" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="D101" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E101" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="67" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="58" t="s">
+        <v>272</v>
+      </c>
+      <c r="B102" s="68" t="s">
+        <v>273</v>
       </c>
       <c r="C102" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E102" s="43" t="s">
+      <c r="D102" s="42"/>
+      <c r="E102" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" s="70"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="B103" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="C103" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="42"/>
+      <c r="E103" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" s="70"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="B104" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="C104" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D104" s="42"/>
+      <c r="E104" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F104" s="70"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="B105" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="C105" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D105" s="42"/>
+      <c r="E105" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" s="70"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="B106" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="C106" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D106" s="42"/>
+      <c r="E106" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" s="70"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="B107" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="C107" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D107" s="42"/>
+      <c r="E107" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" s="70"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="B108" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="C108" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D108" s="42"/>
+      <c r="E108" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F108" s="70"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="B109" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="C109" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D109" s="42"/>
+      <c r="E109" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F109" s="70"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="B110" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="C110" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D110" s="42"/>
+      <c r="E110" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" s="70"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="B111" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="C111" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111" s="42"/>
+      <c r="E111" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F111" s="70"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="B112" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="C112" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D112" s="42"/>
+      <c r="E112" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" s="70"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="B113" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="C113" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D113" s="42"/>
+      <c r="E113" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F113" s="70"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="B114" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="C114" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D114" s="42"/>
+      <c r="E114" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F114" s="70"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="B115" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="C115" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" s="42"/>
+      <c r="E115" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" s="70"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="B116" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="C116" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D116" s="42"/>
+      <c r="E116" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" s="70"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="B117" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="C117" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D117" s="42"/>
+      <c r="E117" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" s="70"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="B118" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="C118" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D118" s="42"/>
+      <c r="E118" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" s="70"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="41" t="s">
+        <v>290</v>
+      </c>
+      <c r="B119" s="66" t="s">
+        <v>273</v>
+      </c>
+      <c r="C119" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D119" s="42"/>
+      <c r="E119" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F119" s="70"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="B120" s="69" t="s">
+        <v>273</v>
+      </c>
+      <c r="C120" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D120" s="48"/>
+      <c r="E120" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F120" s="71"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="49"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="49"/>
+      <c r="D121" s="49"/>
+      <c r="E121" s="49"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="49"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="49"/>
+      <c r="D122" s="49"/>
+      <c r="E122" s="49"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="49"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="49"/>
+      <c r="D123" s="49"/>
+      <c r="E123" s="49"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="40"/>
+      <c r="B124" s="40"/>
+      <c r="C124" s="40"/>
+      <c r="D124" s="34"/>
+      <c r="E124" s="40"/>
+    </row>
+    <row r="125" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="50" t="s">
+        <v>210</v>
+      </c>
+      <c r="B125" s="40"/>
+      <c r="C125" s="40"/>
+      <c r="D125" s="34"/>
+      <c r="E125" s="40"/>
+    </row>
+    <row r="126" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="51"/>
+      <c r="C126" s="40"/>
+      <c r="D126" s="34"/>
+      <c r="E126" s="40"/>
+    </row>
+    <row r="127" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127" s="28" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A103" s="37" t="s">
+      <c r="C127" s="31" t="s">
+        <v>208</v>
+      </c>
+      <c r="D127" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E127" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F127" s="67" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B128" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D128" s="42"/>
+      <c r="E128" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="F128" s="70"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B129" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="C129" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E129" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F129" s="70"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B130" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C130" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E130" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="F130" s="70"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B131" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C131" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E131" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="F131" s="70"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B132" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C132" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="F132" s="70"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B133" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C133" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E133" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="F133" s="70"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B134" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C134" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E134" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="F134" s="70"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="B135" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="C135" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E135" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135" s="70"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B136" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C136" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E136" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="F136" s="70"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B137" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C137" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="E137" s="42" t="s">
+        <v>265</v>
+      </c>
+      <c r="F137" s="70"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="B138" s="38" t="s">
+        <v>219</v>
+      </c>
+      <c r="C138" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="E138" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F138" s="70"/>
+    </row>
+    <row r="139" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="B139" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="C139" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E139" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F139" s="70"/>
+    </row>
+    <row r="140" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="B140" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="C140" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="E140" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F140" s="70"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="B141" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="B103" s="38" t="s">
+      <c r="C141" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="E141" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F141" s="70"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="37" t="s">
         <v>237</v>
       </c>
-      <c r="C103" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="E103" s="43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="37" t="s">
+      <c r="B142" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="B104" s="38" t="s">
+      <c r="C142" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="E142" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" s="70"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="C104" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="E104" s="43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="37" t="s">
+      <c r="B143" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="B105" s="38" t="s">
+      <c r="C143" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="E143" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F143" s="70"/>
+    </row>
+    <row r="144" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="37" t="s">
         <v>241</v>
       </c>
-      <c r="C105" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="E105" s="43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="37" t="s">
+      <c r="B144" s="38" t="s">
         <v>242</v>
       </c>
-      <c r="B106" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="C106" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="E106" s="43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="B107" s="38" t="s">
-        <v>245</v>
-      </c>
-      <c r="C107" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="E107" s="43" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="37" t="s">
-        <v>248</v>
-      </c>
+      <c r="C144" s="42" t="s">
+        <v>207</v>
+      </c>
+      <c r="E144" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F144" s="70"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="B145" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="C145" s="38" t="s">
+        <v>207</v>
+      </c>
+      <c r="E145" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F145" s="70"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F146" s="70"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F147" s="70"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F148" s="70"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F149" s="70"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="F150" s="70"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F151" s="70"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F152" s="70"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F153" s="70"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F154" s="70"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F155" s="70"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F156" s="70"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F157" s="70"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F158" s="70"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F159" s="70"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F160" s="70"/>
+    </row>
+    <row r="161" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F161" s="70"/>
+    </row>
+    <row r="162" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F162" s="70"/>
+    </row>
+    <row r="163" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F163" s="70"/>
+    </row>
+    <row r="164" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F164" s="70"/>
+    </row>
+    <row r="165" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F165" s="70"/>
+    </row>
+    <row r="166" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F166" s="70"/>
+    </row>
+    <row r="167" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F167" s="70"/>
+    </row>
+    <row r="168" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F168" s="70"/>
+    </row>
+    <row r="169" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F169" s="70"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C4:C63 C67:C75 C86 C91:C97 C99:C101">
-    <cfRule type="containsText" dxfId="51" priority="50" stopIfTrue="1" operator="containsText" text="Delete">
+  <conditionalFormatting sqref="C4:C63 C67:C75 C128:C134 C136:C138 C92:C98 C121:C123">
+    <cfRule type="containsText" dxfId="131" priority="134" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="51" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="130" priority="135" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="52" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="129" priority="136" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C63 C67:C75 C86 C91:C97 C99:C101">
-    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="None">
+  <conditionalFormatting sqref="C4:C63 C67:C75 C128:C134 C136:C138 C92:C98 C121:C123">
+    <cfRule type="containsText" dxfId="128" priority="133" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79">
-    <cfRule type="containsText" dxfId="47" priority="46" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="127" priority="130" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="126" priority="131" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="48" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="125" priority="132" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79">
-    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="124" priority="129" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81">
-    <cfRule type="containsText" dxfId="43" priority="37" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="123" priority="121" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80">
-    <cfRule type="containsText" dxfId="42" priority="42" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="122" priority="126" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="121" priority="127" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="44" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="120" priority="128" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C80">
-    <cfRule type="containsText" dxfId="39" priority="41" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="119" priority="125" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C81">
-    <cfRule type="containsText" dxfId="38" priority="38" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="118" priority="122" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C81)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="117" priority="123" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C81)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="40" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="116" priority="124" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C81)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C83:C85">
-    <cfRule type="containsText" dxfId="35" priority="29" operator="containsText" text="None">
+  <conditionalFormatting sqref="C83:C87">
+    <cfRule type="containsText" dxfId="115" priority="113" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82">
-    <cfRule type="containsText" dxfId="34" priority="33" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="114" priority="117" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C82">
-    <cfRule type="containsText" dxfId="33" priority="34" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="113" priority="118" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C82)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="35" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="112" priority="119" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C82)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="36" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="111" priority="120" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C82)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C98">
-    <cfRule type="containsText" dxfId="30" priority="1" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C98)))</formula>
+  <conditionalFormatting sqref="C135">
+    <cfRule type="containsText" dxfId="110" priority="85" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C135)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C83:C85">
-    <cfRule type="containsText" dxfId="29" priority="30" stopIfTrue="1" operator="containsText" text="Delete">
+  <conditionalFormatting sqref="C83:C87">
+    <cfRule type="containsText" dxfId="109" priority="114" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="31" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="108" priority="115" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="32" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="107" priority="116" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C83)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C139">
+    <cfRule type="containsText" dxfId="106" priority="110" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C139)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="105" priority="111" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C139)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="104" priority="112" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C139)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C139">
+    <cfRule type="containsText" dxfId="103" priority="109" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C139)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C140">
+    <cfRule type="containsText" dxfId="102" priority="106" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C140)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="101" priority="107" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C140)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="100" priority="108" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C140)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C140">
+    <cfRule type="containsText" dxfId="99" priority="105" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C140)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C141">
+    <cfRule type="containsText" dxfId="98" priority="102" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C141)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="97" priority="103" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C141)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="96" priority="104" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C141)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C141">
+    <cfRule type="containsText" dxfId="95" priority="101" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C141)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C142">
+    <cfRule type="containsText" dxfId="94" priority="98" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C142)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="93" priority="99" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C142)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="92" priority="100" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C142)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C142">
+    <cfRule type="containsText" dxfId="91" priority="97" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C142)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C143">
+    <cfRule type="containsText" dxfId="90" priority="94" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C143)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="89" priority="95" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C143)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="88" priority="96" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C143)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C143">
+    <cfRule type="containsText" dxfId="87" priority="93" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C143)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C144">
+    <cfRule type="containsText" dxfId="86" priority="90" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C144)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="91" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C144)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="84" priority="92" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C144)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C144">
+    <cfRule type="containsText" dxfId="83" priority="89" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C144)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C135">
+    <cfRule type="containsText" dxfId="82" priority="86" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C135)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="81" priority="87" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C135)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="80" priority="88" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C135)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C91">
+    <cfRule type="containsText" dxfId="79" priority="82" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C91)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="83" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C91)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="77" priority="84" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C91)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C91">
+    <cfRule type="containsText" dxfId="76" priority="81" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102">
-    <cfRule type="containsText" dxfId="26" priority="26" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="75" priority="74" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="74" priority="75" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="73" priority="76" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102">
-    <cfRule type="containsText" dxfId="23" priority="25" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="72" priority="73" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C103">
-    <cfRule type="containsText" dxfId="22" priority="22" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="71" priority="70" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C103)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="23" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="70" priority="71" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C103)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="69" priority="72" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C103)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C103">
-    <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="68" priority="69" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C103)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C104">
-    <cfRule type="containsText" dxfId="18" priority="18" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="67" priority="66" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C104)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="66" priority="67" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C104)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="65" priority="68" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C104)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C104">
-    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="64" priority="65" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C104)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105">
-    <cfRule type="containsText" dxfId="14" priority="14" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="63" priority="62" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C105)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="62" priority="63" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C105)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="61" priority="64" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C105)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105">
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="60" priority="61" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C105)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C106">
-    <cfRule type="containsText" dxfId="10" priority="10" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="59" priority="58" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C106)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C106)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="57" priority="60" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C106)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C106">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="56" priority="57" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C106)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C107">
-    <cfRule type="containsText" dxfId="6" priority="6" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="55" priority="54" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C107)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C107)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="53" priority="56" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C107)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C107">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="52" priority="53" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C107)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C98">
-    <cfRule type="containsText" dxfId="2" priority="2" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C98)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C98)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C98)))</formula>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="containsText" dxfId="51" priority="50" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C108)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="51" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C108)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="52" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C108)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C108)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="containsText" dxfId="47" priority="46" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C109)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C109)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="48" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C109)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C109)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C110">
+    <cfRule type="containsText" dxfId="43" priority="42" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C110)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C110)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="44" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C110)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C110">
+    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C110)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C111">
+    <cfRule type="containsText" dxfId="39" priority="38" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C111)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C111)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="40" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C111)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C111">
+    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C111)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C112">
+    <cfRule type="containsText" dxfId="35" priority="34" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C112)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C112)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C112)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C112">
+    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C112)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C113">
+    <cfRule type="containsText" dxfId="31" priority="30" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C113)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C113)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="32" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C113)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C113">
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C113)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C114">
+    <cfRule type="containsText" dxfId="27" priority="26" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C114)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C114)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="28" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C114)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C114">
+    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C114)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C115">
+    <cfRule type="containsText" dxfId="23" priority="22" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C115)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C115)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C115)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C115">
+    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C115)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C116">
+    <cfRule type="containsText" dxfId="19" priority="18" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C116)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C116)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C116)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C116">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C116)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C117">
+    <cfRule type="containsText" dxfId="15" priority="14" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C117)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C117)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C117)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C117">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C117)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C118">
+    <cfRule type="containsText" dxfId="11" priority="10" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C118)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C118)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C118)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C118">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C118)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119">
+    <cfRule type="containsText" dxfId="7" priority="6" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C119)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C119)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C119)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C119)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C120">
+    <cfRule type="containsText" dxfId="3" priority="2" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C120)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C120)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C120)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C120">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C120)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C63 C67:C75 C79:C86 C91:C107">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C63 C67:C75 C128:C144 C79:C87 C91:C98 C102:C123">
       <formula1>$G$4:$G$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -4393,8 +6601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A53:E104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4408,69 +6616,69 @@
   <sheetData>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C53" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E54" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="14"/>
       <c r="C55" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="15"/>
       <c r="B56" s="4"/>
       <c r="C56" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="5"/>
@@ -4478,10 +6686,10 @@
     </row>
     <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="5"/>
@@ -4489,10 +6697,10 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>115</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="5"/>
@@ -4500,10 +6708,10 @@
     </row>
     <row r="60" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="5"/>
@@ -4511,10 +6719,10 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B61" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="5"/>
@@ -4522,10 +6730,10 @@
     </row>
     <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="5"/>
@@ -4533,10 +6741,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B63" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="5"/>
@@ -4544,10 +6752,10 @@
     </row>
     <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="5"/>
@@ -4555,10 +6763,10 @@
     </row>
     <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="5"/>
@@ -4566,25 +6774,25 @@
     </row>
     <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="C66" s="9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E66" s="9"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B67" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="5"/>
@@ -4592,10 +6800,10 @@
     </row>
     <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="5"/>
@@ -4603,10 +6811,10 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="5"/>
@@ -4614,88 +6822,88 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B70" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B70" s="11" t="s">
-        <v>36</v>
-      </c>
       <c r="C70" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E70" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="14"/>
       <c r="C71" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E71" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="14"/>
       <c r="C72" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E72" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="14"/>
       <c r="C73" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="14"/>
       <c r="C74" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E74" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="14"/>
       <c r="C75" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E75" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="14"/>
       <c r="C76" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E76" s="6"/>
     </row>
@@ -4703,19 +6911,19 @@
       <c r="A77" s="15"/>
       <c r="B77" s="4"/>
       <c r="C77" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E77" s="7"/>
     </row>
     <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="4"/>
@@ -4723,16 +6931,16 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E79" s="6"/>
     </row>
@@ -4740,19 +6948,19 @@
       <c r="A80" s="15"/>
       <c r="B80" s="4"/>
       <c r="C80" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E80" s="7"/>
     </row>
     <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A81" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="4"/>
@@ -4760,10 +6968,10 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="4"/>
@@ -4771,10 +6979,10 @@
     </row>
     <row r="83" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="4"/>
@@ -4782,10 +6990,10 @@
     </row>
     <row r="84" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="4"/>
@@ -4793,10 +7001,10 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>46</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>47</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="4"/>
@@ -4804,10 +7012,10 @@
     </row>
     <row r="86" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="4"/>
@@ -4815,10 +7023,10 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="4"/>
@@ -4826,10 +7034,10 @@
     </row>
     <row r="88" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="4"/>
@@ -4837,10 +7045,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>53</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="4"/>
@@ -4848,10 +7056,10 @@
     </row>
     <row r="90" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="4"/>
@@ -4859,10 +7067,10 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="B91" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="4"/>
@@ -4870,10 +7078,10 @@
     </row>
     <row r="92" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="4"/>
@@ -4881,10 +7089,10 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>58</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="4"/>
@@ -4892,10 +7100,10 @@
     </row>
     <row r="94" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A94" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="4"/>
@@ -4903,10 +7111,10 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="4"/>
@@ -4914,10 +7122,10 @@
     </row>
     <row r="96" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="4"/>
@@ -4925,10 +7133,10 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="4"/>
@@ -4936,10 +7144,10 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>106</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="4"/>
@@ -4947,10 +7155,10 @@
     </row>
     <row r="99" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="4"/>
@@ -4958,10 +7166,10 @@
     </row>
     <row r="100" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="4"/>
@@ -4969,10 +7177,10 @@
     </row>
     <row r="101" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="4"/>
@@ -4980,10 +7188,10 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="B102" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="4"/>
@@ -4991,10 +7199,10 @@
     </row>
     <row r="103" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="4"/>
@@ -5002,10 +7210,10 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="4"/>
@@ -5023,8 +7231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A38:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:B41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5038,48 +7246,48 @@
   <sheetData>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C38" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="13" t="s">
         <v>138</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="E38" s="13" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E39" s="22"/>
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E40" s="14"/>
     </row>
@@ -5087,25 +7295,25 @@
       <c r="A41" s="19"/>
       <c r="B41" s="4"/>
       <c r="C41" s="19" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E41" s="15"/>
     </row>
     <row r="42" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D42" s="20" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E42" s="14"/>
     </row>
@@ -5113,19 +7321,19 @@
       <c r="A43" s="19"/>
       <c r="B43" s="4"/>
       <c r="C43" s="19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E43" s="15"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="24"/>
@@ -5137,4 +7345,284 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A43:E52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A47" sqref="A47:E47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="90.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="59.28515625" customWidth="1"/>
+    <col min="5" max="5" width="81.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E44" s="6"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="C45" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="D45" t="s">
+        <v>250</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="15"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="D46" s="63" t="s">
+        <v>253</v>
+      </c>
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="72" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="4" max="4" width="69.5703125" customWidth="1"/>
+    <col min="5" max="5" width="78.28515625" customWidth="1"/>
+    <col min="6" max="6" width="62.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E2" s="72" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="5:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="5:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="5:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Technical documentation/AL table analysis.xlsx
+++ b/Technical documentation/AL table analysis.xlsx
@@ -19,7 +19,7 @@
     <sheet name="Doc Disk Structure" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table overview'!$A$66:$E$66</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table overview'!$A$72:$E$72</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -84,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B66" authorId="0" shapeId="0">
+    <comment ref="B72" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D66" authorId="0" shapeId="0">
+    <comment ref="D72" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E66" authorId="0" shapeId="0">
+    <comment ref="E72" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -156,7 +156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B78" authorId="0" shapeId="0">
+    <comment ref="B93" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -180,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D78" authorId="0" shapeId="0">
+    <comment ref="D93" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -204,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E78" authorId="0" shapeId="0">
+    <comment ref="E93" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -228,7 +228,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B90" authorId="0" shapeId="0">
+    <comment ref="B103" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -252,7 +252,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D90" authorId="0" shapeId="0">
+    <comment ref="D103" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -276,7 +276,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E90" authorId="0" shapeId="0">
+    <comment ref="E103" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -300,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B101" authorId="0" shapeId="0">
+    <comment ref="B112" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -324,7 +324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D101" authorId="0" shapeId="0">
+    <comment ref="D112" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -348,7 +348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E101" authorId="0" shapeId="0">
+    <comment ref="E112" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -372,7 +372,79 @@
         </r>
       </text>
     </comment>
-    <comment ref="A125" authorId="0" shapeId="0">
+    <comment ref="B136" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martens Maarten:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+What does the table do?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D136" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martens Maarten:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Explain the change</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E136" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martens Maarten:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+In which ER diagram can it be found?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A145" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -396,7 +468,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B127" authorId="0" shapeId="0">
+    <comment ref="B147" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -420,7 +492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D127" authorId="0" shapeId="0">
+    <comment ref="D147" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -444,7 +516,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E127" authorId="0" shapeId="0">
+    <comment ref="E147" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -613,7 +685,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="346">
   <si>
     <t>Table name</t>
   </si>
@@ -1159,9 +1231,6 @@
   </si>
   <si>
     <t>Crosstable between the distributor and the game_release table. A release has a single publisher (but there may be multiple releases of the game with different publishers).</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the cross table between a release and the language table. A release may have multiple languages.</t>
   </si>
   <si>
     <t>This is the cross table between the release table, emulator table and the incompatibility table. Which emulators the release is NOT compatible with. A release may be incompatible with multiple emulators.</t>
@@ -1554,7 +1623,121 @@
     <t>The category this document belongs to eg. doc disk game, doc disk tool, doc game, doc tool ...</t>
   </si>
   <si>
-    <t>LAST ONE : doc</t>
+    <t>Doc Disk structure</t>
+  </si>
+  <si>
+    <t>Doc Disk Structure</t>
+  </si>
+  <si>
+    <t>Main format table (Kyro, SCP, MSA, Past, Files ...) - This table will be replaced by format field in the dump table</t>
+  </si>
+  <si>
+    <t>download_format</t>
+  </si>
+  <si>
+    <t>The cross table between a release and the language table. A release may have multiple languages.</t>
+  </si>
+  <si>
+    <t>download_options</t>
+  </si>
+  <si>
+    <t>Replaced by the whole game release structure</t>
+  </si>
+  <si>
+    <t>gameinfo_screenshot</t>
+  </si>
+  <si>
+    <t>This table is currently not used???</t>
+  </si>
+  <si>
+    <t>game_arcade</t>
+  </si>
+  <si>
+    <t>Replaced by the Port table</t>
+  </si>
+  <si>
+    <t>game_boxscan</t>
+  </si>
+  <si>
+    <t>This table should be renamed game_release_boxscan and the game_id should become game_release_id - To check with the team as this is not yet discussed or placed in the ER diagram</t>
+  </si>
+  <si>
+    <t>Table containing the boxscans of the game - back and front</t>
+  </si>
+  <si>
+    <t>game_box_couples</t>
+  </si>
+  <si>
+    <t>Table containing the info which of the scans is the front and back of the box</t>
+  </si>
+  <si>
+    <t>This table should be renamed game_release_box_couples - To check with the team as this is not yet discussed or placed in the ER diagram</t>
+  </si>
+  <si>
+    <t>game_development</t>
+  </si>
+  <si>
+    <t>This table is replaced by the status field in the game_release table</t>
+  </si>
+  <si>
+    <t>game_diskscan</t>
+  </si>
+  <si>
+    <t>This table is replaced by the media table in the dump structure</t>
+  </si>
+  <si>
+    <t>game_download</t>
+  </si>
+  <si>
+    <t>Replaced by the dump table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">game_download_crew </t>
+  </si>
+  <si>
+    <t>This table should be replaced by a game_release_crew table? We don't have the crews linked to a release now, only pubs, devs, distributers and individuals</t>
+  </si>
+  <si>
+    <t>game_download_details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cross table to the crew table - this one is filled if the download is a crew release </t>
+  </si>
+  <si>
+    <t>Replaced by format field in the dump table</t>
+  </si>
+  <si>
+    <t>game_download_individual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replaced by the game_release structure </t>
+  </si>
+  <si>
+    <t>game_download_lingo</t>
+  </si>
+  <si>
+    <t>Replaced by game_release_language</t>
+  </si>
+  <si>
+    <t>game_download_menu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We still need to link the menu section to a game_release - see github pull #381 </t>
+  </si>
+  <si>
+    <t>game_download_options</t>
+  </si>
+  <si>
+    <t>game_download_set</t>
+  </si>
+  <si>
+    <t>Not used anymore since a media can have multiple dumps</t>
+  </si>
+  <si>
+    <t>game-download_tos</t>
+  </si>
+  <si>
+    <t>Last : game_extra_info</t>
   </si>
 </sst>
 </file>
@@ -1638,7 +1821,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1836,11 +2019,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2036,11 +2234,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="204">
+  <dxfs count="232">
     <dxf>
       <fill>
         <patternFill>
@@ -2604,6 +2817,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFC2E49C"/>
         </patternFill>
       </fill>
@@ -2793,6 +3013,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFC2E49C"/>
         </patternFill>
       </fill>
@@ -2842,6 +3069,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -2849,6 +3097,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -2912,6 +3181,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -2962,6 +3252,125 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3948,11 +4357,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G169"/>
+  <dimension ref="A1:G189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A151" sqref="A151"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3966,7 +4373,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="57" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -3988,7 +4395,7 @@
         <v>10</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>1</v>
@@ -3997,7 +4404,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="67" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4014,11 +4421,11 @@
         <v>8</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F4" s="70"/>
       <c r="G4" s="64" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4033,7 +4440,7 @@
       </c>
       <c r="D5" s="42"/>
       <c r="E5" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F5" s="70"/>
       <c r="G5" s="64" t="s">
@@ -4071,7 +4478,7 @@
       </c>
       <c r="D7" s="42"/>
       <c r="E7" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F7" s="70"/>
     </row>
@@ -4103,7 +4510,7 @@
       </c>
       <c r="D9" s="42"/>
       <c r="E9" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F9" s="70"/>
     </row>
@@ -4135,7 +4542,7 @@
       </c>
       <c r="D11" s="42"/>
       <c r="E11" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F11" s="70"/>
     </row>
@@ -4147,11 +4554,11 @@
         <v>22</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D12" s="42"/>
       <c r="E12" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F12" s="70"/>
     </row>
@@ -4163,10 +4570,10 @@
         <v>24</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E13" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F13" s="70"/>
     </row>
@@ -4178,11 +4585,11 @@
         <v>28</v>
       </c>
       <c r="C14" s="42" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D14" s="42"/>
       <c r="E14" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F14" s="70"/>
     </row>
@@ -4210,10 +4617,10 @@
         <v>30</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F16" s="70"/>
     </row>
@@ -4240,10 +4647,10 @@
         <v>33</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F18" s="70"/>
     </row>
@@ -4258,7 +4665,7 @@
         <v>17</v>
       </c>
       <c r="E19" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F19" s="70"/>
     </row>
@@ -4267,7 +4674,7 @@
         <v>36</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C20" s="42" t="s">
         <v>3</v>
@@ -4288,7 +4695,7 @@
         <v>17</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F21" s="70"/>
     </row>
@@ -4297,13 +4704,13 @@
         <v>110</v>
       </c>
       <c r="B22" s="39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C22" s="42" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F22" s="70"/>
     </row>
@@ -4318,7 +4725,7 @@
         <v>17</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F23" s="70"/>
     </row>
@@ -4339,10 +4746,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
-        <v>73</v>
+        <v>316</v>
       </c>
       <c r="B25" s="39" t="s">
-        <v>74</v>
+        <v>317</v>
       </c>
       <c r="C25" s="42" t="s">
         <v>3</v>
@@ -4354,10 +4761,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B26" s="39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C26" s="42" t="s">
         <v>3</v>
@@ -4369,10 +4776,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B27" s="39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C27" s="42" t="s">
         <v>3</v>
@@ -4384,10 +4791,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B28" s="39" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C28" s="42" t="s">
         <v>3</v>
@@ -4399,7 +4806,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B29" s="39" t="s">
         <v>76</v>
@@ -4412,9 +4819,9 @@
       </c>
       <c r="F29" s="70"/>
     </row>
-    <row r="30" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B30" s="39" t="s">
         <v>76</v>
@@ -4429,7 +4836,7 @@
     </row>
     <row r="31" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B31" s="39" t="s">
         <v>76</v>
@@ -4444,7 +4851,7 @@
     </row>
     <row r="32" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B32" s="39" t="s">
         <v>76</v>
@@ -4459,7 +4866,7 @@
     </row>
     <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B33" s="39" t="s">
         <v>76</v>
@@ -4472,9 +4879,9 @@
       </c>
       <c r="F33" s="70"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B34" s="39" t="s">
         <v>76</v>
@@ -4487,9 +4894,9 @@
       </c>
       <c r="F34" s="70"/>
     </row>
-    <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B35" s="39" t="s">
         <v>76</v>
@@ -4502,9 +4909,9 @@
       </c>
       <c r="F35" s="70"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B36" s="39" t="s">
         <v>76</v>
@@ -4517,12 +4924,12 @@
       </c>
       <c r="F36" s="70"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="35" t="s">
-        <v>88</v>
+        <v>326</v>
       </c>
       <c r="B37" s="39" t="s">
-        <v>76</v>
+        <v>327</v>
       </c>
       <c r="C37" s="42" t="s">
         <v>3</v>
@@ -4534,998 +4941,1068 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="35" t="s">
-        <v>174</v>
+        <v>87</v>
       </c>
       <c r="B38" s="39" t="s">
-        <v>193</v>
+        <v>76</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E38" s="42" t="s">
-        <v>265</v>
+        <v>3</v>
+      </c>
+      <c r="E38" s="39" t="s">
+        <v>9</v>
       </c>
       <c r="F38" s="70"/>
     </row>
-    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="B39" s="42" t="s">
-        <v>43</v>
+        <v>324</v>
+      </c>
+      <c r="B39" s="39" t="s">
+        <v>325</v>
       </c>
       <c r="C39" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E39" s="42" t="s">
-        <v>265</v>
+        <v>3</v>
+      </c>
+      <c r="E39" s="39" t="s">
+        <v>9</v>
       </c>
       <c r="F39" s="70"/>
     </row>
-    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="35" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B40" s="39" t="s">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E40" s="42" t="s">
-        <v>265</v>
+        <v>3</v>
+      </c>
+      <c r="E40" s="39" t="s">
+        <v>9</v>
       </c>
       <c r="F40" s="70"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="B41" s="39" t="s">
-        <v>50</v>
+        <v>314</v>
+      </c>
+      <c r="B41" s="35" t="s">
+        <v>315</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E41" s="42" t="s">
-        <v>265</v>
-      </c>
-      <c r="F41" s="70"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="35"/>
+    </row>
+    <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="39" t="s">
-        <v>53</v>
+        <v>318</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>320</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E42" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="F42" s="70"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D42" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="E42" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="F42" s="35"/>
+    </row>
+    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="B43" s="39" t="s">
-        <v>54</v>
+        <v>321</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>322</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E43" s="42" t="s">
-        <v>265</v>
-      </c>
-      <c r="F43" s="70"/>
+        <v>2</v>
+      </c>
+      <c r="D43" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="E43" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="F43" s="35"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="35" t="s">
-        <v>47</v>
+        <v>174</v>
       </c>
       <c r="B44" s="39" t="s">
-        <v>48</v>
+        <v>192</v>
       </c>
       <c r="C44" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E44" s="45" t="s">
-        <v>49</v>
+      <c r="E44" s="42" t="s">
+        <v>264</v>
       </c>
       <c r="F44" s="70"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="B45" s="39" t="s">
-        <v>55</v>
+        <v>91</v>
+      </c>
+      <c r="B45" s="42" t="s">
+        <v>43</v>
       </c>
       <c r="C45" s="42" t="s">
         <v>17</v>
       </c>
       <c r="E45" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F45" s="70"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="35" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B46" s="39" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C46" s="42" t="s">
         <v>17</v>
       </c>
       <c r="E46" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F46" s="70"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="35" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B47" s="39" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C47" s="42" t="s">
         <v>17</v>
       </c>
       <c r="E47" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F47" s="70"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="35" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="B48" s="39" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="C48" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E48" s="42" t="s">
-        <v>265</v>
+      <c r="E48" s="45" t="s">
+        <v>49</v>
       </c>
       <c r="F48" s="70"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="35" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="C49" s="42" t="s">
         <v>17</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F49" s="70"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="35" t="s">
-        <v>98</v>
+        <v>47</v>
       </c>
       <c r="B50" s="39" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="C50" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E50" s="42" t="s">
-        <v>265</v>
+      <c r="E50" s="45" t="s">
+        <v>49</v>
       </c>
       <c r="F50" s="70"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="35" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="C51" s="42" t="s">
         <v>17</v>
       </c>
       <c r="E51" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F51" s="70"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="35" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B52" s="39" t="s">
-        <v>213</v>
+        <v>62</v>
       </c>
       <c r="C52" s="42" t="s">
         <v>17</v>
       </c>
       <c r="E52" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F52" s="70"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="35" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B53" s="39" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="C53" s="42" t="s">
         <v>17</v>
       </c>
       <c r="E53" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F53" s="70"/>
     </row>
-    <row r="54" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="35" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B54" s="39" t="s">
-        <v>212</v>
+        <v>68</v>
       </c>
       <c r="C54" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="39"/>
       <c r="E54" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F54" s="70"/>
     </row>
-    <row r="55" spans="1:6" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="35" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="B55" s="39" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="C55" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="39"/>
       <c r="E55" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F55" s="70"/>
     </row>
-    <row r="56" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="35" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="B56" s="39" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="C56" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="D56" s="39"/>
+        <v>17</v>
+      </c>
       <c r="E56" s="42" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F56" s="70"/>
     </row>
-    <row r="57" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="35" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="C57" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" s="39"/>
-      <c r="E57" s="39" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="E57" s="42" t="s">
+        <v>264</v>
       </c>
       <c r="F57" s="70"/>
     </row>
-    <row r="58" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="35" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="B58" s="39" t="s">
-        <v>128</v>
+        <v>212</v>
       </c>
       <c r="C58" s="42" t="s">
         <v>17</v>
       </c>
+      <c r="D58" s="39"/>
       <c r="E58" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="F58" s="70"/>
+    </row>
+    <row r="59" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="39"/>
+      <c r="E59" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="F59" s="70"/>
+    </row>
+    <row r="60" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="C60" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="39"/>
+      <c r="E60" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="F60" s="70"/>
+    </row>
+    <row r="61" spans="1:6" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="39"/>
+      <c r="E61" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="F61" s="70"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="E62" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="F62" s="70"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C63" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E63" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F63" s="70"/>
+    </row>
+    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="F64" s="35"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" s="35" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F65" s="35"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="46" t="s">
+        <v>312</v>
+      </c>
+      <c r="B66" s="47" t="s">
+        <v>313</v>
+      </c>
+      <c r="C66" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="47"/>
+      <c r="E66" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="71"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="34"/>
+      <c r="B67" s="34"/>
+      <c r="C67" s="49"/>
+      <c r="D67" s="34"/>
+      <c r="E67" s="34"/>
+      <c r="F67" s="30"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="34"/>
+      <c r="B68" s="34"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="34"/>
+      <c r="E68" s="34"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="34"/>
+      <c r="B69" s="34"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+    </row>
+    <row r="70" spans="1:6" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="50" t="s">
+        <v>215</v>
+      </c>
+      <c r="B70" s="40"/>
+      <c r="C70" s="40"/>
+      <c r="D70" s="34"/>
+      <c r="E70" s="40"/>
+    </row>
+    <row r="71" spans="1:6" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="37"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="40"/>
+    </row>
+    <row r="72" spans="1:6" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="D72" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E72" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" s="67" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A73" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="B73" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="C73" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="39"/>
+      <c r="E73" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="F58" s="70"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="B59" s="47" t="s">
-        <v>130</v>
-      </c>
-      <c r="C59" s="48" t="s">
+      <c r="F73" s="70"/>
+    </row>
+    <row r="74" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="26" t="s">
+        <v>204</v>
+      </c>
+      <c r="B74" s="35" t="s">
+        <v>205</v>
+      </c>
+      <c r="C74" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="F74" s="70"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B75" s="39" t="s">
+        <v>216</v>
+      </c>
+      <c r="C75" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D59" s="47"/>
-      <c r="E59" s="47" t="s">
+      <c r="E75" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="F59" s="71"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="34"/>
-      <c r="B60" s="34"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="34"/>
-      <c r="B61" s="34"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="34"/>
-      <c r="E61" s="34"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="34"/>
-      <c r="B62" s="34"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="34"/>
-      <c r="E62" s="34"/>
-    </row>
-    <row r="63" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="34"/>
-      <c r="B63" s="34"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
-    </row>
-    <row r="64" spans="1:6" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="50" t="s">
-        <v>216</v>
-      </c>
-      <c r="B64" s="40"/>
-      <c r="C64" s="40"/>
-      <c r="D64" s="34"/>
-      <c r="E64" s="40"/>
-    </row>
-    <row r="65" spans="1:6" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="37"/>
-      <c r="B65" s="51"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="40"/>
-    </row>
-    <row r="66" spans="1:6" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B66" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="D66" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="E66" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F66" s="67" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="B67" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="C67" s="42" t="s">
+      <c r="F75" s="70"/>
+    </row>
+    <row r="76" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A76" s="35" t="s">
+        <v>116</v>
+      </c>
+      <c r="B76" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="C76" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="39"/>
-      <c r="E67" s="39" t="s">
-        <v>266</v>
-      </c>
-      <c r="F67" s="70"/>
-    </row>
-    <row r="68" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="B68" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="C68" s="42" t="s">
+      <c r="D76" s="34"/>
+      <c r="E76" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="F76" s="70"/>
+    </row>
+    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B77" s="53" t="s">
+        <v>118</v>
+      </c>
+      <c r="C77" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D68" s="39"/>
-      <c r="E68" s="39" t="s">
-        <v>266</v>
-      </c>
-      <c r="F68" s="70"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="B69" s="39" t="s">
-        <v>217</v>
-      </c>
-      <c r="C69" s="42" t="s">
+      <c r="D77" s="53"/>
+      <c r="E77" s="53" t="s">
+        <v>265</v>
+      </c>
+      <c r="F77" s="53"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="35" t="s">
+        <v>328</v>
+      </c>
+      <c r="B78" s="53" t="s">
+        <v>329</v>
+      </c>
+      <c r="C78" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E69" s="39" t="s">
+      <c r="D78" s="77"/>
+      <c r="E78" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="F69" s="70"/>
-    </row>
-    <row r="70" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A70" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="B70" s="53" t="s">
-        <v>198</v>
-      </c>
-      <c r="C70" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="34"/>
-      <c r="E70" s="39" t="s">
-        <v>266</v>
-      </c>
-      <c r="F70" s="70"/>
-    </row>
-    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="36" t="s">
-        <v>117</v>
-      </c>
-      <c r="B71" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="C71" s="55" t="s">
-        <v>17</v>
-      </c>
-      <c r="D71" s="56"/>
-      <c r="E71" s="47" t="s">
-        <v>266</v>
-      </c>
-      <c r="F71" s="71"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="33"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="49"/>
-      <c r="D72" s="34"/>
-      <c r="E72" s="40"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="33"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="49"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="40"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="33"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="49"/>
-      <c r="D74" s="34"/>
-      <c r="E74" s="40"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="33"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="49"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="40"/>
-    </row>
-    <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="50" t="s">
-        <v>220</v>
-      </c>
-      <c r="B76" s="40"/>
-      <c r="C76" s="40"/>
-      <c r="D76" s="34"/>
-      <c r="E76" s="40"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="51"/>
-      <c r="C77" s="40"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="40"/>
-    </row>
-    <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C78" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="D78" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="E78" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F78" s="67" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="58" t="s">
-        <v>221</v>
-      </c>
-      <c r="B79" s="41" t="s">
-        <v>226</v>
+      <c r="F78" s="53"/>
+    </row>
+    <row r="79" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="35" t="s">
+        <v>330</v>
+      </c>
+      <c r="B79" s="53" t="s">
+        <v>333</v>
       </c>
       <c r="C79" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="D79" s="42"/>
-      <c r="E79" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="F79" s="70"/>
+        <v>3</v>
+      </c>
+      <c r="D79" s="77" t="s">
+        <v>331</v>
+      </c>
+      <c r="E79" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="53"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="26" t="s">
-        <v>222</v>
-      </c>
-      <c r="B80" s="17" t="s">
-        <v>223</v>
+      <c r="A80" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="B80" s="53" t="s">
+        <v>338</v>
       </c>
       <c r="C80" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="D80" s="34"/>
-      <c r="E80" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="F80" s="70"/>
+        <v>3</v>
+      </c>
+      <c r="D80" s="77"/>
+      <c r="E80" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" s="53"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="26" t="s">
-        <v>224</v>
-      </c>
-      <c r="B81" s="17" t="s">
-        <v>225</v>
+      <c r="A81" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="B81" s="53" t="s">
+        <v>336</v>
       </c>
       <c r="C81" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="D81" s="34"/>
-      <c r="E81" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="F81" s="70"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="26" t="s">
-        <v>227</v>
-      </c>
-      <c r="B82" s="17" t="s">
-        <v>228</v>
+        <v>3</v>
+      </c>
+      <c r="D81" s="77"/>
+      <c r="E81" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" s="53"/>
+    </row>
+    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A82" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="B82" s="53" t="s">
+        <v>336</v>
       </c>
       <c r="C82" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="D82" s="34"/>
-      <c r="E82" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="F82" s="70"/>
+        <v>3</v>
+      </c>
+      <c r="D82" s="77" t="s">
+        <v>340</v>
+      </c>
+      <c r="E82" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="53"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="36" t="s">
-        <v>229</v>
-      </c>
-      <c r="B83" s="61" t="s">
-        <v>230</v>
-      </c>
-      <c r="C83" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="D83" s="56"/>
-      <c r="E83" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="F83" s="71"/>
+      <c r="A83" s="35" t="s">
+        <v>341</v>
+      </c>
+      <c r="B83" s="53" t="s">
+        <v>313</v>
+      </c>
+      <c r="C83" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D83" s="77"/>
+      <c r="E83" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" s="53"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="59"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="49"/>
-      <c r="D84" s="34"/>
-      <c r="E84" s="60"/>
+      <c r="A84" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="B84" s="53" t="s">
+        <v>343</v>
+      </c>
+      <c r="C84" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D84" s="77"/>
+      <c r="E84" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" s="53"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="59"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="49"/>
-      <c r="D85" s="34"/>
-      <c r="E85" s="60"/>
+      <c r="A85" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="B85" s="53" t="s">
+        <v>336</v>
+      </c>
+      <c r="C85" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D85" s="77"/>
+      <c r="E85" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" s="53"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="59"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="49"/>
-      <c r="D86" s="34"/>
-      <c r="E86" s="60"/>
+      <c r="A86" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B86" s="53" t="s">
+        <v>336</v>
+      </c>
+      <c r="C86" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D86" s="77"/>
+      <c r="E86" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F86" s="53"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="59"/>
-      <c r="B87" s="17"/>
-      <c r="C87" s="49"/>
-      <c r="D87" s="34"/>
-      <c r="E87" s="60"/>
-    </row>
-    <row r="88" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="50" t="s">
-        <v>263</v>
-      </c>
-      <c r="B88" s="40"/>
-      <c r="C88" s="40"/>
-      <c r="D88" s="34"/>
-      <c r="E88" s="40"/>
-    </row>
-    <row r="89" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="51"/>
-      <c r="C89" s="40"/>
+      <c r="A87" s="35" t="s">
+        <v>332</v>
+      </c>
+      <c r="B87" s="53" t="s">
+        <v>329</v>
+      </c>
+      <c r="C87" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D87" s="77"/>
+      <c r="E87" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" s="53"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="36" t="s">
+        <v>310</v>
+      </c>
+      <c r="B88" s="54" t="s">
+        <v>334</v>
+      </c>
+      <c r="C88" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88" s="56"/>
+      <c r="E88" s="47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" s="71"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="33"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="49"/>
       <c r="D89" s="34"/>
       <c r="E89" s="40"/>
     </row>
-    <row r="90" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="27" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="33"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="49"/>
+      <c r="D90" s="34"/>
+      <c r="E90" s="40"/>
+    </row>
+    <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="50" t="s">
+        <v>219</v>
+      </c>
+      <c r="B91" s="40"/>
+      <c r="C91" s="40"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="40"/>
+    </row>
+    <row r="92" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="51"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="34"/>
+      <c r="E92" s="40"/>
+    </row>
+    <row r="93" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B90" s="28" t="s">
+      <c r="B93" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C90" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="D90" s="31" t="s">
+      <c r="C93" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="D93" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E90" s="32" t="s">
+      <c r="E93" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F90" s="67" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="58" t="s">
+      <c r="F93" s="67" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="58" t="s">
+        <v>220</v>
+      </c>
+      <c r="B94" s="41" t="s">
+        <v>225</v>
+      </c>
+      <c r="C94" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="D94" s="42"/>
+      <c r="E94" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="F94" s="70"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="B95" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C95" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="D95" s="34"/>
+      <c r="E95" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="F95" s="70"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="B96" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="C96" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="D96" s="34"/>
+      <c r="E96" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="F96" s="70"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="26" t="s">
+        <v>226</v>
+      </c>
+      <c r="B97" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="C97" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="D97" s="34"/>
+      <c r="E97" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="F97" s="70"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="B98" s="61" t="s">
+        <v>229</v>
+      </c>
+      <c r="C98" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="D98" s="56"/>
+      <c r="E98" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="F98" s="71"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="59"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="49"/>
+      <c r="D99" s="34"/>
+      <c r="E99" s="60"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="59"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="49"/>
+      <c r="D100" s="34"/>
+      <c r="E100" s="60"/>
+    </row>
+    <row r="101" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="B101" s="40"/>
+      <c r="C101" s="40"/>
+      <c r="D101" s="34"/>
+      <c r="E101" s="40"/>
+    </row>
+    <row r="102" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="51"/>
+      <c r="C102" s="40"/>
+      <c r="D102" s="34"/>
+      <c r="E102" s="40"/>
+    </row>
+    <row r="103" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="D103" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E103" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F103" s="67" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C91" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="D91" s="42"/>
-      <c r="E91" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="F91" s="70"/>
-    </row>
-    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="B92" s="38" t="s">
-        <v>267</v>
-      </c>
-      <c r="C92" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="D92" s="34" t="s">
-        <v>268</v>
-      </c>
-      <c r="E92" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="F92" s="70"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="26" t="s">
-        <v>256</v>
-      </c>
-      <c r="B93" s="66" t="s">
-        <v>257</v>
-      </c>
-      <c r="C93" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="E93" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="F93" s="70"/>
-    </row>
-    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="B94" s="54" t="s">
-        <v>267</v>
-      </c>
-      <c r="C94" s="48" t="s">
-        <v>207</v>
-      </c>
-      <c r="D94" s="47"/>
-      <c r="E94" s="54" t="s">
-        <v>264</v>
-      </c>
-      <c r="F94" s="71"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="59"/>
-      <c r="B95" s="40"/>
-      <c r="C95" s="49"/>
-      <c r="D95" s="34"/>
-      <c r="E95" s="40"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="59"/>
-      <c r="B96" s="40"/>
-      <c r="C96" s="49"/>
-      <c r="D96" s="34"/>
-      <c r="E96" s="40"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="33"/>
-      <c r="B97" s="65"/>
-      <c r="C97" s="49"/>
-      <c r="D97" s="34"/>
-      <c r="E97" s="40"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="33"/>
-      <c r="B98" s="17"/>
-      <c r="C98" s="49"/>
-      <c r="D98" s="34"/>
-      <c r="E98" s="40"/>
-    </row>
-    <row r="99" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="50" t="s">
-        <v>271</v>
-      </c>
-      <c r="B99" s="40"/>
-      <c r="C99" s="40"/>
-      <c r="D99" s="34"/>
-      <c r="E99" s="40"/>
-    </row>
-    <row r="100" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="51"/>
-      <c r="C100" s="40"/>
-      <c r="D100" s="34"/>
-      <c r="E100" s="40"/>
-    </row>
-    <row r="101" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B101" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C101" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="D101" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="E101" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F101" s="67" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="58" t="s">
-        <v>272</v>
-      </c>
-      <c r="B102" s="68" t="s">
-        <v>273</v>
-      </c>
-      <c r="C102" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D102" s="42"/>
-      <c r="E102" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F102" s="70"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="41" t="s">
-        <v>274</v>
-      </c>
-      <c r="B103" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="C103" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D103" s="42"/>
-      <c r="E103" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F103" s="70"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="B104" s="66" t="s">
-        <v>273</v>
-      </c>
       <c r="C104" s="42" t="s">
-        <v>3</v>
+        <v>206</v>
       </c>
       <c r="D104" s="42"/>
       <c r="E104" s="42" t="s">
-        <v>9</v>
+        <v>263</v>
       </c>
       <c r="F104" s="70"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="41" t="s">
-        <v>276</v>
-      </c>
-      <c r="B105" s="66" t="s">
-        <v>273</v>
+    <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="B105" s="38" t="s">
+        <v>266</v>
       </c>
       <c r="C105" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D105" s="42"/>
+        <v>206</v>
+      </c>
+      <c r="D105" s="34" t="s">
+        <v>267</v>
+      </c>
       <c r="E105" s="42" t="s">
-        <v>9</v>
+        <v>263</v>
       </c>
       <c r="F105" s="70"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="41" t="s">
-        <v>277</v>
+      <c r="A106" s="26" t="s">
+        <v>255</v>
       </c>
       <c r="B106" s="66" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="C106" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D106" s="42"/>
-      <c r="E106" s="42" t="s">
-        <v>9</v>
+        <v>206</v>
+      </c>
+      <c r="E106" s="38" t="s">
+        <v>263</v>
       </c>
       <c r="F106" s="70"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="41" t="s">
-        <v>278</v>
-      </c>
-      <c r="B107" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="C107" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D107" s="42"/>
-      <c r="E107" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F107" s="70"/>
+    <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="B107" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="C107" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="D107" s="47"/>
+      <c r="E107" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="F107" s="71"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="B108" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="C108" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D108" s="42"/>
-      <c r="E108" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F108" s="70"/>
+      <c r="A108" s="59"/>
+      <c r="B108" s="40"/>
+      <c r="C108" s="49"/>
+      <c r="D108" s="34"/>
+      <c r="E108" s="40"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="B109" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="C109" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D109" s="42"/>
-      <c r="E109" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F109" s="70"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="B110" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="C110" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D110" s="42"/>
-      <c r="E110" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F110" s="70"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="41" t="s">
-        <v>282</v>
-      </c>
-      <c r="B111" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="C111" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D111" s="42"/>
-      <c r="E111" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F111" s="70"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="41" t="s">
-        <v>283</v>
-      </c>
-      <c r="B112" s="66" t="s">
-        <v>273</v>
-      </c>
-      <c r="C112" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D112" s="42"/>
-      <c r="E112" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F112" s="70"/>
+      <c r="A109" s="59"/>
+      <c r="B109" s="40"/>
+      <c r="C109" s="49"/>
+      <c r="D109" s="34"/>
+      <c r="E109" s="40"/>
+    </row>
+    <row r="110" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="50" t="s">
+        <v>270</v>
+      </c>
+      <c r="B110" s="40"/>
+      <c r="C110" s="40"/>
+      <c r="D110" s="34"/>
+      <c r="E110" s="40"/>
+    </row>
+    <row r="111" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="51"/>
+      <c r="C111" s="40"/>
+      <c r="D111" s="34"/>
+      <c r="E111" s="40"/>
+    </row>
+    <row r="112" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="D112" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E112" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F112" s="67" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="41" t="s">
-        <v>284</v>
-      </c>
-      <c r="B113" s="66" t="s">
-        <v>273</v>
+      <c r="A113" s="58" t="s">
+        <v>271</v>
+      </c>
+      <c r="B113" s="68" t="s">
+        <v>272</v>
       </c>
       <c r="C113" s="42" t="s">
         <v>3</v>
@@ -5538,10 +6015,10 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="41" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="B114" s="66" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C114" s="42" t="s">
         <v>3</v>
@@ -5554,10 +6031,10 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="41" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="B115" s="66" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C115" s="42" t="s">
         <v>3</v>
@@ -5570,10 +6047,10 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="41" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="B116" s="66" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C116" s="42" t="s">
         <v>3</v>
@@ -5586,10 +6063,10 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="41" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="B117" s="66" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C117" s="42" t="s">
         <v>3</v>
@@ -5602,10 +6079,10 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="41" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="B118" s="66" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C118" s="42" t="s">
         <v>3</v>
@@ -5618,10 +6095,10 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="41" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
       <c r="B119" s="66" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C119" s="42" t="s">
         <v>3</v>
@@ -5633,961 +6110,1412 @@
       <c r="F119" s="70"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="55" t="s">
-        <v>291</v>
-      </c>
-      <c r="B120" s="69" t="s">
-        <v>273</v>
-      </c>
-      <c r="C120" s="48" t="s">
+      <c r="A120" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="B120" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="C120" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D120" s="48"/>
-      <c r="E120" s="48" t="s">
+      <c r="D120" s="42"/>
+      <c r="E120" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F120" s="71"/>
+      <c r="F120" s="70"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="49"/>
-      <c r="B121" s="1"/>
-      <c r="C121" s="49"/>
-      <c r="D121" s="49"/>
-      <c r="E121" s="49"/>
+      <c r="A121" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="B121" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="C121" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D121" s="42"/>
+      <c r="E121" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121" s="70"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="49"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="49"/>
-      <c r="D122" s="49"/>
-      <c r="E122" s="49"/>
+      <c r="A122" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="B122" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="C122" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D122" s="42"/>
+      <c r="E122" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122" s="70"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="49"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="49"/>
-      <c r="D123" s="49"/>
-      <c r="E123" s="49"/>
+      <c r="A123" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="B123" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="C123" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D123" s="42"/>
+      <c r="E123" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123" s="70"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="40"/>
-      <c r="B124" s="40"/>
-      <c r="C124" s="40"/>
-      <c r="D124" s="34"/>
-      <c r="E124" s="40"/>
-    </row>
-    <row r="125" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="B125" s="40"/>
-      <c r="C125" s="40"/>
-      <c r="D125" s="34"/>
-      <c r="E125" s="40"/>
-    </row>
-    <row r="126" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="51"/>
-      <c r="C126" s="40"/>
-      <c r="D126" s="34"/>
-      <c r="E126" s="40"/>
-    </row>
-    <row r="127" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B127" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C127" s="31" t="s">
-        <v>208</v>
-      </c>
-      <c r="D127" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="E127" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F127" s="67" t="s">
-        <v>292</v>
-      </c>
+      <c r="A124" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="B124" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="C124" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D124" s="42"/>
+      <c r="E124" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F124" s="70"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="B125" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="C125" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D125" s="42"/>
+      <c r="E125" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F125" s="70"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="B126" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="C126" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D126" s="42"/>
+      <c r="E126" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F126" s="70"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="B127" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="C127" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D127" s="42"/>
+      <c r="E127" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F127" s="70"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B128" s="42" t="s">
-        <v>14</v>
+        <v>287</v>
+      </c>
+      <c r="B128" s="66" t="s">
+        <v>272</v>
       </c>
       <c r="C128" s="42" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D128" s="42"/>
       <c r="E128" s="42" t="s">
-        <v>265</v>
+        <v>9</v>
       </c>
       <c r="F128" s="70"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="35" t="s">
-        <v>40</v>
-      </c>
-      <c r="B129" s="39" t="s">
-        <v>214</v>
+      <c r="A129" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="B129" s="66" t="s">
+        <v>272</v>
       </c>
       <c r="C129" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E129" s="43" t="s">
+      <c r="D129" s="42"/>
+      <c r="E129" s="42" t="s">
         <v>9</v>
       </c>
       <c r="F129" s="70"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="35" t="s">
+      <c r="A130" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="B130" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="C130" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D130" s="42"/>
+      <c r="E130" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F130" s="70"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="B131" s="69" t="s">
+        <v>272</v>
+      </c>
+      <c r="C131" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D131" s="48"/>
+      <c r="E131" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" s="71"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="49"/>
+      <c r="B132" s="65"/>
+      <c r="C132" s="49"/>
+      <c r="D132" s="49"/>
+      <c r="E132" s="49"/>
+      <c r="F132" s="30"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="49"/>
+      <c r="B133" s="65"/>
+      <c r="C133" s="49"/>
+      <c r="D133" s="49"/>
+      <c r="E133" s="49"/>
+      <c r="F133" s="30"/>
+    </row>
+    <row r="134" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="50" t="s">
+        <v>307</v>
+      </c>
+      <c r="B134" s="40"/>
+      <c r="C134" s="40"/>
+      <c r="D134" s="34"/>
+      <c r="E134" s="40"/>
+    </row>
+    <row r="135" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="51"/>
+      <c r="C135" s="40"/>
+      <c r="D135" s="34"/>
+      <c r="E135" s="40"/>
+    </row>
+    <row r="136" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C136" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="D136" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E136" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F136" s="67" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" s="55" t="s">
+        <v>292</v>
+      </c>
+      <c r="B137" s="74" t="s">
+        <v>293</v>
+      </c>
+      <c r="C137" s="75" t="s">
+        <v>206</v>
+      </c>
+      <c r="D137" s="74"/>
+      <c r="E137" s="76" t="s">
+        <v>308</v>
+      </c>
+      <c r="F137" s="73"/>
+    </row>
+    <row r="138" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" s="55" t="s">
+        <v>298</v>
+      </c>
+      <c r="B138" s="69" t="s">
+        <v>297</v>
+      </c>
+      <c r="C138" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="D138" s="69"/>
+      <c r="E138" s="54" t="s">
+        <v>308</v>
+      </c>
+      <c r="F138" s="73"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="55" t="s">
+        <v>299</v>
+      </c>
+      <c r="B139" s="69" t="s">
+        <v>300</v>
+      </c>
+      <c r="C139" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="D139" s="69"/>
+      <c r="E139" s="54" t="s">
+        <v>308</v>
+      </c>
+      <c r="F139" s="73"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="B140" s="69" t="s">
+        <v>301</v>
+      </c>
+      <c r="C140" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="D140" s="69"/>
+      <c r="E140" s="54" t="s">
+        <v>308</v>
+      </c>
+      <c r="F140" s="73"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="55" t="s">
+        <v>303</v>
+      </c>
+      <c r="B141" s="69" t="s">
+        <v>304</v>
+      </c>
+      <c r="C141" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="D141" s="69"/>
+      <c r="E141" s="54" t="s">
+        <v>308</v>
+      </c>
+      <c r="F141" s="73"/>
+    </row>
+    <row r="142" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A142" s="55" t="s">
+        <v>305</v>
+      </c>
+      <c r="B142" s="69" t="s">
+        <v>306</v>
+      </c>
+      <c r="C142" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="D142" s="69"/>
+      <c r="E142" s="54" t="s">
+        <v>308</v>
+      </c>
+      <c r="F142" s="73"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="49"/>
+      <c r="B143" s="65"/>
+      <c r="C143" s="49"/>
+      <c r="D143" s="49"/>
+      <c r="E143" s="49"/>
+      <c r="F143" s="30"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="49"/>
+      <c r="B144" s="65"/>
+      <c r="C144" s="49"/>
+      <c r="D144" s="49"/>
+      <c r="E144" s="49"/>
+      <c r="F144" s="30"/>
+    </row>
+    <row r="145" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="B145" s="40"/>
+      <c r="C145" s="40"/>
+      <c r="D145" s="34"/>
+      <c r="E145" s="40"/>
+    </row>
+    <row r="146" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="51"/>
+      <c r="C146" s="40"/>
+      <c r="D146" s="34"/>
+      <c r="E146" s="40"/>
+    </row>
+    <row r="147" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="D147" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E147" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F147" s="67" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B148" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C148" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D148" s="42"/>
+      <c r="E148" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="F148" s="70"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B149" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="C149" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E149" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F149" s="70"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B130" s="39" t="s">
+      <c r="B150" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C130" s="42" t="s">
+      <c r="C150" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E130" s="42" t="s">
-        <v>265</v>
-      </c>
-      <c r="F130" s="70"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="35" t="s">
+      <c r="E150" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="F150" s="70"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B131" s="39" t="s">
+      <c r="B151" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C131" s="42" t="s">
+      <c r="C151" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E131" s="42" t="s">
-        <v>265</v>
-      </c>
-      <c r="F131" s="70"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="35" t="s">
+      <c r="E151" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="F151" s="70"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="B132" s="39" t="s">
+      <c r="B152" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="C132" s="42" t="s">
+      <c r="C152" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E132" s="42" t="s">
-        <v>265</v>
-      </c>
-      <c r="F132" s="70"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="35" t="s">
+      <c r="E152" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="F152" s="70"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B133" s="39" t="s">
+      <c r="B153" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="C133" s="42" t="s">
+      <c r="C153" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E133" s="42" t="s">
-        <v>265</v>
-      </c>
-      <c r="F133" s="70"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="35" t="s">
+      <c r="E153" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="F153" s="70"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B134" s="39" t="s">
+      <c r="B154" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C134" s="42" t="s">
+      <c r="C154" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E134" s="42" t="s">
-        <v>265</v>
-      </c>
-      <c r="F134" s="70"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="37" t="s">
+      <c r="E154" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="F154" s="70"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="B155" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="B135" s="38" t="s">
-        <v>244</v>
-      </c>
-      <c r="C135" s="42" t="s">
+      <c r="C155" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E135" s="43" t="s">
+      <c r="E155" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F135" s="70"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="35" t="s">
+      <c r="F155" s="70"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="B136" s="39" t="s">
+      <c r="B156" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C136" s="42" t="s">
+      <c r="C156" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E136" s="42" t="s">
-        <v>265</v>
-      </c>
-      <c r="F136" s="70"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="35" t="s">
+      <c r="E156" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="F156" s="70"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="B137" s="39" t="s">
+      <c r="B157" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C137" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="E137" s="42" t="s">
-        <v>265</v>
-      </c>
-      <c r="F137" s="70"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="37" t="s">
+      <c r="C157" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="E157" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="F157" s="70"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="B158" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="B138" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="C138" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="E138" s="43" t="s">
+      <c r="C158" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="E158" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F138" s="70"/>
-    </row>
-    <row r="139" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" s="37" t="s">
+      <c r="F158" s="70"/>
+    </row>
+    <row r="159" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A159" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="B159" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="B139" s="38" t="s">
+      <c r="C159" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E159" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F159" s="70"/>
+    </row>
+    <row r="160" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A160" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="C139" s="42" t="s">
+      <c r="B160" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="C160" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="E160" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F160" s="70"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="B161" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="C161" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="E161" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F161" s="70"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="B162" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="C162" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="E162" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F162" s="70"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="B163" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="C163" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="E163" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F163" s="70"/>
+    </row>
+    <row r="164" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A164" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="B164" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="C164" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="E164" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="F164" s="70"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="B165" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="C165" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="E165" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="F165" s="70"/>
+    </row>
+    <row r="166" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A166" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="B166" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="C166" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E139" s="43" t="s">
+      <c r="E166" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F139" s="70"/>
-    </row>
-    <row r="140" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="37" t="s">
-        <v>233</v>
-      </c>
-      <c r="B140" s="38" t="s">
-        <v>234</v>
-      </c>
-      <c r="C140" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="E140" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F140" s="70"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="37" t="s">
-        <v>235</v>
-      </c>
-      <c r="B141" s="38" t="s">
-        <v>236</v>
-      </c>
-      <c r="C141" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="E141" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F141" s="70"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="37" t="s">
-        <v>237</v>
-      </c>
-      <c r="B142" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="C142" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="E142" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F142" s="70"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="37" t="s">
-        <v>239</v>
-      </c>
-      <c r="B143" s="38" t="s">
-        <v>240</v>
-      </c>
-      <c r="C143" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="E143" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F143" s="70"/>
-    </row>
-    <row r="144" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A144" s="37" t="s">
-        <v>241</v>
-      </c>
-      <c r="B144" s="38" t="s">
-        <v>242</v>
-      </c>
-      <c r="C144" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="E144" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F144" s="70"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="37" t="s">
-        <v>269</v>
-      </c>
-      <c r="B145" s="38" t="s">
-        <v>270</v>
-      </c>
-      <c r="C145" s="38" t="s">
-        <v>207</v>
-      </c>
-      <c r="E145" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F145" s="70"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F146" s="70"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F147" s="70"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F148" s="70"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F149" s="70"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="37" t="s">
-        <v>308</v>
-      </c>
-      <c r="F150" s="70"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F151" s="70"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F152" s="70"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F153" s="70"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F154" s="70"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F155" s="70"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F156" s="70"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F157" s="70"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F158" s="70"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F159" s="70"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F160" s="70"/>
-    </row>
-    <row r="161" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F161" s="70"/>
-    </row>
-    <row r="162" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F162" s="70"/>
-    </row>
-    <row r="163" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F163" s="70"/>
-    </row>
-    <row r="164" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F164" s="70"/>
-    </row>
-    <row r="165" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F165" s="70"/>
-    </row>
-    <row r="166" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F166" s="70"/>
     </row>
-    <row r="167" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F167" s="70"/>
     </row>
-    <row r="168" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F168" s="70"/>
     </row>
-    <row r="169" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F169" s="70"/>
     </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="37" t="s">
+        <v>345</v>
+      </c>
+      <c r="F170" s="70"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F171" s="70"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F172" s="70"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F173" s="70"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F174" s="70"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F175" s="70"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F176" s="70"/>
+    </row>
+    <row r="177" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F177" s="70"/>
+    </row>
+    <row r="178" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F178" s="70"/>
+    </row>
+    <row r="179" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F179" s="70"/>
+    </row>
+    <row r="180" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F180" s="70"/>
+    </row>
+    <row r="181" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F181" s="70"/>
+    </row>
+    <row r="182" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F182" s="70"/>
+    </row>
+    <row r="183" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F183" s="70"/>
+    </row>
+    <row r="184" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F184" s="70"/>
+    </row>
+    <row r="185" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F185" s="70"/>
+    </row>
+    <row r="186" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F186" s="70"/>
+    </row>
+    <row r="187" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F187" s="70"/>
+    </row>
+    <row r="188" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F188" s="70"/>
+    </row>
+    <row r="189" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F189" s="70"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C4:C63 C67:C75 C128:C134 C136:C138 C92:C98 C121:C123">
-    <cfRule type="containsText" dxfId="131" priority="134" stopIfTrue="1" operator="containsText" text="Delete">
+  <conditionalFormatting sqref="C73:C76 C148:C154 C156:C158 C105:C109 C89:C90 C66:C69 C44:C63 C4:C40 C78:C87">
+    <cfRule type="containsText" dxfId="167" priority="186" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="135" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="166" priority="187" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="136" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="165" priority="188" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C63 C67:C75 C128:C134 C136:C138 C92:C98 C121:C123">
-    <cfRule type="containsText" dxfId="128" priority="133" operator="containsText" text="None">
+  <conditionalFormatting sqref="C73:C76 C148:C154 C156:C158 C105:C109 C89:C90 C66:C69 C44:C63 C4:C40 C78:C87">
+    <cfRule type="containsText" dxfId="164" priority="185" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C79">
-    <cfRule type="containsText" dxfId="127" priority="130" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C79)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="131" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C79)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="132" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C79)))</formula>
+  <conditionalFormatting sqref="C94">
+    <cfRule type="containsText" dxfId="163" priority="182" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C94)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="162" priority="183" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C94)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="161" priority="184" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C94)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C79">
-    <cfRule type="containsText" dxfId="124" priority="129" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C79)))</formula>
+  <conditionalFormatting sqref="C94">
+    <cfRule type="containsText" dxfId="160" priority="181" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C94)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C81">
-    <cfRule type="containsText" dxfId="123" priority="121" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C81)))</formula>
+  <conditionalFormatting sqref="C96">
+    <cfRule type="containsText" dxfId="159" priority="173" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C96)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C80">
-    <cfRule type="containsText" dxfId="122" priority="126" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C80)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="127" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C80)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="128" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C80)))</formula>
+  <conditionalFormatting sqref="C95">
+    <cfRule type="containsText" dxfId="158" priority="178" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C95)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="157" priority="179" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C95)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="156" priority="180" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C95)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C80">
-    <cfRule type="containsText" dxfId="119" priority="125" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C80)))</formula>
+  <conditionalFormatting sqref="C95">
+    <cfRule type="containsText" dxfId="155" priority="177" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C95)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C81">
-    <cfRule type="containsText" dxfId="118" priority="122" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C81)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="123" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C81)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="124" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C81)))</formula>
+  <conditionalFormatting sqref="C96">
+    <cfRule type="containsText" dxfId="154" priority="174" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C96)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="153" priority="175" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C96)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="152" priority="176" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C96)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C83:C87">
-    <cfRule type="containsText" dxfId="115" priority="113" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C83)))</formula>
+  <conditionalFormatting sqref="C98:C100">
+    <cfRule type="containsText" dxfId="151" priority="165" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C98)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C82">
-    <cfRule type="containsText" dxfId="114" priority="117" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C82)))</formula>
+  <conditionalFormatting sqref="C97">
+    <cfRule type="containsText" dxfId="150" priority="169" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C97)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C82">
-    <cfRule type="containsText" dxfId="113" priority="118" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C82)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="112" priority="119" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C82)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="111" priority="120" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C82)))</formula>
+  <conditionalFormatting sqref="C97">
+    <cfRule type="containsText" dxfId="149" priority="170" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C97)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="148" priority="171" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C97)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="147" priority="172" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C97)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C135">
-    <cfRule type="containsText" dxfId="110" priority="85" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C135)))</formula>
+  <conditionalFormatting sqref="C155">
+    <cfRule type="containsText" dxfId="146" priority="137" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C155)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C83:C87">
-    <cfRule type="containsText" dxfId="109" priority="114" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C83)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="108" priority="115" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C83)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="107" priority="116" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C83)))</formula>
+  <conditionalFormatting sqref="C98:C100">
+    <cfRule type="containsText" dxfId="145" priority="166" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C98)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="144" priority="167" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C98)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="143" priority="168" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C98)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C139">
-    <cfRule type="containsText" dxfId="106" priority="110" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C139)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="111" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C139)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="104" priority="112" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C139)))</formula>
+  <conditionalFormatting sqref="C159">
+    <cfRule type="containsText" dxfId="142" priority="162" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C159)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="141" priority="163" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C159)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="140" priority="164" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C159)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C139">
-    <cfRule type="containsText" dxfId="103" priority="109" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C139)))</formula>
+  <conditionalFormatting sqref="C159">
+    <cfRule type="containsText" dxfId="139" priority="161" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C159)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C140">
-    <cfRule type="containsText" dxfId="102" priority="106" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C140)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="107" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C140)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="108" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C140)))</formula>
+  <conditionalFormatting sqref="C160">
+    <cfRule type="containsText" dxfId="138" priority="158" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C160)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="137" priority="159" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C160)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="136" priority="160" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C160)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C140">
-    <cfRule type="containsText" dxfId="99" priority="105" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C140)))</formula>
+  <conditionalFormatting sqref="C160">
+    <cfRule type="containsText" dxfId="135" priority="157" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C160)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C141">
-    <cfRule type="containsText" dxfId="98" priority="102" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C141)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="103" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C141)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="104" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C141)))</formula>
+  <conditionalFormatting sqref="C161">
+    <cfRule type="containsText" dxfId="134" priority="154" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C161)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="133" priority="155" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C161)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="132" priority="156" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C161)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C141">
-    <cfRule type="containsText" dxfId="95" priority="101" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C141)))</formula>
+  <conditionalFormatting sqref="C161">
+    <cfRule type="containsText" dxfId="131" priority="153" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C161)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C142">
-    <cfRule type="containsText" dxfId="94" priority="98" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C142)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="99" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C142)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="100" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C142)))</formula>
+  <conditionalFormatting sqref="C162">
+    <cfRule type="containsText" dxfId="130" priority="150" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C162)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="129" priority="151" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C162)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="128" priority="152" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C162)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C142">
-    <cfRule type="containsText" dxfId="91" priority="97" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C142)))</formula>
+  <conditionalFormatting sqref="C162">
+    <cfRule type="containsText" dxfId="127" priority="149" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C162)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C143">
-    <cfRule type="containsText" dxfId="90" priority="94" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C143)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="95" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C143)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="96" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C143)))</formula>
+  <conditionalFormatting sqref="C163">
+    <cfRule type="containsText" dxfId="126" priority="146" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C163)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="125" priority="147" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C163)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="124" priority="148" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C163)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C143">
-    <cfRule type="containsText" dxfId="87" priority="93" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C143)))</formula>
+  <conditionalFormatting sqref="C163">
+    <cfRule type="containsText" dxfId="123" priority="145" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C163)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C144">
-    <cfRule type="containsText" dxfId="86" priority="90" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C144)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="91" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C144)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="92" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C144)))</formula>
+  <conditionalFormatting sqref="C164">
+    <cfRule type="containsText" dxfId="122" priority="142" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C164)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="121" priority="143" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C164)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="120" priority="144" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C164)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C144">
-    <cfRule type="containsText" dxfId="83" priority="89" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C144)))</formula>
+  <conditionalFormatting sqref="C164">
+    <cfRule type="containsText" dxfId="119" priority="141" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C164)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C135">
-    <cfRule type="containsText" dxfId="82" priority="86" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C135)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="87" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C135)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="88" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C135)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C91">
-    <cfRule type="containsText" dxfId="79" priority="82" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="83" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C91)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="84" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C91)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C91">
-    <cfRule type="containsText" dxfId="76" priority="81" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C91)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C102">
-    <cfRule type="containsText" dxfId="75" priority="74" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C102)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="75" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C102)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="76" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C102)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C102">
-    <cfRule type="containsText" dxfId="72" priority="73" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C102)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C103">
-    <cfRule type="containsText" dxfId="71" priority="70" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C103)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="71" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C103)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="72" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C103)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C103">
-    <cfRule type="containsText" dxfId="68" priority="69" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C103)))</formula>
+  <conditionalFormatting sqref="C155">
+    <cfRule type="containsText" dxfId="118" priority="138" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C155)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="117" priority="139" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C155)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="116" priority="140" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C155)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C104">
-    <cfRule type="containsText" dxfId="67" priority="66" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="115" priority="134" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C104)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="67" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="114" priority="135" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C104)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="68" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="113" priority="136" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C104)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C104">
-    <cfRule type="containsText" dxfId="64" priority="65" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="112" priority="133" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C104)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C105">
-    <cfRule type="containsText" dxfId="63" priority="62" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C105)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="63" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C105)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="64" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C105)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C105">
-    <cfRule type="containsText" dxfId="60" priority="61" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C105)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C106">
-    <cfRule type="containsText" dxfId="59" priority="58" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C106)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C106)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="60" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C106)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C106">
-    <cfRule type="containsText" dxfId="56" priority="57" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C106)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C107">
-    <cfRule type="containsText" dxfId="55" priority="54" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C107)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C107)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="56" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C107)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C107">
-    <cfRule type="containsText" dxfId="52" priority="53" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C107)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108">
-    <cfRule type="containsText" dxfId="51" priority="50" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C108)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="51" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C108)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="52" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C108)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108">
-    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C108)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C109">
-    <cfRule type="containsText" dxfId="47" priority="46" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C109)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="47" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C109)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="48" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C109)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C109">
-    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C109)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C110">
-    <cfRule type="containsText" dxfId="43" priority="42" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C110)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="43" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C110)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="44" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C110)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C110">
-    <cfRule type="containsText" dxfId="40" priority="41" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C110)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C111">
-    <cfRule type="containsText" dxfId="39" priority="38" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C111)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C111)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="40" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C111)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C111">
-    <cfRule type="containsText" dxfId="36" priority="37" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C111)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C112">
-    <cfRule type="containsText" dxfId="35" priority="34" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C112)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C112)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C112)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C112">
-    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C112)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C113">
-    <cfRule type="containsText" dxfId="31" priority="30" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="111" priority="126" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="110" priority="127" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C113)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="32" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="109" priority="128" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C113">
-    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="108" priority="125" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C113)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C114">
-    <cfRule type="containsText" dxfId="27" priority="26" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="107" priority="122" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C114)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="106" priority="123" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C114)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="28" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="105" priority="124" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C114)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C114">
-    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="104" priority="121" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C114)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C115">
-    <cfRule type="containsText" dxfId="23" priority="22" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="103" priority="118" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C115)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="102" priority="119" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C115)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="101" priority="120" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C115">
-    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="100" priority="117" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C115)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C116">
-    <cfRule type="containsText" dxfId="19" priority="18" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="99" priority="114" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C116)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="98" priority="115" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C116)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="97" priority="116" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C116)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C116">
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="96" priority="113" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C116)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C117">
-    <cfRule type="containsText" dxfId="15" priority="14" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="95" priority="110" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C117)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="94" priority="111" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C117)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="93" priority="112" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C117">
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="92" priority="109" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C117)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C118">
-    <cfRule type="containsText" dxfId="11" priority="10" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="91" priority="106" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C118)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="90" priority="107" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C118)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="89" priority="108" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C118">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="88" priority="105" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C119">
-    <cfRule type="containsText" dxfId="7" priority="6" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="87" priority="102" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C119)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="86" priority="103" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C119)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="85" priority="104" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C119">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="84" priority="101" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C119)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C120">
-    <cfRule type="containsText" dxfId="3" priority="2" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="83" priority="98" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C120)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="82" priority="99" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C120)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="81" priority="100" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C120)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C120">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="80" priority="97" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C120)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C121">
+    <cfRule type="containsText" dxfId="79" priority="94" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C121)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="95" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C121)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="77" priority="96" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C121)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C121">
+    <cfRule type="containsText" dxfId="76" priority="93" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C121)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C122">
+    <cfRule type="containsText" dxfId="75" priority="90" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C122)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="91" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C122)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="73" priority="92" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C122)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C122">
+    <cfRule type="containsText" dxfId="72" priority="89" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C122)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C123">
+    <cfRule type="containsText" dxfId="71" priority="86" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C123)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="87" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C123)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="88" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C123)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C123">
+    <cfRule type="containsText" dxfId="68" priority="85" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C123)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C124">
+    <cfRule type="containsText" dxfId="67" priority="82" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C124)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="83" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C124)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="65" priority="84" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C124)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C124">
+    <cfRule type="containsText" dxfId="64" priority="81" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C124)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C125">
+    <cfRule type="containsText" dxfId="63" priority="78" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C125)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="79" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C125)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="80" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C125)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C125">
+    <cfRule type="containsText" dxfId="60" priority="77" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C125)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C126">
+    <cfRule type="containsText" dxfId="59" priority="74" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C126)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="75" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C126)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="76" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C126)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C126">
+    <cfRule type="containsText" dxfId="56" priority="73" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C126)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C127">
+    <cfRule type="containsText" dxfId="55" priority="70" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C127)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="71" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C127)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="72" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C127)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C127">
+    <cfRule type="containsText" dxfId="52" priority="69" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C127)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C128">
+    <cfRule type="containsText" dxfId="51" priority="66" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C128)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="67" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C128)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="68" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C128)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C128">
+    <cfRule type="containsText" dxfId="48" priority="65" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C128)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C129">
+    <cfRule type="containsText" dxfId="47" priority="62" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C129)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="63" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C129)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="64" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C129)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C129">
+    <cfRule type="containsText" dxfId="44" priority="61" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C129)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C130">
+    <cfRule type="containsText" dxfId="43" priority="58" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C130)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="59" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C130)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="60" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C130)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C130">
+    <cfRule type="containsText" dxfId="40" priority="57" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C130)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C131:C133">
+    <cfRule type="containsText" dxfId="39" priority="54" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C131)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="55" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C131)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="56" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C131)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C131:C133">
+    <cfRule type="containsText" dxfId="36" priority="53" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C131)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C143:C144">
+    <cfRule type="containsText" dxfId="35" priority="50" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C143)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="51" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C143)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="52" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C143)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C143:C144">
+    <cfRule type="containsText" dxfId="32" priority="49" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C143)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C166">
+    <cfRule type="containsText" dxfId="31" priority="46" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C166)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="47" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C166)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="48" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C166)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C166">
+    <cfRule type="containsText" dxfId="28" priority="45" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C166)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C77">
+    <cfRule type="containsText" dxfId="27" priority="34" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C77)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="35" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C77)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="36" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C77)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C77">
+    <cfRule type="containsText" dxfId="24" priority="33" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C77)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41">
+    <cfRule type="containsText" dxfId="23" priority="22" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C41)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41">
+    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="containsText" dxfId="19" priority="10" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C65)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="12" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C65)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65">
+    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C65)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="containsText" dxfId="15" priority="14" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C64)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C64">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C64)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42:C43">
+    <cfRule type="containsText" dxfId="11" priority="18" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C42)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="20" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C42:C43">
+    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C88">
+    <cfRule type="containsText" dxfId="7" priority="2" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C88)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C88)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C88)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C88">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C63 C67:C75 C128:C144 C79:C87 C91:C98 C102:C123">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C166 C148:C164 C94:C100 C104:C109 C113:C133 C137:C144 C4:C69 C73:C90">
       <formula1>$G$4:$G$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -6601,8 +7529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A53:E104"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:E56"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6900,10 +7828,10 @@
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="14"/>
       <c r="C76" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="E76" s="6"/>
     </row>
@@ -6923,7 +7851,7 @@
         <v>174</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>182</v>
+        <v>311</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="4"/>
@@ -6993,7 +7921,7 @@
         <v>92</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="4"/>
@@ -7037,7 +7965,7 @@
         <v>93</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="4"/>
@@ -7059,7 +7987,7 @@
         <v>94</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="4"/>
@@ -7081,7 +8009,7 @@
         <v>95</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="4"/>
@@ -7103,7 +8031,7 @@
         <v>96</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="4"/>
@@ -7125,7 +8053,7 @@
         <v>97</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="4"/>
@@ -7158,7 +8086,7 @@
         <v>102</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="4"/>
@@ -7169,7 +8097,7 @@
         <v>101</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="4"/>
@@ -7180,7 +8108,7 @@
         <v>69</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="4"/>
@@ -7202,7 +8130,7 @@
         <v>106</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="4"/>
@@ -7213,7 +8141,7 @@
         <v>174</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="4"/>
@@ -7231,7 +8159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A38:E44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -7266,13 +8194,13 @@
         <v>116</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C39" s="22" t="s">
+        <v>195</v>
+      </c>
+      <c r="D39" s="23" t="s">
         <v>196</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>197</v>
       </c>
       <c r="E39" s="22"/>
     </row>
@@ -7284,10 +8212,10 @@
         <v>118</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D40" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E40" s="14"/>
     </row>
@@ -7295,10 +8223,10 @@
       <c r="A41" s="19"/>
       <c r="B41" s="4"/>
       <c r="C41" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D41" s="24" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E41" s="15"/>
     </row>
@@ -7310,10 +8238,10 @@
         <v>120</v>
       </c>
       <c r="C42" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="D42" s="20" t="s">
         <v>202</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>203</v>
       </c>
       <c r="E42" s="14"/>
     </row>
@@ -7324,16 +8252,16 @@
         <v>131</v>
       </c>
       <c r="D43" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E43" s="15"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>205</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>206</v>
       </c>
       <c r="C44" s="19"/>
       <c r="D44" s="24"/>
@@ -7383,48 +8311,48 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="D44" s="1" t="s">
         <v>247</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>248</v>
       </c>
       <c r="E44" s="6"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="14"/>
       <c r="C45" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="D45" t="s">
         <v>249</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" s="6" t="s">
         <v>250</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="15"/>
       <c r="B46" s="4"/>
       <c r="C46" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="D46" s="63" t="s">
         <v>252</v>
-      </c>
-      <c r="D46" s="63" t="s">
-        <v>253</v>
       </c>
       <c r="E46" s="7"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>255</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="63"/>
@@ -7432,10 +8360,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>256</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>257</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="63"/>
@@ -7443,10 +8371,10 @@
     </row>
     <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="63"/>
@@ -7454,10 +8382,10 @@
     </row>
     <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="63"/>
@@ -7465,10 +8393,10 @@
     </row>
     <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="63"/>
@@ -7476,10 +8404,10 @@
     </row>
     <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>262</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="63"/>
@@ -7497,8 +8425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7518,7 +8446,7 @@
     </row>
     <row r="3" spans="5:5" ht="45" x14ac:dyDescent="0.25">
       <c r="E3" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="5:5" x14ac:dyDescent="0.25">
@@ -7526,7 +8454,7 @@
     </row>
     <row r="5" spans="5:5" ht="60" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="5:5" x14ac:dyDescent="0.25">
@@ -7534,7 +8462,7 @@
     </row>
     <row r="7" spans="5:5" ht="45" x14ac:dyDescent="0.25">
       <c r="E7" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -7556,10 +8484,10 @@
     </row>
     <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>293</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>294</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="63"/>
@@ -7567,10 +8495,10 @@
     </row>
     <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="63"/>
@@ -7578,10 +8506,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>300</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>301</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="63"/>
@@ -7589,10 +8517,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="63"/>
@@ -7600,10 +8528,10 @@
     </row>
     <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>304</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>305</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="63"/>
@@ -7611,10 +8539,10 @@
     </row>
     <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>306</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>307</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="63"/>

--- a/Technical documentation/AL table analysis.xlsx
+++ b/Technical documentation/AL table analysis.xlsx
@@ -17,9 +17,10 @@
     <sheet name="Dump Structure" sheetId="3" r:id="rId3"/>
     <sheet name="Crew Structure" sheetId="4" r:id="rId4"/>
     <sheet name="Doc Disk Structure" sheetId="5" r:id="rId5"/>
+    <sheet name="Individuals Structure" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table overview'!$A$72:$E$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table overview'!$A$79:$E$79</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -84,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B72" authorId="0" shapeId="0">
+    <comment ref="B79" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -108,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D72" authorId="0" shapeId="0">
+    <comment ref="D79" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -132,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E72" authorId="0" shapeId="0">
+    <comment ref="E79" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -156,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B93" authorId="0" shapeId="0">
+    <comment ref="B100" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -180,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D93" authorId="0" shapeId="0">
+    <comment ref="D100" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -204,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E93" authorId="0" shapeId="0">
+    <comment ref="E100" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -228,7 +229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B103" authorId="0" shapeId="0">
+    <comment ref="B110" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -252,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D103" authorId="0" shapeId="0">
+    <comment ref="D110" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -276,7 +277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E103" authorId="0" shapeId="0">
+    <comment ref="E110" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -300,7 +301,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B112" authorId="0" shapeId="0">
+    <comment ref="B119" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -324,7 +325,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D112" authorId="0" shapeId="0">
+    <comment ref="D119" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -348,7 +349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E112" authorId="0" shapeId="0">
+    <comment ref="E119" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -372,7 +373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B136" authorId="0" shapeId="0">
+    <comment ref="B143" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -396,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D136" authorId="0" shapeId="0">
+    <comment ref="D143" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -420,7 +421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E136" authorId="0" shapeId="0">
+    <comment ref="E143" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -444,7 +445,79 @@
         </r>
       </text>
     </comment>
-    <comment ref="A145" authorId="0" shapeId="0">
+    <comment ref="B154" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martens Maarten:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+What does the table do?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D154" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martens Maarten:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Explain the change</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E154" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martens Maarten:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+In which ER diagram can it be found?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A162" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -468,7 +541,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B147" authorId="0" shapeId="0">
+    <comment ref="B164" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -492,7 +565,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D147" authorId="0" shapeId="0">
+    <comment ref="D164" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -516,7 +589,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E147" authorId="0" shapeId="0">
+    <comment ref="E164" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -684,8 +757,43 @@
 </comments>
 </file>
 
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Martens Maarten</author>
+  </authors>
+  <commentList>
+    <comment ref="C22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martens Maarten:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra info on some of the fields of the table
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="371">
   <si>
     <t>Table name</t>
   </si>
@@ -1737,7 +1845,82 @@
     <t>game-download_tos</t>
   </si>
   <si>
-    <t>Last : game_extra_info</t>
+    <t>game_extra_info</t>
+  </si>
+  <si>
+    <t>This table is replaced by the game_release structure</t>
+  </si>
+  <si>
+    <t>game_galery</t>
+  </si>
+  <si>
+    <t>Table containing different kind of artwork. I never liked this one, and I think it is currenly not used. Let's remove this.</t>
+  </si>
+  <si>
+    <t>This table could be changed (game_release_gallery) and merged with game_fact (removing game_fact). If I knew this existed I would have not created the game_fact table)</t>
+  </si>
+  <si>
+    <t>See more detail game_gallery table</t>
+  </si>
+  <si>
+    <t>game_publisher</t>
+  </si>
+  <si>
+    <t>This table is replaced by the publisher_id in the game_release table</t>
+  </si>
+  <si>
+    <t>Conversion is necessary to publisher_id field</t>
+  </si>
+  <si>
+    <t>game_seuck</t>
+  </si>
+  <si>
+    <t>game_stos</t>
+  </si>
+  <si>
+    <t>game_submit_info</t>
+  </si>
+  <si>
+    <t>This table contains all info submitted by visitors</t>
+  </si>
+  <si>
+    <t>game_user_comments</t>
+  </si>
+  <si>
+    <t>Crosstable between the games and the comments table</t>
+  </si>
+  <si>
+    <t>individuals</t>
+  </si>
+  <si>
+    <t>The main individuals table will hold the individual names AND nicknames.</t>
+  </si>
+  <si>
+    <t>Individual_nicks</t>
+  </si>
+  <si>
+    <t>A cross table linking the individual with its nick name(s)</t>
+  </si>
+  <si>
+    <t>individual_text</t>
+  </si>
+  <si>
+    <t>This table contains extra details of the individual. eg history, email ....</t>
+  </si>
+  <si>
+    <t>Individuals structure</t>
+  </si>
+  <si>
+    <t>Individuals Structure</t>
+  </si>
+  <si>
+    <t>Crosstable between the individuals and demo structure</t>
+  </si>
+  <si>
+    <t>Crosstable between the individuals and the menu structure</t>
+  </si>
+  <si>
+    <t>Last : interview comments</t>
   </si>
 </sst>
 </file>
@@ -2038,7 +2221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2249,11 +2432,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="232">
+  <dxfs count="216">
     <dxf>
       <fill>
         <patternFill>
@@ -3069,6 +3255,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFC2E49C"/>
         </patternFill>
       </fill>
@@ -3174,6 +3367,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -3258,6 +3472,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFC2E49C"/>
         </patternFill>
       </fill>
@@ -3314,6 +3535,48 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -3349,6 +3612,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFC2E49C"/>
         </patternFill>
       </fill>
@@ -3377,224 +3647,28 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4083,6 +4157,55 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="8963025" cy="5562600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3314700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4343400" cy="3581400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4357,7 +4480,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G189"/>
+  <dimension ref="A1:G206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4554,9 +4677,11 @@
         <v>22</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="D12" s="42"/>
+        <v>2</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>350</v>
+      </c>
       <c r="E12" s="42" t="s">
         <v>264</v>
       </c>
@@ -4939,9 +5064,9 @@
       </c>
       <c r="F37" s="70"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="35" t="s">
-        <v>87</v>
+        <v>354</v>
       </c>
       <c r="B38" s="39" t="s">
         <v>76</v>
@@ -4954,12 +5079,12 @@
       </c>
       <c r="F38" s="70"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="35" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="B39" s="39" t="s">
-        <v>325</v>
+        <v>76</v>
       </c>
       <c r="C39" s="42" t="s">
         <v>3</v>
@@ -4971,7 +5096,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="35" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B40" s="39" t="s">
         <v>76</v>
@@ -4986,167 +5111,176 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="35" t="s">
-        <v>314</v>
-      </c>
-      <c r="B41" s="35" t="s">
-        <v>315</v>
+        <v>324</v>
+      </c>
+      <c r="B41" s="39" t="s">
+        <v>325</v>
       </c>
       <c r="C41" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35" t="s">
+      <c r="E41" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="F41" s="35"/>
-    </row>
-    <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F41" s="70"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="35" t="s">
-        <v>318</v>
-      </c>
-      <c r="B42" s="35" t="s">
-        <v>320</v>
+        <v>88</v>
+      </c>
+      <c r="B42" s="39" t="s">
+        <v>76</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D42" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="E42" s="35" t="s">
-        <v>264</v>
-      </c>
-      <c r="F42" s="35"/>
-    </row>
-    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="E42" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="70"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="35" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B43" s="35" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D43" s="35" t="s">
-        <v>323</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="D43" s="35"/>
       <c r="E43" s="35" t="s">
-        <v>264</v>
+        <v>9</v>
       </c>
       <c r="F43" s="35"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="B44" s="39" t="s">
-        <v>192</v>
+        <v>345</v>
+      </c>
+      <c r="B44" s="35" t="s">
+        <v>346</v>
       </c>
       <c r="C44" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="F44" s="70"/>
-    </row>
-    <row r="45" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="35"/>
+    </row>
+    <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="B45" s="42" t="s">
-        <v>43</v>
+        <v>347</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>348</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E45" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="F45" s="70"/>
-    </row>
-    <row r="46" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>349</v>
+      </c>
+      <c r="E45" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="35"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="B46" s="39" t="s">
-        <v>44</v>
+        <v>351</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>352</v>
       </c>
       <c r="C46" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E46" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="F46" s="70"/>
+        <v>3</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>353</v>
+      </c>
+      <c r="E46" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="35"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="B47" s="39" t="s">
-        <v>50</v>
+        <v>356</v>
+      </c>
+      <c r="B47" s="35" t="s">
+        <v>357</v>
       </c>
       <c r="C47" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E47" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="F47" s="70"/>
+      <c r="F47" s="35"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="B48" s="39" t="s">
-        <v>53</v>
+        <v>358</v>
+      </c>
+      <c r="B48" s="35" t="s">
+        <v>359</v>
       </c>
       <c r="C48" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E48" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="F48" s="70"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="F48" s="35"/>
+    </row>
+    <row r="49" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" s="39" t="s">
-        <v>54</v>
+        <v>318</v>
+      </c>
+      <c r="B49" s="35" t="s">
+        <v>320</v>
       </c>
       <c r="C49" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E49" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>319</v>
+      </c>
+      <c r="E49" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="F49" s="70"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="35"/>
+    </row>
+    <row r="50" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" s="39" t="s">
-        <v>48</v>
+        <v>321</v>
+      </c>
+      <c r="B50" s="35" t="s">
+        <v>322</v>
       </c>
       <c r="C50" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="F50" s="70"/>
+        <v>2</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="E50" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="F50" s="35"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="35" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="B51" s="39" t="s">
-        <v>55</v>
+        <v>192</v>
       </c>
       <c r="C51" s="42" t="s">
         <v>17</v>
@@ -5156,12 +5290,12 @@
       </c>
       <c r="F51" s="70"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="B52" s="39" t="s">
-        <v>62</v>
+        <v>91</v>
+      </c>
+      <c r="B52" s="42" t="s">
+        <v>43</v>
       </c>
       <c r="C52" s="42" t="s">
         <v>17</v>
@@ -5171,12 +5305,12 @@
       </c>
       <c r="F52" s="70"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="35" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B53" s="39" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C53" s="42" t="s">
         <v>17</v>
@@ -5188,10 +5322,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="35" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B54" s="39" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C54" s="42" t="s">
         <v>17</v>
@@ -5203,25 +5337,25 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="35" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="B55" s="39" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="C55" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E55" s="42" t="s">
-        <v>264</v>
+      <c r="E55" s="45" t="s">
+        <v>49</v>
       </c>
       <c r="F55" s="70"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="35" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B56" s="39" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="C56" s="42" t="s">
         <v>17</v>
@@ -5233,78 +5367,74 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="35" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="B57" s="39" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
       <c r="C57" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E57" s="42" t="s">
-        <v>264</v>
+      <c r="E57" s="45" t="s">
+        <v>49</v>
       </c>
       <c r="F57" s="70"/>
     </row>
-    <row r="58" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="35" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="B58" s="39" t="s">
-        <v>212</v>
+        <v>55</v>
       </c>
       <c r="C58" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="39"/>
       <c r="E58" s="42" t="s">
         <v>264</v>
       </c>
       <c r="F58" s="70"/>
     </row>
-    <row r="59" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="35" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B59" s="39" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="C59" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="39"/>
       <c r="E59" s="42" t="s">
         <v>264</v>
       </c>
       <c r="F59" s="70"/>
     </row>
-    <row r="60" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="35" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="B60" s="39" t="s">
-        <v>211</v>
+        <v>65</v>
       </c>
       <c r="C60" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="39"/>
       <c r="E60" s="42" t="s">
         <v>264</v>
       </c>
       <c r="F60" s="70"/>
     </row>
-    <row r="61" spans="1:6" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="35" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="B61" s="39" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="C61" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D61" s="39"/>
       <c r="E61" s="42" t="s">
         <v>264</v>
       </c>
@@ -5312,13 +5442,13 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="35" t="s">
-        <v>125</v>
+        <v>89</v>
       </c>
       <c r="B62" s="39" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="C62" s="42" t="s">
-        <v>206</v>
+        <v>17</v>
       </c>
       <c r="E62" s="42" t="s">
         <v>264</v>
@@ -5327,326 +5457,319 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="35" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="B63" s="39" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="C63" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="E63" s="39" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="E63" s="42" t="s">
+        <v>264</v>
       </c>
       <c r="F63" s="70"/>
     </row>
-    <row r="64" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="B64" s="35" t="s">
-        <v>128</v>
+        <v>102</v>
+      </c>
+      <c r="B64" s="39" t="s">
+        <v>103</v>
       </c>
       <c r="C64" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35" t="s">
+      <c r="E64" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="F64" s="35"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F64" s="70"/>
+    </row>
+    <row r="65" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B65" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="C65" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="39"/>
+      <c r="E65" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="F65" s="70"/>
+    </row>
+    <row r="66" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B66" s="39" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="39"/>
+      <c r="E66" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="F66" s="70"/>
+    </row>
+    <row r="67" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B67" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="C67" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="39"/>
+      <c r="E67" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="F67" s="70"/>
+    </row>
+    <row r="68" spans="1:6" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="B68" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C68" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="39"/>
+      <c r="E68" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="F68" s="70"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="B69" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="E69" s="42" t="s">
+        <v>264</v>
+      </c>
+      <c r="F69" s="70"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B70" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C70" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F70" s="70"/>
+    </row>
+    <row r="71" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B71" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="F71" s="35"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="B65" s="35" t="s">
+      <c r="B72" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="C65" s="42" t="s">
+      <c r="C72" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35" t="s">
+      <c r="D72" s="35"/>
+      <c r="E72" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F65" s="35"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="46" t="s">
+      <c r="F72" s="35"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="46" t="s">
         <v>312</v>
       </c>
-      <c r="B66" s="47" t="s">
+      <c r="B73" s="47" t="s">
         <v>313</v>
       </c>
-      <c r="C66" s="48" t="s">
+      <c r="C73" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47" t="s">
+      <c r="D73" s="47"/>
+      <c r="E73" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F66" s="71"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="34"/>
-      <c r="B67" s="34"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="30"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="34"/>
-      <c r="B68" s="34"/>
-      <c r="C68" s="49"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="34"/>
-      <c r="B69" s="34"/>
-      <c r="C69" s="49"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="34"/>
-    </row>
-    <row r="70" spans="1:6" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="50" t="s">
+      <c r="F73" s="71"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="34"/>
+      <c r="B74" s="34"/>
+      <c r="C74" s="49"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="30"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="34"/>
+      <c r="B75" s="34"/>
+      <c r="C75" s="49"/>
+      <c r="D75" s="34"/>
+      <c r="E75" s="34"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="34"/>
+      <c r="B76" s="34"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
+    </row>
+    <row r="77" spans="1:6" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="50" t="s">
         <v>215</v>
       </c>
-      <c r="B70" s="40"/>
-      <c r="C70" s="40"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="40"/>
-    </row>
-    <row r="71" spans="1:6" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="37"/>
-      <c r="B71" s="51"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="34"/>
-      <c r="E71" s="40"/>
-    </row>
-    <row r="72" spans="1:6" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="27" t="s">
+      <c r="B77" s="40"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="34"/>
+      <c r="E77" s="40"/>
+    </row>
+    <row r="78" spans="1:6" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="37"/>
+      <c r="B78" s="51"/>
+      <c r="C78" s="40"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="40"/>
+    </row>
+    <row r="79" spans="1:6" s="30" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="28" t="s">
+      <c r="B79" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C72" s="31" t="s">
+      <c r="C79" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="D72" s="31" t="s">
+      <c r="D79" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E72" s="32" t="s">
+      <c r="E79" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F72" s="67" t="s">
+      <c r="F79" s="67" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A73" s="52" t="s">
+    <row r="80" spans="1:6" s="30" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="B73" s="35" t="s">
+      <c r="B80" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="C73" s="42" t="s">
+      <c r="C80" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D73" s="39"/>
-      <c r="E73" s="39" t="s">
+      <c r="D80" s="39"/>
+      <c r="E80" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="F73" s="70"/>
-    </row>
-    <row r="74" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="26" t="s">
+      <c r="F80" s="70"/>
+    </row>
+    <row r="81" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="26" t="s">
         <v>204</v>
       </c>
-      <c r="B74" s="35" t="s">
+      <c r="B81" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="C74" s="42" t="s">
+      <c r="C81" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D74" s="39"/>
-      <c r="E74" s="39" t="s">
+      <c r="D81" s="39"/>
+      <c r="E81" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="F74" s="70"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="35" t="s">
+      <c r="F81" s="70"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="B75" s="39" t="s">
+      <c r="B82" s="39" t="s">
         <v>216</v>
-      </c>
-      <c r="C75" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="E75" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="F75" s="70"/>
-    </row>
-    <row r="76" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A76" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="B76" s="53" t="s">
-        <v>197</v>
-      </c>
-      <c r="C76" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="D76" s="34"/>
-      <c r="E76" s="39" t="s">
-        <v>265</v>
-      </c>
-      <c r="F76" s="70"/>
-    </row>
-    <row r="77" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="B77" s="53" t="s">
-        <v>118</v>
-      </c>
-      <c r="C77" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="D77" s="53"/>
-      <c r="E77" s="53" t="s">
-        <v>265</v>
-      </c>
-      <c r="F77" s="53"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="35" t="s">
-        <v>328</v>
-      </c>
-      <c r="B78" s="53" t="s">
-        <v>329</v>
-      </c>
-      <c r="C78" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D78" s="77"/>
-      <c r="E78" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="F78" s="53"/>
-    </row>
-    <row r="79" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="35" t="s">
-        <v>330</v>
-      </c>
-      <c r="B79" s="53" t="s">
-        <v>333</v>
-      </c>
-      <c r="C79" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D79" s="77" t="s">
-        <v>331</v>
-      </c>
-      <c r="E79" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="F79" s="53"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="35" t="s">
-        <v>337</v>
-      </c>
-      <c r="B80" s="53" t="s">
-        <v>338</v>
-      </c>
-      <c r="C80" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D80" s="77"/>
-      <c r="E80" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="F80" s="53"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="35" t="s">
-        <v>335</v>
-      </c>
-      <c r="B81" s="53" t="s">
-        <v>336</v>
-      </c>
-      <c r="C81" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D81" s="77"/>
-      <c r="E81" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="F81" s="53"/>
-    </row>
-    <row r="82" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="35" t="s">
-        <v>339</v>
-      </c>
-      <c r="B82" s="53" t="s">
-        <v>336</v>
       </c>
       <c r="C82" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D82" s="77" t="s">
-        <v>340</v>
-      </c>
-      <c r="E82" s="53" t="s">
+      <c r="E82" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="F82" s="53"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F82" s="70"/>
+    </row>
+    <row r="83" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A83" s="35" t="s">
-        <v>341</v>
+        <v>116</v>
       </c>
       <c r="B83" s="53" t="s">
-        <v>313</v>
-      </c>
-      <c r="C83" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D83" s="77"/>
-      <c r="E83" s="53" t="s">
-        <v>9</v>
-      </c>
-      <c r="F83" s="53"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+      <c r="C83" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83" s="34"/>
+      <c r="E83" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="F83" s="70"/>
+    </row>
+    <row r="84" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="35" t="s">
-        <v>342</v>
+        <v>117</v>
       </c>
       <c r="B84" s="53" t="s">
-        <v>343</v>
-      </c>
-      <c r="C84" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D84" s="77"/>
+        <v>118</v>
+      </c>
+      <c r="C84" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" s="53"/>
       <c r="E84" s="53" t="s">
-        <v>9</v>
+        <v>265</v>
       </c>
       <c r="F84" s="53"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="35" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="B85" s="53" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C85" s="42" t="s">
         <v>3</v>
@@ -5657,17 +5780,19 @@
       </c>
       <c r="F85" s="53"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="35" t="s">
-        <v>123</v>
+        <v>330</v>
       </c>
       <c r="B86" s="53" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C86" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D86" s="77"/>
+      <c r="D86" s="77" t="s">
+        <v>331</v>
+      </c>
       <c r="E86" s="53" t="s">
         <v>9</v>
       </c>
@@ -5675,10 +5800,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="35" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="B87" s="53" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="C87" s="42" t="s">
         <v>3</v>
@@ -5690,430 +5815,432 @@
       <c r="F87" s="53"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="36" t="s">
+      <c r="A88" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="B88" s="53" t="s">
+        <v>336</v>
+      </c>
+      <c r="C88" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88" s="77"/>
+      <c r="E88" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" s="53"/>
+    </row>
+    <row r="89" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A89" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="B89" s="53" t="s">
+        <v>336</v>
+      </c>
+      <c r="C89" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D89" s="77" t="s">
+        <v>340</v>
+      </c>
+      <c r="E89" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" s="53"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="35" t="s">
+        <v>341</v>
+      </c>
+      <c r="B90" s="53" t="s">
+        <v>313</v>
+      </c>
+      <c r="C90" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" s="77"/>
+      <c r="E90" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" s="53"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="35" t="s">
+        <v>342</v>
+      </c>
+      <c r="B91" s="53" t="s">
+        <v>343</v>
+      </c>
+      <c r="C91" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D91" s="77"/>
+      <c r="E91" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" s="53"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="B92" s="53" t="s">
+        <v>336</v>
+      </c>
+      <c r="C92" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D92" s="77"/>
+      <c r="E92" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F92" s="53"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="B93" s="53" t="s">
+        <v>336</v>
+      </c>
+      <c r="C93" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D93" s="77"/>
+      <c r="E93" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" s="53"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="35" t="s">
+        <v>332</v>
+      </c>
+      <c r="B94" s="53" t="s">
+        <v>329</v>
+      </c>
+      <c r="C94" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D94" s="77"/>
+      <c r="E94" s="53" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" s="53"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="36" t="s">
         <v>310</v>
       </c>
-      <c r="B88" s="54" t="s">
+      <c r="B95" s="54" t="s">
         <v>334</v>
       </c>
-      <c r="C88" s="48" t="s">
+      <c r="C95" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D88" s="56"/>
-      <c r="E88" s="47" t="s">
+      <c r="D95" s="56"/>
+      <c r="E95" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="F88" s="71"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="33"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="49"/>
-      <c r="D89" s="34"/>
-      <c r="E89" s="40"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="33"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="49"/>
-      <c r="D90" s="34"/>
-      <c r="E90" s="40"/>
-    </row>
-    <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="50" t="s">
+      <c r="F95" s="71"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="33"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="49"/>
+      <c r="D96" s="34"/>
+      <c r="E96" s="40"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="33"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="49"/>
+      <c r="D97" s="34"/>
+      <c r="E97" s="40"/>
+    </row>
+    <row r="98" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="50" t="s">
         <v>219</v>
       </c>
-      <c r="B91" s="40"/>
-      <c r="C91" s="40"/>
-      <c r="D91" s="34"/>
-      <c r="E91" s="40"/>
-    </row>
-    <row r="92" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="51"/>
-      <c r="C92" s="40"/>
-      <c r="D92" s="34"/>
-      <c r="E92" s="40"/>
-    </row>
-    <row r="93" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="27" t="s">
+      <c r="B98" s="40"/>
+      <c r="C98" s="40"/>
+      <c r="D98" s="34"/>
+      <c r="E98" s="40"/>
+    </row>
+    <row r="99" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="51"/>
+      <c r="C99" s="40"/>
+      <c r="D99" s="34"/>
+      <c r="E99" s="40"/>
+    </row>
+    <row r="100" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B93" s="28" t="s">
+      <c r="B100" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C93" s="31" t="s">
+      <c r="C100" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="D93" s="31" t="s">
+      <c r="D100" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E93" s="32" t="s">
+      <c r="E100" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F93" s="67" t="s">
+      <c r="F100" s="67" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="58" t="s">
+    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="58" t="s">
         <v>220</v>
       </c>
-      <c r="B94" s="41" t="s">
+      <c r="B101" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="C94" s="42" t="s">
+      <c r="C101" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="D94" s="42"/>
-      <c r="E94" s="45" t="s">
+      <c r="D101" s="42"/>
+      <c r="E101" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="F94" s="70"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="26" t="s">
+      <c r="F101" s="70"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="26" t="s">
         <v>221</v>
       </c>
-      <c r="B95" s="17" t="s">
+      <c r="B102" s="17" t="s">
         <v>222</v>
       </c>
-      <c r="C95" s="42" t="s">
+      <c r="C102" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="D95" s="34"/>
-      <c r="E95" s="45" t="s">
+      <c r="D102" s="34"/>
+      <c r="E102" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="F95" s="70"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="26" t="s">
+      <c r="F102" s="70"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="B96" s="17" t="s">
+      <c r="B103" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="C96" s="42" t="s">
+      <c r="C103" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="D96" s="34"/>
-      <c r="E96" s="45" t="s">
+      <c r="D103" s="34"/>
+      <c r="E103" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="F96" s="70"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="26" t="s">
+      <c r="F103" s="70"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="26" t="s">
         <v>226</v>
       </c>
-      <c r="B97" s="17" t="s">
+      <c r="B104" s="17" t="s">
         <v>227</v>
-      </c>
-      <c r="C97" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="D97" s="34"/>
-      <c r="E97" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="F97" s="70"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="B98" s="61" t="s">
-        <v>229</v>
-      </c>
-      <c r="C98" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="D98" s="56"/>
-      <c r="E98" s="62" t="s">
-        <v>49</v>
-      </c>
-      <c r="F98" s="71"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="59"/>
-      <c r="B99" s="17"/>
-      <c r="C99" s="49"/>
-      <c r="D99" s="34"/>
-      <c r="E99" s="60"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="59"/>
-      <c r="B100" s="17"/>
-      <c r="C100" s="49"/>
-      <c r="D100" s="34"/>
-      <c r="E100" s="60"/>
-    </row>
-    <row r="101" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="50" t="s">
-        <v>262</v>
-      </c>
-      <c r="B101" s="40"/>
-      <c r="C101" s="40"/>
-      <c r="D101" s="34"/>
-      <c r="E101" s="40"/>
-    </row>
-    <row r="102" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="51"/>
-      <c r="C102" s="40"/>
-      <c r="D102" s="34"/>
-      <c r="E102" s="40"/>
-    </row>
-    <row r="103" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B103" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C103" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="D103" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="E103" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F103" s="67" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="58" t="s">
-        <v>244</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="C104" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="D104" s="42"/>
-      <c r="E104" s="42" t="s">
-        <v>263</v>
+      <c r="D104" s="34"/>
+      <c r="E104" s="45" t="s">
+        <v>49</v>
       </c>
       <c r="F104" s="70"/>
     </row>
-    <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="B105" s="38" t="s">
-        <v>266</v>
-      </c>
-      <c r="C105" s="42" t="s">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="36" t="s">
+        <v>228</v>
+      </c>
+      <c r="B105" s="61" t="s">
+        <v>229</v>
+      </c>
+      <c r="C105" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="D105" s="34" t="s">
-        <v>267</v>
-      </c>
-      <c r="E105" s="42" t="s">
-        <v>263</v>
-      </c>
-      <c r="F105" s="70"/>
+      <c r="D105" s="56"/>
+      <c r="E105" s="62" t="s">
+        <v>49</v>
+      </c>
+      <c r="F105" s="71"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="26" t="s">
-        <v>255</v>
-      </c>
-      <c r="B106" s="66" t="s">
-        <v>256</v>
-      </c>
-      <c r="C106" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="E106" s="38" t="s">
-        <v>263</v>
-      </c>
-      <c r="F106" s="70"/>
-    </row>
-    <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="36" t="s">
-        <v>257</v>
-      </c>
-      <c r="B107" s="54" t="s">
-        <v>266</v>
-      </c>
-      <c r="C107" s="48" t="s">
-        <v>206</v>
-      </c>
-      <c r="D107" s="47"/>
-      <c r="E107" s="54" t="s">
-        <v>263</v>
-      </c>
-      <c r="F107" s="71"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="59"/>
+      <c r="A106" s="59"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="49"/>
+      <c r="D106" s="34"/>
+      <c r="E106" s="60"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="59"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="49"/>
+      <c r="D107" s="34"/>
+      <c r="E107" s="60"/>
+    </row>
+    <row r="108" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="50" t="s">
+        <v>262</v>
+      </c>
       <c r="B108" s="40"/>
-      <c r="C108" s="49"/>
+      <c r="C108" s="40"/>
       <c r="D108" s="34"/>
       <c r="E108" s="40"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="59"/>
-      <c r="B109" s="40"/>
-      <c r="C109" s="49"/>
+    <row r="109" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="51"/>
+      <c r="C109" s="40"/>
       <c r="D109" s="34"/>
       <c r="E109" s="40"/>
     </row>
     <row r="110" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="50" t="s">
+      <c r="A110" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C110" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="D110" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E110" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F110" s="67" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="58" t="s">
+        <v>244</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C111" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="D111" s="42"/>
+      <c r="E111" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="F111" s="70"/>
+    </row>
+    <row r="112" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="B112" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="C112" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="D112" s="34" t="s">
+        <v>267</v>
+      </c>
+      <c r="E112" s="42" t="s">
+        <v>263</v>
+      </c>
+      <c r="F112" s="70"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="B113" s="66" t="s">
+        <v>256</v>
+      </c>
+      <c r="C113" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="E113" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="F113" s="70"/>
+    </row>
+    <row r="114" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A114" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="B114" s="54" t="s">
+        <v>266</v>
+      </c>
+      <c r="C114" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="D114" s="47"/>
+      <c r="E114" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="F114" s="71"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="59"/>
+      <c r="B115" s="40"/>
+      <c r="C115" s="49"/>
+      <c r="D115" s="34"/>
+      <c r="E115" s="40"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="59"/>
+      <c r="B116" s="40"/>
+      <c r="C116" s="49"/>
+      <c r="D116" s="34"/>
+      <c r="E116" s="40"/>
+    </row>
+    <row r="117" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="50" t="s">
         <v>270</v>
       </c>
-      <c r="B110" s="40"/>
-      <c r="C110" s="40"/>
-      <c r="D110" s="34"/>
-      <c r="E110" s="40"/>
-    </row>
-    <row r="111" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="51"/>
-      <c r="C111" s="40"/>
-      <c r="D111" s="34"/>
-      <c r="E111" s="40"/>
-    </row>
-    <row r="112" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="27" t="s">
+      <c r="B117" s="40"/>
+      <c r="C117" s="40"/>
+      <c r="D117" s="34"/>
+      <c r="E117" s="40"/>
+    </row>
+    <row r="118" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="51"/>
+      <c r="C118" s="40"/>
+      <c r="D118" s="34"/>
+      <c r="E118" s="40"/>
+    </row>
+    <row r="119" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B112" s="28" t="s">
+      <c r="B119" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C112" s="31" t="s">
+      <c r="C119" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="D112" s="31" t="s">
+      <c r="D119" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E112" s="32" t="s">
+      <c r="E119" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F112" s="67" t="s">
+      <c r="F119" s="67" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="58" t="s">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="58" t="s">
         <v>271</v>
       </c>
-      <c r="B113" s="68" t="s">
-        <v>272</v>
-      </c>
-      <c r="C113" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D113" s="42"/>
-      <c r="E113" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F113" s="70"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="41" t="s">
-        <v>273</v>
-      </c>
-      <c r="B114" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="C114" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D114" s="42"/>
-      <c r="E114" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F114" s="70"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="41" t="s">
-        <v>274</v>
-      </c>
-      <c r="B115" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="C115" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D115" s="42"/>
-      <c r="E115" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F115" s="70"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="B116" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="C116" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D116" s="42"/>
-      <c r="E116" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F116" s="70"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="41" t="s">
-        <v>276</v>
-      </c>
-      <c r="B117" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="C117" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D117" s="42"/>
-      <c r="E117" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F117" s="70"/>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="41" t="s">
-        <v>277</v>
-      </c>
-      <c r="B118" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="C118" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D118" s="42"/>
-      <c r="E118" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F118" s="70"/>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="41" t="s">
-        <v>278</v>
-      </c>
-      <c r="B119" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="C119" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D119" s="42"/>
-      <c r="E119" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F119" s="70"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="B120" s="66" t="s">
+      <c r="B120" s="68" t="s">
         <v>272</v>
       </c>
       <c r="C120" s="42" t="s">
@@ -6127,7 +6254,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="41" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B121" s="66" t="s">
         <v>272</v>
@@ -6143,7 +6270,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="41" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B122" s="66" t="s">
         <v>272</v>
@@ -6159,7 +6286,7 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="41" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B123" s="66" t="s">
         <v>272</v>
@@ -6175,7 +6302,7 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="41" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B124" s="66" t="s">
         <v>272</v>
@@ -6191,7 +6318,7 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="41" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="B125" s="66" t="s">
         <v>272</v>
@@ -6207,7 +6334,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="41" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B126" s="66" t="s">
         <v>272</v>
@@ -6223,7 +6350,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="41" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="B127" s="66" t="s">
         <v>272</v>
@@ -6239,7 +6366,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="41" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B128" s="66" t="s">
         <v>272</v>
@@ -6255,7 +6382,7 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="41" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="B129" s="66" t="s">
         <v>272</v>
@@ -6271,7 +6398,7 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="41" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B130" s="66" t="s">
         <v>272</v>
@@ -6286,1236 +6413,1559 @@
       <c r="F130" s="70"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="55" t="s">
+      <c r="A131" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="B131" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="C131" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D131" s="42"/>
+      <c r="E131" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F131" s="70"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="B132" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="C132" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D132" s="42"/>
+      <c r="E132" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F132" s="70"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="B133" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="C133" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D133" s="42"/>
+      <c r="E133" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F133" s="70"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="B134" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="C134" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D134" s="42"/>
+      <c r="E134" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" s="70"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="B135" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="C135" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D135" s="42"/>
+      <c r="E135" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F135" s="70"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="B136" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="C136" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D136" s="42"/>
+      <c r="E136" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F136" s="70"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="B137" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="C137" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D137" s="42"/>
+      <c r="E137" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F137" s="70"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="55" t="s">
         <v>290</v>
       </c>
-      <c r="B131" s="69" t="s">
+      <c r="B138" s="69" t="s">
         <v>272</v>
       </c>
-      <c r="C131" s="48" t="s">
+      <c r="C138" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D131" s="48"/>
-      <c r="E131" s="48" t="s">
+      <c r="D138" s="48"/>
+      <c r="E138" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="F131" s="71"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="49"/>
-      <c r="B132" s="65"/>
-      <c r="C132" s="49"/>
-      <c r="D132" s="49"/>
-      <c r="E132" s="49"/>
-      <c r="F132" s="30"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="49"/>
-      <c r="B133" s="65"/>
-      <c r="C133" s="49"/>
-      <c r="D133" s="49"/>
-      <c r="E133" s="49"/>
-      <c r="F133" s="30"/>
-    </row>
-    <row r="134" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="50" t="s">
+      <c r="F138" s="71"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="49"/>
+      <c r="B139" s="65"/>
+      <c r="C139" s="49"/>
+      <c r="D139" s="49"/>
+      <c r="E139" s="49"/>
+      <c r="F139" s="30"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="49"/>
+      <c r="B140" s="65"/>
+      <c r="C140" s="49"/>
+      <c r="D140" s="49"/>
+      <c r="E140" s="49"/>
+      <c r="F140" s="30"/>
+    </row>
+    <row r="141" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="50" t="s">
         <v>307</v>
       </c>
-      <c r="B134" s="40"/>
-      <c r="C134" s="40"/>
-      <c r="D134" s="34"/>
-      <c r="E134" s="40"/>
-    </row>
-    <row r="135" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="51"/>
-      <c r="C135" s="40"/>
-      <c r="D135" s="34"/>
-      <c r="E135" s="40"/>
-    </row>
-    <row r="136" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="27" t="s">
+      <c r="B141" s="40"/>
+      <c r="C141" s="40"/>
+      <c r="D141" s="34"/>
+      <c r="E141" s="40"/>
+    </row>
+    <row r="142" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="51"/>
+      <c r="C142" s="40"/>
+      <c r="D142" s="34"/>
+      <c r="E142" s="40"/>
+    </row>
+    <row r="143" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B136" s="28" t="s">
+      <c r="B143" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C136" s="31" t="s">
+      <c r="C143" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="D136" s="31" t="s">
+      <c r="D143" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E136" s="32" t="s">
+      <c r="E143" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F136" s="67" t="s">
+      <c r="F143" s="67" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A137" s="55" t="s">
+    <row r="144" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A144" s="55" t="s">
         <v>292</v>
       </c>
-      <c r="B137" s="74" t="s">
+      <c r="B144" s="74" t="s">
         <v>293</v>
       </c>
-      <c r="C137" s="75" t="s">
+      <c r="C144" s="75" t="s">
         <v>206</v>
       </c>
-      <c r="D137" s="74"/>
-      <c r="E137" s="76" t="s">
+      <c r="D144" s="74"/>
+      <c r="E144" s="76" t="s">
         <v>308</v>
       </c>
-      <c r="F137" s="73"/>
-    </row>
-    <row r="138" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A138" s="55" t="s">
+      <c r="F144" s="73"/>
+    </row>
+    <row r="145" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="55" t="s">
         <v>298</v>
       </c>
-      <c r="B138" s="69" t="s">
+      <c r="B145" s="69" t="s">
         <v>297</v>
       </c>
-      <c r="C138" s="54" t="s">
+      <c r="C145" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="D138" s="69"/>
-      <c r="E138" s="54" t="s">
+      <c r="D145" s="69"/>
+      <c r="E145" s="54" t="s">
         <v>308</v>
       </c>
-      <c r="F138" s="73"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="55" t="s">
+      <c r="F145" s="73"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="55" t="s">
         <v>299</v>
       </c>
-      <c r="B139" s="69" t="s">
+      <c r="B146" s="69" t="s">
         <v>300</v>
       </c>
-      <c r="C139" s="54" t="s">
+      <c r="C146" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="D139" s="69"/>
-      <c r="E139" s="54" t="s">
+      <c r="D146" s="69"/>
+      <c r="E146" s="54" t="s">
         <v>308</v>
       </c>
-      <c r="F139" s="73"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="55" t="s">
+      <c r="F146" s="73"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="55" t="s">
         <v>302</v>
       </c>
-      <c r="B140" s="69" t="s">
+      <c r="B147" s="69" t="s">
         <v>301</v>
       </c>
-      <c r="C140" s="54" t="s">
+      <c r="C147" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="D140" s="69"/>
-      <c r="E140" s="54" t="s">
+      <c r="D147" s="69"/>
+      <c r="E147" s="54" t="s">
         <v>308</v>
       </c>
-      <c r="F140" s="73"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="55" t="s">
+      <c r="F147" s="73"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="55" t="s">
         <v>303</v>
       </c>
-      <c r="B141" s="69" t="s">
+      <c r="B148" s="69" t="s">
         <v>304</v>
       </c>
-      <c r="C141" s="54" t="s">
+      <c r="C148" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="D141" s="69"/>
-      <c r="E141" s="54" t="s">
+      <c r="D148" s="69"/>
+      <c r="E148" s="54" t="s">
         <v>308</v>
       </c>
-      <c r="F141" s="73"/>
-    </row>
-    <row r="142" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A142" s="55" t="s">
+      <c r="F148" s="73"/>
+    </row>
+    <row r="149" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A149" s="55" t="s">
         <v>305</v>
       </c>
-      <c r="B142" s="69" t="s">
+      <c r="B149" s="69" t="s">
         <v>306</v>
       </c>
-      <c r="C142" s="54" t="s">
+      <c r="C149" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="D142" s="69"/>
-      <c r="E142" s="54" t="s">
+      <c r="D149" s="69"/>
+      <c r="E149" s="54" t="s">
         <v>308</v>
       </c>
-      <c r="F142" s="73"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="49"/>
-      <c r="B143" s="65"/>
-      <c r="C143" s="49"/>
-      <c r="D143" s="49"/>
-      <c r="E143" s="49"/>
-      <c r="F143" s="30"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="49"/>
-      <c r="B144" s="65"/>
-      <c r="C144" s="49"/>
-      <c r="D144" s="49"/>
-      <c r="E144" s="49"/>
-      <c r="F144" s="30"/>
-    </row>
-    <row r="145" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="50" t="s">
+      <c r="F149" s="73"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="49"/>
+      <c r="B150" s="65"/>
+      <c r="C150" s="40"/>
+      <c r="D150" s="65"/>
+      <c r="E150" s="40"/>
+      <c r="F150" s="65"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="49"/>
+      <c r="B151" s="65"/>
+      <c r="C151" s="49"/>
+      <c r="D151" s="49"/>
+      <c r="E151" s="49"/>
+      <c r="F151" s="30"/>
+    </row>
+    <row r="152" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="50" t="s">
+        <v>366</v>
+      </c>
+      <c r="B152" s="40"/>
+      <c r="C152" s="40"/>
+      <c r="D152" s="34"/>
+      <c r="E152" s="40"/>
+    </row>
+    <row r="153" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="51"/>
+      <c r="C153" s="40"/>
+      <c r="D153" s="34"/>
+      <c r="E153" s="40"/>
+    </row>
+    <row r="154" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B154" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C154" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="D154" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E154" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F154" s="67" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="55" t="s">
+        <v>360</v>
+      </c>
+      <c r="B155" s="55" t="s">
+        <v>361</v>
+      </c>
+      <c r="C155" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="D155" s="55"/>
+      <c r="E155" s="55" t="s">
+        <v>367</v>
+      </c>
+      <c r="F155" s="55"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="55" t="s">
+        <v>362</v>
+      </c>
+      <c r="B156" s="55" t="s">
+        <v>363</v>
+      </c>
+      <c r="C156" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="D156" s="55"/>
+      <c r="E156" s="55" t="s">
+        <v>367</v>
+      </c>
+      <c r="F156" s="55"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="55" t="s">
+        <v>364</v>
+      </c>
+      <c r="B157" s="55" t="s">
+        <v>365</v>
+      </c>
+      <c r="C157" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="D157" s="55"/>
+      <c r="E157" s="55" t="s">
+        <v>367</v>
+      </c>
+      <c r="F157" s="55"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="55" t="s">
+        <v>259</v>
+      </c>
+      <c r="B158" s="55" t="s">
+        <v>368</v>
+      </c>
+      <c r="C158" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="D158" s="55"/>
+      <c r="E158" s="55" t="s">
+        <v>367</v>
+      </c>
+      <c r="F158" s="55"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="55" t="s">
+        <v>260</v>
+      </c>
+      <c r="B159" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="C159" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="D159" s="55"/>
+      <c r="E159" s="55" t="s">
+        <v>367</v>
+      </c>
+      <c r="F159" s="55"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="49"/>
+      <c r="B160" s="65"/>
+      <c r="C160" s="65"/>
+      <c r="D160" s="65"/>
+      <c r="E160" s="78"/>
+      <c r="F160" s="65"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="49"/>
+      <c r="B161" s="65"/>
+      <c r="C161" s="40"/>
+      <c r="D161" s="65"/>
+      <c r="E161" s="78"/>
+      <c r="F161" s="65"/>
+    </row>
+    <row r="162" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="B145" s="40"/>
-      <c r="C145" s="40"/>
-      <c r="D145" s="34"/>
-      <c r="E145" s="40"/>
-    </row>
-    <row r="146" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B146" s="51"/>
-      <c r="C146" s="40"/>
-      <c r="D146" s="34"/>
-      <c r="E146" s="40"/>
-    </row>
-    <row r="147" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="27" t="s">
+      <c r="B162" s="40"/>
+      <c r="C162" s="40"/>
+      <c r="D162" s="34"/>
+      <c r="E162" s="40"/>
+    </row>
+    <row r="163" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="51"/>
+      <c r="C163" s="40"/>
+      <c r="D163" s="34"/>
+      <c r="E163" s="40"/>
+    </row>
+    <row r="164" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B147" s="28" t="s">
+      <c r="B164" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C147" s="31" t="s">
+      <c r="C164" s="31" t="s">
         <v>207</v>
       </c>
-      <c r="D147" s="31" t="s">
+      <c r="D164" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="E147" s="32" t="s">
+      <c r="E164" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F147" s="67" t="s">
+      <c r="F164" s="67" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="41" t="s">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B148" s="42" t="s">
+      <c r="B165" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C148" s="42" t="s">
+      <c r="C165" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D148" s="42"/>
-      <c r="E148" s="42" t="s">
+      <c r="D165" s="42"/>
+      <c r="E165" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="F148" s="70"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="35" t="s">
+      <c r="F165" s="70"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B149" s="39" t="s">
+      <c r="B166" s="39" t="s">
         <v>213</v>
-      </c>
-      <c r="C149" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="E149" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F149" s="70"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B150" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="C150" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E150" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="F150" s="70"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B151" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="C151" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E151" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="F151" s="70"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B152" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="C152" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E152" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="F152" s="70"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="B153" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="C153" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E153" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="F153" s="70"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="B154" s="39" t="s">
-        <v>64</v>
-      </c>
-      <c r="C154" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E154" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="F154" s="70"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="B155" s="38" t="s">
-        <v>243</v>
-      </c>
-      <c r="C155" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="E155" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F155" s="70"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="B156" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="C156" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E156" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="F156" s="70"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="B157" s="39" t="s">
-        <v>70</v>
-      </c>
-      <c r="C157" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="E157" s="42" t="s">
-        <v>264</v>
-      </c>
-      <c r="F157" s="70"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="B158" s="38" t="s">
-        <v>218</v>
-      </c>
-      <c r="C158" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="E158" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F158" s="70"/>
-    </row>
-    <row r="159" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A159" s="37" t="s">
-        <v>230</v>
-      </c>
-      <c r="B159" s="38" t="s">
-        <v>231</v>
-      </c>
-      <c r="C159" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="E159" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F159" s="70"/>
-    </row>
-    <row r="160" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A160" s="37" t="s">
-        <v>232</v>
-      </c>
-      <c r="B160" s="38" t="s">
-        <v>233</v>
-      </c>
-      <c r="C160" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="E160" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F160" s="70"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="37" t="s">
-        <v>234</v>
-      </c>
-      <c r="B161" s="38" t="s">
-        <v>235</v>
-      </c>
-      <c r="C161" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="E161" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F161" s="70"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="37" t="s">
-        <v>236</v>
-      </c>
-      <c r="B162" s="38" t="s">
-        <v>237</v>
-      </c>
-      <c r="C162" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="E162" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F162" s="70"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="B163" s="38" t="s">
-        <v>239</v>
-      </c>
-      <c r="C163" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="E163" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F163" s="70"/>
-    </row>
-    <row r="164" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A164" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="B164" s="38" t="s">
-        <v>241</v>
-      </c>
-      <c r="C164" s="42" t="s">
-        <v>206</v>
-      </c>
-      <c r="E164" s="43" t="s">
-        <v>9</v>
-      </c>
-      <c r="F164" s="70"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="37" t="s">
-        <v>268</v>
-      </c>
-      <c r="B165" s="38" t="s">
-        <v>269</v>
-      </c>
-      <c r="C165" s="38" t="s">
-        <v>206</v>
-      </c>
-      <c r="E165" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F165" s="70"/>
-    </row>
-    <row r="166" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A166" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="B166" s="38" t="s">
-        <v>309</v>
       </c>
       <c r="C166" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E166" s="38" t="s">
+      <c r="E166" s="43" t="s">
         <v>9</v>
       </c>
       <c r="F166" s="70"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="B167" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C167" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E167" s="42" t="s">
+        <v>264</v>
+      </c>
       <c r="F167" s="70"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B168" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C168" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E168" s="42" t="s">
+        <v>264</v>
+      </c>
       <c r="F168" s="70"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B169" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C169" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E169" s="42" t="s">
+        <v>264</v>
+      </c>
       <c r="F169" s="70"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="37" t="s">
-        <v>345</v>
+      <c r="A170" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B170" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C170" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E170" s="42" t="s">
+        <v>264</v>
       </c>
       <c r="F170" s="70"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B171" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C171" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E171" s="42" t="s">
+        <v>264</v>
+      </c>
       <c r="F171" s="70"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="B172" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="C172" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E172" s="43" t="s">
+        <v>9</v>
+      </c>
       <c r="F172" s="70"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B173" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C173" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E173" s="42" t="s">
+        <v>264</v>
+      </c>
       <c r="F173" s="70"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B174" s="39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C174" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="E174" s="42" t="s">
+        <v>264</v>
+      </c>
       <c r="F174" s="70"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="B175" s="38" t="s">
+        <v>218</v>
+      </c>
+      <c r="C175" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="E175" s="43" t="s">
+        <v>9</v>
+      </c>
       <c r="F175" s="70"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A176" s="37" t="s">
+        <v>230</v>
+      </c>
+      <c r="B176" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="C176" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E176" s="43" t="s">
+        <v>9</v>
+      </c>
       <c r="F176" s="70"/>
     </row>
-    <row r="177" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A177" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="B177" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="C177" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="E177" s="43" t="s">
+        <v>9</v>
+      </c>
       <c r="F177" s="70"/>
     </row>
-    <row r="178" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="B178" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="C178" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="E178" s="43" t="s">
+        <v>9</v>
+      </c>
       <c r="F178" s="70"/>
     </row>
-    <row r="179" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="B179" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="C179" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="E179" s="43" t="s">
+        <v>9</v>
+      </c>
       <c r="F179" s="70"/>
     </row>
-    <row r="180" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="B180" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="C180" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="E180" s="43" t="s">
+        <v>9</v>
+      </c>
       <c r="F180" s="70"/>
     </row>
-    <row r="181" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A181" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="B181" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="C181" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="E181" s="43" t="s">
+        <v>9</v>
+      </c>
       <c r="F181" s="70"/>
     </row>
-    <row r="182" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="B182" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="C182" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="E182" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="F182" s="70"/>
     </row>
-    <row r="183" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A183" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="B183" s="38" t="s">
+        <v>309</v>
+      </c>
+      <c r="C183" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="E183" s="38" t="s">
+        <v>9</v>
+      </c>
       <c r="F183" s="70"/>
     </row>
-    <row r="184" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F184" s="70"/>
     </row>
-    <row r="185" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F185" s="70"/>
     </row>
-    <row r="186" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="37" t="s">
+        <v>370</v>
+      </c>
       <c r="F186" s="70"/>
     </row>
-    <row r="187" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F187" s="70"/>
     </row>
-    <row r="188" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F188" s="70"/>
     </row>
-    <row r="189" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F189" s="70"/>
     </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F190" s="70"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F191" s="70"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F192" s="70"/>
+    </row>
+    <row r="193" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F193" s="70"/>
+    </row>
+    <row r="194" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F194" s="70"/>
+    </row>
+    <row r="195" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F195" s="70"/>
+    </row>
+    <row r="196" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F196" s="70"/>
+    </row>
+    <row r="197" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F197" s="70"/>
+    </row>
+    <row r="198" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F198" s="70"/>
+    </row>
+    <row r="199" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F199" s="70"/>
+    </row>
+    <row r="200" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F200" s="70"/>
+    </row>
+    <row r="201" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F201" s="70"/>
+    </row>
+    <row r="202" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F202" s="70"/>
+    </row>
+    <row r="203" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F203" s="70"/>
+    </row>
+    <row r="204" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F204" s="70"/>
+    </row>
+    <row r="205" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F205" s="70"/>
+    </row>
+    <row r="206" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F206" s="70"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="C73:C76 C148:C154 C156:C158 C105:C109 C89:C90 C66:C69 C44:C63 C4:C40 C78:C87">
-    <cfRule type="containsText" dxfId="167" priority="186" stopIfTrue="1" operator="containsText" text="Delete">
+  <conditionalFormatting sqref="C80:C83 C165:C171 C173:C175 C112:C116 C96:C97 C73:C76 C51:C70 C4:C11 C85:C94 C13:C37 C40:C42 C151">
+    <cfRule type="containsText" dxfId="183" priority="210" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="187" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="182" priority="211" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="188" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="181" priority="212" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C73:C76 C148:C154 C156:C158 C105:C109 C89:C90 C66:C69 C44:C63 C4:C40 C78:C87">
-    <cfRule type="containsText" dxfId="164" priority="185" operator="containsText" text="None">
+  <conditionalFormatting sqref="C80:C83 C165:C171 C173:C175 C112:C116 C96:C97 C73:C76 C51:C70 C4:C11 C85:C94 C13:C37 C40:C42 C151">
+    <cfRule type="containsText" dxfId="180" priority="209" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C94">
-    <cfRule type="containsText" dxfId="163" priority="182" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C94)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="183" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C94)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="184" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C94)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C94">
-    <cfRule type="containsText" dxfId="160" priority="181" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C94)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C96">
-    <cfRule type="containsText" dxfId="159" priority="173" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C96)))</formula>
+  <conditionalFormatting sqref="C101">
+    <cfRule type="containsText" dxfId="179" priority="206" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C101)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="178" priority="207" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C101)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="177" priority="208" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C101)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C101">
+    <cfRule type="containsText" dxfId="176" priority="205" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C101)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C103">
+    <cfRule type="containsText" dxfId="175" priority="197" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C103)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C102">
+    <cfRule type="containsText" dxfId="174" priority="202" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C102)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="173" priority="203" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C102)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="172" priority="204" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C102)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C102">
+    <cfRule type="containsText" dxfId="171" priority="201" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C102)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C103">
+    <cfRule type="containsText" dxfId="170" priority="198" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C103)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="169" priority="199" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C103)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="168" priority="200" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C103)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C105:C107">
+    <cfRule type="containsText" dxfId="167" priority="189" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C105)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C104">
+    <cfRule type="containsText" dxfId="166" priority="193" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C104)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C104">
+    <cfRule type="containsText" dxfId="165" priority="194" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C104)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="164" priority="195" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C104)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="163" priority="196" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C104)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C172">
+    <cfRule type="containsText" dxfId="162" priority="161" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C172)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C105:C107">
+    <cfRule type="containsText" dxfId="161" priority="190" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C105)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="160" priority="191" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C105)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="159" priority="192" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C105)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C176">
+    <cfRule type="containsText" dxfId="158" priority="186" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C176)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="157" priority="187" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C176)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="156" priority="188" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C176)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C176">
+    <cfRule type="containsText" dxfId="155" priority="185" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C176)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C177">
+    <cfRule type="containsText" dxfId="154" priority="182" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C177)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="153" priority="183" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C177)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="152" priority="184" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C177)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C177">
+    <cfRule type="containsText" dxfId="151" priority="181" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C177)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C178">
+    <cfRule type="containsText" dxfId="150" priority="178" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C178)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="149" priority="179" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C178)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="148" priority="180" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C178)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C178">
+    <cfRule type="containsText" dxfId="147" priority="177" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C178)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C179">
+    <cfRule type="containsText" dxfId="146" priority="174" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C179)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="145" priority="175" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C179)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="144" priority="176" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C179)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C179">
+    <cfRule type="containsText" dxfId="143" priority="173" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C179)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C180">
+    <cfRule type="containsText" dxfId="142" priority="170" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C180)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="141" priority="171" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C180)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="140" priority="172" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C180)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C180">
+    <cfRule type="containsText" dxfId="139" priority="169" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C180)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C181">
+    <cfRule type="containsText" dxfId="138" priority="166" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C181)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="137" priority="167" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C181)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="136" priority="168" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C181)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C181">
+    <cfRule type="containsText" dxfId="135" priority="165" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C181)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C172">
+    <cfRule type="containsText" dxfId="134" priority="162" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C172)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="133" priority="163" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C172)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="132" priority="164" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C172)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C111">
+    <cfRule type="containsText" dxfId="131" priority="158" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C111)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="130" priority="159" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C111)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="129" priority="160" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C111)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C111">
+    <cfRule type="containsText" dxfId="128" priority="157" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C111)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C120">
+    <cfRule type="containsText" dxfId="127" priority="150" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C120)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="126" priority="151" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C120)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="125" priority="152" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C120)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C120">
+    <cfRule type="containsText" dxfId="124" priority="149" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C120)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C121">
+    <cfRule type="containsText" dxfId="123" priority="146" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C121)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="122" priority="147" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C121)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="121" priority="148" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C121)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C121">
+    <cfRule type="containsText" dxfId="120" priority="145" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C121)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C122">
+    <cfRule type="containsText" dxfId="119" priority="142" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C122)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="118" priority="143" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C122)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="117" priority="144" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C122)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C122">
+    <cfRule type="containsText" dxfId="116" priority="141" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C122)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C123">
+    <cfRule type="containsText" dxfId="115" priority="138" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C123)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="114" priority="139" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C123)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="113" priority="140" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C123)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C123">
+    <cfRule type="containsText" dxfId="112" priority="137" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C123)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C124">
+    <cfRule type="containsText" dxfId="111" priority="134" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C124)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="110" priority="135" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C124)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="109" priority="136" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C124)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C124">
+    <cfRule type="containsText" dxfId="108" priority="133" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C124)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C125">
+    <cfRule type="containsText" dxfId="107" priority="130" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C125)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="131" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C125)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="105" priority="132" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C125)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C125">
+    <cfRule type="containsText" dxfId="104" priority="129" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C125)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C126">
+    <cfRule type="containsText" dxfId="103" priority="126" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C126)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="102" priority="127" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C126)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="101" priority="128" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C126)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C126">
+    <cfRule type="containsText" dxfId="100" priority="125" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C126)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C127">
+    <cfRule type="containsText" dxfId="99" priority="122" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C127)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="98" priority="123" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C127)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="97" priority="124" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C127)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C127">
+    <cfRule type="containsText" dxfId="96" priority="121" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C127)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C128">
+    <cfRule type="containsText" dxfId="95" priority="118" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C128)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="119" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C128)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="93" priority="120" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C128)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C128">
+    <cfRule type="containsText" dxfId="92" priority="117" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C128)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C129">
+    <cfRule type="containsText" dxfId="91" priority="114" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C129)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="90" priority="115" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C129)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="89" priority="116" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C129)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C129">
+    <cfRule type="containsText" dxfId="88" priority="113" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C129)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C130">
+    <cfRule type="containsText" dxfId="87" priority="110" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C130)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="86" priority="111" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C130)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="112" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C130)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C130">
+    <cfRule type="containsText" dxfId="84" priority="109" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C130)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C131">
+    <cfRule type="containsText" dxfId="83" priority="106" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C131)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="107" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C131)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="81" priority="108" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C131)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C131">
+    <cfRule type="containsText" dxfId="80" priority="105" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C131)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C132">
+    <cfRule type="containsText" dxfId="79" priority="102" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C132)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="103" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C132)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="77" priority="104" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C132)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C132">
+    <cfRule type="containsText" dxfId="76" priority="101" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C132)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C133">
+    <cfRule type="containsText" dxfId="75" priority="98" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C133)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="99" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C133)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="73" priority="100" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C133)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C133">
+    <cfRule type="containsText" dxfId="72" priority="97" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C133)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C134">
+    <cfRule type="containsText" dxfId="71" priority="94" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C134)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="95" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C134)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="96" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C134)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C134">
+    <cfRule type="containsText" dxfId="68" priority="93" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C134)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C135">
+    <cfRule type="containsText" dxfId="67" priority="90" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C135)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="91" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C135)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="65" priority="92" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C135)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C135">
+    <cfRule type="containsText" dxfId="64" priority="89" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C135)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C136">
+    <cfRule type="containsText" dxfId="63" priority="86" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C136)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="87" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C136)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="88" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C136)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C136">
+    <cfRule type="containsText" dxfId="60" priority="85" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C136)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C137">
+    <cfRule type="containsText" dxfId="59" priority="82" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C137)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="83" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C137)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="84" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C137)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C137">
+    <cfRule type="containsText" dxfId="56" priority="81" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C137)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C138:C140">
+    <cfRule type="containsText" dxfId="55" priority="78" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C138)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="79" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C138)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="80" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C138)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C138:C140">
+    <cfRule type="containsText" dxfId="52" priority="77" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C138)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C183">
+    <cfRule type="containsText" dxfId="51" priority="70" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C183)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="71" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C183)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="72" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C183)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C183">
+    <cfRule type="containsText" dxfId="48" priority="69" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C183)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84">
+    <cfRule type="containsText" dxfId="47" priority="58" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C84)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="59" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C84)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="60" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C84)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84">
+    <cfRule type="containsText" dxfId="44" priority="57" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C84)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43:C44">
+    <cfRule type="containsText" dxfId="43" priority="46" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="47" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="48" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43:C44">
+    <cfRule type="containsText" dxfId="40" priority="45" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72">
+    <cfRule type="containsText" dxfId="39" priority="34" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C72)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="35" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C72)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="36" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C72)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72">
+    <cfRule type="containsText" dxfId="36" priority="33" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C72)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="containsText" dxfId="35" priority="38" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="39" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="40" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="containsText" dxfId="32" priority="37" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49:C50">
+    <cfRule type="containsText" dxfId="31" priority="42" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="43" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="44" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49:C50">
+    <cfRule type="containsText" dxfId="28" priority="41" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C95">
-    <cfRule type="containsText" dxfId="158" priority="178" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="27" priority="26" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C95)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="179" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C95)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="180" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="25" priority="28" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C95)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C95">
-    <cfRule type="containsText" dxfId="155" priority="177" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C95)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C96">
-    <cfRule type="containsText" dxfId="154" priority="174" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C96)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="175" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C96)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="176" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C96)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98:C100">
-    <cfRule type="containsText" dxfId="151" priority="165" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C98)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C97">
-    <cfRule type="containsText" dxfId="150" priority="169" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C97)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C97">
-    <cfRule type="containsText" dxfId="149" priority="170" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C97)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="171" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C97)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="172" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C97)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C155">
-    <cfRule type="containsText" dxfId="146" priority="137" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C155)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98:C100">
-    <cfRule type="containsText" dxfId="145" priority="166" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C98)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="167" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C98)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="143" priority="168" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C98)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C159">
-    <cfRule type="containsText" dxfId="142" priority="162" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C159)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="163" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C159)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="164" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C159)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C159">
-    <cfRule type="containsText" dxfId="139" priority="161" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C159)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C160">
-    <cfRule type="containsText" dxfId="138" priority="158" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C160)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="159" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C160)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="160" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C160)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C160">
-    <cfRule type="containsText" dxfId="135" priority="157" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C160)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C161">
-    <cfRule type="containsText" dxfId="134" priority="154" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C161)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="155" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C161)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="156" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C161)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C161">
-    <cfRule type="containsText" dxfId="131" priority="153" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C161)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C162">
-    <cfRule type="containsText" dxfId="130" priority="150" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C162)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="151" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C162)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="152" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C162)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C162">
-    <cfRule type="containsText" dxfId="127" priority="149" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C162)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C163">
-    <cfRule type="containsText" dxfId="126" priority="146" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C163)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="147" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C163)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="124" priority="148" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C163)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C163">
-    <cfRule type="containsText" dxfId="123" priority="145" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C163)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C164">
-    <cfRule type="containsText" dxfId="122" priority="142" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C164)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="143" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C164)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="144" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C164)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C164">
-    <cfRule type="containsText" dxfId="119" priority="141" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C164)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C155">
-    <cfRule type="containsText" dxfId="118" priority="138" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C155)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="139" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C155)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="116" priority="140" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C155)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C104">
-    <cfRule type="containsText" dxfId="115" priority="134" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C104)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="135" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C104)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="136" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C104)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C104">
-    <cfRule type="containsText" dxfId="112" priority="133" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C104)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C113">
-    <cfRule type="containsText" dxfId="111" priority="126" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C113)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="127" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C113)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="128" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C113)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C113">
-    <cfRule type="containsText" dxfId="108" priority="125" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C113)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C114">
-    <cfRule type="containsText" dxfId="107" priority="122" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C114)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="123" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C114)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="124" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C114)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C114">
-    <cfRule type="containsText" dxfId="104" priority="121" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C114)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C115">
-    <cfRule type="containsText" dxfId="103" priority="118" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C115)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="119" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C115)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="120" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C115)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C115">
-    <cfRule type="containsText" dxfId="100" priority="117" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C115)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C116">
-    <cfRule type="containsText" dxfId="99" priority="114" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C116)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="115" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C116)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="116" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C116)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C116">
-    <cfRule type="containsText" dxfId="96" priority="113" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C116)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C117">
-    <cfRule type="containsText" dxfId="95" priority="110" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C117)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="111" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C117)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="112" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C117)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C117">
-    <cfRule type="containsText" dxfId="92" priority="109" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C117)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C118">
-    <cfRule type="containsText" dxfId="91" priority="106" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C118)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="107" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C118)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="108" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C118)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C118">
-    <cfRule type="containsText" dxfId="88" priority="105" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C118)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C119">
-    <cfRule type="containsText" dxfId="87" priority="102" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C119)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="103" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C119)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="104" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C119)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C119">
-    <cfRule type="containsText" dxfId="84" priority="101" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C119)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C120">
-    <cfRule type="containsText" dxfId="83" priority="98" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C120)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="99" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C120)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="100" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C120)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C120">
-    <cfRule type="containsText" dxfId="80" priority="97" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C120)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C121">
-    <cfRule type="containsText" dxfId="79" priority="94" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C121)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="95" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C121)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="96" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C121)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C121">
-    <cfRule type="containsText" dxfId="76" priority="93" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C121)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C122">
-    <cfRule type="containsText" dxfId="75" priority="90" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C122)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="91" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C122)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="92" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C122)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C122">
-    <cfRule type="containsText" dxfId="72" priority="89" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C122)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C123">
-    <cfRule type="containsText" dxfId="71" priority="86" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C123)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="87" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C123)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="88" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C123)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C123">
-    <cfRule type="containsText" dxfId="68" priority="85" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C123)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C124">
-    <cfRule type="containsText" dxfId="67" priority="82" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C124)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="83" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C124)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="84" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C124)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C124">
-    <cfRule type="containsText" dxfId="64" priority="81" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C124)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C125">
-    <cfRule type="containsText" dxfId="63" priority="78" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C125)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="79" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C125)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="80" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C125)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C125">
-    <cfRule type="containsText" dxfId="60" priority="77" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C125)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C126">
-    <cfRule type="containsText" dxfId="59" priority="74" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C126)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="75" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C126)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="76" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C126)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C126">
-    <cfRule type="containsText" dxfId="56" priority="73" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C126)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C127">
-    <cfRule type="containsText" dxfId="55" priority="70" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C127)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="71" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C127)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="72" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C127)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C127">
-    <cfRule type="containsText" dxfId="52" priority="69" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C127)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C128">
-    <cfRule type="containsText" dxfId="51" priority="66" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C128)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="67" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C128)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="68" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C128)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C128">
-    <cfRule type="containsText" dxfId="48" priority="65" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C128)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C129">
-    <cfRule type="containsText" dxfId="47" priority="62" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C129)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="63" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C129)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="64" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C129)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C129">
-    <cfRule type="containsText" dxfId="44" priority="61" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C129)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C130">
-    <cfRule type="containsText" dxfId="43" priority="58" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C130)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="59" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C130)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="60" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C130)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C130">
-    <cfRule type="containsText" dxfId="40" priority="57" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C130)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C131:C133">
-    <cfRule type="containsText" dxfId="39" priority="54" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C131)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="55" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C131)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="56" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C131)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C131:C133">
-    <cfRule type="containsText" dxfId="36" priority="53" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C131)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C143:C144">
-    <cfRule type="containsText" dxfId="35" priority="50" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C143)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="51" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C143)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="52" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C143)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C143:C144">
-    <cfRule type="containsText" dxfId="32" priority="49" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C143)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C166">
-    <cfRule type="containsText" dxfId="31" priority="46" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C166)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="47" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C166)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="48" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C166)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C166">
-    <cfRule type="containsText" dxfId="28" priority="45" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C166)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C77">
-    <cfRule type="containsText" dxfId="27" priority="34" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C77)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="35" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C77)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="36" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C77)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C77">
-    <cfRule type="containsText" dxfId="24" priority="33" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C77)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C41">
+  <conditionalFormatting sqref="C45">
     <cfRule type="containsText" dxfId="23" priority="22" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C41)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Delete",C45)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C41)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Change",C45)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C41">
+      <formula>NOT(ISERROR(SEARCH("Create",C45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
     <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C41)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="containsText" dxfId="19" priority="10" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C65)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="11" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C65)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="12" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C65)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65">
-    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C65)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
+      <formula>NOT(ISERROR(SEARCH("None",C45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="containsText" dxfId="19" priority="18" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46:C47">
     <cfRule type="containsText" dxfId="15" priority="14" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C64)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Delete",C46)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C64)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Change",C46)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C64)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C64">
+      <formula>NOT(ISERROR(SEARCH("Create",C46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46:C47">
     <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C64)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42:C43">
-    <cfRule type="containsText" dxfId="11" priority="18" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C42)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="20" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C42:C43">
-    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C42)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C88">
-    <cfRule type="containsText" dxfId="7" priority="2" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C88)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C88)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C88)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C88">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C88)))</formula>
+      <formula>NOT(ISERROR(SEARCH("None",C46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="containsText" dxfId="11" priority="10" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="containsText" dxfId="7" priority="6" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="containsText" dxfId="3" priority="2" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C166 C148:C164 C94:C100 C104:C109 C113:C133 C137:C144 C4:C69 C73:C90">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C183 C165:C181 C101:C107 C111:C116 C120:C140 C80:C97 C4:C76 C144:C151 C155:C161">
       <formula1>$G$4:$G$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -7529,7 +7979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A53:E104"/>
   <sheetViews>
-    <sheetView topLeftCell="A71" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
@@ -8425,8 +8875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E30"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:B30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8553,4 +9003,79 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A22:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="82.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="4" max="4" width="64.85546875" customWidth="1"/>
+    <col min="5" max="5" width="58" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
 </file>
--- a/Technical documentation/AL table analysis.xlsx
+++ b/Technical documentation/AL table analysis.xlsx
@@ -18,6 +18,7 @@
     <sheet name="Crew Structure" sheetId="4" r:id="rId4"/>
     <sheet name="Doc Disk Structure" sheetId="5" r:id="rId5"/>
     <sheet name="Individuals Structure" sheetId="6" r:id="rId6"/>
+    <sheet name="Menu Structure" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table overview'!$A$79:$E$79</definedName>
@@ -373,7 +374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B143" authorId="0" shapeId="0">
+    <comment ref="B147" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -397,7 +398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D143" authorId="0" shapeId="0">
+    <comment ref="D147" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -421,7 +422,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E143" authorId="0" shapeId="0">
+    <comment ref="E147" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -445,7 +446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B154" authorId="0" shapeId="0">
+    <comment ref="B171" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -469,7 +470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D154" authorId="0" shapeId="0">
+    <comment ref="D171" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -493,7 +494,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E154" authorId="0" shapeId="0">
+    <comment ref="E171" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -517,7 +518,223 @@
         </r>
       </text>
     </comment>
-    <comment ref="A162" authorId="0" shapeId="0">
+    <comment ref="B182" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martens Maarten:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+What does the table do?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D182" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martens Maarten:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Explain the change</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E182" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martens Maarten:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+In which ER diagram can it be found?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B192" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martens Maarten:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+What does the table do?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D192" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martens Maarten:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Explain the change</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E192" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martens Maarten:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+In which ER diagram can it be found?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B201" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martens Maarten:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+What does the table do?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D201" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martens Maarten:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Explain the change</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E201" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martens Maarten:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+In which ER diagram can it be found?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A207" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -541,7 +758,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B164" authorId="0" shapeId="0">
+    <comment ref="B209" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -565,7 +782,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D164" authorId="0" shapeId="0">
+    <comment ref="D209" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -589,7 +806,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E164" authorId="0" shapeId="0">
+    <comment ref="E209" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -792,8 +1009,43 @@
 </comments>
 </file>
 
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Martens Maarten</author>
+  </authors>
+  <commentList>
+    <comment ref="C44" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Martens Maarten:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Extra info on some of the fields of the table
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="850" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="438">
   <si>
     <t>Table name</t>
   </si>
@@ -1920,7 +2172,208 @@
     <t>Crosstable between the individuals and the menu structure</t>
   </si>
   <si>
-    <t>Last : interview comments</t>
+    <t>Interview structure</t>
+  </si>
+  <si>
+    <t>interview_comments</t>
+  </si>
+  <si>
+    <t>interview_main</t>
+  </si>
+  <si>
+    <t>interview_text</t>
+  </si>
+  <si>
+    <t>This is the main interview table. It basically stocks the interview and the person who wrote it. An interview is not connected to a game, but to an individual.</t>
+  </si>
+  <si>
+    <t>The actual interviews</t>
+  </si>
+  <si>
+    <t>This table holds the comments to the screenshot used in the interview. It works in the same fashion as with the reviews…</t>
+  </si>
+  <si>
+    <t>interview_user_comments</t>
+  </si>
+  <si>
+    <t>This table has got nothing to do with the screenshots comments. This is a crosstable to the comment table, people can give their opinion on the interview in here</t>
+  </si>
+  <si>
+    <t>Magazine structure</t>
+  </si>
+  <si>
+    <t>Magazine</t>
+  </si>
+  <si>
+    <t>Main magazine table</t>
+  </si>
+  <si>
+    <t>This structure is not relevant anymore and should be completely enhanced</t>
+  </si>
+  <si>
+    <t>magazine_game</t>
+  </si>
+  <si>
+    <t>Crosstable between game and magazine</t>
+  </si>
+  <si>
+    <t>magazine_issue</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t xml:space="preserve">menu_type </t>
+  </si>
+  <si>
+    <t>menu_types_main</t>
+  </si>
+  <si>
+    <t>menu_set</t>
+  </si>
+  <si>
+    <t>menu_sets_order</t>
+  </si>
+  <si>
+    <t>menu_disk</t>
+  </si>
+  <si>
+    <t>menu_disk_title</t>
+  </si>
+  <si>
+    <t>menu_disk_title_game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">menu_disk_title_tools </t>
+  </si>
+  <si>
+    <t>menu_disk_title_demo</t>
+  </si>
+  <si>
+    <t>menu_disk_title_music</t>
+  </si>
+  <si>
+    <t>menu_disk_title_doc_games</t>
+  </si>
+  <si>
+    <t>menu_disk_title_doc_tools</t>
+  </si>
+  <si>
+    <t>menu_disk_title_various</t>
+  </si>
+  <si>
+    <t>menu_disk_title_set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">screenshot_menu </t>
+  </si>
+  <si>
+    <t>menu_user_comments</t>
+  </si>
+  <si>
+    <t>menu_disk_download</t>
+  </si>
+  <si>
+    <t>menu_disk_submenu</t>
+  </si>
+  <si>
+    <t>menu_disk_state</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>menu_disk_credits</t>
+  </si>
+  <si>
+    <t>menu_disk_year</t>
+  </si>
+  <si>
+    <t>menu_disk_title_author</t>
+  </si>
+  <si>
+    <t>This table connects all menu sets and even menu disks to a certain type of menu</t>
+  </si>
+  <si>
+    <t>This table contains the actual menu types e.g. demo menu, game menu, tool menu…</t>
+  </si>
+  <si>
+    <t>Many crews made different "sets" of menu disks. One example would be the Pompey Pirates as they had 2 sets; the actual 'Pompey Pirates' set and another one named "Krappy Compacts".</t>
+  </si>
+  <si>
+    <t>This table is needed specifically for ordering the disks in the correct way. We need to know how many disks were released, which number they start and end at, any known gaps and how they are ordered.</t>
+  </si>
+  <si>
+    <t>This is the main table for the menu disks. Every menu disk belongs to a set, hence the set identifier.</t>
+  </si>
+  <si>
+    <t>Menu disks can contain all kinds of software titles. These titles are stored in the menu_disk_title table and are linked to the actual menu disk using the menu_disk_id field. This title table also contains menu_disk_title_type field. This means that, even if a menu disk is linked to a 'game' type, each title individually has its own type. So, a game menu disk, can also contain a doc for example.</t>
+  </si>
+  <si>
+    <t>All the game titles are contained in this table. We have separate table for each type of title so we can enhance search features on the site and for data consistency.</t>
+  </si>
+  <si>
+    <t>All the demo titles are contained in this table. We have separate table for each type of title so we can enhance search features on the site and for data consistency.</t>
+  </si>
+  <si>
+    <t>All the music titles are contained in this table. We have separate table for each type of title so we can enhance search features on the site and for data consistency.</t>
+  </si>
+  <si>
+    <t>All the tool titles are contained in this table. We have separate table for each type of title so we can enhance search features on the site and for data consistency.</t>
+  </si>
+  <si>
+    <t>All the (doc disks with) game docs are contained in this table. We have separate table for each type of title so we can enhance search features on the site and for data consistency.</t>
+  </si>
+  <si>
+    <t>All the (doc disks with) tool docs are contained in this table. We have separate table for each type of title so we can enhance search features on the site and for data consistency.</t>
+  </si>
+  <si>
+    <t>All titles not belonging to any type of the above are contained in this table. We have separate table for each type of title so we can enhance search features on the site and for data consistency.</t>
+  </si>
+  <si>
+    <t>This table contains the sets of titles. For example, let's say a menu disk contains the game title 'Gods'. However, this title is normally spread over 2 disks. Using this 'set' table, we can link a title over 2 discs.</t>
+  </si>
+  <si>
+    <t>This is the screenshot cross table linking the menu disks to the screenshot main table (for more detail, see the screenshots section).</t>
+  </si>
+  <si>
+    <t>This is the comments cross table linking the menu disks to the user comments main table (for more detail, see the comments section).</t>
+  </si>
+  <si>
+    <t>This table contains the actual files for download of each menu disk.</t>
+  </si>
+  <si>
+    <t>It sometimes happens that a menu disk is some kind of submenu of a totally different other menu disk. Using the cross table we can link menu disks to other menu disks.</t>
+  </si>
+  <si>
+    <t>The main states table containing info like 'corrupt', 'complete' ...</t>
+  </si>
+  <si>
+    <t>This table contains the individual id's of the people who were responsible for the intro of the menu disk. This is a cross table between the menu disk and the individuals table.</t>
+  </si>
+  <si>
+    <t>This table contains the release year of the menu disk.</t>
+  </si>
+  <si>
+    <t>This table is used to store the credits for each menu disk. Such as the crackers, hackers, artists etc.</t>
+  </si>
+  <si>
+    <t>This one is not correct anymore and I need to change it - To do</t>
+  </si>
+  <si>
+    <t>Menu structure</t>
+  </si>
+  <si>
+    <t>menu structure</t>
+  </si>
+  <si>
+    <t>menu_stonish</t>
+  </si>
+  <si>
+    <t>Temp table for the stonish merge</t>
+  </si>
+  <si>
+    <t>last : Music</t>
   </si>
 </sst>
 </file>
@@ -2004,7 +2457,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -2203,7 +2656,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -2212,16 +2665,36 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color indexed="64"/>
-      </bottom>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2417,29 +2890,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="216">
+  <dxfs count="240">
     <dxf>
       <fill>
         <patternFill>
@@ -2450,6 +2938,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFC2E49C"/>
         </patternFill>
       </fill>
@@ -2471,6 +2966,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -2478,6 +2994,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFC2E49C"/>
         </patternFill>
       </fill>
@@ -2499,6 +3022,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -3367,6 +3911,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFC2E49C"/>
         </patternFill>
       </fill>
@@ -3556,6 +4107,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFC2E49C"/>
         </patternFill>
       </fill>
@@ -3577,6 +4135,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -3612,6 +4191,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -3675,6 +4275,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -3703,6 +4324,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -3738,6 +4380,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFC2E49C"/>
         </patternFill>
       </fill>
@@ -3781,6 +4430,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4206,6 +4862,55 @@
         <a:xfrm>
           <a:off x="0" y="0"/>
           <a:ext cx="4343400" cy="3581400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1676399</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>99222</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11306174" cy="7909722"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4480,9 +5185,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G206"/>
+  <dimension ref="A1:G251"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A231" sqref="A231"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5774,7 +6481,7 @@
       <c r="C85" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D85" s="77"/>
+      <c r="D85" s="73"/>
       <c r="E85" s="53" t="s">
         <v>9</v>
       </c>
@@ -5790,7 +6497,7 @@
       <c r="C86" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D86" s="77" t="s">
+      <c r="D86" s="73" t="s">
         <v>331</v>
       </c>
       <c r="E86" s="53" t="s">
@@ -5808,7 +6515,7 @@
       <c r="C87" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D87" s="77"/>
+      <c r="D87" s="73"/>
       <c r="E87" s="53" t="s">
         <v>9</v>
       </c>
@@ -5824,7 +6531,7 @@
       <c r="C88" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D88" s="77"/>
+      <c r="D88" s="73"/>
       <c r="E88" s="53" t="s">
         <v>9</v>
       </c>
@@ -5840,7 +6547,7 @@
       <c r="C89" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D89" s="77" t="s">
+      <c r="D89" s="73" t="s">
         <v>340</v>
       </c>
       <c r="E89" s="53" t="s">
@@ -5858,7 +6565,7 @@
       <c r="C90" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D90" s="77"/>
+      <c r="D90" s="73"/>
       <c r="E90" s="53" t="s">
         <v>9</v>
       </c>
@@ -5874,7 +6581,7 @@
       <c r="C91" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D91" s="77"/>
+      <c r="D91" s="73"/>
       <c r="E91" s="53" t="s">
         <v>9</v>
       </c>
@@ -5890,7 +6597,7 @@
       <c r="C92" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D92" s="77"/>
+      <c r="D92" s="73"/>
       <c r="E92" s="53" t="s">
         <v>9</v>
       </c>
@@ -5906,7 +6613,7 @@
       <c r="C93" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D93" s="77"/>
+      <c r="D93" s="73"/>
       <c r="E93" s="53" t="s">
         <v>9</v>
       </c>
@@ -5922,7 +6629,7 @@
       <c r="C94" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D94" s="77"/>
+      <c r="D94" s="73"/>
       <c r="E94" s="53" t="s">
         <v>9</v>
       </c>
@@ -6203,7 +6910,7 @@
     </row>
     <row r="117" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="50" t="s">
-        <v>270</v>
+        <v>433</v>
       </c>
       <c r="B117" s="40"/>
       <c r="C117" s="40"/>
@@ -6216,20 +6923,20 @@
       <c r="D118" s="34"/>
       <c r="E118" s="40"/>
     </row>
-    <row r="119" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="27" t="s">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B119" s="28" t="s">
+      <c r="B119" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C119" s="31" t="s">
+      <c r="C119" s="77" t="s">
         <v>207</v>
       </c>
-      <c r="D119" s="31" t="s">
+      <c r="D119" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="E119" s="32" t="s">
+      <c r="E119" s="78" t="s">
         <v>4</v>
       </c>
       <c r="F119" s="67" t="s">
@@ -6237,1735 +6944,2470 @@
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="58" t="s">
-        <v>271</v>
-      </c>
-      <c r="B120" s="68" t="s">
-        <v>272</v>
-      </c>
-      <c r="C120" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D120" s="42"/>
-      <c r="E120" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F120" s="70"/>
+      <c r="A120" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="B120" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="C120" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D120" s="26"/>
+      <c r="E120" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="F120" s="26"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="41" t="s">
-        <v>273</v>
-      </c>
-      <c r="B121" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="C121" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D121" s="42"/>
-      <c r="E121" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F121" s="70"/>
+      <c r="A121" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="B121" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="C121" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D121" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="E121" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="F121" s="26"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="41" t="s">
-        <v>274</v>
-      </c>
-      <c r="B122" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="C122" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D122" s="42"/>
-      <c r="E122" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F122" s="70"/>
+      <c r="A122" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="B122" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="C122" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D122" s="26"/>
+      <c r="E122" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="F122" s="26"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="41" t="s">
-        <v>275</v>
-      </c>
-      <c r="B123" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="C123" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D123" s="42"/>
-      <c r="E123" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F123" s="70"/>
+      <c r="A123" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="B123" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="C123" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D123" s="26"/>
+      <c r="E123" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="F123" s="26"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="41" t="s">
-        <v>276</v>
-      </c>
-      <c r="B124" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="C124" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D124" s="42"/>
-      <c r="E124" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F124" s="70"/>
+      <c r="A124" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="B124" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="C124" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D124" s="26"/>
+      <c r="E124" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="F124" s="26"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="41" t="s">
-        <v>277</v>
-      </c>
-      <c r="B125" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="C125" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D125" s="42"/>
-      <c r="E125" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F125" s="70"/>
+      <c r="A125" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="B125" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="C125" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D125" s="26"/>
+      <c r="E125" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="F125" s="26"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="41" t="s">
-        <v>278</v>
-      </c>
-      <c r="B126" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="C126" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D126" s="42"/>
-      <c r="E126" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F126" s="70"/>
+      <c r="A126" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="B126" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="C126" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D126" s="26"/>
+      <c r="E126" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="F126" s="26"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="41" t="s">
-        <v>279</v>
-      </c>
-      <c r="B127" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="C127" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D127" s="42"/>
-      <c r="E127" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F127" s="70"/>
+      <c r="A127" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="B127" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="C127" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D127" s="26"/>
+      <c r="E127" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="F127" s="26"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="B128" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="C128" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D128" s="42"/>
-      <c r="E128" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F128" s="70"/>
+      <c r="A128" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="B128" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="C128" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D128" s="26"/>
+      <c r="E128" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="F128" s="26"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="B129" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="C129" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D129" s="42"/>
-      <c r="E129" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F129" s="70"/>
+      <c r="A129" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="B129" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="C129" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D129" s="26"/>
+      <c r="E129" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="F129" s="26"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="41" t="s">
-        <v>282</v>
-      </c>
-      <c r="B130" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="C130" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D130" s="42"/>
-      <c r="E130" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F130" s="70"/>
+      <c r="A130" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="B130" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="C130" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D130" s="26"/>
+      <c r="E130" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="F130" s="26"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="41" t="s">
-        <v>283</v>
-      </c>
-      <c r="B131" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="C131" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D131" s="42"/>
-      <c r="E131" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F131" s="70"/>
+      <c r="A131" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="B131" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="C131" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D131" s="26"/>
+      <c r="E131" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="F131" s="26"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="41" t="s">
-        <v>284</v>
-      </c>
-      <c r="B132" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="C132" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D132" s="42"/>
-      <c r="E132" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F132" s="70"/>
+      <c r="A132" s="26" t="s">
+        <v>399</v>
+      </c>
+      <c r="B132" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="C132" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D132" s="26"/>
+      <c r="E132" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="F132" s="26"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="41" t="s">
-        <v>285</v>
-      </c>
-      <c r="B133" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="C133" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D133" s="42"/>
-      <c r="E133" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F133" s="70"/>
+      <c r="A133" s="26" t="s">
+        <v>400</v>
+      </c>
+      <c r="B133" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="C133" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D133" s="26"/>
+      <c r="E133" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="F133" s="26"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="41" t="s">
-        <v>286</v>
-      </c>
-      <c r="B134" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="C134" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D134" s="42"/>
-      <c r="E134" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F134" s="70"/>
+      <c r="A134" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="B134" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="C134" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D134" s="26"/>
+      <c r="E134" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="F134" s="26"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="41" t="s">
-        <v>287</v>
-      </c>
-      <c r="B135" s="66" t="s">
-        <v>272</v>
-      </c>
-      <c r="C135" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D135" s="42"/>
-      <c r="E135" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="F135" s="70"/>
+      <c r="A135" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="B135" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="C135" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D135" s="26"/>
+      <c r="E135" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="F135" s="26"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="41" t="s">
-        <v>288</v>
-      </c>
-      <c r="B136" s="66" t="s">
-        <v>272</v>
+      <c r="A136" s="26" t="s">
+        <v>403</v>
+      </c>
+      <c r="B136" s="26" t="s">
+        <v>426</v>
       </c>
       <c r="C136" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D136" s="42"/>
-      <c r="E136" s="42" t="s">
+      <c r="D136" s="26"/>
+      <c r="E136" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="F136" s="26"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="B137" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="C137" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D137" s="26"/>
+      <c r="E137" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="F137" s="26"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="26" t="s">
+        <v>405</v>
+      </c>
+      <c r="B138" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="C138" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D138" s="26"/>
+      <c r="E138" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="F138" s="26"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="B139" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="C139" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D139" s="26"/>
+      <c r="E139" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="F139" s="26"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="B140" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="C140" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="D140" s="26"/>
+      <c r="E140" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="F140" s="26"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="B141" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="C141" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D141" s="26"/>
+      <c r="E141" s="26"/>
+      <c r="F141" s="26"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="36" t="s">
+        <v>409</v>
+      </c>
+      <c r="B142" s="36" t="s">
+        <v>431</v>
+      </c>
+      <c r="C142" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="D142" s="36"/>
+      <c r="E142" s="36" t="s">
+        <v>434</v>
+      </c>
+      <c r="F142" s="36"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="59"/>
+      <c r="B143" s="40"/>
+      <c r="C143" s="49"/>
+      <c r="D143" s="34"/>
+      <c r="E143" s="40"/>
+      <c r="F143" s="30"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="59"/>
+      <c r="B144" s="40"/>
+      <c r="C144" s="49"/>
+      <c r="D144" s="34"/>
+      <c r="E144" s="40"/>
+      <c r="F144" s="30"/>
+    </row>
+    <row r="145" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="50" t="s">
+        <v>270</v>
+      </c>
+      <c r="B145" s="40"/>
+      <c r="C145" s="40"/>
+      <c r="D145" s="34"/>
+      <c r="E145" s="40"/>
+    </row>
+    <row r="146" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="51"/>
+      <c r="C146" s="40"/>
+      <c r="D146" s="34"/>
+      <c r="E146" s="40"/>
+    </row>
+    <row r="147" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C147" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="D147" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E147" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F147" s="67" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="58" t="s">
+        <v>271</v>
+      </c>
+      <c r="B148" s="68" t="s">
+        <v>272</v>
+      </c>
+      <c r="C148" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D148" s="42"/>
+      <c r="E148" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F136" s="70"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="41" t="s">
-        <v>289</v>
-      </c>
-      <c r="B137" s="66" t="s">
+      <c r="F148" s="70"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="41" t="s">
+        <v>273</v>
+      </c>
+      <c r="B149" s="66" t="s">
         <v>272</v>
       </c>
-      <c r="C137" s="42" t="s">
+      <c r="C149" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D137" s="42"/>
-      <c r="E137" s="42" t="s">
+      <c r="D149" s="42"/>
+      <c r="E149" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F137" s="70"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="55" t="s">
-        <v>290</v>
-      </c>
-      <c r="B138" s="69" t="s">
+      <c r="F149" s="70"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="41" t="s">
+        <v>274</v>
+      </c>
+      <c r="B150" s="66" t="s">
         <v>272</v>
       </c>
-      <c r="C138" s="48" t="s">
+      <c r="C150" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D138" s="48"/>
-      <c r="E138" s="48" t="s">
+      <c r="D150" s="42"/>
+      <c r="E150" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="F138" s="71"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="49"/>
-      <c r="B139" s="65"/>
-      <c r="C139" s="49"/>
-      <c r="D139" s="49"/>
-      <c r="E139" s="49"/>
-      <c r="F139" s="30"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="49"/>
-      <c r="B140" s="65"/>
-      <c r="C140" s="49"/>
-      <c r="D140" s="49"/>
-      <c r="E140" s="49"/>
-      <c r="F140" s="30"/>
-    </row>
-    <row r="141" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="50" t="s">
-        <v>307</v>
-      </c>
-      <c r="B141" s="40"/>
-      <c r="C141" s="40"/>
-      <c r="D141" s="34"/>
-      <c r="E141" s="40"/>
-    </row>
-    <row r="142" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B142" s="51"/>
-      <c r="C142" s="40"/>
-      <c r="D142" s="34"/>
-      <c r="E142" s="40"/>
-    </row>
-    <row r="143" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B143" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C143" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="D143" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="E143" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F143" s="67" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A144" s="55" t="s">
-        <v>292</v>
-      </c>
-      <c r="B144" s="74" t="s">
-        <v>293</v>
-      </c>
-      <c r="C144" s="75" t="s">
-        <v>206</v>
-      </c>
-      <c r="D144" s="74"/>
-      <c r="E144" s="76" t="s">
-        <v>308</v>
-      </c>
-      <c r="F144" s="73"/>
-    </row>
-    <row r="145" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="55" t="s">
-        <v>298</v>
-      </c>
-      <c r="B145" s="69" t="s">
-        <v>297</v>
-      </c>
-      <c r="C145" s="54" t="s">
-        <v>206</v>
-      </c>
-      <c r="D145" s="69"/>
-      <c r="E145" s="54" t="s">
-        <v>308</v>
-      </c>
-      <c r="F145" s="73"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="55" t="s">
-        <v>299</v>
-      </c>
-      <c r="B146" s="69" t="s">
-        <v>300</v>
-      </c>
-      <c r="C146" s="54" t="s">
-        <v>206</v>
-      </c>
-      <c r="D146" s="69"/>
-      <c r="E146" s="54" t="s">
-        <v>308</v>
-      </c>
-      <c r="F146" s="73"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="55" t="s">
-        <v>302</v>
-      </c>
-      <c r="B147" s="69" t="s">
-        <v>301</v>
-      </c>
-      <c r="C147" s="54" t="s">
-        <v>206</v>
-      </c>
-      <c r="D147" s="69"/>
-      <c r="E147" s="54" t="s">
-        <v>308</v>
-      </c>
-      <c r="F147" s="73"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="55" t="s">
-        <v>303</v>
-      </c>
-      <c r="B148" s="69" t="s">
-        <v>304</v>
-      </c>
-      <c r="C148" s="54" t="s">
-        <v>206</v>
-      </c>
-      <c r="D148" s="69"/>
-      <c r="E148" s="54" t="s">
-        <v>308</v>
-      </c>
-      <c r="F148" s="73"/>
-    </row>
-    <row r="149" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A149" s="55" t="s">
-        <v>305</v>
-      </c>
-      <c r="B149" s="69" t="s">
-        <v>306</v>
-      </c>
-      <c r="C149" s="54" t="s">
-        <v>206</v>
-      </c>
-      <c r="D149" s="69"/>
-      <c r="E149" s="54" t="s">
-        <v>308</v>
-      </c>
-      <c r="F149" s="73"/>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="49"/>
-      <c r="B150" s="65"/>
-      <c r="C150" s="40"/>
-      <c r="D150" s="65"/>
-      <c r="E150" s="40"/>
-      <c r="F150" s="65"/>
+      <c r="F150" s="70"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="49"/>
-      <c r="B151" s="65"/>
-      <c r="C151" s="49"/>
-      <c r="D151" s="49"/>
-      <c r="E151" s="49"/>
-      <c r="F151" s="30"/>
-    </row>
-    <row r="152" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="50" t="s">
-        <v>366</v>
-      </c>
-      <c r="B152" s="40"/>
-      <c r="C152" s="40"/>
-      <c r="D152" s="34"/>
-      <c r="E152" s="40"/>
-    </row>
-    <row r="153" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B153" s="51"/>
-      <c r="C153" s="40"/>
-      <c r="D153" s="34"/>
-      <c r="E153" s="40"/>
-    </row>
-    <row r="154" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B154" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C154" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="D154" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="E154" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F154" s="67" t="s">
-        <v>291</v>
-      </c>
+      <c r="A151" s="41" t="s">
+        <v>275</v>
+      </c>
+      <c r="B151" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="C151" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D151" s="42"/>
+      <c r="E151" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F151" s="70"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="41" t="s">
+        <v>276</v>
+      </c>
+      <c r="B152" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="C152" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D152" s="42"/>
+      <c r="E152" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F152" s="70"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="41" t="s">
+        <v>277</v>
+      </c>
+      <c r="B153" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="C153" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D153" s="42"/>
+      <c r="E153" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F153" s="70"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="41" t="s">
+        <v>278</v>
+      </c>
+      <c r="B154" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="C154" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D154" s="42"/>
+      <c r="E154" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F154" s="70"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="55" t="s">
-        <v>360</v>
-      </c>
-      <c r="B155" s="55" t="s">
-        <v>361</v>
-      </c>
-      <c r="C155" s="55" t="s">
-        <v>206</v>
-      </c>
-      <c r="D155" s="55"/>
-      <c r="E155" s="55" t="s">
-        <v>367</v>
-      </c>
-      <c r="F155" s="55"/>
+      <c r="A155" s="41" t="s">
+        <v>279</v>
+      </c>
+      <c r="B155" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="C155" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D155" s="42"/>
+      <c r="E155" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F155" s="70"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="55" t="s">
-        <v>362</v>
-      </c>
-      <c r="B156" s="55" t="s">
-        <v>363</v>
-      </c>
-      <c r="C156" s="55" t="s">
-        <v>206</v>
-      </c>
-      <c r="D156" s="55"/>
-      <c r="E156" s="55" t="s">
-        <v>367</v>
-      </c>
-      <c r="F156" s="55"/>
+      <c r="A156" s="41" t="s">
+        <v>280</v>
+      </c>
+      <c r="B156" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="C156" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D156" s="42"/>
+      <c r="E156" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F156" s="70"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="55" t="s">
-        <v>364</v>
-      </c>
-      <c r="B157" s="55" t="s">
-        <v>365</v>
-      </c>
-      <c r="C157" s="55" t="s">
-        <v>206</v>
-      </c>
-      <c r="D157" s="55"/>
-      <c r="E157" s="55" t="s">
-        <v>367</v>
-      </c>
-      <c r="F157" s="55"/>
+      <c r="A157" s="41" t="s">
+        <v>281</v>
+      </c>
+      <c r="B157" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="C157" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D157" s="42"/>
+      <c r="E157" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F157" s="70"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="55" t="s">
-        <v>259</v>
-      </c>
-      <c r="B158" s="55" t="s">
-        <v>368</v>
-      </c>
-      <c r="C158" s="55" t="s">
-        <v>206</v>
-      </c>
-      <c r="D158" s="55"/>
-      <c r="E158" s="55" t="s">
-        <v>367</v>
-      </c>
-      <c r="F158" s="55"/>
+      <c r="A158" s="41" t="s">
+        <v>282</v>
+      </c>
+      <c r="B158" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="C158" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D158" s="42"/>
+      <c r="E158" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F158" s="70"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="55" t="s">
-        <v>260</v>
-      </c>
-      <c r="B159" s="55" t="s">
-        <v>369</v>
-      </c>
-      <c r="C159" s="55" t="s">
-        <v>206</v>
-      </c>
-      <c r="D159" s="55"/>
-      <c r="E159" s="55" t="s">
-        <v>367</v>
-      </c>
-      <c r="F159" s="55"/>
+      <c r="A159" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="B159" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="C159" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D159" s="42"/>
+      <c r="E159" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F159" s="70"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="49"/>
-      <c r="B160" s="65"/>
-      <c r="C160" s="65"/>
-      <c r="D160" s="65"/>
-      <c r="E160" s="78"/>
-      <c r="F160" s="65"/>
+      <c r="A160" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="B160" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="C160" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D160" s="42"/>
+      <c r="E160" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F160" s="70"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="49"/>
-      <c r="B161" s="65"/>
-      <c r="C161" s="40"/>
-      <c r="D161" s="65"/>
-      <c r="E161" s="78"/>
-      <c r="F161" s="65"/>
-    </row>
-    <row r="162" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="50" t="s">
-        <v>209</v>
-      </c>
-      <c r="B162" s="40"/>
-      <c r="C162" s="40"/>
-      <c r="D162" s="34"/>
-      <c r="E162" s="40"/>
-    </row>
-    <row r="163" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B163" s="51"/>
-      <c r="C163" s="40"/>
-      <c r="D163" s="34"/>
-      <c r="E163" s="40"/>
-    </row>
-    <row r="164" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B164" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C164" s="31" t="s">
-        <v>207</v>
-      </c>
-      <c r="D164" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="E164" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="F164" s="67" t="s">
-        <v>291</v>
-      </c>
+      <c r="A161" s="41" t="s">
+        <v>285</v>
+      </c>
+      <c r="B161" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="C161" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D161" s="42"/>
+      <c r="E161" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F161" s="70"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="41" t="s">
+        <v>286</v>
+      </c>
+      <c r="B162" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="C162" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D162" s="42"/>
+      <c r="E162" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F162" s="70"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="B163" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="C163" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D163" s="42"/>
+      <c r="E163" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F163" s="70"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="41" t="s">
+        <v>288</v>
+      </c>
+      <c r="B164" s="66" t="s">
+        <v>272</v>
+      </c>
+      <c r="C164" s="42" t="s">
+        <v>3</v>
+      </c>
+      <c r="D164" s="42"/>
+      <c r="E164" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F164" s="70"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B165" s="42" t="s">
-        <v>14</v>
+        <v>289</v>
+      </c>
+      <c r="B165" s="66" t="s">
+        <v>272</v>
       </c>
       <c r="C165" s="42" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D165" s="42"/>
       <c r="E165" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="F165" s="70"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="B166" s="69" t="s">
+        <v>272</v>
+      </c>
+      <c r="C166" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="D166" s="48"/>
+      <c r="E166" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="F166" s="71"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="49"/>
+      <c r="B167" s="65"/>
+      <c r="C167" s="49"/>
+      <c r="D167" s="49"/>
+      <c r="E167" s="49"/>
+      <c r="F167" s="30"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="49"/>
+      <c r="B168" s="65"/>
+      <c r="C168" s="49"/>
+      <c r="D168" s="49"/>
+      <c r="E168" s="49"/>
+      <c r="F168" s="30"/>
+    </row>
+    <row r="169" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="50" t="s">
+        <v>307</v>
+      </c>
+      <c r="B169" s="40"/>
+      <c r="C169" s="40"/>
+      <c r="D169" s="34"/>
+      <c r="E169" s="40"/>
+    </row>
+    <row r="170" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="51"/>
+      <c r="C170" s="40"/>
+      <c r="D170" s="34"/>
+      <c r="E170" s="40"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B171" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="C171" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="D171" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="E171" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="F171" s="67" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A172" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="B172" s="80" t="s">
+        <v>293</v>
+      </c>
+      <c r="C172" s="82" t="s">
+        <v>206</v>
+      </c>
+      <c r="D172" s="80"/>
+      <c r="E172" s="81" t="s">
+        <v>308</v>
+      </c>
+      <c r="F172" s="80"/>
+    </row>
+    <row r="173" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A173" s="49" t="s">
+        <v>298</v>
+      </c>
+      <c r="B173" s="66" t="s">
+        <v>297</v>
+      </c>
+      <c r="C173" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D173" s="66"/>
+      <c r="E173" s="38" t="s">
+        <v>308</v>
+      </c>
+      <c r="F173" s="66"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="49" t="s">
+        <v>299</v>
+      </c>
+      <c r="B174" s="66" t="s">
+        <v>300</v>
+      </c>
+      <c r="C174" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D174" s="66"/>
+      <c r="E174" s="38" t="s">
+        <v>308</v>
+      </c>
+      <c r="F174" s="66"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="49" t="s">
+        <v>302</v>
+      </c>
+      <c r="B175" s="66" t="s">
+        <v>301</v>
+      </c>
+      <c r="C175" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D175" s="66"/>
+      <c r="E175" s="38" t="s">
+        <v>308</v>
+      </c>
+      <c r="F175" s="66"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="49" t="s">
+        <v>303</v>
+      </c>
+      <c r="B176" s="66" t="s">
+        <v>304</v>
+      </c>
+      <c r="C176" s="38" t="s">
+        <v>206</v>
+      </c>
+      <c r="D176" s="66"/>
+      <c r="E176" s="38" t="s">
+        <v>308</v>
+      </c>
+      <c r="F176" s="66"/>
+    </row>
+    <row r="177" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A177" s="79" t="s">
+        <v>305</v>
+      </c>
+      <c r="B177" s="69" t="s">
+        <v>306</v>
+      </c>
+      <c r="C177" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="D177" s="69"/>
+      <c r="E177" s="54" t="s">
+        <v>308</v>
+      </c>
+      <c r="F177" s="69"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="49"/>
+      <c r="B178" s="65"/>
+      <c r="C178" s="40"/>
+      <c r="D178" s="65"/>
+      <c r="E178" s="40"/>
+      <c r="F178" s="65"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="49"/>
+      <c r="B179" s="65"/>
+      <c r="C179" s="49"/>
+      <c r="D179" s="49"/>
+      <c r="E179" s="49"/>
+      <c r="F179" s="30"/>
+    </row>
+    <row r="180" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="50" t="s">
+        <v>366</v>
+      </c>
+      <c r="B180" s="40"/>
+      <c r="C180" s="40"/>
+      <c r="D180" s="34"/>
+      <c r="E180" s="40"/>
+    </row>
+    <row r="181" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="51"/>
+      <c r="C181" s="40"/>
+      <c r="D181" s="34"/>
+      <c r="E181" s="40"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B182" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="C182" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="D182" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="E182" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="F182" s="67" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="83" t="s">
+        <v>360</v>
+      </c>
+      <c r="B183" s="41" t="s">
+        <v>361</v>
+      </c>
+      <c r="C183" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="D183" s="41"/>
+      <c r="E183" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="F183" s="41"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="83" t="s">
+        <v>362</v>
+      </c>
+      <c r="B184" s="41" t="s">
+        <v>363</v>
+      </c>
+      <c r="C184" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="D184" s="41"/>
+      <c r="E184" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="F184" s="41"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="83" t="s">
+        <v>364</v>
+      </c>
+      <c r="B185" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="C185" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="D185" s="41"/>
+      <c r="E185" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="F185" s="41"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="83" t="s">
+        <v>259</v>
+      </c>
+      <c r="B186" s="41" t="s">
+        <v>368</v>
+      </c>
+      <c r="C186" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="D186" s="41"/>
+      <c r="E186" s="41" t="s">
+        <v>367</v>
+      </c>
+      <c r="F186" s="41"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="55" t="s">
+        <v>260</v>
+      </c>
+      <c r="B187" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="C187" s="55" t="s">
+        <v>206</v>
+      </c>
+      <c r="D187" s="55"/>
+      <c r="E187" s="55" t="s">
+        <v>367</v>
+      </c>
+      <c r="F187" s="55"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="49"/>
+      <c r="B188" s="49"/>
+      <c r="C188" s="49"/>
+      <c r="D188" s="49"/>
+      <c r="E188" s="49"/>
+      <c r="F188" s="49"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="49"/>
+      <c r="B189" s="65"/>
+      <c r="C189" s="65"/>
+      <c r="D189" s="65"/>
+      <c r="E189" s="74"/>
+      <c r="F189" s="65"/>
+    </row>
+    <row r="190" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="50" t="s">
+        <v>370</v>
+      </c>
+      <c r="B190" s="40"/>
+      <c r="C190" s="40"/>
+      <c r="D190" s="34"/>
+      <c r="E190" s="40"/>
+    </row>
+    <row r="191" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B191" s="51"/>
+      <c r="C191" s="40"/>
+      <c r="D191" s="34"/>
+      <c r="E191" s="40"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B192" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="C192" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="D192" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="E192" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="F192" s="67" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A193" s="41" t="s">
+        <v>371</v>
+      </c>
+      <c r="B193" s="42" t="s">
+        <v>376</v>
+      </c>
+      <c r="C193" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="D193" s="42"/>
+      <c r="E193" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="F193" s="42"/>
+    </row>
+    <row r="194" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A194" s="41" t="s">
+        <v>372</v>
+      </c>
+      <c r="B194" s="42" t="s">
+        <v>374</v>
+      </c>
+      <c r="C194" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="D194" s="42"/>
+      <c r="E194" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="F194" s="42"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="41" t="s">
+        <v>373</v>
+      </c>
+      <c r="B195" s="42" t="s">
+        <v>375</v>
+      </c>
+      <c r="C195" s="42" t="s">
+        <v>206</v>
+      </c>
+      <c r="D195" s="42"/>
+      <c r="E195" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="F195" s="42"/>
+    </row>
+    <row r="196" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" s="55" t="s">
+        <v>377</v>
+      </c>
+      <c r="B196" s="48" t="s">
+        <v>378</v>
+      </c>
+      <c r="C196" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="D196" s="48"/>
+      <c r="E196" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="F196" s="48"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="49"/>
+      <c r="B197" s="49"/>
+      <c r="C197" s="49"/>
+      <c r="D197" s="49"/>
+      <c r="E197" s="49"/>
+      <c r="F197" s="49"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="49"/>
+      <c r="B198" s="65"/>
+      <c r="C198" s="40"/>
+      <c r="D198" s="65"/>
+      <c r="E198" s="74"/>
+      <c r="F198" s="65"/>
+    </row>
+    <row r="199" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="50" t="s">
+        <v>379</v>
+      </c>
+      <c r="B199" s="40"/>
+      <c r="C199" s="40"/>
+      <c r="D199" s="34"/>
+      <c r="E199" s="40"/>
+    </row>
+    <row r="200" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B200" s="51"/>
+      <c r="C200" s="40"/>
+      <c r="D200" s="34"/>
+      <c r="E200" s="40"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B201" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="C201" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="D201" s="77" t="s">
+        <v>1</v>
+      </c>
+      <c r="E201" s="78" t="s">
+        <v>4</v>
+      </c>
+      <c r="F201" s="67" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A202" s="41" t="s">
+        <v>380</v>
+      </c>
+      <c r="B202" s="41" t="s">
+        <v>381</v>
+      </c>
+      <c r="C202" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D202" s="41" t="s">
+        <v>382</v>
+      </c>
+      <c r="E202" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="F202" s="41"/>
+    </row>
+    <row r="203" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A203" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="B203" s="41" t="s">
+        <v>384</v>
+      </c>
+      <c r="C203" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="D203" s="41" t="s">
+        <v>382</v>
+      </c>
+      <c r="E203" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="F203" s="41"/>
+    </row>
+    <row r="204" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A204" s="55" t="s">
+        <v>385</v>
+      </c>
+      <c r="B204" s="55" t="s">
+        <v>386</v>
+      </c>
+      <c r="C204" s="55" t="s">
+        <v>3</v>
+      </c>
+      <c r="D204" s="55" t="s">
+        <v>382</v>
+      </c>
+      <c r="E204" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="F204" s="55"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="49"/>
+      <c r="B205" s="49"/>
+      <c r="C205" s="49"/>
+      <c r="D205" s="49"/>
+      <c r="E205" s="49"/>
+      <c r="F205" s="49"/>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="49"/>
+      <c r="B206" s="49"/>
+      <c r="C206" s="49"/>
+      <c r="D206" s="49"/>
+      <c r="E206" s="49"/>
+      <c r="F206" s="49"/>
+    </row>
+    <row r="207" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="50" t="s">
+        <v>209</v>
+      </c>
+      <c r="B207" s="40"/>
+      <c r="C207" s="40"/>
+      <c r="D207" s="34"/>
+      <c r="E207" s="40"/>
+    </row>
+    <row r="208" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B208" s="51"/>
+      <c r="C208" s="40"/>
+      <c r="D208" s="34"/>
+      <c r="E208" s="40"/>
+    </row>
+    <row r="209" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B209" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C209" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="D209" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E209" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F209" s="67" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B210" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C210" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D210" s="42"/>
+      <c r="E210" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="F165" s="70"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="35" t="s">
+      <c r="F210" s="70"/>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B166" s="39" t="s">
+      <c r="B211" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="C166" s="42" t="s">
+      <c r="C211" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E166" s="43" t="s">
+      <c r="E211" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F166" s="70"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="35" t="s">
+      <c r="F211" s="70"/>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B167" s="39" t="s">
+      <c r="B212" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="C167" s="42" t="s">
+      <c r="C212" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E167" s="42" t="s">
+      <c r="E212" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="F167" s="70"/>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A168" s="35" t="s">
+      <c r="F212" s="70"/>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="B168" s="39" t="s">
+      <c r="B213" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="C168" s="42" t="s">
+      <c r="C213" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E168" s="42" t="s">
+      <c r="E213" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="F168" s="70"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="35" t="s">
+      <c r="F213" s="70"/>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="B169" s="39" t="s">
+      <c r="B214" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="C169" s="42" t="s">
+      <c r="C214" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E169" s="42" t="s">
+      <c r="E214" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="F169" s="70"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A170" s="35" t="s">
+      <c r="F214" s="70"/>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B170" s="39" t="s">
+      <c r="B215" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="C170" s="42" t="s">
+      <c r="C215" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E170" s="42" t="s">
+      <c r="E215" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="F170" s="70"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A171" s="35" t="s">
+      <c r="F215" s="70"/>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B171" s="39" t="s">
+      <c r="B216" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="C171" s="42" t="s">
+      <c r="C216" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E171" s="42" t="s">
+      <c r="E216" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="F171" s="70"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A172" s="37" t="s">
+      <c r="F216" s="70"/>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="B172" s="38" t="s">
+      <c r="B217" s="38" t="s">
         <v>243</v>
       </c>
-      <c r="C172" s="42" t="s">
+      <c r="C217" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E172" s="43" t="s">
+      <c r="E217" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F172" s="70"/>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A173" s="35" t="s">
+      <c r="F217" s="70"/>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="B173" s="39" t="s">
+      <c r="B218" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="C173" s="42" t="s">
+      <c r="C218" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="E173" s="42" t="s">
+      <c r="E218" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="F173" s="70"/>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A174" s="35" t="s">
+      <c r="F218" s="70"/>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="B174" s="39" t="s">
+      <c r="B219" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="C174" s="42" t="s">
+      <c r="C219" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="E174" s="42" t="s">
+      <c r="E219" s="42" t="s">
         <v>264</v>
       </c>
-      <c r="F174" s="70"/>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A175" s="37" t="s">
+      <c r="F219" s="70"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="37" t="s">
         <v>217</v>
       </c>
-      <c r="B175" s="38" t="s">
+      <c r="B220" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="C175" s="42" t="s">
+      <c r="C220" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="E175" s="43" t="s">
+      <c r="E220" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F175" s="70"/>
-    </row>
-    <row r="176" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A176" s="37" t="s">
+      <c r="F220" s="70"/>
+    </row>
+    <row r="221" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A221" s="37" t="s">
         <v>230</v>
       </c>
-      <c r="B176" s="38" t="s">
+      <c r="B221" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="C176" s="42" t="s">
+      <c r="C221" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E176" s="43" t="s">
+      <c r="E221" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F176" s="70"/>
-    </row>
-    <row r="177" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A177" s="37" t="s">
+      <c r="F221" s="70"/>
+    </row>
+    <row r="222" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A222" s="37" t="s">
         <v>232</v>
       </c>
-      <c r="B177" s="38" t="s">
+      <c r="B222" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="C177" s="42" t="s">
+      <c r="C222" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="E177" s="43" t="s">
+      <c r="E222" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F177" s="70"/>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A178" s="37" t="s">
+      <c r="F222" s="70"/>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="37" t="s">
         <v>234</v>
       </c>
-      <c r="B178" s="38" t="s">
+      <c r="B223" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="C178" s="42" t="s">
+      <c r="C223" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="E178" s="43" t="s">
+      <c r="E223" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F178" s="70"/>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A179" s="37" t="s">
+      <c r="F223" s="70"/>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="B179" s="38" t="s">
+      <c r="B224" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="C179" s="42" t="s">
+      <c r="C224" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="E179" s="43" t="s">
+      <c r="E224" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F179" s="70"/>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A180" s="37" t="s">
+      <c r="F224" s="70"/>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="B180" s="38" t="s">
+      <c r="B225" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="C180" s="42" t="s">
+      <c r="C225" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="E180" s="43" t="s">
+      <c r="E225" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F180" s="70"/>
-    </row>
-    <row r="181" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="37" t="s">
+      <c r="F225" s="70"/>
+    </row>
+    <row r="226" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A226" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="B181" s="38" t="s">
+      <c r="B226" s="38" t="s">
         <v>241</v>
       </c>
-      <c r="C181" s="42" t="s">
+      <c r="C226" s="42" t="s">
         <v>206</v>
       </c>
-      <c r="E181" s="43" t="s">
+      <c r="E226" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="F181" s="70"/>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A182" s="37" t="s">
+      <c r="F226" s="70"/>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="37" t="s">
         <v>268</v>
       </c>
-      <c r="B182" s="38" t="s">
+      <c r="B227" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="C182" s="38" t="s">
+      <c r="C227" s="38" t="s">
         <v>206</v>
       </c>
-      <c r="E182" s="38" t="s">
+      <c r="E227" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F182" s="70"/>
-    </row>
-    <row r="183" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A183" s="37" t="s">
+      <c r="F227" s="70"/>
+    </row>
+    <row r="228" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A228" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="B183" s="38" t="s">
+      <c r="B228" s="38" t="s">
         <v>309</v>
       </c>
-      <c r="C183" s="42" t="s">
+      <c r="C228" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E183" s="38" t="s">
+      <c r="E228" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="F183" s="70"/>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F184" s="70"/>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F185" s="70"/>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A186" s="37" t="s">
-        <v>370</v>
-      </c>
-      <c r="F186" s="70"/>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F187" s="70"/>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F188" s="70"/>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F189" s="70"/>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F190" s="70"/>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F191" s="70"/>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F192" s="70"/>
-    </row>
-    <row r="193" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F193" s="70"/>
-    </row>
-    <row r="194" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F194" s="70"/>
-    </row>
-    <row r="195" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F195" s="70"/>
-    </row>
-    <row r="196" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F196" s="70"/>
-    </row>
-    <row r="197" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F197" s="70"/>
-    </row>
-    <row r="198" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F198" s="70"/>
-    </row>
-    <row r="199" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F199" s="70"/>
-    </row>
-    <row r="200" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F200" s="70"/>
-    </row>
-    <row r="201" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F201" s="70"/>
-    </row>
-    <row r="202" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F202" s="70"/>
-    </row>
-    <row r="203" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F203" s="70"/>
-    </row>
-    <row r="204" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F204" s="70"/>
-    </row>
-    <row r="205" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F205" s="70"/>
-    </row>
-    <row r="206" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F206" s="70"/>
+      <c r="F228" s="70"/>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F229" s="70"/>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F230" s="70"/>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" s="37" t="s">
+        <v>437</v>
+      </c>
+      <c r="F231" s="70"/>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F232" s="70"/>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F233" s="70"/>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F234" s="70"/>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F235" s="70"/>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F236" s="70"/>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F237" s="70"/>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F238" s="70"/>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F239" s="70"/>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F240" s="70"/>
+    </row>
+    <row r="241" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F241" s="70"/>
+    </row>
+    <row r="242" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F242" s="70"/>
+    </row>
+    <row r="243" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F243" s="70"/>
+    </row>
+    <row r="244" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F244" s="70"/>
+    </row>
+    <row r="245" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F245" s="70"/>
+    </row>
+    <row r="246" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F246" s="70"/>
+    </row>
+    <row r="247" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F247" s="70"/>
+    </row>
+    <row r="248" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F248" s="70"/>
+    </row>
+    <row r="249" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F249" s="70"/>
+    </row>
+    <row r="250" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F250" s="70"/>
+    </row>
+    <row r="251" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F251" s="70"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C80:C83 C165:C171 C173:C175 C112:C116 C96:C97 C73:C76 C51:C70 C4:C11 C85:C94 C13:C37 C40:C42 C151">
-    <cfRule type="containsText" dxfId="183" priority="210" stopIfTrue="1" operator="containsText" text="Delete">
+  <conditionalFormatting sqref="C80:C83 C210:C216 C218:C220 C96:C97 C73:C76 C51:C70 C4:C11 C85:C94 C13:C37 C40:C42 C179 C112:C116">
+    <cfRule type="containsText" dxfId="223" priority="242" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="211" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="222" priority="243" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="212" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="221" priority="244" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C80:C83 C165:C171 C173:C175 C112:C116 C96:C97 C73:C76 C51:C70 C4:C11 C85:C94 C13:C37 C40:C42 C151">
-    <cfRule type="containsText" dxfId="180" priority="209" operator="containsText" text="None">
+  <conditionalFormatting sqref="C80:C83 C210:C216 C218:C220 C96:C97 C73:C76 C51:C70 C4:C11 C85:C94 C13:C37 C40:C42 C179 C112:C116">
+    <cfRule type="containsText" dxfId="220" priority="241" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101">
-    <cfRule type="containsText" dxfId="179" priority="206" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="219" priority="238" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C101)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="207" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="218" priority="239" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C101)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="208" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="217" priority="240" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101">
-    <cfRule type="containsText" dxfId="176" priority="205" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="216" priority="237" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C103">
-    <cfRule type="containsText" dxfId="175" priority="197" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="215" priority="229" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C103)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102">
-    <cfRule type="containsText" dxfId="174" priority="202" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="214" priority="234" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="203" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="213" priority="235" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="204" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="212" priority="236" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102">
-    <cfRule type="containsText" dxfId="171" priority="201" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="211" priority="233" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C103">
-    <cfRule type="containsText" dxfId="170" priority="198" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="210" priority="230" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C103)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="199" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="209" priority="231" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C103)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="168" priority="200" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="208" priority="232" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C103)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105:C107">
-    <cfRule type="containsText" dxfId="167" priority="189" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="207" priority="221" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C105)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C104">
-    <cfRule type="containsText" dxfId="166" priority="193" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="206" priority="225" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C104)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C104">
-    <cfRule type="containsText" dxfId="165" priority="194" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="205" priority="226" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C104)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="195" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="204" priority="227" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C104)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="196" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="203" priority="228" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C104)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C172">
-    <cfRule type="containsText" dxfId="162" priority="161" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C172)))</formula>
+  <conditionalFormatting sqref="C217">
+    <cfRule type="containsText" dxfId="202" priority="193" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C217)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105:C107">
-    <cfRule type="containsText" dxfId="161" priority="190" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="201" priority="222" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C105)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="160" priority="191" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="200" priority="223" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C105)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="159" priority="192" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="199" priority="224" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C105)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C176">
-    <cfRule type="containsText" dxfId="158" priority="186" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C176)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="187" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C176)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="188" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C176)))</formula>
+  <conditionalFormatting sqref="C221">
+    <cfRule type="containsText" dxfId="198" priority="218" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C221)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="197" priority="219" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C221)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="196" priority="220" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C221)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C176">
-    <cfRule type="containsText" dxfId="155" priority="185" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C176)))</formula>
+  <conditionalFormatting sqref="C221">
+    <cfRule type="containsText" dxfId="195" priority="217" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C221)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C177">
-    <cfRule type="containsText" dxfId="154" priority="182" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C177)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="183" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C177)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="152" priority="184" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C177)))</formula>
+  <conditionalFormatting sqref="C222">
+    <cfRule type="containsText" dxfId="194" priority="214" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C222)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="193" priority="215" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C222)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="192" priority="216" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C222)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C177">
-    <cfRule type="containsText" dxfId="151" priority="181" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C177)))</formula>
+  <conditionalFormatting sqref="C222">
+    <cfRule type="containsText" dxfId="191" priority="213" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C222)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C178">
-    <cfRule type="containsText" dxfId="150" priority="178" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C178)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="179" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C178)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="148" priority="180" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C178)))</formula>
+  <conditionalFormatting sqref="C223">
+    <cfRule type="containsText" dxfId="190" priority="210" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C223)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="189" priority="211" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C223)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="188" priority="212" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C223)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C178">
-    <cfRule type="containsText" dxfId="147" priority="177" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C178)))</formula>
+  <conditionalFormatting sqref="C223">
+    <cfRule type="containsText" dxfId="187" priority="209" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C223)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C179">
-    <cfRule type="containsText" dxfId="146" priority="174" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C179)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="175" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C179)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="176" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C179)))</formula>
+  <conditionalFormatting sqref="C224">
+    <cfRule type="containsText" dxfId="186" priority="206" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C224)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="185" priority="207" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C224)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="184" priority="208" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C224)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C179">
-    <cfRule type="containsText" dxfId="143" priority="173" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C179)))</formula>
+  <conditionalFormatting sqref="C224">
+    <cfRule type="containsText" dxfId="183" priority="205" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C224)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C180">
-    <cfRule type="containsText" dxfId="142" priority="170" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C180)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="171" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C180)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="172" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C180)))</formula>
+  <conditionalFormatting sqref="C225">
+    <cfRule type="containsText" dxfId="182" priority="202" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C225)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="181" priority="203" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C225)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="180" priority="204" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C225)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C180">
-    <cfRule type="containsText" dxfId="139" priority="169" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C180)))</formula>
+  <conditionalFormatting sqref="C225">
+    <cfRule type="containsText" dxfId="179" priority="201" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C225)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C181">
-    <cfRule type="containsText" dxfId="138" priority="166" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C181)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="167" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C181)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="168" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C181)))</formula>
+  <conditionalFormatting sqref="C226">
+    <cfRule type="containsText" dxfId="178" priority="198" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C226)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="177" priority="199" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C226)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="176" priority="200" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C226)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C181">
-    <cfRule type="containsText" dxfId="135" priority="165" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C181)))</formula>
+  <conditionalFormatting sqref="C226">
+    <cfRule type="containsText" dxfId="175" priority="197" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C226)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C172">
-    <cfRule type="containsText" dxfId="134" priority="162" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C172)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="163" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C172)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="132" priority="164" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C172)))</formula>
+  <conditionalFormatting sqref="C217">
+    <cfRule type="containsText" dxfId="174" priority="194" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C217)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="173" priority="195" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C217)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="172" priority="196" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C217)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111">
-    <cfRule type="containsText" dxfId="131" priority="158" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="171" priority="190" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C111)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="159" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="170" priority="191" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C111)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="160" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="169" priority="192" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C111)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C111">
-    <cfRule type="containsText" dxfId="128" priority="157" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="168" priority="189" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C111)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C120">
-    <cfRule type="containsText" dxfId="127" priority="150" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C120)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="151" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C120)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="152" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C120)))</formula>
+  <conditionalFormatting sqref="C148">
+    <cfRule type="containsText" dxfId="167" priority="182" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C148)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="166" priority="183" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C148)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="165" priority="184" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C148)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C120">
-    <cfRule type="containsText" dxfId="124" priority="149" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C120)))</formula>
+  <conditionalFormatting sqref="C148">
+    <cfRule type="containsText" dxfId="164" priority="181" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C148)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C121">
-    <cfRule type="containsText" dxfId="123" priority="146" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C121)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="147" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C121)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="148" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C121)))</formula>
+  <conditionalFormatting sqref="C149">
+    <cfRule type="containsText" dxfId="163" priority="178" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C149)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="162" priority="179" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C149)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="161" priority="180" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C149)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C121">
-    <cfRule type="containsText" dxfId="120" priority="145" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C121)))</formula>
+  <conditionalFormatting sqref="C149">
+    <cfRule type="containsText" dxfId="160" priority="177" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C149)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C122">
-    <cfRule type="containsText" dxfId="119" priority="142" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C122)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="143" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C122)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="144" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C122)))</formula>
+  <conditionalFormatting sqref="C150">
+    <cfRule type="containsText" dxfId="159" priority="174" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C150)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="158" priority="175" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C150)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="157" priority="176" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C150)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C122">
-    <cfRule type="containsText" dxfId="116" priority="141" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C122)))</formula>
+  <conditionalFormatting sqref="C150">
+    <cfRule type="containsText" dxfId="156" priority="173" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C150)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C123">
-    <cfRule type="containsText" dxfId="115" priority="138" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C123)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="139" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C123)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="140" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C123)))</formula>
+  <conditionalFormatting sqref="C151">
+    <cfRule type="containsText" dxfId="155" priority="170" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C151)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="154" priority="171" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C151)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="153" priority="172" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C151)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C123">
-    <cfRule type="containsText" dxfId="112" priority="137" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C123)))</formula>
+  <conditionalFormatting sqref="C151">
+    <cfRule type="containsText" dxfId="152" priority="169" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C151)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C124">
-    <cfRule type="containsText" dxfId="111" priority="134" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C124)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="135" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C124)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="136" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C124)))</formula>
+  <conditionalFormatting sqref="C152">
+    <cfRule type="containsText" dxfId="151" priority="166" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C152)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="150" priority="167" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C152)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="149" priority="168" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C152)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C124">
-    <cfRule type="containsText" dxfId="108" priority="133" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C124)))</formula>
+  <conditionalFormatting sqref="C152">
+    <cfRule type="containsText" dxfId="148" priority="165" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C152)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C125">
-    <cfRule type="containsText" dxfId="107" priority="130" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C125)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="131" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C125)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="132" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C125)))</formula>
+  <conditionalFormatting sqref="C153">
+    <cfRule type="containsText" dxfId="147" priority="162" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C153)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="146" priority="163" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C153)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="145" priority="164" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C153)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C125">
-    <cfRule type="containsText" dxfId="104" priority="129" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C125)))</formula>
+  <conditionalFormatting sqref="C153">
+    <cfRule type="containsText" dxfId="144" priority="161" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C153)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C126">
-    <cfRule type="containsText" dxfId="103" priority="126" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C126)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="127" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C126)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="128" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C126)))</formula>
+  <conditionalFormatting sqref="C154">
+    <cfRule type="containsText" dxfId="143" priority="158" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C154)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="142" priority="159" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C154)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="141" priority="160" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C154)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C126">
-    <cfRule type="containsText" dxfId="100" priority="125" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C126)))</formula>
+  <conditionalFormatting sqref="C154">
+    <cfRule type="containsText" dxfId="140" priority="157" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C154)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C127">
-    <cfRule type="containsText" dxfId="99" priority="122" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C127)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="123" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C127)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="124" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C127)))</formula>
+  <conditionalFormatting sqref="C155">
+    <cfRule type="containsText" dxfId="139" priority="154" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C155)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="138" priority="155" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C155)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="137" priority="156" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C155)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C127">
-    <cfRule type="containsText" dxfId="96" priority="121" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C127)))</formula>
+  <conditionalFormatting sqref="C155">
+    <cfRule type="containsText" dxfId="136" priority="153" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C155)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C128">
-    <cfRule type="containsText" dxfId="95" priority="118" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C128)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="119" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C128)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="120" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C128)))</formula>
+  <conditionalFormatting sqref="C156">
+    <cfRule type="containsText" dxfId="135" priority="150" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C156)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="134" priority="151" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C156)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="133" priority="152" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C156)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C128">
-    <cfRule type="containsText" dxfId="92" priority="117" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C128)))</formula>
+  <conditionalFormatting sqref="C156">
+    <cfRule type="containsText" dxfId="132" priority="149" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C156)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C129">
-    <cfRule type="containsText" dxfId="91" priority="114" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C129)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="115" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C129)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="116" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C129)))</formula>
+  <conditionalFormatting sqref="C157">
+    <cfRule type="containsText" dxfId="131" priority="146" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C157)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="130" priority="147" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C157)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="129" priority="148" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C157)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C129">
-    <cfRule type="containsText" dxfId="88" priority="113" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C129)))</formula>
+  <conditionalFormatting sqref="C157">
+    <cfRule type="containsText" dxfId="128" priority="145" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C157)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C130">
-    <cfRule type="containsText" dxfId="87" priority="110" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C130)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="111" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C130)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="112" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C130)))</formula>
+  <conditionalFormatting sqref="C158">
+    <cfRule type="containsText" dxfId="127" priority="142" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C158)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="126" priority="143" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C158)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="125" priority="144" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C158)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C130">
-    <cfRule type="containsText" dxfId="84" priority="109" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C130)))</formula>
+  <conditionalFormatting sqref="C158">
+    <cfRule type="containsText" dxfId="124" priority="141" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C158)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C131">
-    <cfRule type="containsText" dxfId="83" priority="106" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C131)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="107" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C131)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="108" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C131)))</formula>
+  <conditionalFormatting sqref="C159">
+    <cfRule type="containsText" dxfId="123" priority="138" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C159)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="122" priority="139" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C159)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="121" priority="140" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C159)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C131">
-    <cfRule type="containsText" dxfId="80" priority="105" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C131)))</formula>
+  <conditionalFormatting sqref="C159">
+    <cfRule type="containsText" dxfId="120" priority="137" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C159)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C132">
-    <cfRule type="containsText" dxfId="79" priority="102" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C132)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="103" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C132)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="104" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C132)))</formula>
+  <conditionalFormatting sqref="C160">
+    <cfRule type="containsText" dxfId="119" priority="134" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C160)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="118" priority="135" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C160)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="117" priority="136" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C160)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C132">
-    <cfRule type="containsText" dxfId="76" priority="101" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C132)))</formula>
+  <conditionalFormatting sqref="C160">
+    <cfRule type="containsText" dxfId="116" priority="133" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C160)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C133">
-    <cfRule type="containsText" dxfId="75" priority="98" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C133)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="99" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C133)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="100" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C133)))</formula>
+  <conditionalFormatting sqref="C161">
+    <cfRule type="containsText" dxfId="115" priority="130" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C161)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="114" priority="131" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C161)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="113" priority="132" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C161)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C133">
-    <cfRule type="containsText" dxfId="72" priority="97" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C133)))</formula>
+  <conditionalFormatting sqref="C161">
+    <cfRule type="containsText" dxfId="112" priority="129" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C161)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C134">
-    <cfRule type="containsText" dxfId="71" priority="94" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C134)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="95" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C134)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="96" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C134)))</formula>
+  <conditionalFormatting sqref="C162">
+    <cfRule type="containsText" dxfId="111" priority="126" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C162)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="110" priority="127" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C162)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="109" priority="128" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C162)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C134">
-    <cfRule type="containsText" dxfId="68" priority="93" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C134)))</formula>
+  <conditionalFormatting sqref="C162">
+    <cfRule type="containsText" dxfId="108" priority="125" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C162)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C135">
-    <cfRule type="containsText" dxfId="67" priority="90" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C135)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="91" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C135)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="92" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C135)))</formula>
+  <conditionalFormatting sqref="C163">
+    <cfRule type="containsText" dxfId="107" priority="122" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C163)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="106" priority="123" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C163)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="105" priority="124" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C163)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C135">
-    <cfRule type="containsText" dxfId="64" priority="89" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C135)))</formula>
+  <conditionalFormatting sqref="C163">
+    <cfRule type="containsText" dxfId="104" priority="121" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C163)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C164">
+    <cfRule type="containsText" dxfId="103" priority="118" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C164)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="102" priority="119" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C164)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="101" priority="120" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C164)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C164">
+    <cfRule type="containsText" dxfId="100" priority="117" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C164)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C165">
+    <cfRule type="containsText" dxfId="99" priority="114" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C165)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="98" priority="115" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C165)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="97" priority="116" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C165)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C165">
+    <cfRule type="containsText" dxfId="96" priority="113" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C165)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C166:C168">
+    <cfRule type="containsText" dxfId="95" priority="110" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C166)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="94" priority="111" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C166)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="93" priority="112" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C166)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C166:C168">
+    <cfRule type="containsText" dxfId="92" priority="109" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C166)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C228">
+    <cfRule type="containsText" dxfId="91" priority="102" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C228)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="90" priority="103" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C228)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="89" priority="104" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C228)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C228">
+    <cfRule type="containsText" dxfId="88" priority="101" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C228)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84">
+    <cfRule type="containsText" dxfId="87" priority="90" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C84)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="86" priority="91" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C84)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="85" priority="92" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C84)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84">
+    <cfRule type="containsText" dxfId="84" priority="89" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C84)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43:C44">
+    <cfRule type="containsText" dxfId="83" priority="78" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="82" priority="79" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="81" priority="80" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43:C44">
+    <cfRule type="containsText" dxfId="80" priority="77" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72">
+    <cfRule type="containsText" dxfId="79" priority="66" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C72)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="78" priority="67" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C72)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="77" priority="68" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C72)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72">
+    <cfRule type="containsText" dxfId="76" priority="65" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C72)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="containsText" dxfId="75" priority="70" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="74" priority="71" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="73" priority="72" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="containsText" dxfId="72" priority="69" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49:C50">
+    <cfRule type="containsText" dxfId="71" priority="74" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="70" priority="75" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="69" priority="76" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49:C50">
+    <cfRule type="containsText" dxfId="68" priority="73" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C95">
+    <cfRule type="containsText" dxfId="67" priority="58" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C95)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="66" priority="59" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C95)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="65" priority="60" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C95)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C95">
+    <cfRule type="containsText" dxfId="64" priority="57" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C95)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="containsText" dxfId="63" priority="54" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="55" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="61" priority="56" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="containsText" dxfId="60" priority="53" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="containsText" dxfId="59" priority="50" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="58" priority="51" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="57" priority="52" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="containsText" dxfId="56" priority="49" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46:C47">
+    <cfRule type="containsText" dxfId="55" priority="46" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="54" priority="47" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="53" priority="48" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46:C47">
+    <cfRule type="containsText" dxfId="52" priority="45" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="containsText" dxfId="51" priority="42" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="43" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="49" priority="44" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="containsText" dxfId="48" priority="41" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="containsText" dxfId="47" priority="38" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="46" priority="39" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="45" priority="40" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="containsText" dxfId="44" priority="37" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="containsText" dxfId="43" priority="34" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="42" priority="35" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="36" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="containsText" dxfId="40" priority="33" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C202">
+    <cfRule type="containsText" dxfId="39" priority="30" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C202)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="38" priority="31" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C202)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="37" priority="32" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C202)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C202">
+    <cfRule type="containsText" dxfId="36" priority="29" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C202)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C203">
+    <cfRule type="containsText" dxfId="35" priority="26" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C203)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="27" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C203)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="28" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C203)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C203">
+    <cfRule type="containsText" dxfId="32" priority="25" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C203)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C204">
+    <cfRule type="containsText" dxfId="31" priority="22" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C204)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="23" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C204)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="24" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C204)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C204">
+    <cfRule type="containsText" dxfId="28" priority="21" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C204)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C143:C144">
+    <cfRule type="containsText" dxfId="27" priority="18" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C143)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="26" priority="19" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C143)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="25" priority="20" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C143)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C143:C144">
+    <cfRule type="containsText" dxfId="24" priority="17" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C143)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C141">
+    <cfRule type="containsText" dxfId="15" priority="6" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C141)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C141)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C141)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C141">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C141)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C136">
-    <cfRule type="containsText" dxfId="63" priority="86" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="7" priority="2" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C136)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="87" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C136)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="88" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C136)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C136">
-    <cfRule type="containsText" dxfId="60" priority="85" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C136)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C137">
-    <cfRule type="containsText" dxfId="59" priority="82" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C137)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="83" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C137)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="84" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C137)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C137">
-    <cfRule type="containsText" dxfId="56" priority="81" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C137)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C138:C140">
-    <cfRule type="containsText" dxfId="55" priority="78" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C138)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="79" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C138)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="80" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C138)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C138:C140">
-    <cfRule type="containsText" dxfId="52" priority="77" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C138)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C183">
-    <cfRule type="containsText" dxfId="51" priority="70" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C183)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="71" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C183)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="72" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C183)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C183">
-    <cfRule type="containsText" dxfId="48" priority="69" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C183)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C84">
-    <cfRule type="containsText" dxfId="47" priority="58" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C84)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="59" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C84)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="60" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C84)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C84">
-    <cfRule type="containsText" dxfId="44" priority="57" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C84)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43:C44">
-    <cfRule type="containsText" dxfId="43" priority="46" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="47" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="48" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43:C44">
-    <cfRule type="containsText" dxfId="40" priority="45" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C72">
-    <cfRule type="containsText" dxfId="39" priority="34" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C72)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="35" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C72)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="36" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C72)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C72">
-    <cfRule type="containsText" dxfId="36" priority="33" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C72)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C71">
-    <cfRule type="containsText" dxfId="35" priority="38" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C71)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="39" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C71)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="40" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C71)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C71">
-    <cfRule type="containsText" dxfId="32" priority="37" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C71)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49:C50">
-    <cfRule type="containsText" dxfId="31" priority="42" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="43" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="44" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49:C50">
-    <cfRule type="containsText" dxfId="28" priority="41" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C95">
-    <cfRule type="containsText" dxfId="27" priority="26" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C95)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C95)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="28" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C95)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C95">
-    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C95)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="containsText" dxfId="23" priority="22" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C45)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C45)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C45)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C45)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="19" priority="18" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46:C47">
-    <cfRule type="containsText" dxfId="15" priority="14" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46:C47">
-    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="containsText" dxfId="11" priority="10" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="containsText" dxfId="7" priority="6" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="containsText" dxfId="3" priority="2" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C183 C165:C181 C101:C107 C111:C116 C120:C140 C80:C97 C4:C76 C144:C151 C155:C161">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C228 C210:C226 C101:C107 C120:C144 C80:C97 C4:C76 C172:C179 C183:C189 C193:C198 C202:C206 C111:C116 C148:C168">
       <formula1>$G$4:$G$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -9010,7 +10452,7 @@
   <dimension ref="A22:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:B25"/>
+      <selection activeCell="A22" sqref="A22:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9078,4 +10520,294 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A40:E66"/>
+  <sheetViews>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:B66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+    <col min="2" max="2" width="102.7109375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="64.5703125" customWidth="1"/>
+    <col min="5" max="5" width="53.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="17" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="B45" s="61" t="s">
+        <v>410</v>
+      </c>
+      <c r="C45" s="15"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="B46" s="61" t="s">
+        <v>411</v>
+      </c>
+      <c r="C46" s="15"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="15"/>
+    </row>
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="B47" s="61" t="s">
+        <v>412</v>
+      </c>
+      <c r="C47" s="15"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="15"/>
+    </row>
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="B48" s="61" t="s">
+        <v>413</v>
+      </c>
+      <c r="C48" s="15"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="15"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="B49" s="61" t="s">
+        <v>414</v>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="15"/>
+    </row>
+    <row r="50" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="B50" s="61" t="s">
+        <v>415</v>
+      </c>
+      <c r="C50" s="15"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="15"/>
+    </row>
+    <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="B51" s="61" t="s">
+        <v>416</v>
+      </c>
+      <c r="C51" s="15"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="15"/>
+    </row>
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="B52" s="61" t="s">
+        <v>419</v>
+      </c>
+      <c r="C52" s="15"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="15"/>
+    </row>
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="B53" s="61" t="s">
+        <v>417</v>
+      </c>
+      <c r="C53" s="15"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="15"/>
+    </row>
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="B54" s="61" t="s">
+        <v>418</v>
+      </c>
+      <c r="C54" s="15"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="15"/>
+    </row>
+    <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A55" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="B55" s="61" t="s">
+        <v>420</v>
+      </c>
+      <c r="C55" s="15"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="15"/>
+    </row>
+    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="B56" s="61" t="s">
+        <v>421</v>
+      </c>
+      <c r="C56" s="15"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="15"/>
+    </row>
+    <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="B57" s="61" t="s">
+        <v>422</v>
+      </c>
+      <c r="C57" s="15"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="15"/>
+    </row>
+    <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="B58" s="61" t="s">
+        <v>423</v>
+      </c>
+      <c r="C58" s="15"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="15"/>
+    </row>
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="B59" s="61" t="s">
+        <v>424</v>
+      </c>
+      <c r="C59" s="15"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="15"/>
+    </row>
+    <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="B60" s="61" t="s">
+        <v>425</v>
+      </c>
+      <c r="C60" s="15"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="15"/>
+    </row>
+    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="B61" s="61" t="s">
+        <v>426</v>
+      </c>
+      <c r="C61" s="15"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="15" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="B62" s="61" t="s">
+        <v>427</v>
+      </c>
+      <c r="C62" s="15"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="15"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="B63" s="61" t="s">
+        <v>428</v>
+      </c>
+      <c r="C63" s="15"/>
+      <c r="D63" s="63"/>
+      <c r="E63" s="15"/>
+    </row>
+    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="B64" s="61" t="s">
+        <v>429</v>
+      </c>
+      <c r="C64" s="15"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="15"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="B65" s="61" t="s">
+        <v>430</v>
+      </c>
+      <c r="C65" s="15"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="15"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="B66" s="61" t="s">
+        <v>431</v>
+      </c>
+      <c r="C66" s="15"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Technical documentation/AL table analysis.xlsx
+++ b/Technical documentation/AL table analysis.xlsx
@@ -1143,7 +1143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1759" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="553">
   <si>
     <t>Table name</t>
   </si>
@@ -2659,9 +2659,6 @@
     <t>tools</t>
   </si>
   <si>
-    <t>I guess this can be removed?</t>
-  </si>
-  <si>
     <t>Table holding all the 'did you knows' of the front page</t>
   </si>
   <si>
@@ -2689,9 +2686,6 @@
     <t xml:space="preserve">Check when user has used wrong pwd too many times </t>
   </si>
   <si>
-    <t>This table is not used</t>
-  </si>
-  <si>
     <t>users_reset</t>
   </si>
   <si>
@@ -2785,10 +2779,31 @@
     <t>This table holds the actual individual and his job within a certain project</t>
   </si>
   <si>
-    <t>Will we be using this Mattias?</t>
-  </si>
-  <si>
     <t>Also keep in mind this will be a good time to add table and field descriptions in the actual mysql tables as explained in github #381!!!</t>
+  </si>
+  <si>
+    <t>This needs to be replaced by a complete tools structure at one point in time</t>
+  </si>
+  <si>
+    <t>These can be removed for now</t>
+  </si>
+  <si>
+    <t>This table is not used currently but can eventually be implemented</t>
+  </si>
+  <si>
+    <t>Maybe rename to 'companies'</t>
+  </si>
+  <si>
+    <t>This could be merged with the pub_dev table</t>
+  </si>
+  <si>
+    <t>Maybe better if we rename it to crew_menu_release and let it link to game/demo/menu/tools releases?</t>
+  </si>
+  <si>
+    <t>currently not used - Maybe better if we rename it to crew_menu_release and let it link to game/demo/menu/tools releases?</t>
+  </si>
+  <si>
+    <t>Should there be screenshot_release to replace this or should this be kept as is and we create a new screenshot_release table with complementary images for the particular release?</t>
   </si>
 </sst>
 </file>
@@ -3132,7 +3147,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3360,7 +3375,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -3380,12 +3394,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="588">
+  <dxfs count="552">
     <dxf>
       <fill>
         <patternFill>
@@ -4957,6 +4975,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -5097,6 +5136,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -5104,6 +5164,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFC2E49C"/>
         </patternFill>
       </fill>
@@ -5125,6 +5192,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFC2E49C"/>
         </patternFill>
       </fill>
@@ -5147,314 +5221,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8081,7 +7847,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D216" sqref="D216"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8119,7 +7887,7 @@
         <v>206</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E3" s="29" t="s">
         <v>4</v>
@@ -8136,7 +7904,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E4" s="42" t="s">
         <v>262</v>
@@ -8174,7 +7942,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E6" s="43" t="s">
         <v>8</v>
@@ -8209,7 +7977,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E8" s="42" t="s">
         <v>8</v>
@@ -8241,7 +8009,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E10" s="43" t="s">
         <v>8</v>
@@ -8273,7 +8041,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E12" s="42" t="s">
         <v>262</v>
@@ -8319,7 +8087,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E15" s="43" t="s">
         <v>8</v>
@@ -8350,7 +8118,7 @@
         <v>3</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E17" s="42" t="s">
         <v>8</v>
@@ -8395,7 +8163,7 @@
         <v>3</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E20" s="43" t="s">
         <v>8</v>
@@ -8454,7 +8222,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E24" s="39" t="s">
         <v>8</v>
@@ -8471,7 +8239,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E25" s="39" t="s">
         <v>8</v>
@@ -8488,7 +8256,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E26" s="39" t="s">
         <v>8</v>
@@ -8505,7 +8273,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E27" s="39" t="s">
         <v>8</v>
@@ -8522,7 +8290,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E28" s="39" t="s">
         <v>8</v>
@@ -8539,7 +8307,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E29" s="39" t="s">
         <v>8</v>
@@ -8556,7 +8324,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E30" s="39" t="s">
         <v>8</v>
@@ -8573,7 +8341,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="42" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E31" s="39" t="s">
         <v>8</v>
@@ -8590,7 +8358,7 @@
         <v>3</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E32" s="39" t="s">
         <v>8</v>
@@ -8607,7 +8375,7 @@
         <v>3</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E33" s="39" t="s">
         <v>8</v>
@@ -8624,7 +8392,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E34" s="39" t="s">
         <v>8</v>
@@ -8641,7 +8409,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E35" s="39" t="s">
         <v>8</v>
@@ -8658,7 +8426,7 @@
         <v>3</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E36" s="39" t="s">
         <v>8</v>
@@ -8675,7 +8443,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="39" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E37" s="39" t="s">
         <v>8</v>
@@ -8692,7 +8460,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E38" s="39" t="s">
         <v>8</v>
@@ -8709,7 +8477,7 @@
         <v>3</v>
       </c>
       <c r="D39" s="42" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E39" s="39" t="s">
         <v>8</v>
@@ -8726,7 +8494,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="42" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E40" s="39" t="s">
         <v>8</v>
@@ -8743,7 +8511,7 @@
         <v>3</v>
       </c>
       <c r="D41" s="42" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E41" s="39" t="s">
         <v>8</v>
@@ -8760,7 +8528,7 @@
         <v>3</v>
       </c>
       <c r="D42" s="42" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E42" s="39" t="s">
         <v>8</v>
@@ -8777,7 +8545,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E43" s="35" t="s">
         <v>8</v>
@@ -8794,7 +8562,7 @@
         <v>3</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E44" s="35" t="s">
         <v>8</v>
@@ -9179,7 +8947,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="39" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E70" s="39" t="s">
         <v>8</v>
@@ -9211,7 +8979,7 @@
         <v>3</v>
       </c>
       <c r="D72" s="39" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E72" s="35" t="s">
         <v>8</v>
@@ -9228,7 +8996,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="47" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E73" s="47" t="s">
         <v>8</v>
@@ -9275,7 +9043,7 @@
         <v>206</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E78" s="32" t="s">
         <v>4</v>
@@ -9322,7 +9090,7 @@
         <v>3</v>
       </c>
       <c r="D81" s="39" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E81" s="39" t="s">
         <v>8</v>
@@ -9369,7 +9137,7 @@
         <v>3</v>
       </c>
       <c r="D84" s="72" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E84" s="53" t="s">
         <v>8</v>
@@ -9385,7 +9153,7 @@
       <c r="C85" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D85" s="90" t="s">
+      <c r="D85" s="89" t="s">
         <v>329</v>
       </c>
       <c r="E85" s="53" t="s">
@@ -9403,7 +9171,7 @@
         <v>3</v>
       </c>
       <c r="D86" s="39" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E86" s="53" t="s">
         <v>8</v>
@@ -9420,7 +9188,7 @@
         <v>3</v>
       </c>
       <c r="D87" s="39" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E87" s="53" t="s">
         <v>8</v>
@@ -9436,7 +9204,7 @@
       <c r="C88" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D88" s="90" t="s">
+      <c r="D88" s="89" t="s">
         <v>338</v>
       </c>
       <c r="E88" s="53" t="s">
@@ -9454,7 +9222,7 @@
         <v>3</v>
       </c>
       <c r="D89" s="39" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E89" s="53" t="s">
         <v>8</v>
@@ -9471,7 +9239,7 @@
         <v>3</v>
       </c>
       <c r="D90" s="39" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E90" s="53" t="s">
         <v>8</v>
@@ -9488,7 +9256,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="39" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E91" s="53" t="s">
         <v>8</v>
@@ -9505,7 +9273,7 @@
         <v>3</v>
       </c>
       <c r="D92" s="39" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E92" s="53" t="s">
         <v>8</v>
@@ -9513,7 +9281,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="35" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B93" s="53" t="s">
         <v>327</v>
@@ -9522,7 +9290,7 @@
         <v>3</v>
       </c>
       <c r="D93" s="72" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E93" s="53" t="s">
         <v>8</v>
@@ -9539,7 +9307,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="47" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="E94" s="47" t="s">
         <v>8</v>
@@ -9585,7 +9353,7 @@
         <v>206</v>
       </c>
       <c r="D99" s="28" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E99" s="32" t="s">
         <v>4</v>
@@ -9706,7 +9474,7 @@
         <v>206</v>
       </c>
       <c r="D109" s="28" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E109" s="32" t="s">
         <v>4</v>
@@ -9727,7 +9495,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="26" t="s">
         <v>256</v>
       </c>
@@ -9738,7 +9506,7 @@
         <v>205</v>
       </c>
       <c r="D111" s="34" t="s">
-        <v>265</v>
+        <v>551</v>
       </c>
       <c r="E111" s="42" t="s">
         <v>261</v>
@@ -9768,7 +9536,9 @@
       <c r="C113" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="D113" s="26"/>
+      <c r="D113" s="35" t="s">
+        <v>550</v>
+      </c>
       <c r="E113" s="26" t="s">
         <v>261</v>
       </c>
@@ -9780,7 +9550,7 @@
       <c r="B114" s="46" t="s">
         <v>252</v>
       </c>
-      <c r="C114" s="87" t="s">
+      <c r="C114" s="86" t="s">
         <v>205</v>
       </c>
       <c r="D114" s="36"/>
@@ -9828,7 +9598,7 @@
         <v>206</v>
       </c>
       <c r="D119" s="28" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E119" s="77" t="s">
         <v>4</v>
@@ -10066,13 +9836,13 @@
         <v>400</v>
       </c>
       <c r="B135" s="35" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C135" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D135" s="91" t="s">
-        <v>541</v>
+      <c r="D135" s="90" t="s">
+        <v>539</v>
       </c>
       <c r="E135" s="26" t="s">
         <v>431</v>
@@ -10149,7 +9919,7 @@
         <v>3</v>
       </c>
       <c r="D140" s="26" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E140" s="26" t="s">
         <v>8</v>
@@ -10210,7 +9980,7 @@
         <v>206</v>
       </c>
       <c r="D146" s="28" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E146" s="32" t="s">
         <v>4</v>
@@ -10227,7 +9997,7 @@
         <v>3</v>
       </c>
       <c r="D147" s="42" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E147" s="42" t="s">
         <v>8</v>
@@ -10244,7 +10014,7 @@
         <v>3</v>
       </c>
       <c r="D148" s="42" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E148" s="42" t="s">
         <v>8</v>
@@ -10261,7 +10031,7 @@
         <v>3</v>
       </c>
       <c r="D149" s="42" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E149" s="42" t="s">
         <v>8</v>
@@ -10278,7 +10048,7 @@
         <v>3</v>
       </c>
       <c r="D150" s="42" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E150" s="42" t="s">
         <v>8</v>
@@ -10295,7 +10065,7 @@
         <v>3</v>
       </c>
       <c r="D151" s="42" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E151" s="42" t="s">
         <v>8</v>
@@ -10312,7 +10082,7 @@
         <v>3</v>
       </c>
       <c r="D152" s="42" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E152" s="42" t="s">
         <v>8</v>
@@ -10329,7 +10099,7 @@
         <v>3</v>
       </c>
       <c r="D153" s="42" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E153" s="42" t="s">
         <v>8</v>
@@ -10346,7 +10116,7 @@
         <v>3</v>
       </c>
       <c r="D154" s="42" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E154" s="42" t="s">
         <v>8</v>
@@ -10363,7 +10133,7 @@
         <v>3</v>
       </c>
       <c r="D155" s="42" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E155" s="42" t="s">
         <v>8</v>
@@ -10380,7 +10150,7 @@
         <v>3</v>
       </c>
       <c r="D156" s="42" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E156" s="42" t="s">
         <v>8</v>
@@ -10397,7 +10167,7 @@
         <v>3</v>
       </c>
       <c r="D157" s="42" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E157" s="42" t="s">
         <v>8</v>
@@ -10414,7 +10184,7 @@
         <v>3</v>
       </c>
       <c r="D158" s="42" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E158" s="42" t="s">
         <v>8</v>
@@ -10431,7 +10201,7 @@
         <v>3</v>
       </c>
       <c r="D159" s="42" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E159" s="42" t="s">
         <v>8</v>
@@ -10448,7 +10218,7 @@
         <v>3</v>
       </c>
       <c r="D160" s="42" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E160" s="42" t="s">
         <v>8</v>
@@ -10465,7 +10235,7 @@
         <v>3</v>
       </c>
       <c r="D161" s="42" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E161" s="42" t="s">
         <v>8</v>
@@ -10482,7 +10252,7 @@
         <v>3</v>
       </c>
       <c r="D162" s="42" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E162" s="42" t="s">
         <v>8</v>
@@ -10499,7 +10269,7 @@
         <v>3</v>
       </c>
       <c r="D163" s="42" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E163" s="42" t="s">
         <v>8</v>
@@ -10516,7 +10286,7 @@
         <v>3</v>
       </c>
       <c r="D164" s="42" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E164" s="42" t="s">
         <v>8</v>
@@ -10532,8 +10302,8 @@
       <c r="C165" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D165" s="92" t="s">
-        <v>543</v>
+      <c r="D165" s="91" t="s">
+        <v>541</v>
       </c>
       <c r="E165" s="48" t="s">
         <v>8</v>
@@ -10579,7 +10349,7 @@
         <v>206</v>
       </c>
       <c r="D170" s="28" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E170" s="77" t="s">
         <v>4</v>
@@ -10715,7 +10485,7 @@
         <v>206</v>
       </c>
       <c r="D181" s="28" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E181" s="77" t="s">
         <v>4</v>
@@ -10836,7 +10606,7 @@
         <v>206</v>
       </c>
       <c r="D191" s="28" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E191" s="77" t="s">
         <v>4</v>
@@ -10942,7 +10712,7 @@
         <v>206</v>
       </c>
       <c r="D200" s="28" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E200" s="77" t="s">
         <v>4</v>
@@ -11097,7 +10867,7 @@
         <v>206</v>
       </c>
       <c r="D212" s="28" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E212" s="77" t="s">
         <v>4</v>
@@ -11148,7 +10918,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A216" s="41" t="s">
         <v>482</v>
       </c>
@@ -11158,7 +10928,9 @@
       <c r="C216" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="D216" s="41"/>
+      <c r="D216" s="93" t="s">
+        <v>552</v>
+      </c>
       <c r="E216" s="41" t="s">
         <v>48</v>
       </c>
@@ -11278,7 +11050,7 @@
         <v>206</v>
       </c>
       <c r="D226" s="28" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E226" s="77" t="s">
         <v>4</v>
@@ -11375,7 +11147,7 @@
         <v>206</v>
       </c>
       <c r="D234" s="28" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E234" s="77" t="s">
         <v>4</v>
@@ -11417,10 +11189,10 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="41" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B237" s="41" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="C237" s="41" t="s">
         <v>205</v>
@@ -11489,7 +11261,7 @@
         <v>206</v>
       </c>
       <c r="D243" s="28" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E243" s="77" t="s">
         <v>4</v>
@@ -11505,7 +11277,9 @@
       <c r="C244" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="D244" s="41"/>
+      <c r="D244" s="41" t="s">
+        <v>548</v>
+      </c>
       <c r="E244" s="41" t="s">
         <v>48</v>
       </c>
@@ -11520,7 +11294,9 @@
       <c r="C245" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="D245" s="55"/>
+      <c r="D245" s="55" t="s">
+        <v>549</v>
+      </c>
       <c r="E245" s="55" t="s">
         <v>48</v>
       </c>
@@ -11565,7 +11341,7 @@
         <v>206</v>
       </c>
       <c r="D250" s="28" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E250" s="77" t="s">
         <v>4</v>
@@ -11662,7 +11438,7 @@
     </row>
     <row r="258" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="50" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B258" s="40"/>
       <c r="C258" s="40"/>
@@ -11686,7 +11462,7 @@
         <v>206</v>
       </c>
       <c r="D260" s="28" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E260" s="77" t="s">
         <v>4</v>
@@ -11694,10 +11470,10 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="41" t="s">
+        <v>509</v>
+      </c>
+      <c r="B261" s="41" t="s">
         <v>510</v>
-      </c>
-      <c r="B261" s="41" t="s">
-        <v>511</v>
       </c>
       <c r="C261" s="41" t="s">
         <v>205</v>
@@ -11707,18 +11483,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="41" t="s">
+        <v>511</v>
+      </c>
+      <c r="B262" s="41" t="s">
         <v>512</v>
       </c>
-      <c r="B262" s="41" t="s">
-        <v>513</v>
-      </c>
       <c r="C262" s="41" t="s">
-        <v>3</v>
+        <v>205</v>
       </c>
       <c r="D262" s="41" t="s">
-        <v>514</v>
+        <v>547</v>
       </c>
       <c r="E262" s="41" t="s">
         <v>8</v>
@@ -11726,10 +11502,10 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="55" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B263" s="55" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C263" s="55" t="s">
         <v>205</v>
@@ -11755,7 +11531,7 @@
     </row>
     <row r="266" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="50" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B266" s="40"/>
       <c r="C266" s="40"/>
@@ -11779,7 +11555,7 @@
         <v>206</v>
       </c>
       <c r="D268" s="28" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E268" s="77" t="s">
         <v>4</v>
@@ -11787,10 +11563,10 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="41" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B269" s="41" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C269" s="41" t="s">
         <v>205</v>
@@ -11802,10 +11578,10 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="41" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B270" s="41" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C270" s="41" t="s">
         <v>205</v>
@@ -11817,10 +11593,10 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="41" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B271" s="41" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C271" s="41" t="s">
         <v>205</v>
@@ -11832,10 +11608,10 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="55" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B272" s="55" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C272" s="55" t="s">
         <v>205</v>
@@ -11885,7 +11661,7 @@
         <v>206</v>
       </c>
       <c r="D277" s="28" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E277" s="32" t="s">
         <v>4</v>
@@ -11917,7 +11693,7 @@
         <v>3</v>
       </c>
       <c r="D279" s="42" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E279" s="43" t="s">
         <v>8</v>
@@ -12004,7 +11780,7 @@
         <v>3</v>
       </c>
       <c r="D285" s="42" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E285" s="43" t="s">
         <v>8</v>
@@ -12057,13 +11833,13 @@
         <v>229</v>
       </c>
       <c r="B289" s="38" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C289" s="42" t="s">
         <v>3</v>
       </c>
       <c r="D289" s="39" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E289" s="43" t="s">
         <v>8</v>
@@ -12164,7 +11940,7 @@
         <v>3</v>
       </c>
       <c r="D296" s="42" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E296" s="38" t="s">
         <v>8</v>
@@ -12252,7 +12028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" s="37" t="s">
         <v>503</v>
       </c>
@@ -12263,7 +12039,7 @@
         <v>3</v>
       </c>
       <c r="D302" s="39" t="s">
-        <v>504</v>
+        <v>545</v>
       </c>
       <c r="E302" s="38" t="s">
         <v>8</v>
@@ -12271,10 +12047,10 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="37" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B303" s="38" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C303" s="38" t="s">
         <v>205</v>
@@ -12285,10 +12061,10 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="37" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B304" s="38" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C304" s="38" t="s">
         <v>205</v>
@@ -12299,1111 +12075,1111 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C79:C82 C278:C284 C286:C288 C95:C96 C73:C75 C51:C70 C4:C11 C84:C91 C13:C37 C40:C42 C178 C111:C112 C246:C247 C115:C116 C93">
-    <cfRule type="containsText" dxfId="587" priority="338" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="551" priority="338" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="586" priority="339" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="550" priority="339" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="585" priority="340" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="549" priority="340" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79:C82 C278:C284 C286:C288 C95:C96 C73:C75 C51:C70 C4:C11 C84:C91 C13:C37 C40:C42 C178 C111:C112 C246:C247 C115:C116 C93">
-    <cfRule type="containsText" dxfId="584" priority="337" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="548" priority="337" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100">
-    <cfRule type="containsText" dxfId="583" priority="334" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="547" priority="334" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C100)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="582" priority="335" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="546" priority="335" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C100)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="581" priority="336" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="545" priority="336" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100">
-    <cfRule type="containsText" dxfId="580" priority="333" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="544" priority="333" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102">
-    <cfRule type="containsText" dxfId="579" priority="325" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="543" priority="325" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101">
-    <cfRule type="containsText" dxfId="578" priority="330" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="542" priority="330" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C101)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="577" priority="331" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="541" priority="331" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C101)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="576" priority="332" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="540" priority="332" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101">
-    <cfRule type="containsText" dxfId="575" priority="329" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="539" priority="329" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102">
-    <cfRule type="containsText" dxfId="574" priority="326" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="538" priority="326" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="573" priority="327" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="537" priority="327" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="572" priority="328" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="536" priority="328" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C104:C106">
-    <cfRule type="containsText" dxfId="571" priority="317" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="535" priority="317" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C104)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C103">
-    <cfRule type="containsText" dxfId="570" priority="321" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="534" priority="321" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C103)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C103">
-    <cfRule type="containsText" dxfId="569" priority="322" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="533" priority="322" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C103)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="568" priority="323" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="532" priority="323" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C103)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="567" priority="324" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="531" priority="324" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C103)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C285">
-    <cfRule type="containsText" dxfId="566" priority="289" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="530" priority="289" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C285)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C104:C106">
-    <cfRule type="containsText" dxfId="565" priority="318" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="529" priority="318" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C104)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="564" priority="319" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="528" priority="319" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C104)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="563" priority="320" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="527" priority="320" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C104)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C289">
-    <cfRule type="containsText" dxfId="562" priority="314" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="526" priority="314" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C289)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="561" priority="315" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="525" priority="315" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C289)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="560" priority="316" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="524" priority="316" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C289)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C289">
-    <cfRule type="containsText" dxfId="559" priority="313" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="523" priority="313" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C289)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C290">
-    <cfRule type="containsText" dxfId="558" priority="310" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="522" priority="310" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C290)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="557" priority="311" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="521" priority="311" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C290)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="556" priority="312" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="520" priority="312" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C290)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C290">
-    <cfRule type="containsText" dxfId="555" priority="309" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="519" priority="309" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C290)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C291">
-    <cfRule type="containsText" dxfId="554" priority="306" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="518" priority="306" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C291)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="553" priority="307" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="517" priority="307" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C291)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="552" priority="308" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="516" priority="308" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C291)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C291">
-    <cfRule type="containsText" dxfId="551" priority="305" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="515" priority="305" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C291)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C292">
-    <cfRule type="containsText" dxfId="550" priority="302" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="514" priority="302" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C292)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="549" priority="303" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="513" priority="303" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C292)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="548" priority="304" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="512" priority="304" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C292)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C292">
-    <cfRule type="containsText" dxfId="547" priority="301" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="511" priority="301" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C292)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C293">
-    <cfRule type="containsText" dxfId="546" priority="298" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="510" priority="298" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C293)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="545" priority="299" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="509" priority="299" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C293)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="544" priority="300" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="508" priority="300" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C293)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C293">
-    <cfRule type="containsText" dxfId="543" priority="297" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="507" priority="297" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C293)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C294">
-    <cfRule type="containsText" dxfId="542" priority="294" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="506" priority="294" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C294)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="541" priority="295" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="505" priority="295" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C294)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="540" priority="296" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="504" priority="296" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C294)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C294">
-    <cfRule type="containsText" dxfId="539" priority="293" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="503" priority="293" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C294)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C285">
-    <cfRule type="containsText" dxfId="538" priority="290" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="502" priority="290" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C285)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="537" priority="291" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="501" priority="291" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C285)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="536" priority="292" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="500" priority="292" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C285)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C110">
-    <cfRule type="containsText" dxfId="535" priority="286" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="499" priority="286" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C110)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="534" priority="287" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="498" priority="287" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C110)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="533" priority="288" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="497" priority="288" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C110">
-    <cfRule type="containsText" dxfId="532" priority="285" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="496" priority="285" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C147">
-    <cfRule type="containsText" dxfId="531" priority="278" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="495" priority="278" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C147)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="530" priority="279" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="494" priority="279" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C147)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="529" priority="280" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="493" priority="280" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C147)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C147">
-    <cfRule type="containsText" dxfId="528" priority="277" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="492" priority="277" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C147)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148">
-    <cfRule type="containsText" dxfId="527" priority="274" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="491" priority="274" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C148)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="526" priority="275" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="490" priority="275" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C148)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="525" priority="276" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="489" priority="276" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C148)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148">
-    <cfRule type="containsText" dxfId="524" priority="273" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="488" priority="273" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C148)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C149">
-    <cfRule type="containsText" dxfId="523" priority="270" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="487" priority="270" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C149)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="522" priority="271" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="486" priority="271" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C149)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="521" priority="272" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="485" priority="272" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C149)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C149">
-    <cfRule type="containsText" dxfId="520" priority="269" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="484" priority="269" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C149)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C150">
-    <cfRule type="containsText" dxfId="519" priority="266" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="483" priority="266" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C150)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="518" priority="267" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="482" priority="267" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C150)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="517" priority="268" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="481" priority="268" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C150)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C150">
-    <cfRule type="containsText" dxfId="516" priority="265" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="480" priority="265" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C150)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C151">
-    <cfRule type="containsText" dxfId="515" priority="262" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="479" priority="262" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C151)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="514" priority="263" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="478" priority="263" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C151)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="513" priority="264" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="477" priority="264" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C151)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C151">
-    <cfRule type="containsText" dxfId="512" priority="261" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="476" priority="261" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C151)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152">
-    <cfRule type="containsText" dxfId="511" priority="258" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="475" priority="258" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="510" priority="259" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="474" priority="259" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="509" priority="260" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="473" priority="260" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152">
-    <cfRule type="containsText" dxfId="508" priority="257" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="472" priority="257" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C153">
-    <cfRule type="containsText" dxfId="507" priority="254" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="471" priority="254" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C153)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="506" priority="255" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="470" priority="255" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C153)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="505" priority="256" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="469" priority="256" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C153)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C153">
-    <cfRule type="containsText" dxfId="504" priority="253" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="468" priority="253" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C153)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C154">
-    <cfRule type="containsText" dxfId="503" priority="250" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="467" priority="250" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C154)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="502" priority="251" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="466" priority="251" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C154)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="501" priority="252" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="465" priority="252" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C154)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C154">
-    <cfRule type="containsText" dxfId="500" priority="249" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="464" priority="249" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C154)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C155">
-    <cfRule type="containsText" dxfId="499" priority="246" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="463" priority="246" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="498" priority="247" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="462" priority="247" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="497" priority="248" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="461" priority="248" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C155)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C155">
-    <cfRule type="containsText" dxfId="496" priority="245" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="460" priority="245" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C155)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C156">
-    <cfRule type="containsText" dxfId="495" priority="242" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="459" priority="242" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C156)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="494" priority="243" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="458" priority="243" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C156)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="493" priority="244" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="457" priority="244" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C156)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C156">
-    <cfRule type="containsText" dxfId="492" priority="241" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="456" priority="241" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C156)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C157">
-    <cfRule type="containsText" dxfId="491" priority="238" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="455" priority="238" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C157)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="490" priority="239" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="454" priority="239" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C157)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="489" priority="240" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="453" priority="240" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C157">
-    <cfRule type="containsText" dxfId="488" priority="237" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="452" priority="237" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C158">
-    <cfRule type="containsText" dxfId="487" priority="234" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="451" priority="234" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C158)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="486" priority="235" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="450" priority="235" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C158)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="485" priority="236" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="449" priority="236" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C158)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C158">
-    <cfRule type="containsText" dxfId="484" priority="233" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="448" priority="233" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C158)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C159">
-    <cfRule type="containsText" dxfId="483" priority="230" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="447" priority="230" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C159)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="482" priority="231" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="446" priority="231" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C159)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="481" priority="232" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="445" priority="232" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C159)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C159">
-    <cfRule type="containsText" dxfId="480" priority="229" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="444" priority="229" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C159)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C160">
-    <cfRule type="containsText" dxfId="479" priority="226" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="443" priority="226" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C160)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="478" priority="227" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="442" priority="227" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C160)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="477" priority="228" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="441" priority="228" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C160)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C160">
-    <cfRule type="containsText" dxfId="476" priority="225" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="440" priority="225" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C160)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C161">
-    <cfRule type="containsText" dxfId="475" priority="222" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="439" priority="222" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C161)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="474" priority="223" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="438" priority="223" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C161)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="473" priority="224" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="437" priority="224" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C161)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C161">
-    <cfRule type="containsText" dxfId="472" priority="221" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="436" priority="221" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C161)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C162">
-    <cfRule type="containsText" dxfId="471" priority="218" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="435" priority="218" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C162)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="470" priority="219" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="434" priority="219" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C162)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="469" priority="220" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="433" priority="220" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C162)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C162">
-    <cfRule type="containsText" dxfId="468" priority="217" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="432" priority="217" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C162)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C163">
-    <cfRule type="containsText" dxfId="467" priority="214" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="431" priority="214" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C163)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="466" priority="215" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="430" priority="215" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C163)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="465" priority="216" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="429" priority="216" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C163)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C163">
-    <cfRule type="containsText" dxfId="464" priority="213" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="428" priority="213" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C163)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C164">
-    <cfRule type="containsText" dxfId="463" priority="210" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="427" priority="210" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="462" priority="211" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="426" priority="211" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="461" priority="212" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="425" priority="212" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C164">
-    <cfRule type="containsText" dxfId="460" priority="209" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="424" priority="209" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C165:C167">
-    <cfRule type="containsText" dxfId="459" priority="206" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="423" priority="206" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C165)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="458" priority="207" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="422" priority="207" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C165)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="457" priority="208" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="421" priority="208" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C165)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C165:C167">
-    <cfRule type="containsText" dxfId="456" priority="205" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="420" priority="205" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C165)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C296">
-    <cfRule type="containsText" dxfId="455" priority="198" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="419" priority="198" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C296)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="454" priority="199" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="418" priority="199" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C296)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="453" priority="200" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="417" priority="200" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C296)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C296">
-    <cfRule type="containsText" dxfId="452" priority="197" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="416" priority="197" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C296)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C83">
-    <cfRule type="containsText" dxfId="451" priority="186" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="415" priority="186" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="450" priority="187" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="414" priority="187" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="449" priority="188" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="413" priority="188" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C83">
-    <cfRule type="containsText" dxfId="448" priority="185" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="412" priority="185" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C44">
-    <cfRule type="containsText" dxfId="447" priority="174" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="411" priority="174" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="446" priority="175" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="410" priority="175" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="445" priority="176" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="409" priority="176" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C44">
-    <cfRule type="containsText" dxfId="444" priority="173" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="408" priority="173" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="containsText" dxfId="443" priority="162" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="407" priority="162" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="442" priority="163" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="406" priority="163" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="441" priority="164" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="405" priority="164" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="containsText" dxfId="440" priority="161" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="404" priority="161" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="containsText" dxfId="439" priority="166" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="403" priority="166" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="438" priority="167" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="402" priority="167" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="437" priority="168" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="401" priority="168" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="containsText" dxfId="436" priority="165" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="400" priority="165" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:C50">
-    <cfRule type="containsText" dxfId="435" priority="170" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="399" priority="170" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="434" priority="171" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="398" priority="171" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="433" priority="172" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="397" priority="172" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:C50">
-    <cfRule type="containsText" dxfId="432" priority="169" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="396" priority="169" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C94">
-    <cfRule type="containsText" dxfId="431" priority="154" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="395" priority="154" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="430" priority="155" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="394" priority="155" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="429" priority="156" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="393" priority="156" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C94">
-    <cfRule type="containsText" dxfId="428" priority="153" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="392" priority="153" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="containsText" dxfId="427" priority="150" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="391" priority="150" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="426" priority="151" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="390" priority="151" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="425" priority="152" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="389" priority="152" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="containsText" dxfId="424" priority="149" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="388" priority="149" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="423" priority="146" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="387" priority="146" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="422" priority="147" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="386" priority="147" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="421" priority="148" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="385" priority="148" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="420" priority="145" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="384" priority="145" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C47">
-    <cfRule type="containsText" dxfId="419" priority="142" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="383" priority="142" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="418" priority="143" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="382" priority="143" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="417" priority="144" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="381" priority="144" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C47">
-    <cfRule type="containsText" dxfId="416" priority="141" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="380" priority="141" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="containsText" dxfId="415" priority="138" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="379" priority="138" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="414" priority="139" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="378" priority="139" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="413" priority="140" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="377" priority="140" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="containsText" dxfId="412" priority="137" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="376" priority="137" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="containsText" dxfId="411" priority="134" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="375" priority="134" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="410" priority="135" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="374" priority="135" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="409" priority="136" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="373" priority="136" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="containsText" dxfId="408" priority="133" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="372" priority="133" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="containsText" dxfId="407" priority="130" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="371" priority="130" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="406" priority="131" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="370" priority="131" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="405" priority="132" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="369" priority="132" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="containsText" dxfId="404" priority="129" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="368" priority="129" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C227">
-    <cfRule type="containsText" dxfId="403" priority="126" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="367" priority="126" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C227)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="402" priority="127" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="366" priority="127" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C227)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="401" priority="128" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="365" priority="128" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C227)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C227">
-    <cfRule type="containsText" dxfId="400" priority="125" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="364" priority="125" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C227)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C228">
-    <cfRule type="containsText" dxfId="399" priority="122" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="363" priority="122" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C228)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="398" priority="123" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="362" priority="123" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C228)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="397" priority="124" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="361" priority="124" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C228)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C228">
-    <cfRule type="containsText" dxfId="396" priority="121" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="360" priority="121" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C228)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C229">
-    <cfRule type="containsText" dxfId="395" priority="118" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="359" priority="118" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C229)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="394" priority="119" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="358" priority="119" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C229)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="393" priority="120" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="357" priority="120" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C229)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C229">
-    <cfRule type="containsText" dxfId="392" priority="117" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="356" priority="117" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C229)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C142:C143">
-    <cfRule type="containsText" dxfId="391" priority="114" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="355" priority="114" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C142)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="390" priority="115" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="354" priority="115" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C142)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="389" priority="116" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="353" priority="116" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C142:C143">
-    <cfRule type="containsText" dxfId="388" priority="113" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="352" priority="113" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C140">
-    <cfRule type="containsText" dxfId="387" priority="102" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="351" priority="102" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C140)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="386" priority="103" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="350" priority="103" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C140)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="385" priority="104" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="349" priority="104" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C140">
-    <cfRule type="containsText" dxfId="384" priority="101" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="348" priority="101" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C135">
-    <cfRule type="containsText" dxfId="383" priority="98" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="347" priority="98" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C135)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="382" priority="99" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="346" priority="99" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C135)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="381" priority="100" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="345" priority="100" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C135)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C135">
-    <cfRule type="containsText" dxfId="380" priority="97" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="344" priority="97" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C135)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C236">
-    <cfRule type="containsText" dxfId="379" priority="90" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="343" priority="90" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C236)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="378" priority="91" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="342" priority="91" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C236)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="377" priority="92" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="341" priority="92" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C236)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C236">
-    <cfRule type="containsText" dxfId="376" priority="89" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="340" priority="89" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C236)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C238:C240">
-    <cfRule type="containsText" dxfId="375" priority="86" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="339" priority="86" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C238)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="374" priority="87" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="338" priority="87" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C238)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="373" priority="88" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="337" priority="88" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C238)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C238:C240">
-    <cfRule type="containsText" dxfId="372" priority="85" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="336" priority="85" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C238)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C235">
-    <cfRule type="containsText" dxfId="371" priority="82" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="335" priority="82" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C235)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="370" priority="83" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="334" priority="83" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C235)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="369" priority="84" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="333" priority="84" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C235)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C235">
-    <cfRule type="containsText" dxfId="368" priority="81" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="332" priority="81" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C235)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C252">
-    <cfRule type="containsText" dxfId="367" priority="78" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="331" priority="78" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C252)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="366" priority="79" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="330" priority="79" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C252)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="365" priority="80" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="329" priority="80" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C252)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C252">
-    <cfRule type="containsText" dxfId="364" priority="77" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="328" priority="77" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C252)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C253:C257">
-    <cfRule type="containsText" dxfId="363" priority="74" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="327" priority="74" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C253)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="362" priority="75" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="326" priority="75" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C253)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="361" priority="76" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="325" priority="76" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C253)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C253:C257">
-    <cfRule type="containsText" dxfId="360" priority="73" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="324" priority="73" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C253)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A251:E255">
-    <cfRule type="containsText" dxfId="359" priority="70" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="323" priority="70" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",A251)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="358" priority="71" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="322" priority="71" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",A251)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="357" priority="72" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="321" priority="72" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",A251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A251:E255">
-    <cfRule type="containsText" dxfId="356" priority="69" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="320" priority="69" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",A251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C245">
-    <cfRule type="containsText" dxfId="355" priority="66" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="319" priority="66" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C245)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="354" priority="67" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="318" priority="67" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C245)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="353" priority="68" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="317" priority="68" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C245)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C245">
-    <cfRule type="containsText" dxfId="352" priority="65" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="316" priority="65" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C245)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C244">
-    <cfRule type="containsText" dxfId="351" priority="58" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="315" priority="58" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C244)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="350" priority="59" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="314" priority="59" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C244)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="349" priority="60" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="313" priority="60" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C244)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C244">
-    <cfRule type="containsText" dxfId="348" priority="57" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="312" priority="57" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C244)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C202">
-    <cfRule type="containsText" dxfId="347" priority="54" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="311" priority="54" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C202)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="346" priority="55" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="310" priority="55" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C202)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="345" priority="56" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="309" priority="56" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C202)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C202">
-    <cfRule type="containsText" dxfId="344" priority="53" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="308" priority="53" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C202)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C298">
-    <cfRule type="containsText" dxfId="343" priority="42" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="307" priority="42" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C298)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="342" priority="43" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="306" priority="43" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C298)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="341" priority="44" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="305" priority="44" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C298)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C298">
-    <cfRule type="containsText" dxfId="340" priority="41" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="304" priority="41" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C298)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C302">
-    <cfRule type="containsText" dxfId="339" priority="34" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="303" priority="34" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C302)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="338" priority="35" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="302" priority="35" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C302)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="337" priority="36" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="301" priority="36" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C302)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C302">
-    <cfRule type="containsText" dxfId="336" priority="33" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="300" priority="33" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C302)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C299:C301">
-    <cfRule type="containsText" dxfId="335" priority="38" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="299" priority="38" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C299)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="334" priority="39" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="298" priority="39" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C299)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="333" priority="40" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="297" priority="40" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C299)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C299:C301">
-    <cfRule type="containsText" dxfId="332" priority="37" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="296" priority="37" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C299)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C264:C265">
-    <cfRule type="containsText" dxfId="331" priority="30" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="295" priority="30" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C264)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="330" priority="31" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="294" priority="31" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C264)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="329" priority="32" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="293" priority="32" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C264:C265">
-    <cfRule type="containsText" dxfId="328" priority="29" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="292" priority="29" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A261:E263">
-    <cfRule type="containsText" dxfId="327" priority="14" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="291" priority="14" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",A261)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="326" priority="15" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="290" priority="15" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",A261)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="325" priority="16" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="289" priority="16" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",A261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A261:E263">
-    <cfRule type="containsText" dxfId="324" priority="13" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="288" priority="13" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",A261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A269:E274">
-    <cfRule type="containsText" dxfId="323" priority="10" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="287" priority="10" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",A269)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="322" priority="11" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="286" priority="11" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",A269)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="321" priority="12" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="285" priority="12" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",A269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A269:E274">
-    <cfRule type="containsText" dxfId="320" priority="9" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="284" priority="9" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",A269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92">
-    <cfRule type="containsText" dxfId="319" priority="6" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="283" priority="6" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="318" priority="7" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="282" priority="7" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="317" priority="8" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="281" priority="8" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92">
-    <cfRule type="containsText" dxfId="316" priority="5" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="280" priority="5" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C237">
-    <cfRule type="containsText" dxfId="315" priority="2" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="279" priority="2" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C237)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="314" priority="3" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="278" priority="3" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C237)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="313" priority="4" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="277" priority="4" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C237)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C237">
-    <cfRule type="containsText" dxfId="312" priority="1" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="276" priority="1" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C237)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C296 C120:C143 C235:C240 C261:C265 C251:C257 C110:C116 C213:C223 C269:C274 C192:C197 C79:C96 C227:C231 C147:C167 C298:C302 C244:C247 C182:C188 C171:C178 C4:C75 C201:C209 C100:C106 C278:C294">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C296 C120:C143 C235:C240 C278:C294 C251:C257 C110:C116 C213:C223 C269:C274 C192:C197 C79:C96 C227:C231 C147:C167 C298:C302 C244:C247 C182:C188 C171:C178 C4:C75 C201:C209 C100:C106 C261:C265">
       <formula1>$F$4:$F$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -13428,82 +13204,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
-        <v>526</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
+      <c r="A1" s="92" t="s">
+        <v>524</v>
+      </c>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="92"/>
+      <c r="M1" s="92"/>
+      <c r="N1" s="92"/>
+      <c r="O1" s="92"/>
+      <c r="P1" s="92"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
-        <v>530</v>
-      </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
+      <c r="A2" s="84" t="s">
+        <v>528</v>
+      </c>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
-        <v>547</v>
-      </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
+      <c r="A3" s="84" t="s">
+        <v>544</v>
+      </c>
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="85"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
     </row>
     <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="50" t="s">
@@ -13523,7 +13299,7 @@
       <c r="B6" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="C6" s="89"/>
+      <c r="C6" s="88"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
@@ -13673,7 +13449,7 @@
       <c r="A23" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="85" t="s">
         <v>205</v>
       </c>
       <c r="C23" s="69"/>
@@ -13932,7 +13708,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="35" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B52" s="42" t="s">
         <v>3</v>
@@ -14762,7 +14538,7 @@
       <c r="A144" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B144" s="88" t="s">
+      <c r="B144" s="87" t="s">
         <v>16</v>
       </c>
       <c r="C144" s="69"/>
@@ -14825,7 +14601,7 @@
       <c r="A151" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="B151" s="86" t="s">
+      <c r="B151" s="85" t="s">
         <v>205</v>
       </c>
       <c r="C151" s="69"/>
@@ -14834,7 +14610,7 @@
       <c r="A152" s="35" t="s">
         <v>404</v>
       </c>
-      <c r="B152" s="86" t="s">
+      <c r="B152" s="85" t="s">
         <v>205</v>
       </c>
       <c r="C152" s="69"/>
@@ -14852,7 +14628,7 @@
       <c r="A154" s="35" t="s">
         <v>402</v>
       </c>
-      <c r="B154" s="86" t="s">
+      <c r="B154" s="85" t="s">
         <v>205</v>
       </c>
       <c r="C154" s="69"/>
@@ -14861,7 +14637,7 @@
       <c r="A155" s="35" t="s">
         <v>401</v>
       </c>
-      <c r="B155" s="86" t="s">
+      <c r="B155" s="85" t="s">
         <v>205</v>
       </c>
       <c r="C155" s="69"/>
@@ -14870,7 +14646,7 @@
       <c r="A156" s="35" t="s">
         <v>389</v>
       </c>
-      <c r="B156" s="86" t="s">
+      <c r="B156" s="85" t="s">
         <v>205</v>
       </c>
       <c r="C156" s="69"/>
@@ -14879,7 +14655,7 @@
       <c r="A157" s="35" t="s">
         <v>406</v>
       </c>
-      <c r="B157" s="86" t="s">
+      <c r="B157" s="85" t="s">
         <v>205</v>
       </c>
       <c r="C157" s="69"/>
@@ -14888,7 +14664,7 @@
       <c r="A158" s="35" t="s">
         <v>392</v>
       </c>
-      <c r="B158" s="86" t="s">
+      <c r="B158" s="85" t="s">
         <v>205</v>
       </c>
       <c r="C158" s="69"/>
@@ -14897,7 +14673,7 @@
       <c r="A159" s="35" t="s">
         <v>394</v>
       </c>
-      <c r="B159" s="86" t="s">
+      <c r="B159" s="85" t="s">
         <v>205</v>
       </c>
       <c r="C159" s="69"/>
@@ -14915,7 +14691,7 @@
       <c r="A161" s="35" t="s">
         <v>390</v>
       </c>
-      <c r="B161" s="86" t="s">
+      <c r="B161" s="85" t="s">
         <v>205</v>
       </c>
       <c r="C161" s="69"/>
@@ -15048,7 +14824,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" s="35" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B176" s="41" t="s">
         <v>205</v>
@@ -15311,7 +15087,7 @@
       <c r="A205" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="B205" s="86" t="s">
+      <c r="B205" s="85" t="s">
         <v>205</v>
       </c>
       <c r="C205" s="69"/>
@@ -15381,7 +15157,7 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" s="35" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B213" s="38" t="s">
         <v>205</v>
@@ -15390,7 +15166,7 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" s="35" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B214" s="38" t="s">
         <v>205</v>
@@ -15399,7 +15175,7 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" s="35" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B215" s="42" t="s">
         <v>205</v>
@@ -15408,7 +15184,7 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" s="35" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B216" s="42" t="s">
         <v>3</v>
@@ -15417,7 +15193,7 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" s="35" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B217" s="42" t="s">
         <v>205</v>
@@ -15426,7 +15202,7 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" s="35" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B218" s="42" t="s">
         <v>205</v>
@@ -15435,7 +15211,7 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" s="35" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B219" s="42" t="s">
         <v>205</v>
@@ -15444,7 +15220,7 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" s="35" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B220" s="42" t="s">
         <v>205</v>
@@ -15453,7 +15229,7 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" s="46" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B221" s="48" t="s">
         <v>205</v>
@@ -15469,834 +15245,834 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="B95">
-    <cfRule type="containsText" dxfId="311" priority="282" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="275" priority="282" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B95)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="310" priority="283" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="274" priority="283" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B95)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="309" priority="284" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="273" priority="284" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B95)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95">
-    <cfRule type="containsText" dxfId="308" priority="281" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="272" priority="281" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B95)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B206">
-    <cfRule type="containsText" dxfId="307" priority="274" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="271" priority="274" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B206)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="306" priority="275" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="270" priority="275" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B206)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="305" priority="276" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="269" priority="276" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B206)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B206">
-    <cfRule type="containsText" dxfId="304" priority="273" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="268" priority="273" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B206)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B203:B205 B6:B13 B15:B39 B42:B44 B98:B99 B76:B90 B196:B201 B54:B73">
-    <cfRule type="containsText" dxfId="303" priority="298" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="267" priority="298" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="302" priority="299" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="266" priority="299" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="301" priority="300" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="265" priority="300" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B203:B205 B6:B13 B15:B39 B42:B44 B98:B99 B76:B90 B196:B201 B54:B73">
-    <cfRule type="containsText" dxfId="300" priority="297" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="264" priority="297" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="containsText" dxfId="295" priority="294" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="263" priority="294" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="294" priority="295" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="262" priority="295" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="293" priority="296" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="261" priority="296" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="containsText" dxfId="292" priority="293" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="260" priority="293" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="containsText" dxfId="291" priority="285" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="259" priority="285" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="containsText" dxfId="290" priority="290" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="258" priority="290" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B93)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="289" priority="291" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="257" priority="291" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B93)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="288" priority="292" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="256" priority="292" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="containsText" dxfId="287" priority="289" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="255" priority="289" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="containsText" dxfId="286" priority="286" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="254" priority="286" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="285" priority="287" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="253" priority="287" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="284" priority="288" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="252" priority="288" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B207">
-    <cfRule type="containsText" dxfId="283" priority="269" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="251" priority="269" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B207)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B202">
-    <cfRule type="containsText" dxfId="278" priority="249" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="250" priority="249" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B202)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B207">
-    <cfRule type="containsText" dxfId="277" priority="270" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="249" priority="270" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B207)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="276" priority="271" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="248" priority="271" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B207)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="275" priority="272" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="247" priority="272" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B207)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B202">
-    <cfRule type="containsText" dxfId="274" priority="250" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="246" priority="250" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B202)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="273" priority="251" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="245" priority="251" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B202)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="272" priority="252" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="244" priority="252" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B202)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B97">
-    <cfRule type="containsText" dxfId="271" priority="245" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="243" priority="245" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B97)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B208">
-    <cfRule type="containsText" dxfId="266" priority="266" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="242" priority="266" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B208)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="265" priority="267" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="241" priority="267" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B208)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="264" priority="268" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="240" priority="268" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B208)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B208">
-    <cfRule type="containsText" dxfId="263" priority="265" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="239" priority="265" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B208)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209">
-    <cfRule type="containsText" dxfId="262" priority="262" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="238" priority="262" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B209)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="261" priority="263" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="237" priority="263" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B209)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="260" priority="264" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="236" priority="264" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B209)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209">
-    <cfRule type="containsText" dxfId="259" priority="261" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="235" priority="261" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B209)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210">
-    <cfRule type="containsText" dxfId="258" priority="258" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="234" priority="258" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B210)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="257" priority="259" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="233" priority="259" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B210)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="256" priority="260" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="232" priority="260" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B210)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210">
-    <cfRule type="containsText" dxfId="255" priority="257" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="231" priority="257" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B210)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B211">
-    <cfRule type="containsText" dxfId="254" priority="254" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="230" priority="254" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B211)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="253" priority="255" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="229" priority="255" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B211)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="252" priority="256" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="228" priority="256" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B211)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B211">
-    <cfRule type="containsText" dxfId="251" priority="253" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="227" priority="253" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B211)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B97">
-    <cfRule type="containsText" dxfId="250" priority="246" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="226" priority="246" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B97)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="249" priority="247" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="225" priority="247" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B97)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="248" priority="248" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="224" priority="248" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B97)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="containsText" dxfId="243" priority="242" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="223" priority="242" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B125)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="242" priority="243" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="222" priority="243" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B125)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="241" priority="244" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="221" priority="244" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B125">
-    <cfRule type="containsText" dxfId="240" priority="241" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="220" priority="241" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B125)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="containsText" dxfId="239" priority="238" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="219" priority="238" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B126)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="239" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="218" priority="239" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B126)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="237" priority="240" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="217" priority="240" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B126">
-    <cfRule type="containsText" dxfId="236" priority="237" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="216" priority="237" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B126)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127">
-    <cfRule type="containsText" dxfId="235" priority="234" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="215" priority="234" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B127)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="235" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="214" priority="235" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B127)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="233" priority="236" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="213" priority="236" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B127)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B127">
-    <cfRule type="containsText" dxfId="232" priority="233" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="212" priority="233" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B127)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128">
-    <cfRule type="containsText" dxfId="231" priority="230" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="211" priority="230" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B128)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="230" priority="231" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="210" priority="231" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B128)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="232" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="209" priority="232" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B128)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B128">
-    <cfRule type="containsText" dxfId="228" priority="229" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="208" priority="229" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B128)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129">
-    <cfRule type="containsText" dxfId="227" priority="226" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="207" priority="226" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B129)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="227" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="206" priority="227" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B129)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="225" priority="228" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="205" priority="228" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B129">
-    <cfRule type="containsText" dxfId="224" priority="225" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="204" priority="225" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B129)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="containsText" dxfId="223" priority="222" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="203" priority="222" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B130)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="223" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="202" priority="223" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B130)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="221" priority="224" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="201" priority="224" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B130)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B130">
-    <cfRule type="containsText" dxfId="220" priority="221" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="200" priority="221" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B130)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="containsText" dxfId="219" priority="218" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="199" priority="218" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B131)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="218" priority="219" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="198" priority="219" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B131)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="217" priority="220" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="197" priority="220" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B131">
-    <cfRule type="containsText" dxfId="216" priority="217" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="196" priority="217" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B131)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132">
-    <cfRule type="containsText" dxfId="215" priority="214" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="195" priority="214" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B132)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="215" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="194" priority="215" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B132)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="216" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="193" priority="216" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B132)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B132">
-    <cfRule type="containsText" dxfId="212" priority="213" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="192" priority="213" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B132)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B133">
-    <cfRule type="containsText" dxfId="211" priority="210" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="191" priority="210" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B133)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="211" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="190" priority="211" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B133)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="209" priority="212" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="189" priority="212" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B133)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B133">
-    <cfRule type="containsText" dxfId="208" priority="209" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="188" priority="209" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B133)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134">
-    <cfRule type="containsText" dxfId="207" priority="206" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="187" priority="206" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B134)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="207" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="186" priority="207" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B134)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="208" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="185" priority="208" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B134)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B134">
-    <cfRule type="containsText" dxfId="204" priority="205" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="184" priority="205" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B134)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="containsText" dxfId="203" priority="202" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="183" priority="202" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B135)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="203" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="182" priority="203" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B135)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="204" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="181" priority="204" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B135)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B135">
-    <cfRule type="containsText" dxfId="200" priority="201" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="180" priority="201" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B135)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="containsText" dxfId="199" priority="198" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="179" priority="198" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B136)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="199" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="178" priority="199" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B136)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="200" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="177" priority="200" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B136)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B136">
-    <cfRule type="containsText" dxfId="196" priority="197" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="176" priority="197" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B136)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="containsText" dxfId="195" priority="194" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="175" priority="194" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B137)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="195" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="174" priority="195" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B137)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="196" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="173" priority="196" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B137)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B137">
-    <cfRule type="containsText" dxfId="192" priority="193" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="172" priority="193" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B137)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="containsText" dxfId="191" priority="190" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="171" priority="190" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B138)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="191" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="170" priority="191" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B138)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="192" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="169" priority="192" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B138)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B138">
-    <cfRule type="containsText" dxfId="188" priority="189" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="168" priority="189" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B138)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139">
-    <cfRule type="containsText" dxfId="187" priority="186" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="167" priority="186" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B139)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="187" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="166" priority="187" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B139)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="185" priority="188" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="165" priority="188" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B139)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B139">
-    <cfRule type="containsText" dxfId="184" priority="185" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="164" priority="185" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B139)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140">
-    <cfRule type="containsText" dxfId="183" priority="182" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="163" priority="182" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B140)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="183" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="162" priority="183" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B140)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="184" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="161" priority="184" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B140">
-    <cfRule type="containsText" dxfId="180" priority="181" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="160" priority="181" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B141">
-    <cfRule type="containsText" dxfId="179" priority="178" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="159" priority="178" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B141)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="179" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="158" priority="179" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B141)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="180" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="157" priority="180" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B141)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B141">
-    <cfRule type="containsText" dxfId="176" priority="177" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="156" priority="177" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B141)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142">
-    <cfRule type="containsText" dxfId="175" priority="174" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="155" priority="174" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B142)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="175" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="154" priority="175" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B142)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="176" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="153" priority="176" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142">
-    <cfRule type="containsText" dxfId="172" priority="173" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="152" priority="173" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B213">
-    <cfRule type="containsText" dxfId="171" priority="166" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="151" priority="166" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="167" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="150" priority="167" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="168" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="149" priority="168" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B213)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B213">
-    <cfRule type="containsText" dxfId="168" priority="165" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="148" priority="165" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B213)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B46">
-    <cfRule type="containsText" dxfId="163" priority="158" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="147" priority="158" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="159" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="146" priority="159" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="160" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="145" priority="160" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B46">
-    <cfRule type="containsText" dxfId="160" priority="157" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="144" priority="157" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75">
-    <cfRule type="containsText" dxfId="155" priority="146" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="143" priority="146" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="147" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="142" priority="147" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="148" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="141" priority="148" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75">
-    <cfRule type="containsText" dxfId="152" priority="145" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="140" priority="145" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="containsText" dxfId="151" priority="150" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="139" priority="150" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="151" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="138" priority="151" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="152" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="137" priority="152" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="containsText" dxfId="148" priority="149" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="136" priority="149" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:B53">
-    <cfRule type="containsText" dxfId="147" priority="154" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="135" priority="154" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="155" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="134" priority="155" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="156" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="133" priority="156" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:B53">
-    <cfRule type="containsText" dxfId="144" priority="153" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="132" priority="153" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="containsText" dxfId="143" priority="138" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="131" priority="138" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="139" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="130" priority="139" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="140" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="129" priority="140" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="containsText" dxfId="140" priority="137" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="128" priority="137" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B177:B178">
-    <cfRule type="containsText" dxfId="139" priority="110" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="127" priority="110" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B177)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="111" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="126" priority="111" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B177)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="112" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="125" priority="112" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B177)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B177:B178">
-    <cfRule type="containsText" dxfId="136" priority="109" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="124" priority="109" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B177)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="containsText" dxfId="135" priority="134" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="123" priority="134" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="135" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="122" priority="135" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="136" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="121" priority="136" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="containsText" dxfId="132" priority="133" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="120" priority="133" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B49">
-    <cfRule type="containsText" dxfId="131" priority="130" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="119" priority="130" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="131" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="118" priority="131" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="132" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="117" priority="132" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B49">
-    <cfRule type="containsText" dxfId="128" priority="129" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="116" priority="129" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="containsText" dxfId="127" priority="126" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="115" priority="126" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="127" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="114" priority="127" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="128" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="113" priority="128" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="containsText" dxfId="124" priority="125" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="112" priority="125" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="containsText" dxfId="123" priority="122" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="111" priority="122" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="123" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="110" priority="123" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="124" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="109" priority="124" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="containsText" dxfId="120" priority="121" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="108" priority="121" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="containsText" dxfId="119" priority="118" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="107" priority="118" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="119" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="106" priority="119" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="120" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="105" priority="120" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="containsText" dxfId="116" priority="117" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="104" priority="117" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B178">
-    <cfRule type="containsText" dxfId="107" priority="106" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="103" priority="106" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B178)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="107" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="102" priority="107" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B178)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="108" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="101" priority="108" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B178)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B178">
-    <cfRule type="containsText" dxfId="104" priority="105" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="100" priority="105" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B178)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="containsText" dxfId="103" priority="98" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="99" priority="98" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B123)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="99" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="98" priority="99" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B123)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="100" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="97" priority="100" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B123)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B123">
-    <cfRule type="containsText" dxfId="100" priority="97" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="96" priority="97" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B123)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B186:B188">
-    <cfRule type="containsText" dxfId="99" priority="74" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="95" priority="74" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B186)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="75" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="94" priority="75" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B186)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="76" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="93" priority="76" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B186)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B186:B188">
-    <cfRule type="containsText" dxfId="96" priority="73" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="92" priority="73" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B186)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118">
-    <cfRule type="containsText" dxfId="95" priority="94" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="91" priority="94" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B118)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="95" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="90" priority="95" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B118)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="96" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="89" priority="96" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B118">
-    <cfRule type="containsText" dxfId="92" priority="93" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="88" priority="93" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B118)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B179:B189">
-    <cfRule type="containsText" dxfId="91" priority="90" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="87" priority="90" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="91" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="86" priority="91" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="92" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="85" priority="92" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B179)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B179:B189">
-    <cfRule type="containsText" dxfId="88" priority="89" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="84" priority="89" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B179)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B181">
-    <cfRule type="containsText" dxfId="87" priority="86" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="83" priority="86" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="87" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="82" priority="87" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B181)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="88" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="81" priority="88" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B181">
-    <cfRule type="containsText" dxfId="84" priority="85" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="80" priority="85" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B181)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B179">
-    <cfRule type="containsText" dxfId="83" priority="82" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="79" priority="82" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="83" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="78" priority="83" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B179)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="84" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="77" priority="84" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B179)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B179">
-    <cfRule type="containsText" dxfId="80" priority="81" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="76" priority="81" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B179)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B185">
-    <cfRule type="containsText" dxfId="79" priority="78" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="75" priority="78" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B185)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="79" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="74" priority="79" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B185)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="80" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="73" priority="80" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B185)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B185">
-    <cfRule type="containsText" dxfId="76" priority="77" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="72" priority="77" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B185)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B188">
-    <cfRule type="containsText" dxfId="75" priority="70" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="71" priority="70" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B184)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="71" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="70" priority="71" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B184)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="72" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="69" priority="72" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B184)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B184:B188">
-    <cfRule type="containsText" dxfId="72" priority="69" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="68" priority="69" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B184)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16525,34 +16301,34 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B195">
-    <cfRule type="containsText" dxfId="7" priority="6" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="11" priority="6" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B195)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B195)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B195)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B195">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B195)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143">
-    <cfRule type="containsText" dxfId="3" priority="2" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="7" priority="2" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B143)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B143)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B143)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B143">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B143)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Technical documentation/AL table analysis.xlsx
+++ b/Technical documentation/AL table analysis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martema\Documents\GitHub\AtariLegend\Technical documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\martema\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1143,7 +1143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="569">
   <si>
     <t>Table name</t>
   </si>
@@ -2743,9 +2743,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>The table game_gallery is similar I think, maybe these tables can be merged to 1 table? These should be linked to the game_release instead of the game table, I think</t>
-  </si>
-  <si>
     <t>This table can be removed. Data is not needed anymore.</t>
   </si>
   <si>
@@ -2804,6 +2801,58 @@
   </si>
   <si>
     <t>Should there be screenshot_release to replace this or should this be kept as is and we create a new screenshot_release table with complementary images for the particular release?</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Created using DB script nr 111</t>
+  </si>
+  <si>
+    <t>Script</t>
+  </si>
+  <si>
+    <t>Created using DB script nr 132</t>
+  </si>
+  <si>
+    <t>Created using DB script nr 129</t>
+  </si>
+  <si>
+    <t>Created using DB script nr 134</t>
+  </si>
+  <si>
+    <t>Created using DB script nr 113</t>
+  </si>
+  <si>
+    <t>Deleted using script nr 138</t>
+  </si>
+  <si>
+    <t>game_ste_enhan</t>
+  </si>
+  <si>
+    <t>Deleted using script nr 139</t>
+  </si>
+  <si>
+    <t>Deleted using DB script nr 140</t>
+  </si>
+  <si>
+    <t>Deleted using DB script nr 141</t>
+  </si>
+  <si>
+    <t>Deleted using DB script nr 142</t>
+  </si>
+  <si>
+    <t>Deleted using DB script nr 143</t>
+  </si>
+  <si>
+    <t>Deleted using DB script nr 144</t>
+  </si>
+  <si>
+    <t>Deleted using DB script nr 145</t>
+  </si>
+  <si>
+    <t>The table game_gallery is similar I think, maybe these tables can be merged to 1 table? These should be linked to the game_release instead of the game table, I think
+19/06/2018 Game_gallery needs to go to the media tables!</t>
   </si>
 </sst>
 </file>
@@ -2909,7 +2958,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -3142,12 +3191,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3381,9 +3441,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3394,16 +3451,20 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="552">
+  <dxfs count="380">
     <dxf>
       <fill>
         <patternFill>
@@ -3967,6 +4028,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -4024,1231 +4106,6 @@
       <fill>
         <patternFill>
           <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7293,19 +6150,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>304799</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1078491</xdr:colOff>
+      <xdr:colOff>1436803</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7324,8 +6181,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="13699116" cy="9753600"/>
+          <a:off x="304799" y="0"/>
+          <a:ext cx="13752629" cy="9791700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7848,7 +6705,7 @@
   <dimension ref="A1:F304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D216" sqref="D216"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8030,7 +6887,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
         <v>20</v>
       </c>
@@ -8041,7 +6898,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>532</v>
+        <v>568</v>
       </c>
       <c r="E12" s="42" t="s">
         <v>262</v>
@@ -8163,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E20" s="43" t="s">
         <v>8</v>
@@ -8273,7 +7130,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E27" s="39" t="s">
         <v>8</v>
@@ -8443,7 +7300,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="39" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E37" s="39" t="s">
         <v>8</v>
@@ -8545,7 +7402,7 @@
         <v>3</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E43" s="35" t="s">
         <v>8</v>
@@ -8562,7 +7419,7 @@
         <v>3</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E44" s="35" t="s">
         <v>8</v>
@@ -8947,7 +7804,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="39" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E70" s="39" t="s">
         <v>8</v>
@@ -8979,7 +7836,7 @@
         <v>3</v>
       </c>
       <c r="D72" s="39" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E72" s="35" t="s">
         <v>8</v>
@@ -8996,7 +7853,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="47" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E73" s="47" t="s">
         <v>8</v>
@@ -9090,7 +7947,7 @@
         <v>3</v>
       </c>
       <c r="D81" s="39" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E81" s="39" t="s">
         <v>8</v>
@@ -9137,7 +7994,7 @@
         <v>3</v>
       </c>
       <c r="D84" s="72" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E84" s="53" t="s">
         <v>8</v>
@@ -9153,7 +8010,7 @@
       <c r="C85" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D85" s="89" t="s">
+      <c r="D85" s="88" t="s">
         <v>329</v>
       </c>
       <c r="E85" s="53" t="s">
@@ -9171,7 +8028,7 @@
         <v>3</v>
       </c>
       <c r="D86" s="39" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E86" s="53" t="s">
         <v>8</v>
@@ -9188,7 +8045,7 @@
         <v>3</v>
       </c>
       <c r="D87" s="39" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E87" s="53" t="s">
         <v>8</v>
@@ -9204,7 +8061,7 @@
       <c r="C88" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D88" s="89" t="s">
+      <c r="D88" s="88" t="s">
         <v>338</v>
       </c>
       <c r="E88" s="53" t="s">
@@ -9222,7 +8079,7 @@
         <v>3</v>
       </c>
       <c r="D89" s="39" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E89" s="53" t="s">
         <v>8</v>
@@ -9239,7 +8096,7 @@
         <v>3</v>
       </c>
       <c r="D90" s="39" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E90" s="53" t="s">
         <v>8</v>
@@ -9256,7 +8113,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="39" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E91" s="53" t="s">
         <v>8</v>
@@ -9273,7 +8130,7 @@
         <v>3</v>
       </c>
       <c r="D92" s="39" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E92" s="53" t="s">
         <v>8</v>
@@ -9290,7 +8147,7 @@
         <v>3</v>
       </c>
       <c r="D93" s="72" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E93" s="53" t="s">
         <v>8</v>
@@ -9307,7 +8164,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="47" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E94" s="47" t="s">
         <v>8</v>
@@ -9506,7 +8363,7 @@
         <v>205</v>
       </c>
       <c r="D111" s="34" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E111" s="42" t="s">
         <v>261</v>
@@ -9537,7 +8394,7 @@
         <v>205</v>
       </c>
       <c r="D113" s="35" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E113" s="26" t="s">
         <v>261</v>
@@ -9836,13 +8693,13 @@
         <v>400</v>
       </c>
       <c r="B135" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C135" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D135" s="90" t="s">
-        <v>539</v>
+      <c r="D135" s="89" t="s">
+        <v>538</v>
       </c>
       <c r="E135" s="26" t="s">
         <v>431</v>
@@ -9919,7 +8776,7 @@
         <v>3</v>
       </c>
       <c r="D140" s="26" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E140" s="26" t="s">
         <v>8</v>
@@ -9997,7 +8854,7 @@
         <v>3</v>
       </c>
       <c r="D147" s="42" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E147" s="42" t="s">
         <v>8</v>
@@ -10014,7 +8871,7 @@
         <v>3</v>
       </c>
       <c r="D148" s="42" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E148" s="42" t="s">
         <v>8</v>
@@ -10031,7 +8888,7 @@
         <v>3</v>
       </c>
       <c r="D149" s="42" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E149" s="42" t="s">
         <v>8</v>
@@ -10048,7 +8905,7 @@
         <v>3</v>
       </c>
       <c r="D150" s="42" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E150" s="42" t="s">
         <v>8</v>
@@ -10065,7 +8922,7 @@
         <v>3</v>
       </c>
       <c r="D151" s="42" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E151" s="42" t="s">
         <v>8</v>
@@ -10082,7 +8939,7 @@
         <v>3</v>
       </c>
       <c r="D152" s="42" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E152" s="42" t="s">
         <v>8</v>
@@ -10099,7 +8956,7 @@
         <v>3</v>
       </c>
       <c r="D153" s="42" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E153" s="42" t="s">
         <v>8</v>
@@ -10116,7 +8973,7 @@
         <v>3</v>
       </c>
       <c r="D154" s="42" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E154" s="42" t="s">
         <v>8</v>
@@ -10133,7 +8990,7 @@
         <v>3</v>
       </c>
       <c r="D155" s="42" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E155" s="42" t="s">
         <v>8</v>
@@ -10150,7 +9007,7 @@
         <v>3</v>
       </c>
       <c r="D156" s="42" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E156" s="42" t="s">
         <v>8</v>
@@ -10167,7 +9024,7 @@
         <v>3</v>
       </c>
       <c r="D157" s="42" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E157" s="42" t="s">
         <v>8</v>
@@ -10184,7 +9041,7 @@
         <v>3</v>
       </c>
       <c r="D158" s="42" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E158" s="42" t="s">
         <v>8</v>
@@ -10201,7 +9058,7 @@
         <v>3</v>
       </c>
       <c r="D159" s="42" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E159" s="42" t="s">
         <v>8</v>
@@ -10218,7 +9075,7 @@
         <v>3</v>
       </c>
       <c r="D160" s="42" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E160" s="42" t="s">
         <v>8</v>
@@ -10235,7 +9092,7 @@
         <v>3</v>
       </c>
       <c r="D161" s="42" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E161" s="42" t="s">
         <v>8</v>
@@ -10252,7 +9109,7 @@
         <v>3</v>
       </c>
       <c r="D162" s="42" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E162" s="42" t="s">
         <v>8</v>
@@ -10269,7 +9126,7 @@
         <v>3</v>
       </c>
       <c r="D163" s="42" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E163" s="42" t="s">
         <v>8</v>
@@ -10286,7 +9143,7 @@
         <v>3</v>
       </c>
       <c r="D164" s="42" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E164" s="42" t="s">
         <v>8</v>
@@ -10302,8 +9159,8 @@
       <c r="C165" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="D165" s="91" t="s">
-        <v>541</v>
+      <c r="D165" s="90" t="s">
+        <v>540</v>
       </c>
       <c r="E165" s="48" t="s">
         <v>8</v>
@@ -10928,8 +9785,8 @@
       <c r="C216" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="D216" s="93" t="s">
-        <v>552</v>
+      <c r="D216" s="91" t="s">
+        <v>551</v>
       </c>
       <c r="E216" s="41" t="s">
         <v>48</v>
@@ -11278,7 +10135,7 @@
         <v>205</v>
       </c>
       <c r="D244" s="41" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E244" s="41" t="s">
         <v>48</v>
@@ -11295,7 +10152,7 @@
         <v>205</v>
       </c>
       <c r="D245" s="55" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E245" s="55" t="s">
         <v>48</v>
@@ -11494,7 +10351,7 @@
         <v>205</v>
       </c>
       <c r="D262" s="41" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E262" s="41" t="s">
         <v>8</v>
@@ -11833,13 +10690,13 @@
         <v>229</v>
       </c>
       <c r="B289" s="38" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C289" s="42" t="s">
         <v>3</v>
       </c>
       <c r="D289" s="39" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E289" s="43" t="s">
         <v>8</v>
@@ -11988,7 +10845,7 @@
         <v>3</v>
       </c>
       <c r="D299" s="39" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E299" s="38" t="s">
         <v>8</v>
@@ -12005,7 +10862,7 @@
         <v>3</v>
       </c>
       <c r="D300" s="39" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E300" s="38" t="s">
         <v>8</v>
@@ -12022,7 +10879,7 @@
         <v>3</v>
       </c>
       <c r="D301" s="39" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E301" s="38" t="s">
         <v>8</v>
@@ -12039,7 +10896,7 @@
         <v>3</v>
       </c>
       <c r="D302" s="39" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E302" s="38" t="s">
         <v>8</v>
@@ -12075,1106 +10932,1106 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C79:C82 C278:C284 C286:C288 C95:C96 C73:C75 C51:C70 C4:C11 C84:C91 C13:C37 C40:C42 C178 C111:C112 C246:C247 C115:C116 C93">
-    <cfRule type="containsText" dxfId="551" priority="338" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="379" priority="338" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="550" priority="339" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="378" priority="339" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="549" priority="340" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="377" priority="340" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79:C82 C278:C284 C286:C288 C95:C96 C73:C75 C51:C70 C4:C11 C84:C91 C13:C37 C40:C42 C178 C111:C112 C246:C247 C115:C116 C93">
-    <cfRule type="containsText" dxfId="548" priority="337" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="376" priority="337" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100">
-    <cfRule type="containsText" dxfId="547" priority="334" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="375" priority="334" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C100)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="546" priority="335" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="374" priority="335" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C100)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="545" priority="336" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="373" priority="336" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100">
-    <cfRule type="containsText" dxfId="544" priority="333" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="372" priority="333" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102">
-    <cfRule type="containsText" dxfId="543" priority="325" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="371" priority="325" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101">
-    <cfRule type="containsText" dxfId="542" priority="330" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="370" priority="330" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C101)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="541" priority="331" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="369" priority="331" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C101)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="540" priority="332" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="368" priority="332" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101">
-    <cfRule type="containsText" dxfId="539" priority="329" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="367" priority="329" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102">
-    <cfRule type="containsText" dxfId="538" priority="326" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="366" priority="326" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="537" priority="327" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="365" priority="327" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="536" priority="328" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="364" priority="328" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C104:C106">
-    <cfRule type="containsText" dxfId="535" priority="317" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="363" priority="317" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C104)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C103">
-    <cfRule type="containsText" dxfId="534" priority="321" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="362" priority="321" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C103)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C103">
-    <cfRule type="containsText" dxfId="533" priority="322" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="361" priority="322" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C103)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="532" priority="323" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="360" priority="323" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C103)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="531" priority="324" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="359" priority="324" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C103)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C285">
-    <cfRule type="containsText" dxfId="530" priority="289" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="358" priority="289" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C285)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C104:C106">
-    <cfRule type="containsText" dxfId="529" priority="318" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="357" priority="318" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C104)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="528" priority="319" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="356" priority="319" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C104)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="527" priority="320" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="355" priority="320" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C104)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C289">
-    <cfRule type="containsText" dxfId="526" priority="314" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="354" priority="314" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C289)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="525" priority="315" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="353" priority="315" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C289)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="524" priority="316" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="352" priority="316" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C289)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C289">
-    <cfRule type="containsText" dxfId="523" priority="313" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="351" priority="313" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C289)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C290">
-    <cfRule type="containsText" dxfId="522" priority="310" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="350" priority="310" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C290)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="521" priority="311" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="349" priority="311" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C290)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="520" priority="312" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="348" priority="312" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C290)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C290">
-    <cfRule type="containsText" dxfId="519" priority="309" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="347" priority="309" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C290)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C291">
-    <cfRule type="containsText" dxfId="518" priority="306" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="346" priority="306" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C291)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="517" priority="307" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="345" priority="307" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C291)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="516" priority="308" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="344" priority="308" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C291)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C291">
-    <cfRule type="containsText" dxfId="515" priority="305" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="343" priority="305" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C291)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C292">
-    <cfRule type="containsText" dxfId="514" priority="302" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="342" priority="302" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C292)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="513" priority="303" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="341" priority="303" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C292)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="512" priority="304" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="340" priority="304" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C292)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C292">
-    <cfRule type="containsText" dxfId="511" priority="301" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="339" priority="301" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C292)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C293">
-    <cfRule type="containsText" dxfId="510" priority="298" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="338" priority="298" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C293)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="509" priority="299" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="337" priority="299" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C293)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="508" priority="300" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="336" priority="300" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C293)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C293">
-    <cfRule type="containsText" dxfId="507" priority="297" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="335" priority="297" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C293)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C294">
-    <cfRule type="containsText" dxfId="506" priority="294" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="334" priority="294" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C294)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="505" priority="295" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="333" priority="295" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C294)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="504" priority="296" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="332" priority="296" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C294)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C294">
-    <cfRule type="containsText" dxfId="503" priority="293" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="331" priority="293" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C294)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C285">
-    <cfRule type="containsText" dxfId="502" priority="290" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="330" priority="290" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C285)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="501" priority="291" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="329" priority="291" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C285)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="500" priority="292" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="328" priority="292" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C285)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C110">
-    <cfRule type="containsText" dxfId="499" priority="286" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="327" priority="286" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C110)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="498" priority="287" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="326" priority="287" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C110)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="497" priority="288" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="325" priority="288" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C110">
-    <cfRule type="containsText" dxfId="496" priority="285" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="324" priority="285" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C147">
-    <cfRule type="containsText" dxfId="495" priority="278" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="323" priority="278" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C147)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="494" priority="279" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="322" priority="279" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C147)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="493" priority="280" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="321" priority="280" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C147)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C147">
-    <cfRule type="containsText" dxfId="492" priority="277" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="320" priority="277" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C147)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148">
-    <cfRule type="containsText" dxfId="491" priority="274" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="319" priority="274" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C148)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="490" priority="275" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="318" priority="275" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C148)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="489" priority="276" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="317" priority="276" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C148)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148">
-    <cfRule type="containsText" dxfId="488" priority="273" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="316" priority="273" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C148)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C149">
-    <cfRule type="containsText" dxfId="487" priority="270" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="315" priority="270" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C149)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="486" priority="271" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="314" priority="271" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C149)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="485" priority="272" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="313" priority="272" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C149)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C149">
-    <cfRule type="containsText" dxfId="484" priority="269" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="312" priority="269" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C149)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C150">
-    <cfRule type="containsText" dxfId="483" priority="266" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="311" priority="266" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C150)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="482" priority="267" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="310" priority="267" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C150)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="481" priority="268" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="309" priority="268" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C150)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C150">
-    <cfRule type="containsText" dxfId="480" priority="265" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="308" priority="265" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C150)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C151">
-    <cfRule type="containsText" dxfId="479" priority="262" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="307" priority="262" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C151)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="478" priority="263" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="306" priority="263" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C151)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="477" priority="264" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="305" priority="264" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C151)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C151">
-    <cfRule type="containsText" dxfId="476" priority="261" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="304" priority="261" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C151)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152">
-    <cfRule type="containsText" dxfId="475" priority="258" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="303" priority="258" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="474" priority="259" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="302" priority="259" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="473" priority="260" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="301" priority="260" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152">
-    <cfRule type="containsText" dxfId="472" priority="257" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="300" priority="257" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C153">
-    <cfRule type="containsText" dxfId="471" priority="254" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="299" priority="254" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C153)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="470" priority="255" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="298" priority="255" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C153)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="469" priority="256" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="297" priority="256" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C153)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C153">
-    <cfRule type="containsText" dxfId="468" priority="253" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="296" priority="253" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C153)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C154">
-    <cfRule type="containsText" dxfId="467" priority="250" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="295" priority="250" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C154)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="466" priority="251" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="294" priority="251" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C154)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="465" priority="252" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="293" priority="252" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C154)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C154">
-    <cfRule type="containsText" dxfId="464" priority="249" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="292" priority="249" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C154)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C155">
-    <cfRule type="containsText" dxfId="463" priority="246" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="291" priority="246" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="462" priority="247" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="290" priority="247" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="461" priority="248" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="289" priority="248" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C155)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C155">
-    <cfRule type="containsText" dxfId="460" priority="245" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="288" priority="245" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C155)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C156">
-    <cfRule type="containsText" dxfId="459" priority="242" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="287" priority="242" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C156)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="458" priority="243" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="286" priority="243" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C156)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="457" priority="244" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="285" priority="244" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C156)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C156">
-    <cfRule type="containsText" dxfId="456" priority="241" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="284" priority="241" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C156)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C157">
-    <cfRule type="containsText" dxfId="455" priority="238" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="283" priority="238" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C157)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="454" priority="239" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="282" priority="239" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C157)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="453" priority="240" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="281" priority="240" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C157">
-    <cfRule type="containsText" dxfId="452" priority="237" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="280" priority="237" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C158">
-    <cfRule type="containsText" dxfId="451" priority="234" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="279" priority="234" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C158)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="450" priority="235" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="278" priority="235" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C158)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="449" priority="236" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="277" priority="236" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C158)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C158">
-    <cfRule type="containsText" dxfId="448" priority="233" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="276" priority="233" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C158)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C159">
-    <cfRule type="containsText" dxfId="447" priority="230" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="275" priority="230" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C159)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="446" priority="231" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="274" priority="231" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C159)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="445" priority="232" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="273" priority="232" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C159)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C159">
-    <cfRule type="containsText" dxfId="444" priority="229" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="272" priority="229" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C159)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C160">
-    <cfRule type="containsText" dxfId="443" priority="226" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="271" priority="226" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C160)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="442" priority="227" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="270" priority="227" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C160)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="441" priority="228" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="269" priority="228" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C160)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C160">
-    <cfRule type="containsText" dxfId="440" priority="225" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="268" priority="225" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C160)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C161">
-    <cfRule type="containsText" dxfId="439" priority="222" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="267" priority="222" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C161)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="438" priority="223" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="266" priority="223" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C161)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="437" priority="224" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="265" priority="224" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C161)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C161">
-    <cfRule type="containsText" dxfId="436" priority="221" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="264" priority="221" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C161)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C162">
-    <cfRule type="containsText" dxfId="435" priority="218" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="263" priority="218" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C162)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="434" priority="219" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="262" priority="219" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C162)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="433" priority="220" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="261" priority="220" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C162)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C162">
-    <cfRule type="containsText" dxfId="432" priority="217" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="260" priority="217" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C162)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C163">
-    <cfRule type="containsText" dxfId="431" priority="214" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="259" priority="214" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C163)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="430" priority="215" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="258" priority="215" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C163)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="429" priority="216" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="257" priority="216" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C163)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C163">
-    <cfRule type="containsText" dxfId="428" priority="213" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="256" priority="213" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C163)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C164">
-    <cfRule type="containsText" dxfId="427" priority="210" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="255" priority="210" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="426" priority="211" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="254" priority="211" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="425" priority="212" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="253" priority="212" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C164">
-    <cfRule type="containsText" dxfId="424" priority="209" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="252" priority="209" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C165:C167">
-    <cfRule type="containsText" dxfId="423" priority="206" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="251" priority="206" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C165)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="422" priority="207" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="250" priority="207" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C165)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="421" priority="208" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="249" priority="208" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C165)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C165:C167">
-    <cfRule type="containsText" dxfId="420" priority="205" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="248" priority="205" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C165)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C296">
-    <cfRule type="containsText" dxfId="419" priority="198" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="247" priority="198" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C296)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="418" priority="199" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="246" priority="199" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C296)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="417" priority="200" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="245" priority="200" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C296)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C296">
-    <cfRule type="containsText" dxfId="416" priority="197" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="244" priority="197" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C296)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C83">
-    <cfRule type="containsText" dxfId="415" priority="186" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="243" priority="186" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="414" priority="187" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="242" priority="187" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="413" priority="188" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="241" priority="188" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C83">
-    <cfRule type="containsText" dxfId="412" priority="185" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="240" priority="185" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C44">
-    <cfRule type="containsText" dxfId="411" priority="174" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="239" priority="174" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="410" priority="175" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="238" priority="175" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="409" priority="176" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="237" priority="176" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C44">
-    <cfRule type="containsText" dxfId="408" priority="173" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="236" priority="173" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="containsText" dxfId="407" priority="162" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="235" priority="162" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="406" priority="163" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="234" priority="163" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="405" priority="164" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="233" priority="164" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="containsText" dxfId="404" priority="161" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="232" priority="161" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="containsText" dxfId="403" priority="166" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="231" priority="166" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="402" priority="167" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="230" priority="167" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="401" priority="168" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="229" priority="168" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="containsText" dxfId="400" priority="165" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="228" priority="165" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:C50">
-    <cfRule type="containsText" dxfId="399" priority="170" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="227" priority="170" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="398" priority="171" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="226" priority="171" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="397" priority="172" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="225" priority="172" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:C50">
-    <cfRule type="containsText" dxfId="396" priority="169" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="224" priority="169" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C94">
-    <cfRule type="containsText" dxfId="395" priority="154" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="223" priority="154" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="394" priority="155" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="222" priority="155" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="393" priority="156" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="221" priority="156" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C94">
-    <cfRule type="containsText" dxfId="392" priority="153" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="220" priority="153" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="containsText" dxfId="391" priority="150" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="219" priority="150" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="390" priority="151" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="218" priority="151" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="389" priority="152" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="217" priority="152" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="containsText" dxfId="388" priority="149" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="216" priority="149" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="387" priority="146" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="215" priority="146" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="386" priority="147" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="214" priority="147" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="385" priority="148" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="213" priority="148" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="384" priority="145" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="212" priority="145" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C47">
-    <cfRule type="containsText" dxfId="383" priority="142" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="211" priority="142" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="382" priority="143" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="210" priority="143" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="381" priority="144" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="209" priority="144" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C47">
-    <cfRule type="containsText" dxfId="380" priority="141" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="208" priority="141" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="containsText" dxfId="379" priority="138" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="207" priority="138" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="378" priority="139" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="206" priority="139" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="377" priority="140" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="205" priority="140" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="containsText" dxfId="376" priority="137" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="204" priority="137" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="containsText" dxfId="375" priority="134" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="203" priority="134" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="374" priority="135" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="202" priority="135" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="373" priority="136" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="201" priority="136" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="containsText" dxfId="372" priority="133" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="200" priority="133" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="containsText" dxfId="371" priority="130" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="199" priority="130" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="370" priority="131" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="198" priority="131" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="369" priority="132" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="197" priority="132" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="containsText" dxfId="368" priority="129" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="196" priority="129" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C227">
-    <cfRule type="containsText" dxfId="367" priority="126" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="195" priority="126" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C227)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="366" priority="127" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="194" priority="127" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C227)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="365" priority="128" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="193" priority="128" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C227)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C227">
-    <cfRule type="containsText" dxfId="364" priority="125" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="192" priority="125" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C227)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C228">
-    <cfRule type="containsText" dxfId="363" priority="122" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="191" priority="122" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C228)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="362" priority="123" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="190" priority="123" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C228)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="361" priority="124" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="189" priority="124" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C228)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C228">
-    <cfRule type="containsText" dxfId="360" priority="121" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="188" priority="121" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C228)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C229">
-    <cfRule type="containsText" dxfId="359" priority="118" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="187" priority="118" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C229)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="358" priority="119" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="186" priority="119" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C229)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="357" priority="120" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="185" priority="120" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C229)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C229">
-    <cfRule type="containsText" dxfId="356" priority="117" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="184" priority="117" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C229)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C142:C143">
-    <cfRule type="containsText" dxfId="355" priority="114" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="183" priority="114" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C142)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="354" priority="115" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="182" priority="115" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C142)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="353" priority="116" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="181" priority="116" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C142:C143">
-    <cfRule type="containsText" dxfId="352" priority="113" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="180" priority="113" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C140">
-    <cfRule type="containsText" dxfId="351" priority="102" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="179" priority="102" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C140)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="350" priority="103" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="178" priority="103" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C140)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="349" priority="104" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="177" priority="104" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C140">
-    <cfRule type="containsText" dxfId="348" priority="101" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="176" priority="101" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C135">
-    <cfRule type="containsText" dxfId="347" priority="98" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="175" priority="98" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C135)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="346" priority="99" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="174" priority="99" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C135)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="345" priority="100" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="173" priority="100" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C135)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C135">
-    <cfRule type="containsText" dxfId="344" priority="97" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="172" priority="97" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C135)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C236">
-    <cfRule type="containsText" dxfId="343" priority="90" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="171" priority="90" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C236)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="342" priority="91" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="170" priority="91" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C236)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="341" priority="92" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="169" priority="92" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C236)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C236">
-    <cfRule type="containsText" dxfId="340" priority="89" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="168" priority="89" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C236)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C238:C240">
-    <cfRule type="containsText" dxfId="339" priority="86" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="167" priority="86" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C238)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="338" priority="87" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="166" priority="87" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C238)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="337" priority="88" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="165" priority="88" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C238)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C238:C240">
-    <cfRule type="containsText" dxfId="336" priority="85" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="164" priority="85" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C238)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C235">
-    <cfRule type="containsText" dxfId="335" priority="82" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="163" priority="82" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C235)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="334" priority="83" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="162" priority="83" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C235)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="333" priority="84" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="161" priority="84" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C235)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C235">
-    <cfRule type="containsText" dxfId="332" priority="81" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="160" priority="81" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C235)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C252">
-    <cfRule type="containsText" dxfId="331" priority="78" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="159" priority="78" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C252)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="330" priority="79" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="158" priority="79" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C252)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="329" priority="80" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="157" priority="80" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C252)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C252">
-    <cfRule type="containsText" dxfId="328" priority="77" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="156" priority="77" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C252)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C253:C257">
-    <cfRule type="containsText" dxfId="327" priority="74" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="155" priority="74" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C253)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="326" priority="75" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="154" priority="75" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C253)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="325" priority="76" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="153" priority="76" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C253)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C253:C257">
-    <cfRule type="containsText" dxfId="324" priority="73" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="152" priority="73" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C253)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A251:E255">
-    <cfRule type="containsText" dxfId="323" priority="70" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="151" priority="70" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",A251)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="322" priority="71" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="150" priority="71" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",A251)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="321" priority="72" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="149" priority="72" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",A251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A251:E255">
-    <cfRule type="containsText" dxfId="320" priority="69" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="148" priority="69" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",A251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C245">
-    <cfRule type="containsText" dxfId="319" priority="66" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="147" priority="66" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C245)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="318" priority="67" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="146" priority="67" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C245)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="317" priority="68" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="145" priority="68" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C245)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C245">
-    <cfRule type="containsText" dxfId="316" priority="65" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="144" priority="65" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C245)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C244">
-    <cfRule type="containsText" dxfId="315" priority="58" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="143" priority="58" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C244)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="314" priority="59" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="142" priority="59" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C244)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="313" priority="60" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="141" priority="60" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C244)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C244">
-    <cfRule type="containsText" dxfId="312" priority="57" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="140" priority="57" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C244)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C202">
-    <cfRule type="containsText" dxfId="311" priority="54" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="139" priority="54" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C202)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="310" priority="55" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="138" priority="55" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C202)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="309" priority="56" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="137" priority="56" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C202)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C202">
-    <cfRule type="containsText" dxfId="308" priority="53" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="136" priority="53" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C202)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C298">
-    <cfRule type="containsText" dxfId="307" priority="42" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="135" priority="42" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C298)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="306" priority="43" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="134" priority="43" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C298)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="305" priority="44" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="133" priority="44" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C298)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C298">
-    <cfRule type="containsText" dxfId="304" priority="41" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="132" priority="41" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C298)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C302">
-    <cfRule type="containsText" dxfId="303" priority="34" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="131" priority="34" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C302)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="302" priority="35" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="130" priority="35" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C302)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="301" priority="36" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="129" priority="36" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C302)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C302">
-    <cfRule type="containsText" dxfId="300" priority="33" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="128" priority="33" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C302)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C299:C301">
-    <cfRule type="containsText" dxfId="299" priority="38" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="127" priority="38" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C299)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="298" priority="39" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="126" priority="39" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C299)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="297" priority="40" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="125" priority="40" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C299)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C299:C301">
-    <cfRule type="containsText" dxfId="296" priority="37" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="124" priority="37" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C299)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C264:C265">
-    <cfRule type="containsText" dxfId="295" priority="30" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="123" priority="30" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C264)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="294" priority="31" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="122" priority="31" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C264)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="293" priority="32" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="121" priority="32" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C264:C265">
-    <cfRule type="containsText" dxfId="292" priority="29" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="120" priority="29" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A261:E263">
-    <cfRule type="containsText" dxfId="291" priority="14" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="119" priority="14" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",A261)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="290" priority="15" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="118" priority="15" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",A261)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="289" priority="16" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="117" priority="16" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",A261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A261:E263">
-    <cfRule type="containsText" dxfId="288" priority="13" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="116" priority="13" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",A261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A269:E274">
-    <cfRule type="containsText" dxfId="287" priority="10" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="115" priority="10" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",A269)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="286" priority="11" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="114" priority="11" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",A269)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="285" priority="12" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="113" priority="12" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",A269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A269:E274">
-    <cfRule type="containsText" dxfId="284" priority="9" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="112" priority="9" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",A269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92">
-    <cfRule type="containsText" dxfId="283" priority="6" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="111" priority="6" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="282" priority="7" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="110" priority="7" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="281" priority="8" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="109" priority="8" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92">
-    <cfRule type="containsText" dxfId="280" priority="5" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="108" priority="5" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C237">
-    <cfRule type="containsText" dxfId="279" priority="2" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="107" priority="2" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C237)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="278" priority="3" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="106" priority="3" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C237)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="277" priority="4" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="105" priority="4" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C237)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C237">
-    <cfRule type="containsText" dxfId="276" priority="1" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="104" priority="1" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C237)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13193,35 +12050,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P221"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="52.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="56.28515625" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="94" t="s">
         <v>524</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="92"/>
-      <c r="L1" s="92"/>
-      <c r="M1" s="92"/>
-      <c r="N1" s="92"/>
-      <c r="O1" s="92"/>
-      <c r="P1" s="92"/>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+      <c r="L1" s="94"/>
+      <c r="M1" s="94"/>
+      <c r="N1" s="94"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="84" t="s">
@@ -13245,7 +12104,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="84" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B3" s="84"/>
       <c r="C3" s="84"/>
@@ -13291,6 +12150,9 @@
       <c r="C5" s="50" t="s">
         <v>289</v>
       </c>
+      <c r="D5" s="92" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
@@ -13299,7 +12161,8 @@
       <c r="B6" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="C6" s="88"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="93"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
@@ -13309,6 +12172,7 @@
         <v>205</v>
       </c>
       <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
@@ -13318,6 +12182,7 @@
         <v>205</v>
       </c>
       <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
@@ -13327,6 +12192,7 @@
         <v>205</v>
       </c>
       <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
@@ -13336,6 +12202,7 @@
         <v>205</v>
       </c>
       <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
@@ -13345,6 +12212,7 @@
         <v>205</v>
       </c>
       <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
@@ -13354,6 +12222,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
@@ -13363,6 +12232,7 @@
         <v>205</v>
       </c>
       <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
@@ -13372,6 +12242,7 @@
         <v>205</v>
       </c>
       <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
@@ -13381,6 +12252,7 @@
         <v>205</v>
       </c>
       <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
@@ -13390,8 +12262,9 @@
         <v>205</v>
       </c>
       <c r="C16" s="69"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="69"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
         <v>238</v>
       </c>
@@ -13399,8 +12272,9 @@
         <v>205</v>
       </c>
       <c r="C17" s="69"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" s="69"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
         <v>240</v>
       </c>
@@ -13408,8 +12282,9 @@
         <v>3</v>
       </c>
       <c r="C18" s="69"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" s="69"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
         <v>103</v>
       </c>
@@ -13417,8 +12292,9 @@
         <v>16</v>
       </c>
       <c r="C19" s="69"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" s="69"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
         <v>242</v>
       </c>
@@ -13426,8 +12302,9 @@
         <v>205</v>
       </c>
       <c r="C20" s="69"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" s="69"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="35" t="s">
         <v>256</v>
       </c>
@@ -13435,8 +12312,9 @@
         <v>205</v>
       </c>
       <c r="C21" s="69"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="69"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="35" t="s">
         <v>253</v>
       </c>
@@ -13444,8 +12322,9 @@
         <v>205</v>
       </c>
       <c r="C22" s="69"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="69"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="35" t="s">
         <v>255</v>
       </c>
@@ -13453,8 +12332,9 @@
         <v>205</v>
       </c>
       <c r="C23" s="69"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23" s="69"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="35" t="s">
         <v>266</v>
       </c>
@@ -13462,8 +12342,9 @@
         <v>205</v>
       </c>
       <c r="C24" s="69"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24" s="69"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
         <v>269</v>
       </c>
@@ -13471,8 +12352,9 @@
         <v>3</v>
       </c>
       <c r="C25" s="69"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25" s="69"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="35" t="s">
         <v>271</v>
       </c>
@@ -13480,8 +12362,9 @@
         <v>3</v>
       </c>
       <c r="C26" s="69"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26" s="69"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="35" t="s">
         <v>272</v>
       </c>
@@ -13489,8 +12372,9 @@
         <v>3</v>
       </c>
       <c r="C27" s="69"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27" s="69"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="35" t="s">
         <v>273</v>
       </c>
@@ -13498,8 +12382,9 @@
         <v>3</v>
       </c>
       <c r="C28" s="69"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28" s="69"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="35" t="s">
         <v>274</v>
       </c>
@@ -13507,8 +12392,9 @@
         <v>3</v>
       </c>
       <c r="C29" s="69"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29" s="69"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
         <v>275</v>
       </c>
@@ -13516,8 +12402,9 @@
         <v>3</v>
       </c>
       <c r="C30" s="69"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30" s="69"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="35" t="s">
         <v>276</v>
       </c>
@@ -13525,8 +12412,9 @@
         <v>3</v>
       </c>
       <c r="C31" s="69"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31" s="69"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
         <v>277</v>
       </c>
@@ -13534,8 +12422,9 @@
         <v>3</v>
       </c>
       <c r="C32" s="69"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32" s="69"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
         <v>278</v>
       </c>
@@ -13543,8 +12432,9 @@
         <v>3</v>
       </c>
       <c r="C33" s="69"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33" s="69"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="35" t="s">
         <v>279</v>
       </c>
@@ -13552,8 +12442,9 @@
         <v>3</v>
       </c>
       <c r="C34" s="69"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34" s="69"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="35" t="s">
         <v>280</v>
       </c>
@@ -13561,8 +12452,9 @@
         <v>3</v>
       </c>
       <c r="C35" s="69"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35" s="69"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="35" t="s">
         <v>281</v>
       </c>
@@ -13570,8 +12462,9 @@
         <v>3</v>
       </c>
       <c r="C36" s="69"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="69"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="35" t="s">
         <v>282</v>
       </c>
@@ -13579,8 +12472,9 @@
         <v>3</v>
       </c>
       <c r="C37" s="69"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="69"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="35" t="s">
         <v>283</v>
       </c>
@@ -13588,8 +12482,9 @@
         <v>3</v>
       </c>
       <c r="C38" s="69"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38" s="69"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="35" t="s">
         <v>284</v>
       </c>
@@ -13597,8 +12492,9 @@
         <v>3</v>
       </c>
       <c r="C39" s="69"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39" s="69"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="35" t="s">
         <v>285</v>
       </c>
@@ -13606,8 +12502,9 @@
         <v>3</v>
       </c>
       <c r="C40" s="69"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40" s="69"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="35" t="s">
         <v>286</v>
       </c>
@@ -13615,8 +12512,9 @@
         <v>3</v>
       </c>
       <c r="C41" s="69"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41" s="69"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="35" t="s">
         <v>287</v>
       </c>
@@ -13624,8 +12522,9 @@
         <v>3</v>
       </c>
       <c r="C42" s="69"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42" s="69"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="35" t="s">
         <v>288</v>
       </c>
@@ -13633,8 +12532,9 @@
         <v>3</v>
       </c>
       <c r="C43" s="69"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43" s="69"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="35" t="s">
         <v>107</v>
       </c>
@@ -13642,8 +12542,9 @@
         <v>16</v>
       </c>
       <c r="C44" s="69"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44" s="69"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="35" t="s">
         <v>300</v>
       </c>
@@ -13651,8 +12552,9 @@
         <v>205</v>
       </c>
       <c r="C45" s="69"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45" s="69"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="35" t="s">
         <v>303</v>
       </c>
@@ -13660,8 +12562,9 @@
         <v>205</v>
       </c>
       <c r="C46" s="69"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46" s="69"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="35" t="s">
         <v>290</v>
       </c>
@@ -13669,8 +12572,9 @@
         <v>205</v>
       </c>
       <c r="C47" s="69"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47" s="69"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="35" t="s">
         <v>296</v>
       </c>
@@ -13678,8 +12582,9 @@
         <v>205</v>
       </c>
       <c r="C48" s="69"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" s="69"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="35" t="s">
         <v>297</v>
       </c>
@@ -13687,8 +12592,9 @@
         <v>205</v>
       </c>
       <c r="C49" s="69"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49" s="69"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="35" t="s">
         <v>301</v>
       </c>
@@ -13696,8 +12602,9 @@
         <v>205</v>
       </c>
       <c r="C50" s="69"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50" s="69"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="35" t="s">
         <v>308</v>
       </c>
@@ -13705,8 +12612,9 @@
         <v>3</v>
       </c>
       <c r="C51" s="69"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51" s="69"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="35" t="s">
         <v>525</v>
       </c>
@@ -13714,8 +12622,9 @@
         <v>3</v>
       </c>
       <c r="C52" s="69"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52" s="69"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="35" t="s">
         <v>310</v>
       </c>
@@ -13723,8 +12632,9 @@
         <v>3</v>
       </c>
       <c r="C53" s="69"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53" s="69"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="35" t="s">
         <v>118</v>
       </c>
@@ -13732,8 +12642,9 @@
         <v>16</v>
       </c>
       <c r="C54" s="69"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54" s="69"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="26" t="s">
         <v>203</v>
       </c>
@@ -13741,8 +12652,9 @@
         <v>16</v>
       </c>
       <c r="C55" s="69"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55" s="69"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="35" t="s">
         <v>44</v>
       </c>
@@ -13750,8 +12662,9 @@
         <v>205</v>
       </c>
       <c r="C56" s="69"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56" s="69"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="35" t="s">
         <v>111</v>
       </c>
@@ -13759,8 +12672,9 @@
         <v>16</v>
       </c>
       <c r="C57" s="69"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57" s="69"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="35" t="s">
         <v>57</v>
       </c>
@@ -13768,8 +12682,9 @@
         <v>16</v>
       </c>
       <c r="C58" s="69"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58" s="69"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="35" t="s">
         <v>200</v>
       </c>
@@ -13777,8 +12692,9 @@
         <v>3</v>
       </c>
       <c r="C59" s="69"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59" s="69"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="41" t="s">
         <v>6</v>
       </c>
@@ -13786,8 +12702,9 @@
         <v>2</v>
       </c>
       <c r="C60" s="69"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60" s="69"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="35" t="s">
         <v>70</v>
       </c>
@@ -13795,8 +12712,9 @@
         <v>3</v>
       </c>
       <c r="C61" s="69"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61" s="69"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="35" t="s">
         <v>314</v>
       </c>
@@ -13804,8 +12722,9 @@
         <v>3</v>
       </c>
       <c r="C62" s="69"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62" s="69"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="41" t="s">
         <v>5</v>
       </c>
@@ -13813,8 +12732,9 @@
         <v>3</v>
       </c>
       <c r="C63" s="69"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63" s="69"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="35" t="s">
         <v>319</v>
       </c>
@@ -13822,8 +12742,9 @@
         <v>2</v>
       </c>
       <c r="C64" s="69"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64" s="69"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="35" t="s">
         <v>316</v>
       </c>
@@ -13831,8 +12752,9 @@
         <v>2</v>
       </c>
       <c r="C65" s="69"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65" s="69"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="41" t="s">
         <v>18</v>
       </c>
@@ -13840,8 +12762,9 @@
         <v>3</v>
       </c>
       <c r="C66" s="69"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66" s="69"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="41" t="s">
         <v>14</v>
       </c>
@@ -13849,8 +12772,9 @@
         <v>3</v>
       </c>
       <c r="C67" s="69"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67" s="69"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="35" t="s">
         <v>31</v>
       </c>
@@ -13858,8 +12782,9 @@
         <v>205</v>
       </c>
       <c r="C68" s="69"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68" s="69"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="35" t="s">
         <v>322</v>
       </c>
@@ -13867,8 +12792,9 @@
         <v>3</v>
       </c>
       <c r="C69" s="69"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69" s="69"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="35" t="s">
         <v>324</v>
       </c>
@@ -13876,8 +12802,9 @@
         <v>3</v>
       </c>
       <c r="C70" s="69"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70" s="69"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="35" t="s">
         <v>326</v>
       </c>
@@ -13885,8 +12812,9 @@
         <v>3</v>
       </c>
       <c r="C71" s="69"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71" s="69"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="35" t="s">
         <v>328</v>
       </c>
@@ -13894,8 +12822,9 @@
         <v>3</v>
       </c>
       <c r="C72" s="69"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72" s="69"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="35" t="s">
         <v>330</v>
       </c>
@@ -13903,8 +12832,9 @@
         <v>3</v>
       </c>
       <c r="C73" s="69"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73" s="69"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="35" t="s">
         <v>333</v>
       </c>
@@ -13912,8 +12842,9 @@
         <v>3</v>
       </c>
       <c r="C74" s="69"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74" s="69"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="35" t="s">
         <v>131</v>
       </c>
@@ -13921,8 +12852,9 @@
         <v>3</v>
       </c>
       <c r="C75" s="69"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75" s="69"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="35" t="s">
         <v>128</v>
       </c>
@@ -13930,8 +12862,9 @@
         <v>3</v>
       </c>
       <c r="C76" s="69"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76" s="69"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="35" t="s">
         <v>335</v>
       </c>
@@ -13939,8 +12872,9 @@
         <v>3</v>
       </c>
       <c r="C77" s="69"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77" s="69"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="35" t="s">
         <v>337</v>
       </c>
@@ -13948,8 +12882,9 @@
         <v>3</v>
       </c>
       <c r="C78" s="69"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78" s="69"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="35" t="s">
         <v>339</v>
       </c>
@@ -13957,8 +12892,9 @@
         <v>3</v>
       </c>
       <c r="C79" s="69"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79" s="69"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="35" t="s">
         <v>340</v>
       </c>
@@ -13966,8 +12902,9 @@
         <v>3</v>
       </c>
       <c r="C80" s="69"/>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80" s="69"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="35" t="s">
         <v>122</v>
       </c>
@@ -13975,8 +12912,9 @@
         <v>3</v>
       </c>
       <c r="C81" s="69"/>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81" s="69"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="35" t="s">
         <v>109</v>
       </c>
@@ -13984,8 +12922,9 @@
         <v>16</v>
       </c>
       <c r="C82" s="69"/>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82" s="69"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="35" t="s">
         <v>343</v>
       </c>
@@ -13993,8 +12932,9 @@
         <v>3</v>
       </c>
       <c r="C83" s="69"/>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83" s="69"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="41" t="s">
         <v>20</v>
       </c>
@@ -14002,53 +12942,79 @@
         <v>2</v>
       </c>
       <c r="C84" s="69"/>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84" s="69"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="35" t="s">
         <v>78</v>
       </c>
       <c r="B85" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C85" s="69"/>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C85" s="69" t="s">
+        <v>552</v>
+      </c>
+      <c r="D85" s="69" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="35" t="s">
         <v>79</v>
       </c>
       <c r="B86" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C86" s="69"/>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C86" s="69" t="s">
+        <v>552</v>
+      </c>
+      <c r="D86" s="69" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="35" t="s">
         <v>80</v>
       </c>
       <c r="B87" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C87" s="69"/>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C87" s="69" t="s">
+        <v>552</v>
+      </c>
+      <c r="D87" s="69" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="35" t="s">
         <v>81</v>
       </c>
       <c r="B88" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C88" s="69"/>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C88" s="69" t="s">
+        <v>552</v>
+      </c>
+      <c r="D88" s="69" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="35" t="s">
         <v>76</v>
       </c>
       <c r="B89" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C89" s="69"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C89" s="69" t="s">
+        <v>552</v>
+      </c>
+      <c r="D89" s="69" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="35" t="s">
         <v>345</v>
       </c>
@@ -14056,8 +13022,9 @@
         <v>2</v>
       </c>
       <c r="C90" s="69"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D90" s="69"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="41" t="s">
         <v>17</v>
       </c>
@@ -14065,8 +13032,9 @@
         <v>16</v>
       </c>
       <c r="C91" s="69"/>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D91" s="69"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="41" t="s">
         <v>15</v>
       </c>
@@ -14074,8 +13042,9 @@
         <v>16</v>
       </c>
       <c r="C92" s="69"/>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" s="69"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="41" t="s">
         <v>19</v>
       </c>
@@ -14083,17 +13052,23 @@
         <v>16</v>
       </c>
       <c r="C93" s="69"/>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D93" s="69"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="35" t="s">
         <v>82</v>
       </c>
       <c r="B94" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C94" s="69"/>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C94" s="69" t="s">
+        <v>552</v>
+      </c>
+      <c r="D94" s="69" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="35" t="s">
         <v>30</v>
       </c>
@@ -14101,17 +13076,19 @@
         <v>3</v>
       </c>
       <c r="C95" s="69"/>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" s="69"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B96" s="41" t="s">
+      <c r="B96" s="42" t="s">
         <v>16</v>
       </c>
       <c r="C96" s="69"/>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D96" s="69"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="35" t="s">
         <v>348</v>
       </c>
@@ -14119,8 +13096,9 @@
         <v>3</v>
       </c>
       <c r="C97" s="69"/>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D97" s="69"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="35" t="s">
         <v>33</v>
       </c>
@@ -14128,8 +13106,9 @@
         <v>16</v>
       </c>
       <c r="C98" s="69"/>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D98" s="69"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="35" t="s">
         <v>101</v>
       </c>
@@ -14137,170 +13116,201 @@
         <v>16</v>
       </c>
       <c r="C99" s="69"/>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D99" s="69"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="B100" s="41" t="s">
+      <c r="B100" s="42" t="s">
         <v>16</v>
       </c>
       <c r="C100" s="69"/>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D100" s="69"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="B101" s="41" t="s">
+      <c r="B101" s="42" t="s">
         <v>16</v>
       </c>
       <c r="C101" s="69"/>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D101" s="69"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="B102" s="41" t="s">
+      <c r="B102" s="42" t="s">
         <v>16</v>
       </c>
       <c r="C102" s="69"/>
-    </row>
-    <row r="103" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D102" s="69"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="B103" s="41" t="s">
+      <c r="B103" s="42" t="s">
         <v>16</v>
       </c>
       <c r="C103" s="69"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D103" s="69"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="35" t="s">
         <v>90</v>
       </c>
-      <c r="B104" s="41" t="s">
+      <c r="B104" s="42" t="s">
         <v>16</v>
       </c>
       <c r="C104" s="69"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D104" s="69"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="B105" s="41" t="s">
+      <c r="B105" s="42" t="s">
         <v>16</v>
       </c>
       <c r="C105" s="69"/>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D105" s="69"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="B106" s="41" t="s">
+      <c r="B106" s="42" t="s">
         <v>16</v>
       </c>
       <c r="C106" s="69"/>
-    </row>
-    <row r="107" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D106" s="69"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="B107" s="41" t="s">
+      <c r="B107" s="42" t="s">
         <v>16</v>
       </c>
       <c r="C107" s="69"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D107" s="69"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="B108" s="41" t="s">
+      <c r="B108" s="42" t="s">
         <v>16</v>
       </c>
       <c r="C108" s="69"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D108" s="69"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="B109" s="41" t="s">
+      <c r="B109" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C109" s="69"/>
-    </row>
-    <row r="110" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C109" s="69" t="s">
+        <v>552</v>
+      </c>
+      <c r="D109" s="69" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="B110" s="41" t="s">
+      <c r="B110" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C110" s="69"/>
-    </row>
-    <row r="111" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C110" s="69" t="s">
+        <v>552</v>
+      </c>
+      <c r="D110" s="69" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="B111" s="41" t="s">
+      <c r="B111" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C111" s="69"/>
-    </row>
-    <row r="112" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="C111" s="69" t="s">
+        <v>552</v>
+      </c>
+      <c r="D111" s="69" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="B112" s="41" t="s">
+      <c r="B112" s="42" t="s">
         <v>16</v>
       </c>
       <c r="C112" s="69"/>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D112" s="69"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="B113" s="41" t="s">
+      <c r="B113" s="42" t="s">
         <v>16</v>
       </c>
       <c r="C113" s="69"/>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D113" s="69"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="B114" s="41" t="s">
+      <c r="B114" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C114" s="69"/>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D114" s="69"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="B115" s="41" t="s">
+      <c r="B115" s="42" t="s">
         <v>3</v>
       </c>
       <c r="C115" s="69"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D115" s="69"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="35" t="s">
         <v>351</v>
       </c>
-      <c r="B116" s="41" t="s">
+      <c r="B116" s="42" t="s">
         <v>3</v>
       </c>
       <c r="C116" s="69"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D116" s="69"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B117" s="41" t="s">
+      <c r="B117" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C117" s="69"/>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" s="69"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="35" t="s">
         <v>86</v>
       </c>
@@ -14308,44 +13318,57 @@
         <v>3</v>
       </c>
       <c r="C118" s="69"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D118" s="69"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="B119" s="41" t="s">
+        <v>560</v>
+      </c>
+      <c r="B119" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C119" s="69"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C119" s="69" t="s">
+        <v>552</v>
+      </c>
+      <c r="D119" s="69" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B120" s="41" t="s">
+      <c r="B120" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C120" s="69"/>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C120" s="69" t="s">
+        <v>552</v>
+      </c>
+      <c r="D120" s="69" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="35" t="s">
         <v>352</v>
       </c>
-      <c r="B121" s="41" t="s">
+      <c r="B121" s="42" t="s">
         <v>3</v>
       </c>
       <c r="C121" s="69"/>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D121" s="69"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="35" t="s">
         <v>353</v>
       </c>
-      <c r="B122" s="41" t="s">
+      <c r="B122" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C122" s="69"/>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D122" s="69"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="35" t="s">
         <v>85</v>
       </c>
@@ -14353,17 +13376,19 @@
         <v>3</v>
       </c>
       <c r="C123" s="69"/>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D123" s="69"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="35" t="s">
         <v>87</v>
       </c>
-      <c r="B124" s="55" t="s">
+      <c r="B124" s="42" t="s">
         <v>3</v>
       </c>
       <c r="C124" s="69"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D124" s="69"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="35" t="s">
         <v>355</v>
       </c>
@@ -14371,8 +13396,9 @@
         <v>205</v>
       </c>
       <c r="C125" s="69"/>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D125" s="69"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="35" t="s">
         <v>28</v>
       </c>
@@ -14380,8 +13406,9 @@
         <v>205</v>
       </c>
       <c r="C126" s="69"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D126" s="69"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="35" t="s">
         <v>74</v>
       </c>
@@ -14389,8 +13416,9 @@
         <v>3</v>
       </c>
       <c r="C127" s="69"/>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D127" s="69"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="35" t="s">
         <v>72</v>
       </c>
@@ -14398,8 +13426,9 @@
         <v>3</v>
       </c>
       <c r="C128" s="69"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D128" s="69"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="35" t="s">
         <v>342</v>
       </c>
@@ -14407,8 +13436,9 @@
         <v>3</v>
       </c>
       <c r="C129" s="69"/>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D129" s="69"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="35" t="s">
         <v>312</v>
       </c>
@@ -14416,8 +13446,9 @@
         <v>3</v>
       </c>
       <c r="C130" s="69"/>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D130" s="69"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="35" t="s">
         <v>46</v>
       </c>
@@ -14425,89 +13456,99 @@
         <v>16</v>
       </c>
       <c r="C131" s="69"/>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D131" s="69"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="B132" s="38" t="s">
+      <c r="B132" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C132" s="69"/>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D132" s="69"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="35" t="s">
         <v>258</v>
       </c>
-      <c r="B133" s="38" t="s">
+      <c r="B133" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C133" s="69"/>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D133" s="69"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="35" t="s">
         <v>359</v>
       </c>
-      <c r="B134" s="38" t="s">
+      <c r="B134" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C134" s="69"/>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D134" s="69"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="35" t="s">
         <v>361</v>
       </c>
-      <c r="B135" s="38" t="s">
+      <c r="B135" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C135" s="69"/>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D135" s="69"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="35" t="s">
         <v>357</v>
       </c>
-      <c r="B136" s="38" t="s">
+      <c r="B136" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C136" s="69"/>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D136" s="69"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="35" t="s">
         <v>368</v>
       </c>
-      <c r="B137" s="38" t="s">
+      <c r="B137" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C137" s="69"/>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D137" s="69"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="35" t="s">
         <v>369</v>
       </c>
-      <c r="B138" s="38" t="s">
+      <c r="B138" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C138" s="69"/>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138" s="69"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="35" t="s">
         <v>370</v>
       </c>
-      <c r="B139" s="38" t="s">
+      <c r="B139" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C139" s="69"/>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D139" s="69"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="35" t="s">
         <v>374</v>
       </c>
-      <c r="B140" s="38" t="s">
+      <c r="B140" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C140" s="69"/>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D140" s="69"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="35" t="s">
         <v>40</v>
       </c>
@@ -14515,8 +13556,9 @@
         <v>16</v>
       </c>
       <c r="C141" s="69"/>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D141" s="69"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="35" t="s">
         <v>39</v>
       </c>
@@ -14524,8 +13566,9 @@
         <v>3</v>
       </c>
       <c r="C142" s="69"/>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D142" s="69"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="35" t="s">
         <v>35</v>
       </c>
@@ -14533,17 +13576,19 @@
         <v>3</v>
       </c>
       <c r="C143" s="69"/>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D143" s="69"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B144" s="87" t="s">
+      <c r="B144" s="42" t="s">
         <v>16</v>
       </c>
       <c r="C144" s="69"/>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D144" s="69"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="35" t="s">
         <v>436</v>
       </c>
@@ -14551,8 +13596,9 @@
         <v>3</v>
       </c>
       <c r="C145" s="69"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D145" s="69"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="35" t="s">
         <v>380</v>
       </c>
@@ -14560,8 +13606,9 @@
         <v>3</v>
       </c>
       <c r="C146" s="69"/>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D146" s="69"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="35" t="s">
         <v>382</v>
       </c>
@@ -14569,8 +13616,9 @@
         <v>3</v>
       </c>
       <c r="C147" s="69"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D147" s="69"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="35" t="s">
         <v>115</v>
       </c>
@@ -14578,8 +13626,9 @@
         <v>16</v>
       </c>
       <c r="C148" s="69"/>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D148" s="69"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="35" t="s">
         <v>116</v>
       </c>
@@ -14587,8 +13636,9 @@
         <v>16</v>
       </c>
       <c r="C149" s="69"/>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D149" s="69"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="35" t="s">
         <v>65</v>
       </c>
@@ -14596,26 +13646,29 @@
         <v>16</v>
       </c>
       <c r="C150" s="69"/>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D150" s="69"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="35" t="s">
         <v>388</v>
       </c>
-      <c r="B151" s="85" t="s">
+      <c r="B151" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C151" s="69"/>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D151" s="69"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="35" t="s">
         <v>404</v>
       </c>
-      <c r="B152" s="85" t="s">
+      <c r="B152" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C152" s="69"/>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D152" s="69"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="35" t="s">
         <v>400</v>
       </c>
@@ -14623,386 +13676,433 @@
         <v>3</v>
       </c>
       <c r="C153" s="69"/>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D153" s="69"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="35" t="s">
         <v>402</v>
       </c>
-      <c r="B154" s="85" t="s">
+      <c r="B154" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C154" s="69"/>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D154" s="69"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="35" t="s">
         <v>401</v>
       </c>
-      <c r="B155" s="85" t="s">
+      <c r="B155" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C155" s="69"/>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D155" s="69"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="35" t="s">
         <v>389</v>
       </c>
-      <c r="B156" s="85" t="s">
+      <c r="B156" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C156" s="69"/>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D156" s="69"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="35" t="s">
         <v>406</v>
       </c>
-      <c r="B157" s="85" t="s">
+      <c r="B157" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C157" s="69"/>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157" s="69"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="35" t="s">
         <v>392</v>
       </c>
-      <c r="B158" s="85" t="s">
+      <c r="B158" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C158" s="69"/>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D158" s="69"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="35" t="s">
         <v>394</v>
       </c>
-      <c r="B159" s="85" t="s">
+      <c r="B159" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C159" s="69"/>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D159" s="69"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="35" t="s">
         <v>395</v>
       </c>
-      <c r="B160" s="26" t="s">
+      <c r="B160" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C160" s="69"/>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D160" s="69"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="35" t="s">
         <v>390</v>
       </c>
-      <c r="B161" s="85" t="s">
+      <c r="B161" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C161" s="69"/>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D161" s="69"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="35" t="s">
         <v>393</v>
       </c>
-      <c r="B162" s="26" t="s">
+      <c r="B162" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C162" s="69"/>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D162" s="69"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="35" t="s">
         <v>397</v>
       </c>
-      <c r="B163" s="26" t="s">
+      <c r="B163" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C163" s="69"/>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D163" s="69"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="35" t="s">
         <v>391</v>
       </c>
-      <c r="B164" s="26" t="s">
+      <c r="B164" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C164" s="69"/>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D164" s="69"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="35" t="s">
         <v>396</v>
       </c>
-      <c r="B165" s="26" t="s">
+      <c r="B165" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C165" s="69"/>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D165" s="69"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="35" t="s">
         <v>405</v>
       </c>
-      <c r="B166" s="26" t="s">
+      <c r="B166" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C166" s="69"/>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166" s="69"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="35" t="s">
         <v>386</v>
       </c>
-      <c r="B167" s="26" t="s">
+      <c r="B167" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C167" s="69"/>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D167" s="69"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="35" t="s">
         <v>387</v>
       </c>
-      <c r="B168" s="26" t="s">
+      <c r="B168" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C168" s="69"/>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D168" s="69"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="35" t="s">
         <v>432</v>
       </c>
-      <c r="B169" s="41" t="s">
+      <c r="B169" s="42" t="s">
         <v>3</v>
       </c>
       <c r="C169" s="69"/>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D169" s="69"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="35" t="s">
         <v>384</v>
       </c>
-      <c r="B170" s="26" t="s">
+      <c r="B170" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C170" s="69"/>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D170" s="69"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="35" t="s">
         <v>385</v>
       </c>
-      <c r="B171" s="26" t="s">
+      <c r="B171" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C171" s="69"/>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D171" s="69"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="35" t="s">
         <v>399</v>
       </c>
-      <c r="B172" s="26" t="s">
+      <c r="B172" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C172" s="69"/>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D172" s="69"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="35" t="s">
         <v>435</v>
       </c>
-      <c r="B173" s="41" t="s">
+      <c r="B173" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C173" s="69"/>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D173" s="69"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="35" t="s">
         <v>438</v>
       </c>
-      <c r="B174" s="41" t="s">
+      <c r="B174" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C174" s="69"/>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D174" s="69"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="35" t="s">
         <v>441</v>
       </c>
-      <c r="B175" s="41" t="s">
+      <c r="B175" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C175" s="69"/>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D175" s="69"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="35" t="s">
         <v>526</v>
       </c>
-      <c r="B176" s="41" t="s">
+      <c r="B176" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C176" s="69"/>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D176" s="69"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="35" t="s">
         <v>444</v>
       </c>
-      <c r="B177" s="41" t="s">
+      <c r="B177" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C177" s="69"/>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D177" s="69"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="35" t="s">
         <v>445</v>
       </c>
-      <c r="B178" s="41" t="s">
+      <c r="B178" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C178" s="69"/>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D178" s="69"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="35" t="s">
         <v>446</v>
       </c>
-      <c r="B179" s="41" t="s">
+      <c r="B179" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C179" s="69"/>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D179" s="69"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="35" t="s">
         <v>447</v>
       </c>
-      <c r="B180" s="41" t="s">
+      <c r="B180" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C180" s="69"/>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D180" s="69"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="35" t="s">
         <v>448</v>
       </c>
-      <c r="B181" s="41" t="s">
+      <c r="B181" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C181" s="69"/>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D181" s="69"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="B182" s="41" t="s">
+      <c r="B182" s="42" t="s">
         <v>16</v>
       </c>
       <c r="C182" s="69"/>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D182" s="69"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B183" s="41" t="s">
+      <c r="B183" s="42" t="s">
         <v>16</v>
       </c>
       <c r="C183" s="69"/>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D183" s="69"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="35" t="s">
         <v>455</v>
       </c>
-      <c r="B184" s="41" t="s">
+      <c r="B184" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C184" s="69"/>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D184" s="69"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="35" t="s">
         <v>457</v>
       </c>
-      <c r="B185" s="41" t="s">
+      <c r="B185" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C185" s="69"/>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D185" s="69"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="B186" s="41" t="s">
+      <c r="B186" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C186" s="69"/>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C186" s="69" t="s">
+        <v>552</v>
+      </c>
+      <c r="D186" s="69" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="35" t="s">
         <v>460</v>
       </c>
-      <c r="B187" s="37" t="s">
+      <c r="B187" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C187" s="69"/>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D187" s="69"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="35" t="s">
         <v>462</v>
       </c>
-      <c r="B188" s="41" t="s">
+      <c r="B188" s="42" t="s">
         <v>3</v>
       </c>
       <c r="C188" s="69"/>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D188" s="69"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="35" t="s">
         <v>464</v>
       </c>
-      <c r="B189" s="41" t="s">
+      <c r="B189" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C189" s="69"/>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D189" s="69"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="35" t="s">
         <v>466</v>
       </c>
-      <c r="B190" s="41" t="s">
+      <c r="B190" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C190" s="69"/>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D190" s="69"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="35" t="s">
         <v>468</v>
       </c>
-      <c r="B191" s="41" t="s">
+      <c r="B191" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C191" s="69"/>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D191" s="69"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="35" t="s">
         <v>470</v>
       </c>
-      <c r="B192" s="41" t="s">
+      <c r="B192" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C192" s="69"/>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D192" s="69"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="35" t="s">
         <v>472</v>
       </c>
-      <c r="B193" s="41" t="s">
+      <c r="B193" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C193" s="69"/>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D193" s="69"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="35" t="s">
         <v>478</v>
       </c>
-      <c r="B194" s="41" t="s">
+      <c r="B194" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C194" s="69"/>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D194" s="69"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="35" t="s">
         <v>479</v>
       </c>
-      <c r="B195" s="41" t="s">
+      <c r="B195" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C195" s="69"/>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D195" s="69"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="35" t="s">
         <v>482</v>
       </c>
@@ -15010,8 +14110,9 @@
         <v>205</v>
       </c>
       <c r="C196" s="69"/>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D196" s="69"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="35" t="s">
         <v>484</v>
       </c>
@@ -15019,8 +14120,9 @@
         <v>205</v>
       </c>
       <c r="C197" s="69"/>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D197" s="69"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="35" t="s">
         <v>487</v>
       </c>
@@ -15028,8 +14130,9 @@
         <v>205</v>
       </c>
       <c r="C198" s="69"/>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D198" s="69"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="35" t="s">
         <v>489</v>
       </c>
@@ -15037,8 +14140,9 @@
         <v>205</v>
       </c>
       <c r="C199" s="69"/>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D199" s="69"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="35" t="s">
         <v>476</v>
       </c>
@@ -15046,8 +14150,9 @@
         <v>205</v>
       </c>
       <c r="C200" s="69"/>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D200" s="69"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="35" t="s">
         <v>490</v>
       </c>
@@ -15055,8 +14160,9 @@
         <v>205</v>
       </c>
       <c r="C201" s="69"/>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D201" s="69"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="35" t="s">
         <v>492</v>
       </c>
@@ -15064,17 +14170,19 @@
         <v>205</v>
       </c>
       <c r="C202" s="69"/>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D202" s="69"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="35" t="s">
         <v>494</v>
       </c>
-      <c r="B203" s="38" t="s">
+      <c r="B203" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C203" s="69"/>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D203" s="69"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="35" t="s">
         <v>496</v>
       </c>
@@ -15082,26 +14190,33 @@
         <v>3</v>
       </c>
       <c r="C204" s="69"/>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D204" s="69"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="B205" s="85" t="s">
+      <c r="B205" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C205" s="69"/>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D205" s="69"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="35" t="s">
         <v>50</v>
       </c>
       <c r="B206" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C206" s="69"/>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C206" s="69" t="s">
+        <v>552</v>
+      </c>
+      <c r="D206" s="69" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="35" t="s">
         <v>499</v>
       </c>
@@ -15109,8 +14224,9 @@
         <v>3</v>
       </c>
       <c r="C207" s="69"/>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D207" s="69"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="35" t="s">
         <v>501</v>
       </c>
@@ -15118,8 +14234,9 @@
         <v>3</v>
       </c>
       <c r="C208" s="69"/>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D208" s="69"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="35" t="s">
         <v>502</v>
       </c>
@@ -15127,8 +14244,9 @@
         <v>3</v>
       </c>
       <c r="C209" s="69"/>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D209" s="69"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="35" t="s">
         <v>503</v>
       </c>
@@ -15136,8 +14254,9 @@
         <v>3</v>
       </c>
       <c r="C210" s="69"/>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D210" s="69"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="35" t="s">
         <v>68</v>
       </c>
@@ -15145,8 +14264,9 @@
         <v>205</v>
       </c>
       <c r="C211" s="69"/>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D211" s="69"/>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="35" t="s">
         <v>124</v>
       </c>
@@ -15154,8 +14274,9 @@
         <v>205</v>
       </c>
       <c r="C212" s="69"/>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D212" s="69"/>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="35" t="s">
         <v>505</v>
       </c>
@@ -15163,8 +14284,9 @@
         <v>205</v>
       </c>
       <c r="C213" s="69"/>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D213" s="69"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="35" t="s">
         <v>506</v>
       </c>
@@ -15172,8 +14294,9 @@
         <v>205</v>
       </c>
       <c r="C214" s="69"/>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D214" s="69"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="35" t="s">
         <v>509</v>
       </c>
@@ -15181,8 +14304,9 @@
         <v>205</v>
       </c>
       <c r="C215" s="69"/>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D215" s="69"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="35" t="s">
         <v>511</v>
       </c>
@@ -15190,8 +14314,9 @@
         <v>3</v>
       </c>
       <c r="C216" s="69"/>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D216" s="69"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="35" t="s">
         <v>513</v>
       </c>
@@ -15199,8 +14324,9 @@
         <v>205</v>
       </c>
       <c r="C217" s="69"/>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D217" s="69"/>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="35" t="s">
         <v>517</v>
       </c>
@@ -15208,8 +14334,9 @@
         <v>205</v>
       </c>
       <c r="C218" s="69"/>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D218" s="69"/>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="35" t="s">
         <v>518</v>
       </c>
@@ -15217,8 +14344,9 @@
         <v>205</v>
       </c>
       <c r="C219" s="69"/>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D219" s="69"/>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="35" t="s">
         <v>521</v>
       </c>
@@ -15226,8 +14354,9 @@
         <v>205</v>
       </c>
       <c r="C220" s="69"/>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D220" s="69"/>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="46" t="s">
         <v>522</v>
       </c>
@@ -15235,6 +14364,7 @@
         <v>205</v>
       </c>
       <c r="C221" s="70"/>
+      <c r="D221" s="70"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:C221"/>
@@ -15245,1091 +14375,419 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="B95">
-    <cfRule type="containsText" dxfId="275" priority="282" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="103" priority="286" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B95)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="274" priority="283" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="102" priority="287" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B95)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="273" priority="284" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="101" priority="288" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B95)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95">
-    <cfRule type="containsText" dxfId="272" priority="281" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="100" priority="285" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B95)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B206">
-    <cfRule type="containsText" dxfId="271" priority="274" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B206)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="270" priority="275" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B206)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="269" priority="276" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B206)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B206">
-    <cfRule type="containsText" dxfId="268" priority="273" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B206)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B203:B205 B6:B13 B15:B39 B42:B44 B98:B99 B76:B90 B196:B201 B54:B73">
-    <cfRule type="containsText" dxfId="267" priority="298" stopIfTrue="1" operator="containsText" text="Delete">
+  <conditionalFormatting sqref="B6:B13 B15:B39 B42:B44 B76:B90 B54:B73">
+    <cfRule type="containsText" dxfId="99" priority="302" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="266" priority="299" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="98" priority="303" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="265" priority="300" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="97" priority="304" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B203:B205 B6:B13 B15:B39 B42:B44 B98:B99 B76:B90 B196:B201 B54:B73">
-    <cfRule type="containsText" dxfId="264" priority="297" operator="containsText" text="None">
+  <conditionalFormatting sqref="B6:B13 B15:B39 B42:B44 B76:B90 B54:B73">
+    <cfRule type="containsText" dxfId="96" priority="301" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="containsText" dxfId="263" priority="294" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="95" priority="298" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="262" priority="295" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="94" priority="299" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="261" priority="296" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="93" priority="300" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="containsText" dxfId="260" priority="293" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="92" priority="297" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="containsText" dxfId="259" priority="285" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="91" priority="289" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="containsText" dxfId="258" priority="290" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="90" priority="294" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B93)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="257" priority="291" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="89" priority="295" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B93)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="256" priority="292" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="88" priority="296" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="containsText" dxfId="255" priority="289" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="87" priority="293" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="containsText" dxfId="254" priority="286" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="86" priority="290" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="253" priority="287" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="85" priority="291" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="252" priority="288" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="84" priority="292" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B207">
-    <cfRule type="containsText" dxfId="251" priority="269" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="83" priority="273" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B207)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B202">
-    <cfRule type="containsText" dxfId="250" priority="249" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B202)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B207">
-    <cfRule type="containsText" dxfId="249" priority="270" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="82" priority="274" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B207)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="248" priority="271" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="81" priority="275" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B207)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="247" priority="272" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="80" priority="276" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B207)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B202">
-    <cfRule type="containsText" dxfId="246" priority="250" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B202)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="245" priority="251" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B202)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="244" priority="252" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B202)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B97">
-    <cfRule type="containsText" dxfId="243" priority="245" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B97)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B208">
-    <cfRule type="containsText" dxfId="242" priority="266" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="79" priority="270" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B208)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="241" priority="267" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="78" priority="271" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B208)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="240" priority="268" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="77" priority="272" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B208)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B208">
-    <cfRule type="containsText" dxfId="239" priority="265" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="76" priority="269" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B208)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209">
-    <cfRule type="containsText" dxfId="238" priority="262" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="75" priority="266" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B209)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="237" priority="263" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="74" priority="267" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B209)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="236" priority="264" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="73" priority="268" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B209)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209">
-    <cfRule type="containsText" dxfId="235" priority="261" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="72" priority="265" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B209)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210">
-    <cfRule type="containsText" dxfId="234" priority="258" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="71" priority="262" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B210)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="233" priority="259" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="70" priority="263" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B210)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="232" priority="260" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="69" priority="264" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B210)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210">
-    <cfRule type="containsText" dxfId="231" priority="257" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="68" priority="261" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B210)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B211">
-    <cfRule type="containsText" dxfId="230" priority="254" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="67" priority="258" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B211)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="255" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="66" priority="259" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B211)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="256" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="65" priority="260" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B211)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B211">
-    <cfRule type="containsText" dxfId="227" priority="253" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="64" priority="257" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B211)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B97">
-    <cfRule type="containsText" dxfId="226" priority="246" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B97)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="225" priority="247" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B97)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="224" priority="248" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B97)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="containsText" dxfId="223" priority="242" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B125)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="243" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B125)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="221" priority="244" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B125)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B125">
-    <cfRule type="containsText" dxfId="220" priority="241" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B125)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="containsText" dxfId="219" priority="238" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B126)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="218" priority="239" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B126)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="217" priority="240" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B126)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B126">
-    <cfRule type="containsText" dxfId="216" priority="237" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B126)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B127">
-    <cfRule type="containsText" dxfId="215" priority="234" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B127)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="235" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B127)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="236" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B127)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B127">
-    <cfRule type="containsText" dxfId="212" priority="233" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B127)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128">
-    <cfRule type="containsText" dxfId="211" priority="230" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B128)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="231" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B128)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="209" priority="232" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B128)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B128">
-    <cfRule type="containsText" dxfId="208" priority="229" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B128)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B129">
-    <cfRule type="containsText" dxfId="207" priority="226" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B129)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="227" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B129)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="228" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B129)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B129">
-    <cfRule type="containsText" dxfId="204" priority="225" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B129)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B130">
-    <cfRule type="containsText" dxfId="203" priority="222" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B130)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="223" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B130)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="224" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B130)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B130">
-    <cfRule type="containsText" dxfId="200" priority="221" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B130)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B131">
-    <cfRule type="containsText" dxfId="199" priority="218" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B131)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="219" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B131)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="220" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B131)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B131">
-    <cfRule type="containsText" dxfId="196" priority="217" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B131)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B132">
-    <cfRule type="containsText" dxfId="195" priority="214" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B132)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="215" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B132)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="216" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B132)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B132">
-    <cfRule type="containsText" dxfId="192" priority="213" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B132)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B133">
-    <cfRule type="containsText" dxfId="191" priority="210" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B133)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="211" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B133)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="212" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B133)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B133">
-    <cfRule type="containsText" dxfId="188" priority="209" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B133)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B134">
-    <cfRule type="containsText" dxfId="187" priority="206" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B134)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="207" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B134)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="185" priority="208" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B134)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B134">
-    <cfRule type="containsText" dxfId="184" priority="205" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B134)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B135">
-    <cfRule type="containsText" dxfId="183" priority="202" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B135)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="203" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B135)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="204" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B135)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B135">
-    <cfRule type="containsText" dxfId="180" priority="201" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B135)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B136">
-    <cfRule type="containsText" dxfId="179" priority="198" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B136)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="199" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B136)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="200" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B136)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B136">
-    <cfRule type="containsText" dxfId="176" priority="197" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B136)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B137">
-    <cfRule type="containsText" dxfId="175" priority="194" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B137)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="195" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B137)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="196" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B137)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B137">
-    <cfRule type="containsText" dxfId="172" priority="193" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B137)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B138">
-    <cfRule type="containsText" dxfId="171" priority="190" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B138)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="191" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B138)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="192" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B138)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B138">
-    <cfRule type="containsText" dxfId="168" priority="189" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B138)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B139">
-    <cfRule type="containsText" dxfId="167" priority="186" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B139)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="187" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B139)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="188" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B139)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B139">
-    <cfRule type="containsText" dxfId="164" priority="185" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B139)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B140">
-    <cfRule type="containsText" dxfId="163" priority="182" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B140)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="183" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B140)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="184" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B140)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B140">
-    <cfRule type="containsText" dxfId="160" priority="181" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B140)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B141">
-    <cfRule type="containsText" dxfId="159" priority="178" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B141)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="179" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B141)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="180" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B141)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B141">
-    <cfRule type="containsText" dxfId="156" priority="177" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B141)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B142">
-    <cfRule type="containsText" dxfId="155" priority="174" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B142)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="175" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B142)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="176" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B142)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B142">
-    <cfRule type="containsText" dxfId="152" priority="173" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B142)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B213">
-    <cfRule type="containsText" dxfId="151" priority="166" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="63" priority="170" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="167" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="62" priority="171" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="168" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="61" priority="172" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B213)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B213">
-    <cfRule type="containsText" dxfId="148" priority="165" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="60" priority="169" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B213)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B46">
-    <cfRule type="containsText" dxfId="147" priority="158" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="59" priority="162" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="159" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="58" priority="163" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="160" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="57" priority="164" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B46">
-    <cfRule type="containsText" dxfId="144" priority="157" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="56" priority="161" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75">
-    <cfRule type="containsText" dxfId="143" priority="146" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="55" priority="150" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="147" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="54" priority="151" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="148" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="53" priority="152" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75">
-    <cfRule type="containsText" dxfId="140" priority="145" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="52" priority="149" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="containsText" dxfId="139" priority="150" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="51" priority="154" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="151" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="50" priority="155" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="152" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="49" priority="156" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="containsText" dxfId="136" priority="149" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="48" priority="153" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:B53">
-    <cfRule type="containsText" dxfId="135" priority="154" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="47" priority="158" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="155" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="46" priority="159" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="156" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="45" priority="160" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:B53">
-    <cfRule type="containsText" dxfId="132" priority="153" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="44" priority="157" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="containsText" dxfId="131" priority="138" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="43" priority="142" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="139" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="42" priority="143" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="140" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="41" priority="144" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="containsText" dxfId="128" priority="137" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="40" priority="141" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B177:B178">
-    <cfRule type="containsText" dxfId="127" priority="110" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B177)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="111" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B177)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="112" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B177)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B177:B178">
-    <cfRule type="containsText" dxfId="124" priority="109" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B177)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="containsText" dxfId="123" priority="134" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="39" priority="138" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="135" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="38" priority="139" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="136" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="37" priority="140" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="containsText" dxfId="120" priority="133" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="36" priority="137" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B49">
-    <cfRule type="containsText" dxfId="119" priority="130" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="35" priority="134" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="131" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="34" priority="135" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="132" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="33" priority="136" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B49">
-    <cfRule type="containsText" dxfId="116" priority="129" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="32" priority="133" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="containsText" dxfId="115" priority="126" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="31" priority="130" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="127" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="30" priority="131" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="128" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="29" priority="132" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="containsText" dxfId="112" priority="125" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="28" priority="129" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="containsText" dxfId="111" priority="122" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="27" priority="126" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="123" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="26" priority="127" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="124" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="25" priority="128" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="containsText" dxfId="108" priority="121" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="24" priority="125" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="containsText" dxfId="107" priority="118" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="23" priority="122" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="119" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="22" priority="123" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="120" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="21" priority="124" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="containsText" dxfId="104" priority="117" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="20" priority="121" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B50)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B178">
-    <cfRule type="containsText" dxfId="103" priority="106" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B178)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="107" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B178)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="108" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B178)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B178">
-    <cfRule type="containsText" dxfId="100" priority="105" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B178)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B123">
-    <cfRule type="containsText" dxfId="99" priority="98" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B123)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="99" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B123)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="100" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B123)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B123">
-    <cfRule type="containsText" dxfId="96" priority="97" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B123)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B186:B188">
-    <cfRule type="containsText" dxfId="95" priority="74" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B186)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="75" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B186)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="76" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B186)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B186:B188">
-    <cfRule type="containsText" dxfId="92" priority="73" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B186)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B118">
-    <cfRule type="containsText" dxfId="91" priority="94" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B118)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="95" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B118)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="96" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B118)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B118">
-    <cfRule type="containsText" dxfId="88" priority="93" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B118)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B179:B189">
-    <cfRule type="containsText" dxfId="87" priority="90" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B179)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="91" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B179)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="92" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B179)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B179:B189">
-    <cfRule type="containsText" dxfId="84" priority="89" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B179)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B181">
-    <cfRule type="containsText" dxfId="83" priority="86" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B181)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="87" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B181)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="88" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B181)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B181">
-    <cfRule type="containsText" dxfId="80" priority="85" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B181)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B179">
-    <cfRule type="containsText" dxfId="79" priority="82" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B179)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="83" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B179)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="84" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B179)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B179">
-    <cfRule type="containsText" dxfId="76" priority="81" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B179)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B185">
-    <cfRule type="containsText" dxfId="75" priority="78" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B185)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="79" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B185)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="80" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B185)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B185">
-    <cfRule type="containsText" dxfId="72" priority="77" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B185)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B184:B188">
-    <cfRule type="containsText" dxfId="71" priority="70" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B184)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="71" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B184)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="72" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B184)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B184:B188">
-    <cfRule type="containsText" dxfId="68" priority="69" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B184)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B183">
-    <cfRule type="containsText" dxfId="67" priority="66" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B183)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="67" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B183)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="68" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B183)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B183">
-    <cfRule type="containsText" dxfId="64" priority="65" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B183)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B182">
-    <cfRule type="containsText" dxfId="63" priority="62" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B182)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="63" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B182)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="64" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B182)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B182">
-    <cfRule type="containsText" dxfId="60" priority="61" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B182)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B160">
-    <cfRule type="containsText" dxfId="59" priority="58" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B160)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="59" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B160)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="60" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B160)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B160">
-    <cfRule type="containsText" dxfId="56" priority="57" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B160)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B215">
-    <cfRule type="containsText" dxfId="55" priority="54" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="19" priority="58" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B215)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="18" priority="59" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B215)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="56" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="17" priority="60" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B215)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B215">
-    <cfRule type="containsText" dxfId="52" priority="53" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="16" priority="57" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B215)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B219">
-    <cfRule type="containsText" dxfId="51" priority="46" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="15" priority="50" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B219)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="47" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="14" priority="51" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B219)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="48" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="13" priority="52" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B219)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B219">
-    <cfRule type="containsText" dxfId="48" priority="45" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="12" priority="49" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B219)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B216:B218">
-    <cfRule type="containsText" dxfId="47" priority="50" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="11" priority="54" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B216)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="51" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="10" priority="55" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B216)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="52" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="9" priority="56" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B216)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B216:B218">
-    <cfRule type="containsText" dxfId="44" priority="49" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="8" priority="53" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B216)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B189:B190">
-    <cfRule type="containsText" dxfId="43" priority="38" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B189)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="39" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B189)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="40" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B189)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B189:B190">
-    <cfRule type="containsText" dxfId="40" priority="37" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B189)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B195">
-    <cfRule type="containsText" dxfId="39" priority="14" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B195)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="15" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B195)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="16" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B195)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B195">
-    <cfRule type="containsText" dxfId="36" priority="13" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B195)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B194">
-    <cfRule type="containsText" dxfId="35" priority="34" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B194)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="35" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B194)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="36" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B194)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B194">
-    <cfRule type="containsText" dxfId="32" priority="33" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B194)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="containsText" dxfId="31" priority="30" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="7" priority="34" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="31" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="6" priority="35" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="32" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="5" priority="36" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="4" priority="33" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B91)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B191:B193">
-    <cfRule type="containsText" dxfId="27" priority="26" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B191)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="27" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B191)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="28" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B191)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B191:B193">
-    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B191)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B191:B193">
-    <cfRule type="containsText" dxfId="23" priority="22" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B191)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="23" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B191)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="24" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B191)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B191:B193">
-    <cfRule type="containsText" dxfId="20" priority="21" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B191)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B191:B193">
-    <cfRule type="containsText" dxfId="19" priority="18" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B191)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B191)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B191)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B191:B193">
-    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B191)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B195">
-    <cfRule type="containsText" dxfId="15" priority="10" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B195)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B195)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B195)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B195">
-    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B195)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B195">
-    <cfRule type="containsText" dxfId="11" priority="6" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B195)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B195)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B195)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B195">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B195)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B143">
-    <cfRule type="containsText" dxfId="7" priority="2" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B143)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B143)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B143)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B143">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B143)))</formula>
+  <conditionalFormatting sqref="B96:B206">
+    <cfRule type="containsText" dxfId="3" priority="2" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",B96)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",B96)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",B96)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B96:B206">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",B96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -16345,8 +14803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A53:E104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16975,7 +15433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A38:E44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>

--- a/Technical documentation/AL table analysis.xlsx
+++ b/Technical documentation/AL table analysis.xlsx
@@ -1143,7 +1143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="573">
   <si>
     <t>Table name</t>
   </si>
@@ -2179,9 +2179,6 @@
     <t>game_extra_info</t>
   </si>
   <si>
-    <t>This table is replaced by the game_release structure</t>
-  </si>
-  <si>
     <t>game_galery</t>
   </si>
   <si>
@@ -2853,6 +2850,21 @@
   <si>
     <t>The table game_gallery is similar I think, maybe these tables can be merged to 1 table? These should be linked to the game_release instead of the game table, I think
 19/06/2018 Game_gallery needs to go to the media tables!</t>
+  </si>
+  <si>
+    <t>Deleted using script nr 128</t>
+  </si>
+  <si>
+    <t>No more continent id and rename extra_info column to developers_role_id</t>
+  </si>
+  <si>
+    <t>This table will be renamed to developer_role and only linked to the game_developer table</t>
+  </si>
+  <si>
+    <t>Changed using DB script nr 157 and 158</t>
+  </si>
+  <si>
+    <t>Changed using DB script nr 156 and 159</t>
   </si>
 </sst>
 </file>
@@ -3207,7 +3219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3459,12 +3471,71 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="380">
+  <dxfs count="388">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6704,8 +6775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F304"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6744,7 +6815,7 @@
         <v>206</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E3" s="29" t="s">
         <v>4</v>
@@ -6761,7 +6832,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E4" s="42" t="s">
         <v>262</v>
@@ -6799,7 +6870,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E6" s="43" t="s">
         <v>8</v>
@@ -6834,7 +6905,7 @@
         <v>3</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E8" s="42" t="s">
         <v>8</v>
@@ -6866,7 +6937,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E10" s="43" t="s">
         <v>8</v>
@@ -6898,7 +6969,7 @@
         <v>2</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E12" s="42" t="s">
         <v>262</v>
@@ -6944,7 +7015,7 @@
         <v>3</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E15" s="43" t="s">
         <v>8</v>
@@ -6975,13 +7046,13 @@
         <v>3</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E17" s="42" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
         <v>31</v>
       </c>
@@ -6989,7 +7060,10 @@
         <v>32</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>205</v>
+        <v>2</v>
+      </c>
+      <c r="D18" s="39" t="s">
+        <v>569</v>
       </c>
       <c r="E18" s="42" t="s">
         <v>262</v>
@@ -7020,7 +7094,7 @@
         <v>3</v>
       </c>
       <c r="D20" s="39" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E20" s="43" t="s">
         <v>8</v>
@@ -7079,7 +7153,7 @@
         <v>3</v>
       </c>
       <c r="D24" s="42" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E24" s="39" t="s">
         <v>8</v>
@@ -7096,7 +7170,7 @@
         <v>3</v>
       </c>
       <c r="D25" s="42" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E25" s="39" t="s">
         <v>8</v>
@@ -7113,7 +7187,7 @@
         <v>3</v>
       </c>
       <c r="D26" s="42" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E26" s="39" t="s">
         <v>8</v>
@@ -7130,7 +7204,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="39" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E27" s="39" t="s">
         <v>8</v>
@@ -7147,7 +7221,7 @@
         <v>3</v>
       </c>
       <c r="D28" s="42" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E28" s="39" t="s">
         <v>8</v>
@@ -7164,7 +7238,7 @@
         <v>3</v>
       </c>
       <c r="D29" s="42" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E29" s="39" t="s">
         <v>8</v>
@@ -7181,7 +7255,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="42" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E30" s="39" t="s">
         <v>8</v>
@@ -7198,7 +7272,7 @@
         <v>3</v>
       </c>
       <c r="D31" s="42" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E31" s="39" t="s">
         <v>8</v>
@@ -7215,7 +7289,7 @@
         <v>3</v>
       </c>
       <c r="D32" s="42" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E32" s="39" t="s">
         <v>8</v>
@@ -7232,7 +7306,7 @@
         <v>3</v>
       </c>
       <c r="D33" s="42" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E33" s="39" t="s">
         <v>8</v>
@@ -7249,7 +7323,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="42" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E34" s="39" t="s">
         <v>8</v>
@@ -7266,7 +7340,7 @@
         <v>3</v>
       </c>
       <c r="D35" s="42" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E35" s="39" t="s">
         <v>8</v>
@@ -7283,7 +7357,7 @@
         <v>3</v>
       </c>
       <c r="D36" s="42" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E36" s="39" t="s">
         <v>8</v>
@@ -7300,7 +7374,7 @@
         <v>3</v>
       </c>
       <c r="D37" s="39" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E37" s="39" t="s">
         <v>8</v>
@@ -7308,7 +7382,7 @@
     </row>
     <row r="38" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="35" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B38" s="39" t="s">
         <v>75</v>
@@ -7317,7 +7391,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="42" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E38" s="39" t="s">
         <v>8</v>
@@ -7325,7 +7399,7 @@
     </row>
     <row r="39" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="35" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B39" s="39" t="s">
         <v>75</v>
@@ -7334,7 +7408,7 @@
         <v>3</v>
       </c>
       <c r="D39" s="42" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E39" s="39" t="s">
         <v>8</v>
@@ -7351,7 +7425,7 @@
         <v>3</v>
       </c>
       <c r="D40" s="42" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E40" s="39" t="s">
         <v>8</v>
@@ -7368,7 +7442,7 @@
         <v>3</v>
       </c>
       <c r="D41" s="42" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E41" s="39" t="s">
         <v>8</v>
@@ -7385,7 +7459,7 @@
         <v>3</v>
       </c>
       <c r="D42" s="42" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E42" s="39" t="s">
         <v>8</v>
@@ -7402,41 +7476,39 @@
         <v>3</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E43" s="35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="35" t="s">
         <v>343</v>
       </c>
       <c r="B44" s="35" t="s">
-        <v>344</v>
+        <v>570</v>
       </c>
       <c r="C44" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D44" s="35" t="s">
-        <v>534</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D44" s="35"/>
       <c r="E44" s="35" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="35" t="s">
+        <v>344</v>
+      </c>
+      <c r="B45" s="35" t="s">
         <v>345</v>
-      </c>
-      <c r="B45" s="35" t="s">
-        <v>346</v>
       </c>
       <c r="C45" s="42" t="s">
         <v>2</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E45" s="35" t="s">
         <v>8</v>
@@ -7444,16 +7516,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="35" t="s">
+        <v>347</v>
+      </c>
+      <c r="B46" s="35" t="s">
         <v>348</v>
-      </c>
-      <c r="B46" s="35" t="s">
-        <v>349</v>
       </c>
       <c r="C46" s="42" t="s">
         <v>3</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E46" s="35" t="s">
         <v>8</v>
@@ -7461,10 +7533,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="35" t="s">
+        <v>352</v>
+      </c>
+      <c r="B47" s="35" t="s">
         <v>353</v>
-      </c>
-      <c r="B47" s="35" t="s">
-        <v>354</v>
       </c>
       <c r="C47" s="42" t="s">
         <v>205</v>
@@ -7476,10 +7548,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="35" t="s">
+        <v>354</v>
+      </c>
+      <c r="B48" s="35" t="s">
         <v>355</v>
-      </c>
-      <c r="B48" s="35" t="s">
-        <v>356</v>
       </c>
       <c r="C48" s="42" t="s">
         <v>205</v>
@@ -7804,7 +7876,7 @@
         <v>3</v>
       </c>
       <c r="D70" s="39" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E70" s="39" t="s">
         <v>8</v>
@@ -7836,7 +7908,7 @@
         <v>3</v>
       </c>
       <c r="D72" s="39" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E72" s="35" t="s">
         <v>8</v>
@@ -7853,7 +7925,7 @@
         <v>3</v>
       </c>
       <c r="D73" s="47" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E73" s="47" t="s">
         <v>8</v>
@@ -7900,7 +7972,7 @@
         <v>206</v>
       </c>
       <c r="D78" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E78" s="32" t="s">
         <v>4</v>
@@ -7947,7 +8019,7 @@
         <v>3</v>
       </c>
       <c r="D81" s="39" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E81" s="39" t="s">
         <v>8</v>
@@ -7994,7 +8066,7 @@
         <v>3</v>
       </c>
       <c r="D84" s="72" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E84" s="53" t="s">
         <v>8</v>
@@ -8028,7 +8100,7 @@
         <v>3</v>
       </c>
       <c r="D86" s="39" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E86" s="53" t="s">
         <v>8</v>
@@ -8045,7 +8117,7 @@
         <v>3</v>
       </c>
       <c r="D87" s="39" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E87" s="53" t="s">
         <v>8</v>
@@ -8079,7 +8151,7 @@
         <v>3</v>
       </c>
       <c r="D89" s="39" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E89" s="53" t="s">
         <v>8</v>
@@ -8096,7 +8168,7 @@
         <v>3</v>
       </c>
       <c r="D90" s="39" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E90" s="53" t="s">
         <v>8</v>
@@ -8113,7 +8185,7 @@
         <v>3</v>
       </c>
       <c r="D91" s="39" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E91" s="53" t="s">
         <v>8</v>
@@ -8130,7 +8202,7 @@
         <v>3</v>
       </c>
       <c r="D92" s="39" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E92" s="53" t="s">
         <v>8</v>
@@ -8138,7 +8210,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="35" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B93" s="53" t="s">
         <v>327</v>
@@ -8147,7 +8219,7 @@
         <v>3</v>
       </c>
       <c r="D93" s="72" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E93" s="53" t="s">
         <v>8</v>
@@ -8164,7 +8236,7 @@
         <v>3</v>
       </c>
       <c r="D94" s="47" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E94" s="47" t="s">
         <v>8</v>
@@ -8210,7 +8282,7 @@
         <v>206</v>
       </c>
       <c r="D99" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E99" s="32" t="s">
         <v>4</v>
@@ -8331,7 +8403,7 @@
         <v>206</v>
       </c>
       <c r="D109" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E109" s="32" t="s">
         <v>4</v>
@@ -8363,7 +8435,7 @@
         <v>205</v>
       </c>
       <c r="D111" s="34" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E111" s="42" t="s">
         <v>261</v>
@@ -8394,7 +8466,7 @@
         <v>205</v>
       </c>
       <c r="D113" s="35" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E113" s="26" t="s">
         <v>261</v>
@@ -8431,7 +8503,7 @@
     </row>
     <row r="117" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="50" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B117" s="40"/>
       <c r="C117" s="40"/>
@@ -8455,7 +8527,7 @@
         <v>206</v>
       </c>
       <c r="D119" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E119" s="77" t="s">
         <v>4</v>
@@ -8463,25 +8535,25 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="26" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B120" s="35" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C120" s="26" t="s">
         <v>205</v>
       </c>
       <c r="D120" s="26"/>
       <c r="E120" s="26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="26" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B121" s="35" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C121" s="26" t="s">
         <v>205</v>
@@ -8490,293 +8562,293 @@
         <v>265</v>
       </c>
       <c r="E121" s="26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A122" s="26" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B122" s="35" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C122" s="26" t="s">
         <v>205</v>
       </c>
       <c r="D122" s="26"/>
       <c r="E122" s="26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A123" s="26" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B123" s="35" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C123" s="26" t="s">
         <v>205</v>
       </c>
       <c r="D123" s="26"/>
       <c r="E123" s="26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="26" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B124" s="35" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C124" s="26" t="s">
         <v>205</v>
       </c>
       <c r="D124" s="26"/>
       <c r="E124" s="26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A125" s="26" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B125" s="35" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C125" s="26" t="s">
         <v>205</v>
       </c>
       <c r="D125" s="26"/>
       <c r="E125" s="26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B126" s="35" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C126" s="26" t="s">
         <v>205</v>
       </c>
       <c r="D126" s="26"/>
       <c r="E126" s="26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="26" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B127" s="35" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C127" s="26" t="s">
         <v>205</v>
       </c>
       <c r="D127" s="26"/>
       <c r="E127" s="26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="26" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B128" s="35" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C128" s="26" t="s">
         <v>205</v>
       </c>
       <c r="D128" s="26"/>
       <c r="E128" s="26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="26" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B129" s="35" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C129" s="26" t="s">
         <v>205</v>
       </c>
       <c r="D129" s="26"/>
       <c r="E129" s="26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="26" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B130" s="35" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C130" s="26" t="s">
         <v>205</v>
       </c>
       <c r="D130" s="26"/>
       <c r="E130" s="26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="26" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B131" s="35" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C131" s="26" t="s">
         <v>205</v>
       </c>
       <c r="D131" s="26"/>
       <c r="E131" s="26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A132" s="26" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B132" s="35" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C132" s="26" t="s">
         <v>205</v>
       </c>
       <c r="D132" s="26"/>
       <c r="E132" s="26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" s="26" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B133" s="35" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C133" s="26" t="s">
         <v>205</v>
       </c>
       <c r="D133" s="26"/>
       <c r="E133" s="26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="26" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B134" s="35" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C134" s="26" t="s">
         <v>205</v>
       </c>
       <c r="D134" s="26"/>
       <c r="E134" s="26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="26" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B135" s="35" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C135" s="42" t="s">
         <v>3</v>
       </c>
       <c r="D135" s="89" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E135" s="26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="26" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B136" s="35" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C136" s="26" t="s">
         <v>205</v>
       </c>
       <c r="D136" s="26"/>
       <c r="E136" s="26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="26" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B137" s="35" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C137" s="26" t="s">
         <v>205</v>
       </c>
       <c r="D137" s="26"/>
       <c r="E137" s="26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A138" s="26" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B138" s="35" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C138" s="26" t="s">
         <v>205</v>
       </c>
       <c r="D138" s="26"/>
       <c r="E138" s="26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="26" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B139" s="35" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C139" s="26" t="s">
         <v>205</v>
       </c>
       <c r="D139" s="26"/>
       <c r="E139" s="26" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="B140" s="35" t="s">
         <v>432</v>
-      </c>
-      <c r="B140" s="35" t="s">
-        <v>433</v>
       </c>
       <c r="C140" s="42" t="s">
         <v>3</v>
       </c>
       <c r="D140" s="26" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E140" s="26" t="s">
         <v>8</v>
@@ -8784,17 +8856,17 @@
     </row>
     <row r="141" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="36" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B141" s="46" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C141" s="36" t="s">
         <v>205</v>
       </c>
       <c r="D141" s="36"/>
       <c r="E141" s="36" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -8837,7 +8909,7 @@
         <v>206</v>
       </c>
       <c r="D146" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E146" s="32" t="s">
         <v>4</v>
@@ -8854,7 +8926,7 @@
         <v>3</v>
       </c>
       <c r="D147" s="42" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E147" s="42" t="s">
         <v>8</v>
@@ -8871,7 +8943,7 @@
         <v>3</v>
       </c>
       <c r="D148" s="42" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E148" s="42" t="s">
         <v>8</v>
@@ -8888,7 +8960,7 @@
         <v>3</v>
       </c>
       <c r="D149" s="42" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E149" s="42" t="s">
         <v>8</v>
@@ -8905,7 +8977,7 @@
         <v>3</v>
       </c>
       <c r="D150" s="42" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E150" s="42" t="s">
         <v>8</v>
@@ -8922,7 +8994,7 @@
         <v>3</v>
       </c>
       <c r="D151" s="42" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E151" s="42" t="s">
         <v>8</v>
@@ -8939,7 +9011,7 @@
         <v>3</v>
       </c>
       <c r="D152" s="42" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E152" s="42" t="s">
         <v>8</v>
@@ -8956,7 +9028,7 @@
         <v>3</v>
       </c>
       <c r="D153" s="42" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E153" s="42" t="s">
         <v>8</v>
@@ -8973,7 +9045,7 @@
         <v>3</v>
       </c>
       <c r="D154" s="42" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E154" s="42" t="s">
         <v>8</v>
@@ -8990,7 +9062,7 @@
         <v>3</v>
       </c>
       <c r="D155" s="42" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E155" s="42" t="s">
         <v>8</v>
@@ -9007,7 +9079,7 @@
         <v>3</v>
       </c>
       <c r="D156" s="42" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E156" s="42" t="s">
         <v>8</v>
@@ -9024,7 +9096,7 @@
         <v>3</v>
       </c>
       <c r="D157" s="42" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E157" s="42" t="s">
         <v>8</v>
@@ -9041,7 +9113,7 @@
         <v>3</v>
       </c>
       <c r="D158" s="42" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E158" s="42" t="s">
         <v>8</v>
@@ -9058,7 +9130,7 @@
         <v>3</v>
       </c>
       <c r="D159" s="42" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E159" s="42" t="s">
         <v>8</v>
@@ -9075,7 +9147,7 @@
         <v>3</v>
       </c>
       <c r="D160" s="42" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E160" s="42" t="s">
         <v>8</v>
@@ -9092,7 +9164,7 @@
         <v>3</v>
       </c>
       <c r="D161" s="42" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E161" s="42" t="s">
         <v>8</v>
@@ -9109,7 +9181,7 @@
         <v>3</v>
       </c>
       <c r="D162" s="42" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E162" s="42" t="s">
         <v>8</v>
@@ -9126,7 +9198,7 @@
         <v>3</v>
       </c>
       <c r="D163" s="42" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E163" s="42" t="s">
         <v>8</v>
@@ -9143,7 +9215,7 @@
         <v>3</v>
       </c>
       <c r="D164" s="42" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E164" s="42" t="s">
         <v>8</v>
@@ -9160,7 +9232,7 @@
         <v>3</v>
       </c>
       <c r="D165" s="90" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E165" s="48" t="s">
         <v>8</v>
@@ -9206,7 +9278,7 @@
         <v>206</v>
       </c>
       <c r="D170" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E170" s="77" t="s">
         <v>4</v>
@@ -9318,7 +9390,7 @@
     </row>
     <row r="179" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="50" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B179" s="40"/>
       <c r="C179" s="40"/>
@@ -9342,7 +9414,7 @@
         <v>206</v>
       </c>
       <c r="D181" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E181" s="77" t="s">
         <v>4</v>
@@ -9350,47 +9422,47 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="82" t="s">
+        <v>356</v>
+      </c>
+      <c r="B182" s="41" t="s">
         <v>357</v>
-      </c>
-      <c r="B182" s="41" t="s">
-        <v>358</v>
       </c>
       <c r="C182" s="41" t="s">
         <v>205</v>
       </c>
       <c r="D182" s="41"/>
       <c r="E182" s="41" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="82" t="s">
+        <v>358</v>
+      </c>
+      <c r="B183" s="41" t="s">
         <v>359</v>
-      </c>
-      <c r="B183" s="41" t="s">
-        <v>360</v>
       </c>
       <c r="C183" s="41" t="s">
         <v>205</v>
       </c>
       <c r="D183" s="41"/>
       <c r="E183" s="41" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="82" t="s">
+        <v>360</v>
+      </c>
+      <c r="B184" s="41" t="s">
         <v>361</v>
-      </c>
-      <c r="B184" s="41" t="s">
-        <v>362</v>
       </c>
       <c r="C184" s="41" t="s">
         <v>205</v>
       </c>
       <c r="D184" s="41"/>
       <c r="E184" s="41" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.25">
@@ -9398,14 +9470,14 @@
         <v>257</v>
       </c>
       <c r="B185" s="41" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C185" s="41" t="s">
         <v>205</v>
       </c>
       <c r="D185" s="41"/>
       <c r="E185" s="41" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.25">
@@ -9413,14 +9485,14 @@
         <v>258</v>
       </c>
       <c r="B186" s="55" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C186" s="55" t="s">
         <v>205</v>
       </c>
       <c r="D186" s="55"/>
       <c r="E186" s="55" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.25">
@@ -9439,7 +9511,7 @@
     </row>
     <row r="189" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="50" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B189" s="40"/>
       <c r="C189" s="40"/>
@@ -9463,7 +9535,7 @@
         <v>206</v>
       </c>
       <c r="D191" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E191" s="77" t="s">
         <v>4</v>
@@ -9471,10 +9543,10 @@
     </row>
     <row r="192" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="41" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B192" s="42" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C192" s="42" t="s">
         <v>205</v>
@@ -9486,10 +9558,10 @@
     </row>
     <row r="193" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="41" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B193" s="42" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C193" s="42" t="s">
         <v>205</v>
@@ -9501,10 +9573,10 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="41" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B194" s="42" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C194" s="42" t="s">
         <v>205</v>
@@ -9516,10 +9588,10 @@
     </row>
     <row r="195" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="55" t="s">
+        <v>373</v>
+      </c>
+      <c r="B195" s="48" t="s">
         <v>374</v>
-      </c>
-      <c r="B195" s="48" t="s">
-        <v>375</v>
       </c>
       <c r="C195" s="48" t="s">
         <v>205</v>
@@ -9545,7 +9617,7 @@
     </row>
     <row r="198" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="50" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B198" s="40"/>
       <c r="C198" s="40"/>
@@ -9569,7 +9641,7 @@
         <v>206</v>
       </c>
       <c r="D200" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E200" s="77" t="s">
         <v>4</v>
@@ -9577,10 +9649,10 @@
     </row>
     <row r="201" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="41" t="s">
+        <v>459</v>
+      </c>
+      <c r="B201" s="42" t="s">
         <v>460</v>
-      </c>
-      <c r="B201" s="42" t="s">
-        <v>461</v>
       </c>
       <c r="C201" s="42" t="s">
         <v>205</v>
@@ -9592,16 +9664,16 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="41" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B202" s="42" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C202" s="41" t="s">
         <v>3</v>
       </c>
       <c r="D202" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E202" s="42" t="s">
         <v>48</v>
@@ -9609,10 +9681,10 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="41" t="s">
+        <v>463</v>
+      </c>
+      <c r="B203" s="42" t="s">
         <v>464</v>
-      </c>
-      <c r="B203" s="42" t="s">
-        <v>465</v>
       </c>
       <c r="C203" s="42" t="s">
         <v>205</v>
@@ -9624,16 +9696,16 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="41" t="s">
+        <v>465</v>
+      </c>
+      <c r="B204" s="41" t="s">
         <v>466</v>
       </c>
-      <c r="B204" s="41" t="s">
-        <v>467</v>
-      </c>
       <c r="C204" s="41" t="s">
         <v>205</v>
       </c>
       <c r="D204" s="41" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E204" s="41" t="s">
         <v>48</v>
@@ -9641,10 +9713,10 @@
     </row>
     <row r="205" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="41" t="s">
+        <v>467</v>
+      </c>
+      <c r="B205" s="41" t="s">
         <v>468</v>
-      </c>
-      <c r="B205" s="41" t="s">
-        <v>469</v>
       </c>
       <c r="C205" s="41" t="s">
         <v>205</v>
@@ -9656,10 +9728,10 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="41" t="s">
+        <v>469</v>
+      </c>
+      <c r="B206" s="41" t="s">
         <v>470</v>
-      </c>
-      <c r="B206" s="41" t="s">
-        <v>471</v>
       </c>
       <c r="C206" s="41" t="s">
         <v>205</v>
@@ -9671,10 +9743,10 @@
     </row>
     <row r="207" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="55" t="s">
+        <v>471</v>
+      </c>
+      <c r="B207" s="55" t="s">
         <v>472</v>
-      </c>
-      <c r="B207" s="55" t="s">
-        <v>473</v>
       </c>
       <c r="C207" s="55" t="s">
         <v>205</v>
@@ -9700,7 +9772,7 @@
     </row>
     <row r="210" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="50" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B210" s="40"/>
       <c r="C210" s="40"/>
@@ -9724,7 +9796,7 @@
         <v>206</v>
       </c>
       <c r="D212" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E212" s="77" t="s">
         <v>4</v>
@@ -9732,10 +9804,10 @@
     </row>
     <row r="213" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="41" t="s">
+        <v>475</v>
+      </c>
+      <c r="B213" s="41" t="s">
         <v>476</v>
-      </c>
-      <c r="B213" s="41" t="s">
-        <v>477</v>
       </c>
       <c r="C213" s="41" t="s">
         <v>205</v>
@@ -9747,10 +9819,10 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="41" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B214" s="41" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C214" s="41" t="s">
         <v>205</v>
@@ -9762,10 +9834,10 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="41" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B215" s="41" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C215" s="41" t="s">
         <v>205</v>
@@ -9777,16 +9849,16 @@
     </row>
     <row r="216" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A216" s="41" t="s">
+        <v>481</v>
+      </c>
+      <c r="B216" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="B216" s="41" t="s">
-        <v>483</v>
-      </c>
       <c r="C216" s="41" t="s">
         <v>205</v>
       </c>
       <c r="D216" s="91" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E216" s="41" t="s">
         <v>48</v>
@@ -9794,10 +9866,10 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="41" t="s">
+        <v>483</v>
+      </c>
+      <c r="B217" s="41" t="s">
         <v>484</v>
-      </c>
-      <c r="B217" s="41" t="s">
-        <v>485</v>
       </c>
       <c r="C217" s="41" t="s">
         <v>205</v>
@@ -9809,10 +9881,10 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="41" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B218" s="41" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C218" s="41" t="s">
         <v>205</v>
@@ -9824,10 +9896,10 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="41" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B219" s="41" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C219" s="41" t="s">
         <v>205</v>
@@ -9839,10 +9911,10 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="41" t="s">
+        <v>489</v>
+      </c>
+      <c r="B220" s="41" t="s">
         <v>490</v>
-      </c>
-      <c r="B220" s="41" t="s">
-        <v>491</v>
       </c>
       <c r="C220" s="41" t="s">
         <v>205</v>
@@ -9854,10 +9926,10 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="55" t="s">
+        <v>491</v>
+      </c>
+      <c r="B221" s="55" t="s">
         <v>492</v>
-      </c>
-      <c r="B221" s="55" t="s">
-        <v>493</v>
       </c>
       <c r="C221" s="55" t="s">
         <v>205</v>
@@ -9883,7 +9955,7 @@
     </row>
     <row r="224" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="50" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B224" s="40"/>
       <c r="C224" s="40"/>
@@ -9907,7 +9979,7 @@
         <v>206</v>
       </c>
       <c r="D226" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E226" s="77" t="s">
         <v>4</v>
@@ -9915,16 +9987,16 @@
     </row>
     <row r="227" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="41" t="s">
+        <v>376</v>
+      </c>
+      <c r="B227" s="41" t="s">
         <v>377</v>
-      </c>
-      <c r="B227" s="41" t="s">
-        <v>378</v>
       </c>
       <c r="C227" s="41" t="s">
         <v>3</v>
       </c>
       <c r="D227" s="41" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E227" s="41" t="s">
         <v>48</v>
@@ -9932,16 +10004,16 @@
     </row>
     <row r="228" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="41" t="s">
+        <v>379</v>
+      </c>
+      <c r="B228" s="41" t="s">
         <v>380</v>
-      </c>
-      <c r="B228" s="41" t="s">
-        <v>381</v>
       </c>
       <c r="C228" s="41" t="s">
         <v>3</v>
       </c>
       <c r="D228" s="41" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E228" s="41" t="s">
         <v>48</v>
@@ -9949,16 +10021,16 @@
     </row>
     <row r="229" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="55" t="s">
+        <v>381</v>
+      </c>
+      <c r="B229" s="55" t="s">
         <v>382</v>
-      </c>
-      <c r="B229" s="55" t="s">
-        <v>383</v>
       </c>
       <c r="C229" s="55" t="s">
         <v>3</v>
       </c>
       <c r="D229" s="55" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E229" s="55" t="s">
         <v>48</v>
@@ -9980,7 +10052,7 @@
     </row>
     <row r="232" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="50" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B232" s="40"/>
       <c r="C232" s="40"/>
@@ -10004,7 +10076,7 @@
         <v>206</v>
       </c>
       <c r="D234" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E234" s="77" t="s">
         <v>4</v>
@@ -10012,16 +10084,16 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="41" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B235" s="41" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C235" s="41" t="s">
         <v>205</v>
       </c>
       <c r="D235" s="41" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E235" s="41" t="s">
         <v>48</v>
@@ -10029,16 +10101,16 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="41" t="s">
+        <v>437</v>
+      </c>
+      <c r="B236" s="41" t="s">
         <v>438</v>
       </c>
-      <c r="B236" s="41" t="s">
+      <c r="C236" s="41" t="s">
+        <v>205</v>
+      </c>
+      <c r="D236" s="41" t="s">
         <v>439</v>
-      </c>
-      <c r="C236" s="41" t="s">
-        <v>205</v>
-      </c>
-      <c r="D236" s="41" t="s">
-        <v>440</v>
       </c>
       <c r="E236" s="41" t="s">
         <v>48</v>
@@ -10046,16 +10118,16 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="41" t="s">
+        <v>525</v>
+      </c>
+      <c r="B237" s="41" t="s">
         <v>526</v>
       </c>
-      <c r="B237" s="41" t="s">
-        <v>527</v>
-      </c>
       <c r="C237" s="41" t="s">
         <v>205</v>
       </c>
       <c r="D237" s="41" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E237" s="41" t="s">
         <v>48</v>
@@ -10063,16 +10135,16 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="55" t="s">
+        <v>440</v>
+      </c>
+      <c r="B238" s="55" t="s">
         <v>441</v>
       </c>
-      <c r="B238" s="55" t="s">
-        <v>442</v>
-      </c>
       <c r="C238" s="55" t="s">
         <v>205</v>
       </c>
       <c r="D238" s="55" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E238" s="55" t="s">
         <v>48</v>
@@ -10094,7 +10166,7 @@
     </row>
     <row r="241" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="50" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B241" s="40"/>
       <c r="C241" s="40"/>
@@ -10118,7 +10190,7 @@
         <v>206</v>
       </c>
       <c r="D243" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E243" s="77" t="s">
         <v>4</v>
@@ -10126,16 +10198,16 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="41" t="s">
+        <v>454</v>
+      </c>
+      <c r="B244" s="41" t="s">
         <v>455</v>
       </c>
-      <c r="B244" s="41" t="s">
-        <v>456</v>
-      </c>
       <c r="C244" s="41" t="s">
         <v>205</v>
       </c>
       <c r="D244" s="41" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E244" s="41" t="s">
         <v>48</v>
@@ -10143,16 +10215,16 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="55" t="s">
+        <v>456</v>
+      </c>
+      <c r="B245" s="55" t="s">
         <v>457</v>
       </c>
-      <c r="B245" s="55" t="s">
-        <v>458</v>
-      </c>
       <c r="C245" s="55" t="s">
         <v>205</v>
       </c>
       <c r="D245" s="55" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E245" s="55" t="s">
         <v>48</v>
@@ -10174,7 +10246,7 @@
     </row>
     <row r="248" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="50" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B248" s="40"/>
       <c r="C248" s="40"/>
@@ -10198,7 +10270,7 @@
         <v>206</v>
       </c>
       <c r="D250" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E250" s="77" t="s">
         <v>4</v>
@@ -10206,10 +10278,10 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="41" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B251" s="41" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C251" s="41" t="s">
         <v>205</v>
@@ -10221,10 +10293,10 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="41" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B252" s="41" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C252" s="41" t="s">
         <v>205</v>
@@ -10236,10 +10308,10 @@
     </row>
     <row r="253" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="41" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B253" s="41" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C253" s="41" t="s">
         <v>205</v>
@@ -10251,10 +10323,10 @@
     </row>
     <row r="254" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="41" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B254" s="41" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C254" s="41" t="s">
         <v>205</v>
@@ -10266,10 +10338,10 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="55" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B255" s="55" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C255" s="55" t="s">
         <v>205</v>
@@ -10295,7 +10367,7 @@
     </row>
     <row r="258" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="50" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B258" s="40"/>
       <c r="C258" s="40"/>
@@ -10319,7 +10391,7 @@
         <v>206</v>
       </c>
       <c r="D260" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E260" s="77" t="s">
         <v>4</v>
@@ -10327,10 +10399,10 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="41" t="s">
+        <v>508</v>
+      </c>
+      <c r="B261" s="41" t="s">
         <v>509</v>
-      </c>
-      <c r="B261" s="41" t="s">
-        <v>510</v>
       </c>
       <c r="C261" s="41" t="s">
         <v>205</v>
@@ -10342,16 +10414,16 @@
     </row>
     <row r="262" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="41" t="s">
+        <v>510</v>
+      </c>
+      <c r="B262" s="41" t="s">
         <v>511</v>
       </c>
-      <c r="B262" s="41" t="s">
-        <v>512</v>
-      </c>
       <c r="C262" s="41" t="s">
         <v>205</v>
       </c>
       <c r="D262" s="41" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E262" s="41" t="s">
         <v>8</v>
@@ -10359,10 +10431,10 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="55" t="s">
+        <v>512</v>
+      </c>
+      <c r="B263" s="55" t="s">
         <v>513</v>
-      </c>
-      <c r="B263" s="55" t="s">
-        <v>514</v>
       </c>
       <c r="C263" s="55" t="s">
         <v>205</v>
@@ -10388,7 +10460,7 @@
     </row>
     <row r="266" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="50" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B266" s="40"/>
       <c r="C266" s="40"/>
@@ -10412,7 +10484,7 @@
         <v>206</v>
       </c>
       <c r="D268" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E268" s="77" t="s">
         <v>4</v>
@@ -10420,10 +10492,10 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="41" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B269" s="41" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C269" s="41" t="s">
         <v>205</v>
@@ -10435,10 +10507,10 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="41" t="s">
+        <v>517</v>
+      </c>
+      <c r="B270" s="41" t="s">
         <v>518</v>
-      </c>
-      <c r="B270" s="41" t="s">
-        <v>519</v>
       </c>
       <c r="C270" s="41" t="s">
         <v>205</v>
@@ -10450,10 +10522,10 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="41" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B271" s="41" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C271" s="41" t="s">
         <v>205</v>
@@ -10465,10 +10537,10 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="55" t="s">
+        <v>521</v>
+      </c>
+      <c r="B272" s="55" t="s">
         <v>522</v>
-      </c>
-      <c r="B272" s="55" t="s">
-        <v>523</v>
       </c>
       <c r="C272" s="55" t="s">
         <v>205</v>
@@ -10518,7 +10590,7 @@
         <v>206</v>
       </c>
       <c r="D277" s="28" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E277" s="32" t="s">
         <v>4</v>
@@ -10550,7 +10622,7 @@
         <v>3</v>
       </c>
       <c r="D279" s="42" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E279" s="43" t="s">
         <v>8</v>
@@ -10637,7 +10709,7 @@
         <v>3</v>
       </c>
       <c r="D285" s="42" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E285" s="43" t="s">
         <v>8</v>
@@ -10690,13 +10762,13 @@
         <v>229</v>
       </c>
       <c r="B289" s="38" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C289" s="42" t="s">
         <v>3</v>
       </c>
       <c r="D289" s="39" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E289" s="43" t="s">
         <v>8</v>
@@ -10797,7 +10869,7 @@
         <v>3</v>
       </c>
       <c r="D296" s="42" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E296" s="38" t="s">
         <v>8</v>
@@ -10805,10 +10877,10 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="37" t="s">
+        <v>493</v>
+      </c>
+      <c r="B297" s="38" t="s">
         <v>494</v>
-      </c>
-      <c r="B297" s="38" t="s">
-        <v>495</v>
       </c>
       <c r="C297" s="38" t="s">
         <v>205</v>
@@ -10819,16 +10891,16 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="37" t="s">
+        <v>495</v>
+      </c>
+      <c r="B298" s="38" t="s">
         <v>496</v>
-      </c>
-      <c r="B298" s="38" t="s">
-        <v>497</v>
       </c>
       <c r="C298" s="42" t="s">
         <v>3</v>
       </c>
       <c r="D298" s="39" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E298" s="38" t="s">
         <v>8</v>
@@ -10836,16 +10908,16 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="37" t="s">
+        <v>498</v>
+      </c>
+      <c r="B299" s="38" t="s">
         <v>499</v>
-      </c>
-      <c r="B299" s="38" t="s">
-        <v>500</v>
       </c>
       <c r="C299" s="42" t="s">
         <v>3</v>
       </c>
       <c r="D299" s="39" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E299" s="38" t="s">
         <v>8</v>
@@ -10853,16 +10925,16 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="37" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B300" s="38" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C300" s="42" t="s">
         <v>3</v>
       </c>
       <c r="D300" s="39" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E300" s="38" t="s">
         <v>8</v>
@@ -10870,16 +10942,16 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="37" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B301" s="38" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C301" s="42" t="s">
         <v>3</v>
       </c>
       <c r="D301" s="39" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E301" s="38" t="s">
         <v>8</v>
@@ -10887,16 +10959,16 @@
     </row>
     <row r="302" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" s="37" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B302" s="38" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C302" s="42" t="s">
         <v>3</v>
       </c>
       <c r="D302" s="39" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E302" s="38" t="s">
         <v>8</v>
@@ -10904,10 +10976,10 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="37" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B303" s="38" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C303" s="38" t="s">
         <v>205</v>
@@ -10918,10 +10990,10 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="37" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B304" s="38" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C304" s="38" t="s">
         <v>205</v>
@@ -10932,1106 +11004,1106 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C79:C82 C278:C284 C286:C288 C95:C96 C73:C75 C51:C70 C4:C11 C84:C91 C13:C37 C40:C42 C178 C111:C112 C246:C247 C115:C116 C93">
-    <cfRule type="containsText" dxfId="379" priority="338" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="387" priority="338" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="378" priority="339" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="386" priority="339" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="377" priority="340" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="385" priority="340" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79:C82 C278:C284 C286:C288 C95:C96 C73:C75 C51:C70 C4:C11 C84:C91 C13:C37 C40:C42 C178 C111:C112 C246:C247 C115:C116 C93">
-    <cfRule type="containsText" dxfId="376" priority="337" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="384" priority="337" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100">
-    <cfRule type="containsText" dxfId="375" priority="334" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="383" priority="334" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C100)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="374" priority="335" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="382" priority="335" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C100)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="373" priority="336" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="381" priority="336" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100">
-    <cfRule type="containsText" dxfId="372" priority="333" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="380" priority="333" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102">
-    <cfRule type="containsText" dxfId="371" priority="325" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="379" priority="325" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101">
-    <cfRule type="containsText" dxfId="370" priority="330" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="378" priority="330" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C101)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="369" priority="331" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="377" priority="331" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C101)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="368" priority="332" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="376" priority="332" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101">
-    <cfRule type="containsText" dxfId="367" priority="329" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="375" priority="329" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102">
-    <cfRule type="containsText" dxfId="366" priority="326" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="374" priority="326" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="365" priority="327" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="373" priority="327" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="364" priority="328" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="372" priority="328" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C104:C106">
-    <cfRule type="containsText" dxfId="363" priority="317" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="371" priority="317" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C104)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C103">
-    <cfRule type="containsText" dxfId="362" priority="321" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="370" priority="321" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C103)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C103">
-    <cfRule type="containsText" dxfId="361" priority="322" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="369" priority="322" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C103)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="360" priority="323" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="368" priority="323" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C103)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="359" priority="324" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="367" priority="324" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C103)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C285">
-    <cfRule type="containsText" dxfId="358" priority="289" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="366" priority="289" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C285)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C104:C106">
-    <cfRule type="containsText" dxfId="357" priority="318" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="365" priority="318" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C104)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="356" priority="319" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="364" priority="319" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C104)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="355" priority="320" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="363" priority="320" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C104)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C289">
-    <cfRule type="containsText" dxfId="354" priority="314" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="362" priority="314" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C289)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="353" priority="315" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="361" priority="315" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C289)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="352" priority="316" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="360" priority="316" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C289)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C289">
-    <cfRule type="containsText" dxfId="351" priority="313" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="359" priority="313" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C289)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C290">
-    <cfRule type="containsText" dxfId="350" priority="310" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="358" priority="310" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C290)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="349" priority="311" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="357" priority="311" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C290)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="348" priority="312" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="356" priority="312" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C290)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C290">
-    <cfRule type="containsText" dxfId="347" priority="309" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="355" priority="309" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C290)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C291">
-    <cfRule type="containsText" dxfId="346" priority="306" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="354" priority="306" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C291)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="345" priority="307" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="353" priority="307" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C291)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="344" priority="308" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="352" priority="308" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C291)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C291">
-    <cfRule type="containsText" dxfId="343" priority="305" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="351" priority="305" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C291)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C292">
-    <cfRule type="containsText" dxfId="342" priority="302" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="350" priority="302" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C292)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="341" priority="303" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="349" priority="303" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C292)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="340" priority="304" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="348" priority="304" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C292)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C292">
-    <cfRule type="containsText" dxfId="339" priority="301" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="347" priority="301" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C292)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C293">
-    <cfRule type="containsText" dxfId="338" priority="298" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="346" priority="298" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C293)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="337" priority="299" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="345" priority="299" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C293)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="336" priority="300" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="344" priority="300" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C293)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C293">
-    <cfRule type="containsText" dxfId="335" priority="297" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="343" priority="297" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C293)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C294">
-    <cfRule type="containsText" dxfId="334" priority="294" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="342" priority="294" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C294)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="333" priority="295" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="341" priority="295" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C294)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="332" priority="296" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="340" priority="296" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C294)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C294">
-    <cfRule type="containsText" dxfId="331" priority="293" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="339" priority="293" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C294)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C285">
-    <cfRule type="containsText" dxfId="330" priority="290" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="338" priority="290" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C285)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="329" priority="291" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="337" priority="291" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C285)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="328" priority="292" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="336" priority="292" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C285)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C110">
-    <cfRule type="containsText" dxfId="327" priority="286" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="335" priority="286" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C110)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="326" priority="287" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="334" priority="287" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C110)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="325" priority="288" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="333" priority="288" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C110">
-    <cfRule type="containsText" dxfId="324" priority="285" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="332" priority="285" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C147">
-    <cfRule type="containsText" dxfId="323" priority="278" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="331" priority="278" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C147)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="322" priority="279" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="330" priority="279" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C147)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="321" priority="280" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="329" priority="280" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C147)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C147">
-    <cfRule type="containsText" dxfId="320" priority="277" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="328" priority="277" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C147)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148">
-    <cfRule type="containsText" dxfId="319" priority="274" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="327" priority="274" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C148)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="318" priority="275" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="326" priority="275" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C148)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="317" priority="276" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="325" priority="276" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C148)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148">
-    <cfRule type="containsText" dxfId="316" priority="273" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="324" priority="273" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C148)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C149">
-    <cfRule type="containsText" dxfId="315" priority="270" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="323" priority="270" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C149)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="314" priority="271" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="322" priority="271" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C149)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="313" priority="272" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="321" priority="272" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C149)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C149">
-    <cfRule type="containsText" dxfId="312" priority="269" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="320" priority="269" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C149)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C150">
-    <cfRule type="containsText" dxfId="311" priority="266" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="319" priority="266" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C150)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="310" priority="267" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="318" priority="267" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C150)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="309" priority="268" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="317" priority="268" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C150)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C150">
-    <cfRule type="containsText" dxfId="308" priority="265" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="316" priority="265" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C150)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C151">
-    <cfRule type="containsText" dxfId="307" priority="262" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="315" priority="262" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C151)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="306" priority="263" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="314" priority="263" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C151)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="305" priority="264" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="313" priority="264" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C151)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C151">
-    <cfRule type="containsText" dxfId="304" priority="261" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="312" priority="261" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C151)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152">
-    <cfRule type="containsText" dxfId="303" priority="258" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="311" priority="258" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="302" priority="259" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="310" priority="259" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="301" priority="260" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="309" priority="260" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152">
-    <cfRule type="containsText" dxfId="300" priority="257" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="308" priority="257" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C153">
-    <cfRule type="containsText" dxfId="299" priority="254" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="307" priority="254" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C153)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="298" priority="255" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="306" priority="255" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C153)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="297" priority="256" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="305" priority="256" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C153)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C153">
-    <cfRule type="containsText" dxfId="296" priority="253" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="304" priority="253" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C153)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C154">
-    <cfRule type="containsText" dxfId="295" priority="250" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="303" priority="250" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C154)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="294" priority="251" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="302" priority="251" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C154)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="293" priority="252" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="301" priority="252" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C154)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C154">
-    <cfRule type="containsText" dxfId="292" priority="249" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="300" priority="249" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C154)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C155">
-    <cfRule type="containsText" dxfId="291" priority="246" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="299" priority="246" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="290" priority="247" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="298" priority="247" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="289" priority="248" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="297" priority="248" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C155)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C155">
-    <cfRule type="containsText" dxfId="288" priority="245" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="296" priority="245" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C155)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C156">
-    <cfRule type="containsText" dxfId="287" priority="242" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="295" priority="242" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C156)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="286" priority="243" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="294" priority="243" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C156)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="285" priority="244" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="293" priority="244" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C156)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C156">
-    <cfRule type="containsText" dxfId="284" priority="241" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="292" priority="241" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C156)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C157">
-    <cfRule type="containsText" dxfId="283" priority="238" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="291" priority="238" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C157)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="282" priority="239" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="290" priority="239" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C157)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="281" priority="240" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="289" priority="240" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C157">
-    <cfRule type="containsText" dxfId="280" priority="237" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="288" priority="237" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C158">
-    <cfRule type="containsText" dxfId="279" priority="234" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="287" priority="234" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C158)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="278" priority="235" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="286" priority="235" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C158)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="277" priority="236" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="285" priority="236" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C158)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C158">
-    <cfRule type="containsText" dxfId="276" priority="233" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="284" priority="233" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C158)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C159">
-    <cfRule type="containsText" dxfId="275" priority="230" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="283" priority="230" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C159)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="274" priority="231" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="282" priority="231" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C159)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="273" priority="232" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="281" priority="232" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C159)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C159">
-    <cfRule type="containsText" dxfId="272" priority="229" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="280" priority="229" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C159)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C160">
-    <cfRule type="containsText" dxfId="271" priority="226" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="279" priority="226" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C160)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="270" priority="227" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="278" priority="227" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C160)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="269" priority="228" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="277" priority="228" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C160)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C160">
-    <cfRule type="containsText" dxfId="268" priority="225" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="276" priority="225" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C160)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C161">
-    <cfRule type="containsText" dxfId="267" priority="222" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="275" priority="222" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C161)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="266" priority="223" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="274" priority="223" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C161)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="265" priority="224" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="273" priority="224" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C161)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C161">
-    <cfRule type="containsText" dxfId="264" priority="221" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="272" priority="221" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C161)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C162">
-    <cfRule type="containsText" dxfId="263" priority="218" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="271" priority="218" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C162)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="262" priority="219" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="270" priority="219" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C162)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="261" priority="220" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="269" priority="220" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C162)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C162">
-    <cfRule type="containsText" dxfId="260" priority="217" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="268" priority="217" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C162)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C163">
-    <cfRule type="containsText" dxfId="259" priority="214" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="267" priority="214" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C163)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="258" priority="215" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="266" priority="215" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C163)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="257" priority="216" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="265" priority="216" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C163)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C163">
-    <cfRule type="containsText" dxfId="256" priority="213" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="264" priority="213" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C163)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C164">
-    <cfRule type="containsText" dxfId="255" priority="210" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="263" priority="210" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="254" priority="211" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="262" priority="211" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="253" priority="212" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="261" priority="212" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C164">
-    <cfRule type="containsText" dxfId="252" priority="209" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="260" priority="209" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C165:C167">
-    <cfRule type="containsText" dxfId="251" priority="206" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="259" priority="206" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C165)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="250" priority="207" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="258" priority="207" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C165)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="249" priority="208" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="257" priority="208" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C165)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C165:C167">
-    <cfRule type="containsText" dxfId="248" priority="205" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="256" priority="205" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C165)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C296">
-    <cfRule type="containsText" dxfId="247" priority="198" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="255" priority="198" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C296)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="246" priority="199" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="254" priority="199" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C296)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="245" priority="200" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="253" priority="200" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C296)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C296">
-    <cfRule type="containsText" dxfId="244" priority="197" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="252" priority="197" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C296)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C83">
-    <cfRule type="containsText" dxfId="243" priority="186" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="251" priority="186" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="242" priority="187" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="250" priority="187" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="241" priority="188" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="249" priority="188" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C83">
-    <cfRule type="containsText" dxfId="240" priority="185" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="248" priority="185" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C44">
-    <cfRule type="containsText" dxfId="239" priority="174" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="247" priority="174" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="175" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="246" priority="175" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="237" priority="176" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="245" priority="176" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C44">
-    <cfRule type="containsText" dxfId="236" priority="173" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="244" priority="173" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="containsText" dxfId="235" priority="162" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="243" priority="162" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="163" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="242" priority="163" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="233" priority="164" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="241" priority="164" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="containsText" dxfId="232" priority="161" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="240" priority="161" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="containsText" dxfId="231" priority="166" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="239" priority="166" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="230" priority="167" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="238" priority="167" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="168" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="237" priority="168" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="containsText" dxfId="228" priority="165" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="236" priority="165" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:C50">
-    <cfRule type="containsText" dxfId="227" priority="170" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="235" priority="170" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="171" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="234" priority="171" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="225" priority="172" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="233" priority="172" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:C50">
-    <cfRule type="containsText" dxfId="224" priority="169" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="232" priority="169" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C94">
-    <cfRule type="containsText" dxfId="223" priority="154" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="231" priority="154" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="155" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="230" priority="155" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="221" priority="156" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="229" priority="156" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C94">
-    <cfRule type="containsText" dxfId="220" priority="153" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="228" priority="153" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="containsText" dxfId="219" priority="150" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="227" priority="150" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="218" priority="151" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="226" priority="151" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="217" priority="152" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="225" priority="152" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="containsText" dxfId="216" priority="149" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="224" priority="149" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="215" priority="146" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="223" priority="146" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="147" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="222" priority="147" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="148" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="221" priority="148" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="212" priority="145" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="220" priority="145" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C47">
-    <cfRule type="containsText" dxfId="211" priority="142" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="219" priority="142" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="143" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="218" priority="143" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="209" priority="144" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="217" priority="144" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C47">
-    <cfRule type="containsText" dxfId="208" priority="141" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="216" priority="141" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="containsText" dxfId="207" priority="138" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="215" priority="138" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="139" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="214" priority="139" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="140" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="213" priority="140" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="containsText" dxfId="204" priority="137" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="212" priority="137" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="containsText" dxfId="203" priority="134" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="211" priority="134" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="135" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="210" priority="135" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="136" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="209" priority="136" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="containsText" dxfId="200" priority="133" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="208" priority="133" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="containsText" dxfId="199" priority="130" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="207" priority="130" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="131" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="206" priority="131" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="132" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="205" priority="132" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="containsText" dxfId="196" priority="129" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="204" priority="129" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C227">
-    <cfRule type="containsText" dxfId="195" priority="126" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="203" priority="126" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C227)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="127" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="202" priority="127" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C227)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="128" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="201" priority="128" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C227)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C227">
-    <cfRule type="containsText" dxfId="192" priority="125" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="200" priority="125" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C227)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C228">
-    <cfRule type="containsText" dxfId="191" priority="122" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="199" priority="122" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C228)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="123" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="198" priority="123" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C228)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="124" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="197" priority="124" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C228)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C228">
-    <cfRule type="containsText" dxfId="188" priority="121" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="196" priority="121" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C228)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C229">
-    <cfRule type="containsText" dxfId="187" priority="118" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="195" priority="118" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C229)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="119" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="194" priority="119" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C229)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="185" priority="120" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="193" priority="120" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C229)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C229">
-    <cfRule type="containsText" dxfId="184" priority="117" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="192" priority="117" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C229)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C142:C143">
-    <cfRule type="containsText" dxfId="183" priority="114" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="191" priority="114" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C142)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="115" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="190" priority="115" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C142)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="116" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="189" priority="116" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C142:C143">
-    <cfRule type="containsText" dxfId="180" priority="113" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="188" priority="113" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C140">
-    <cfRule type="containsText" dxfId="179" priority="102" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="187" priority="102" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C140)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="103" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="186" priority="103" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C140)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="104" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="185" priority="104" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C140">
-    <cfRule type="containsText" dxfId="176" priority="101" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="184" priority="101" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C135">
-    <cfRule type="containsText" dxfId="175" priority="98" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="183" priority="98" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C135)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="99" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="182" priority="99" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C135)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="100" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="181" priority="100" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C135)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C135">
-    <cfRule type="containsText" dxfId="172" priority="97" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="180" priority="97" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C135)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C236">
-    <cfRule type="containsText" dxfId="171" priority="90" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="179" priority="90" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C236)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="91" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="178" priority="91" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C236)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="92" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="177" priority="92" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C236)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C236">
-    <cfRule type="containsText" dxfId="168" priority="89" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="176" priority="89" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C236)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C238:C240">
-    <cfRule type="containsText" dxfId="167" priority="86" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="175" priority="86" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C238)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="87" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="174" priority="87" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C238)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="88" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="173" priority="88" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C238)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C238:C240">
-    <cfRule type="containsText" dxfId="164" priority="85" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="172" priority="85" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C238)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C235">
-    <cfRule type="containsText" dxfId="163" priority="82" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="171" priority="82" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C235)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="83" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="170" priority="83" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C235)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="84" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="169" priority="84" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C235)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C235">
-    <cfRule type="containsText" dxfId="160" priority="81" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="168" priority="81" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C235)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C252">
-    <cfRule type="containsText" dxfId="159" priority="78" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="167" priority="78" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C252)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="79" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="166" priority="79" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C252)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="80" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="165" priority="80" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C252)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C252">
-    <cfRule type="containsText" dxfId="156" priority="77" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="164" priority="77" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C252)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C253:C257">
-    <cfRule type="containsText" dxfId="155" priority="74" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="163" priority="74" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C253)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="75" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="162" priority="75" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C253)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="76" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="161" priority="76" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C253)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C253:C257">
-    <cfRule type="containsText" dxfId="152" priority="73" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="160" priority="73" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C253)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A251:E255">
-    <cfRule type="containsText" dxfId="151" priority="70" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="159" priority="70" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",A251)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="71" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="158" priority="71" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",A251)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="72" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="157" priority="72" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",A251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A251:E255">
-    <cfRule type="containsText" dxfId="148" priority="69" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="156" priority="69" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",A251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C245">
-    <cfRule type="containsText" dxfId="147" priority="66" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="155" priority="66" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C245)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="67" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="154" priority="67" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C245)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="68" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="153" priority="68" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C245)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C245">
-    <cfRule type="containsText" dxfId="144" priority="65" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="152" priority="65" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C245)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C244">
-    <cfRule type="containsText" dxfId="143" priority="58" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="151" priority="58" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C244)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="59" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="150" priority="59" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C244)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="60" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="149" priority="60" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C244)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C244">
-    <cfRule type="containsText" dxfId="140" priority="57" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="148" priority="57" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C244)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C202">
-    <cfRule type="containsText" dxfId="139" priority="54" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="147" priority="54" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C202)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="55" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="146" priority="55" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C202)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="56" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="145" priority="56" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C202)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C202">
-    <cfRule type="containsText" dxfId="136" priority="53" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="144" priority="53" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C202)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C298">
-    <cfRule type="containsText" dxfId="135" priority="42" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="143" priority="42" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C298)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="43" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="142" priority="43" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C298)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="44" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="141" priority="44" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C298)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C298">
-    <cfRule type="containsText" dxfId="132" priority="41" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="140" priority="41" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C298)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C302">
-    <cfRule type="containsText" dxfId="131" priority="34" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="139" priority="34" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C302)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="35" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="138" priority="35" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C302)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="36" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="137" priority="36" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C302)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C302">
-    <cfRule type="containsText" dxfId="128" priority="33" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="136" priority="33" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C302)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C299:C301">
-    <cfRule type="containsText" dxfId="127" priority="38" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="135" priority="38" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C299)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="39" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="134" priority="39" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C299)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="40" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="133" priority="40" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C299)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C299:C301">
-    <cfRule type="containsText" dxfId="124" priority="37" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="132" priority="37" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C299)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C264:C265">
-    <cfRule type="containsText" dxfId="123" priority="30" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="131" priority="30" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C264)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="31" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="130" priority="31" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C264)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="32" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="129" priority="32" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C264:C265">
-    <cfRule type="containsText" dxfId="120" priority="29" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="128" priority="29" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A261:E263">
-    <cfRule type="containsText" dxfId="119" priority="14" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="127" priority="14" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",A261)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="15" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="126" priority="15" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",A261)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="16" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="125" priority="16" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",A261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A261:E263">
-    <cfRule type="containsText" dxfId="116" priority="13" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="124" priority="13" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",A261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A269:E274">
-    <cfRule type="containsText" dxfId="115" priority="10" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="123" priority="10" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",A269)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="11" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="122" priority="11" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",A269)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="12" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="121" priority="12" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",A269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A269:E274">
-    <cfRule type="containsText" dxfId="112" priority="9" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="120" priority="9" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",A269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92">
-    <cfRule type="containsText" dxfId="111" priority="6" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="119" priority="6" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="7" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="118" priority="7" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="8" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="117" priority="8" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92">
-    <cfRule type="containsText" dxfId="108" priority="5" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="116" priority="5" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C237">
-    <cfRule type="containsText" dxfId="107" priority="2" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="115" priority="2" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C237)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="3" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="114" priority="3" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C237)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="4" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="113" priority="4" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C237)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C237">
-    <cfRule type="containsText" dxfId="104" priority="1" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="112" priority="1" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C237)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12050,8 +12122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P221"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="52.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12064,7 +12136,7 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="94" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B1" s="94"/>
       <c r="C1" s="94"/>
@@ -12084,7 +12156,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="84" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B2" s="84"/>
       <c r="C2" s="84"/>
@@ -12104,7 +12176,7 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="84" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B3" s="84"/>
       <c r="C3" s="84"/>
@@ -12151,7 +12223,7 @@
         <v>289</v>
       </c>
       <c r="D5" s="92" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -12616,7 +12688,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="35" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B52" s="42" t="s">
         <v>3</v>
@@ -12774,15 +12846,19 @@
       <c r="C67" s="69"/>
       <c r="D67" s="69"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="35" t="s">
         <v>31</v>
       </c>
       <c r="B68" s="42" t="s">
-        <v>205</v>
-      </c>
-      <c r="C68" s="69"/>
-      <c r="D68" s="69"/>
+        <v>2</v>
+      </c>
+      <c r="C68" s="95" t="s">
+        <v>551</v>
+      </c>
+      <c r="D68" s="66" t="s">
+        <v>572</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="35" t="s">
@@ -12924,15 +13000,19 @@
       <c r="C82" s="69"/>
       <c r="D82" s="69"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="35" t="s">
         <v>343</v>
       </c>
       <c r="B83" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C83" s="69"/>
-      <c r="D83" s="69"/>
+        <v>2</v>
+      </c>
+      <c r="C83" s="95" t="s">
+        <v>551</v>
+      </c>
+      <c r="D83" s="66" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="41" t="s">
@@ -12952,10 +13032,10 @@
         <v>3</v>
       </c>
       <c r="C85" s="69" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D85" s="69" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -12966,10 +13046,10 @@
         <v>3</v>
       </c>
       <c r="C86" s="69" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D86" s="69" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -12980,10 +13060,10 @@
         <v>3</v>
       </c>
       <c r="C87" s="69" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D87" s="69" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -12994,10 +13074,10 @@
         <v>3</v>
       </c>
       <c r="C88" s="69" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D88" s="69" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -13008,15 +13088,15 @@
         <v>3</v>
       </c>
       <c r="C89" s="69" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D89" s="69" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="35" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B90" s="42" t="s">
         <v>2</v>
@@ -13062,10 +13142,10 @@
         <v>3</v>
       </c>
       <c r="C94" s="69" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D94" s="69" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -13090,7 +13170,7 @@
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="35" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B97" s="42" t="s">
         <v>3</v>
@@ -13216,10 +13296,10 @@
         <v>16</v>
       </c>
       <c r="C109" s="69" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D109" s="69" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -13230,10 +13310,10 @@
         <v>16</v>
       </c>
       <c r="C110" s="69" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D110" s="69" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -13244,10 +13324,10 @@
         <v>16</v>
       </c>
       <c r="C111" s="69" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D111" s="69" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -13292,7 +13372,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="35" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B116" s="42" t="s">
         <v>3</v>
@@ -13322,16 +13402,16 @@
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="35" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B119" s="42" t="s">
         <v>3</v>
       </c>
       <c r="C119" s="69" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D119" s="69" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -13342,15 +13422,15 @@
         <v>3</v>
       </c>
       <c r="C120" s="69" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D120" s="69" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="35" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B121" s="42" t="s">
         <v>3</v>
@@ -13360,7 +13440,7 @@
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="35" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B122" s="42" t="s">
         <v>205</v>
@@ -13390,7 +13470,7 @@
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B125" s="42" t="s">
         <v>205</v>
@@ -13425,8 +13505,12 @@
       <c r="B128" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C128" s="69"/>
-      <c r="D128" s="69"/>
+      <c r="C128" s="69" t="s">
+        <v>551</v>
+      </c>
+      <c r="D128" s="69" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="35" t="s">
@@ -13480,7 +13564,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="35" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B134" s="42" t="s">
         <v>205</v>
@@ -13490,7 +13574,7 @@
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="35" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B135" s="42" t="s">
         <v>205</v>
@@ -13500,7 +13584,7 @@
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B136" s="42" t="s">
         <v>205</v>
@@ -13510,7 +13594,7 @@
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="35" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B137" s="42" t="s">
         <v>205</v>
@@ -13520,7 +13604,7 @@
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="35" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B138" s="42" t="s">
         <v>205</v>
@@ -13530,7 +13614,7 @@
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="35" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B139" s="42" t="s">
         <v>205</v>
@@ -13540,7 +13624,7 @@
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="35" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B140" s="42" t="s">
         <v>205</v>
@@ -13590,7 +13674,7 @@
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="35" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B145" s="42" t="s">
         <v>3</v>
@@ -13600,7 +13684,7 @@
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="35" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B146" s="42" t="s">
         <v>3</v>
@@ -13610,7 +13694,7 @@
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="35" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B147" s="42" t="s">
         <v>3</v>
@@ -13650,7 +13734,7 @@
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="35" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B151" s="42" t="s">
         <v>205</v>
@@ -13660,7 +13744,7 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="35" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B152" s="42" t="s">
         <v>205</v>
@@ -13670,7 +13754,7 @@
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="35" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B153" s="42" t="s">
         <v>3</v>
@@ -13680,7 +13764,7 @@
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="35" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B154" s="42" t="s">
         <v>205</v>
@@ -13690,7 +13774,7 @@
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B155" s="42" t="s">
         <v>205</v>
@@ -13700,7 +13784,7 @@
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="35" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B156" s="42" t="s">
         <v>205</v>
@@ -13710,7 +13794,7 @@
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="35" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B157" s="42" t="s">
         <v>205</v>
@@ -13720,7 +13804,7 @@
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="35" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B158" s="42" t="s">
         <v>205</v>
@@ -13730,7 +13814,7 @@
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="35" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B159" s="42" t="s">
         <v>205</v>
@@ -13740,7 +13824,7 @@
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="35" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B160" s="42" t="s">
         <v>205</v>
@@ -13750,7 +13834,7 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="35" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B161" s="42" t="s">
         <v>205</v>
@@ -13760,7 +13844,7 @@
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="35" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B162" s="42" t="s">
         <v>205</v>
@@ -13770,7 +13854,7 @@
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="35" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B163" s="42" t="s">
         <v>205</v>
@@ -13780,7 +13864,7 @@
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="35" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B164" s="42" t="s">
         <v>205</v>
@@ -13790,7 +13874,7 @@
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="35" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B165" s="42" t="s">
         <v>205</v>
@@ -13800,7 +13884,7 @@
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="35" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B166" s="42" t="s">
         <v>205</v>
@@ -13810,7 +13894,7 @@
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="35" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B167" s="42" t="s">
         <v>205</v>
@@ -13820,7 +13904,7 @@
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="35" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B168" s="42" t="s">
         <v>205</v>
@@ -13830,7 +13914,7 @@
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="35" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B169" s="42" t="s">
         <v>3</v>
@@ -13840,7 +13924,7 @@
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="35" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B170" s="42" t="s">
         <v>205</v>
@@ -13850,7 +13934,7 @@
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="35" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B171" s="42" t="s">
         <v>205</v>
@@ -13860,7 +13944,7 @@
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="35" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B172" s="42" t="s">
         <v>205</v>
@@ -13870,7 +13954,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="35" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B173" s="42" t="s">
         <v>205</v>
@@ -13880,7 +13964,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="35" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B174" s="42" t="s">
         <v>205</v>
@@ -13890,7 +13974,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="35" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B175" s="42" t="s">
         <v>205</v>
@@ -13900,7 +13984,7 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="35" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B176" s="42" t="s">
         <v>205</v>
@@ -13910,7 +13994,7 @@
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="35" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B177" s="42" t="s">
         <v>205</v>
@@ -13920,7 +14004,7 @@
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="35" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B178" s="42" t="s">
         <v>205</v>
@@ -13930,7 +14014,7 @@
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="35" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B179" s="42" t="s">
         <v>205</v>
@@ -13940,7 +14024,7 @@
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="35" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B180" s="42" t="s">
         <v>205</v>
@@ -13950,7 +14034,7 @@
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="35" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B181" s="42" t="s">
         <v>205</v>
@@ -13980,7 +14064,7 @@
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="35" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B184" s="42" t="s">
         <v>205</v>
@@ -13990,7 +14074,7 @@
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="35" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B185" s="42" t="s">
         <v>205</v>
@@ -14006,15 +14090,15 @@
         <v>16</v>
       </c>
       <c r="C186" s="69" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D186" s="69" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="35" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B187" s="42" t="s">
         <v>205</v>
@@ -14024,7 +14108,7 @@
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="35" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B188" s="42" t="s">
         <v>3</v>
@@ -14034,7 +14118,7 @@
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="35" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B189" s="42" t="s">
         <v>205</v>
@@ -14044,7 +14128,7 @@
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="35" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B190" s="42" t="s">
         <v>205</v>
@@ -14054,7 +14138,7 @@
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="35" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B191" s="42" t="s">
         <v>205</v>
@@ -14064,7 +14148,7 @@
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="35" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B192" s="42" t="s">
         <v>205</v>
@@ -14074,7 +14158,7 @@
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="35" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B193" s="42" t="s">
         <v>205</v>
@@ -14084,7 +14168,7 @@
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="35" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B194" s="42" t="s">
         <v>205</v>
@@ -14094,7 +14178,7 @@
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="35" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B195" s="42" t="s">
         <v>205</v>
@@ -14104,7 +14188,7 @@
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="35" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B196" s="42" t="s">
         <v>205</v>
@@ -14114,7 +14198,7 @@
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="35" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B197" s="42" t="s">
         <v>205</v>
@@ -14124,7 +14208,7 @@
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="35" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B198" s="42" t="s">
         <v>205</v>
@@ -14134,7 +14218,7 @@
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="35" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B199" s="42" t="s">
         <v>205</v>
@@ -14144,7 +14228,7 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="35" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B200" s="42" t="s">
         <v>205</v>
@@ -14154,7 +14238,7 @@
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="35" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B201" s="42" t="s">
         <v>205</v>
@@ -14164,7 +14248,7 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="35" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B202" s="42" t="s">
         <v>205</v>
@@ -14174,7 +14258,7 @@
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="35" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B203" s="42" t="s">
         <v>205</v>
@@ -14184,7 +14268,7 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="35" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B204" s="42" t="s">
         <v>3</v>
@@ -14210,15 +14294,15 @@
         <v>16</v>
       </c>
       <c r="C206" s="69" t="s">
+        <v>551</v>
+      </c>
+      <c r="D206" s="69" t="s">
         <v>552</v>
-      </c>
-      <c r="D206" s="69" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="35" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B207" s="42" t="s">
         <v>3</v>
@@ -14228,7 +14312,7 @@
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="35" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B208" s="42" t="s">
         <v>3</v>
@@ -14238,7 +14322,7 @@
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="35" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B209" s="42" t="s">
         <v>3</v>
@@ -14248,7 +14332,7 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="35" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B210" s="42" t="s">
         <v>3</v>
@@ -14278,7 +14362,7 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="35" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B213" s="38" t="s">
         <v>205</v>
@@ -14288,7 +14372,7 @@
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="35" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B214" s="38" t="s">
         <v>205</v>
@@ -14298,7 +14382,7 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="35" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B215" s="42" t="s">
         <v>205</v>
@@ -14308,7 +14392,7 @@
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="35" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B216" s="42" t="s">
         <v>3</v>
@@ -14318,7 +14402,7 @@
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="35" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B217" s="42" t="s">
         <v>205</v>
@@ -14328,7 +14412,7 @@
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="35" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B218" s="42" t="s">
         <v>205</v>
@@ -14338,7 +14422,7 @@
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="35" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B219" s="42" t="s">
         <v>205</v>
@@ -14348,7 +14432,7 @@
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="35" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B220" s="42" t="s">
         <v>205</v>
@@ -14358,7 +14442,7 @@
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="46" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B221" s="48" t="s">
         <v>205</v>
@@ -14375,418 +14459,418 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="B95">
-    <cfRule type="containsText" dxfId="103" priority="286" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="111" priority="286" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B95)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="287" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="110" priority="287" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B95)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="288" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="109" priority="288" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B95)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95">
-    <cfRule type="containsText" dxfId="100" priority="285" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="108" priority="285" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B95)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B13 B15:B39 B42:B44 B76:B90 B54:B73">
-    <cfRule type="containsText" dxfId="99" priority="302" stopIfTrue="1" operator="containsText" text="Delete">
+  <conditionalFormatting sqref="B6:B13 B15:B39 B42:B44 B54:B73 B76:B90">
+    <cfRule type="containsText" dxfId="107" priority="302" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="98" priority="303" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="106" priority="303" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="304" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="105" priority="304" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B13 B15:B39 B42:B44 B76:B90 B54:B73">
-    <cfRule type="containsText" dxfId="96" priority="301" operator="containsText" text="None">
+  <conditionalFormatting sqref="B6:B13 B15:B39 B42:B44 B54:B73 B76:B90">
+    <cfRule type="containsText" dxfId="104" priority="301" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="containsText" dxfId="95" priority="298" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="103" priority="298" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="94" priority="299" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="102" priority="299" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="300" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="101" priority="300" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="containsText" dxfId="92" priority="297" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="100" priority="297" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="containsText" dxfId="91" priority="289" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="99" priority="289" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="containsText" dxfId="90" priority="294" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="98" priority="294" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B93)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="295" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="97" priority="295" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B93)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="296" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="96" priority="296" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="containsText" dxfId="87" priority="293" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="95" priority="293" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="containsText" dxfId="86" priority="290" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="94" priority="290" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="291" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="93" priority="291" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="84" priority="292" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="92" priority="292" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B207">
-    <cfRule type="containsText" dxfId="83" priority="273" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="91" priority="273" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B207)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B207">
-    <cfRule type="containsText" dxfId="82" priority="274" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="90" priority="274" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B207)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="275" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="89" priority="275" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B207)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="80" priority="276" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="88" priority="276" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B207)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B208">
-    <cfRule type="containsText" dxfId="79" priority="270" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="87" priority="270" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B208)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="271" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="86" priority="271" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B208)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="272" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="85" priority="272" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B208)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B208">
-    <cfRule type="containsText" dxfId="76" priority="269" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="84" priority="269" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B208)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209">
-    <cfRule type="containsText" dxfId="75" priority="266" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="83" priority="266" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B209)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="267" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="82" priority="267" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B209)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="268" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="81" priority="268" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B209)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209">
-    <cfRule type="containsText" dxfId="72" priority="265" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="80" priority="265" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B209)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210">
-    <cfRule type="containsText" dxfId="71" priority="262" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="79" priority="262" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B210)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="263" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="78" priority="263" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B210)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="264" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="77" priority="264" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B210)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210">
-    <cfRule type="containsText" dxfId="68" priority="261" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="76" priority="261" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B210)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B211">
-    <cfRule type="containsText" dxfId="67" priority="258" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="75" priority="258" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B211)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="259" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="74" priority="259" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B211)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="260" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="73" priority="260" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B211)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B211">
-    <cfRule type="containsText" dxfId="64" priority="257" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="72" priority="257" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B211)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B213">
-    <cfRule type="containsText" dxfId="63" priority="170" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="71" priority="170" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="171" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="70" priority="171" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="172" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="69" priority="172" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B213)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B213">
-    <cfRule type="containsText" dxfId="60" priority="169" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="68" priority="169" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B213)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B46">
-    <cfRule type="containsText" dxfId="59" priority="162" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="67" priority="162" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="163" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="66" priority="163" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="164" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="65" priority="164" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B46">
-    <cfRule type="containsText" dxfId="56" priority="161" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="64" priority="161" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75">
-    <cfRule type="containsText" dxfId="55" priority="150" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="63" priority="150" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="151" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="62" priority="151" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="152" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="61" priority="152" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75">
-    <cfRule type="containsText" dxfId="52" priority="149" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="60" priority="149" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="containsText" dxfId="51" priority="154" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="59" priority="154" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="155" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="58" priority="155" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="156" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="57" priority="156" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="containsText" dxfId="48" priority="153" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="56" priority="153" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:B53">
-    <cfRule type="containsText" dxfId="47" priority="158" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="55" priority="158" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="159" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="54" priority="159" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="160" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="53" priority="160" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:B53">
-    <cfRule type="containsText" dxfId="44" priority="157" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="52" priority="157" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="containsText" dxfId="43" priority="142" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="51" priority="142" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="143" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="50" priority="143" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="144" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="49" priority="144" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="containsText" dxfId="40" priority="141" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="48" priority="141" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="containsText" dxfId="39" priority="138" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="47" priority="138" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="139" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="46" priority="139" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="140" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="45" priority="140" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="containsText" dxfId="36" priority="137" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="44" priority="137" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B49">
-    <cfRule type="containsText" dxfId="35" priority="134" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="43" priority="134" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="135" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="42" priority="135" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="136" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="41" priority="136" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B49">
-    <cfRule type="containsText" dxfId="32" priority="133" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="40" priority="133" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="containsText" dxfId="31" priority="130" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="39" priority="130" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="131" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="38" priority="131" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="132" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="37" priority="132" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="containsText" dxfId="28" priority="129" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="36" priority="129" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="containsText" dxfId="27" priority="126" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="35" priority="126" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="127" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="34" priority="127" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="128" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="33" priority="128" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="containsText" dxfId="24" priority="125" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="32" priority="125" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="containsText" dxfId="23" priority="122" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="31" priority="122" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="123" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="30" priority="123" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="124" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="29" priority="124" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="containsText" dxfId="20" priority="121" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="28" priority="121" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B215">
-    <cfRule type="containsText" dxfId="19" priority="58" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="27" priority="58" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B215)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="59" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="26" priority="59" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B215)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="60" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="25" priority="60" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B215)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B215">
-    <cfRule type="containsText" dxfId="16" priority="57" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="24" priority="57" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B215)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B219">
-    <cfRule type="containsText" dxfId="15" priority="50" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="23" priority="50" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B219)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="51" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="22" priority="51" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B219)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="52" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="21" priority="52" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B219)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B219">
-    <cfRule type="containsText" dxfId="12" priority="49" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="20" priority="49" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B219)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B216:B218">
-    <cfRule type="containsText" dxfId="11" priority="54" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="19" priority="54" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B216)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="55" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="18" priority="55" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B216)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="56" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="17" priority="56" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B216)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B216:B218">
-    <cfRule type="containsText" dxfId="8" priority="53" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="16" priority="53" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B216)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="containsText" dxfId="7" priority="34" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="15" priority="34" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="35" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="14" priority="35" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="36" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="13" priority="36" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="containsText" dxfId="4" priority="33" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="12" priority="33" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96:B206">
-    <cfRule type="containsText" dxfId="3" priority="2" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="11" priority="2" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B96)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B96)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96:B206">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B96)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14796,6 +14880,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14803,7 +14888,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A53:E104"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -15859,10 +15944,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>357</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>358</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="63"/>
@@ -15870,10 +15955,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>359</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>360</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="63"/>
@@ -15881,10 +15966,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>361</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>362</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="63"/>
@@ -15917,7 +16002,7 @@
   <sheetData>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" s="17" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -15939,10 +16024,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B45" s="61" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="63"/>
@@ -15950,10 +16035,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B46" s="61" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="63"/>
@@ -15961,10 +16046,10 @@
     </row>
     <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B47" s="61" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C47" s="15"/>
       <c r="D47" s="63"/>
@@ -15972,10 +16057,10 @@
     </row>
     <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B48" s="61" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C48" s="15"/>
       <c r="D48" s="63"/>
@@ -15983,10 +16068,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B49" s="61" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C49" s="15"/>
       <c r="D49" s="63"/>
@@ -15994,10 +16079,10 @@
     </row>
     <row r="50" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B50" s="61" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C50" s="15"/>
       <c r="D50" s="63"/>
@@ -16005,10 +16090,10 @@
     </row>
     <row r="51" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B51" s="61" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="63"/>
@@ -16016,10 +16101,10 @@
     </row>
     <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B52" s="61" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C52" s="15"/>
       <c r="D52" s="63"/>
@@ -16027,10 +16112,10 @@
     </row>
     <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B53" s="61" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="63"/>
@@ -16038,10 +16123,10 @@
     </row>
     <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B54" s="61" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="63"/>
@@ -16049,10 +16134,10 @@
     </row>
     <row r="55" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="15" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B55" s="61" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="63"/>
@@ -16060,10 +16145,10 @@
     </row>
     <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B56" s="61" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C56" s="15"/>
       <c r="D56" s="63"/>
@@ -16071,10 +16156,10 @@
     </row>
     <row r="57" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B57" s="61" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C57" s="15"/>
       <c r="D57" s="63"/>
@@ -16082,10 +16167,10 @@
     </row>
     <row r="58" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="15" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B58" s="61" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C58" s="15"/>
       <c r="D58" s="63"/>
@@ -16093,10 +16178,10 @@
     </row>
     <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="15" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B59" s="61" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C59" s="15"/>
       <c r="D59" s="63"/>
@@ -16104,10 +16189,10 @@
     </row>
     <row r="60" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="15" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B60" s="61" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C60" s="15"/>
       <c r="D60" s="63"/>
@@ -16115,23 +16200,23 @@
     </row>
     <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B61" s="61" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C61" s="15"/>
       <c r="D61" s="63"/>
       <c r="E61" s="15" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B62" s="61" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C62" s="15"/>
       <c r="D62" s="63"/>
@@ -16139,10 +16224,10 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="15" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B63" s="61" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C63" s="15"/>
       <c r="D63" s="63"/>
@@ -16150,10 +16235,10 @@
     </row>
     <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B64" s="61" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C64" s="15"/>
       <c r="D64" s="63"/>
@@ -16161,10 +16246,10 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B65" s="61" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="63"/>
@@ -16172,10 +16257,10 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B66" s="61" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C66" s="15"/>
       <c r="D66" s="63"/>

--- a/Technical documentation/AL table analysis.xlsx
+++ b/Technical documentation/AL table analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table overview" sheetId="1" r:id="rId1"/>
@@ -1143,7 +1143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="577">
   <si>
     <t>Table name</t>
   </si>
@@ -2865,6 +2865,18 @@
   </si>
   <si>
     <t>Changed using DB script nr 156 and 159</t>
+  </si>
+  <si>
+    <t>game_download_tos</t>
+  </si>
+  <si>
+    <t>Created using DB script nr 126</t>
+  </si>
+  <si>
+    <t>Deleted using script nr 160</t>
+  </si>
+  <si>
+    <t>Renamed using script nr 161 &amp; 162</t>
   </si>
 </sst>
 </file>
@@ -3470,16 +3482,16 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="388">
+  <dxfs count="396">
     <dxf>
       <fill>
         <patternFill>
@@ -3490,6 +3502,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFC2E49C"/>
         </patternFill>
       </fill>
@@ -3511,7 +3530,56 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6775,8 +6843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView topLeftCell="A261" workbookViewId="0">
+      <selection activeCell="D279" sqref="D279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10619,7 +10687,7 @@
         <v>212</v>
       </c>
       <c r="C279" s="42" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D279" s="42" t="s">
         <v>529</v>
@@ -11003,1113 +11071,1132 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C79:C82 C278:C284 C286:C288 C95:C96 C73:C75 C51:C70 C4:C11 C84:C91 C13:C37 C40:C42 C178 C111:C112 C246:C247 C115:C116 C93">
-    <cfRule type="containsText" dxfId="387" priority="338" stopIfTrue="1" operator="containsText" text="Delete">
+  <conditionalFormatting sqref="C79:C82 C278 C286:C288 C95:C96 C73:C75 C51:C70 C4:C11 C84:C91 C13:C37 C40:C42 C178 C111:C112 C246:C247 C115:C116 C93 C280:C284">
+    <cfRule type="containsText" dxfId="395" priority="342" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="386" priority="339" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="394" priority="343" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="385" priority="340" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="393" priority="344" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C79:C82 C278:C284 C286:C288 C95:C96 C73:C75 C51:C70 C4:C11 C84:C91 C13:C37 C40:C42 C178 C111:C112 C246:C247 C115:C116 C93">
-    <cfRule type="containsText" dxfId="384" priority="337" operator="containsText" text="None">
+  <conditionalFormatting sqref="C79:C82 C278 C286:C288 C95:C96 C73:C75 C51:C70 C4:C11 C84:C91 C13:C37 C40:C42 C178 C111:C112 C246:C247 C115:C116 C93 C280:C284">
+    <cfRule type="containsText" dxfId="392" priority="341" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100">
-    <cfRule type="containsText" dxfId="383" priority="334" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="391" priority="338" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C100)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="382" priority="335" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="390" priority="339" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C100)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="381" priority="336" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="389" priority="340" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100">
-    <cfRule type="containsText" dxfId="380" priority="333" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="388" priority="337" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102">
-    <cfRule type="containsText" dxfId="379" priority="325" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="387" priority="329" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101">
-    <cfRule type="containsText" dxfId="378" priority="330" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="386" priority="334" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C101)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="377" priority="331" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="385" priority="335" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C101)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="376" priority="332" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="384" priority="336" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101">
-    <cfRule type="containsText" dxfId="375" priority="329" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="383" priority="333" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102">
-    <cfRule type="containsText" dxfId="374" priority="326" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="382" priority="330" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="373" priority="327" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="381" priority="331" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="372" priority="328" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="380" priority="332" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C104:C106">
-    <cfRule type="containsText" dxfId="371" priority="317" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="379" priority="321" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C104)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C103">
-    <cfRule type="containsText" dxfId="370" priority="321" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="378" priority="325" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C103)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C103">
-    <cfRule type="containsText" dxfId="369" priority="322" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="377" priority="326" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C103)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="368" priority="323" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="376" priority="327" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C103)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="367" priority="324" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="375" priority="328" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C103)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C285">
-    <cfRule type="containsText" dxfId="366" priority="289" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="374" priority="293" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C285)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C104:C106">
-    <cfRule type="containsText" dxfId="365" priority="318" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="373" priority="322" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C104)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="364" priority="319" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="372" priority="323" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C104)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="363" priority="320" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="371" priority="324" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C104)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C289">
-    <cfRule type="containsText" dxfId="362" priority="314" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="370" priority="318" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C289)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="361" priority="315" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="369" priority="319" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C289)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="360" priority="316" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="368" priority="320" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C289)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C289">
-    <cfRule type="containsText" dxfId="359" priority="313" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="367" priority="317" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C289)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C290">
-    <cfRule type="containsText" dxfId="358" priority="310" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="366" priority="314" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C290)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="357" priority="311" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="365" priority="315" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C290)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="356" priority="312" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="364" priority="316" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C290)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C290">
-    <cfRule type="containsText" dxfId="355" priority="309" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="363" priority="313" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C290)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C291">
-    <cfRule type="containsText" dxfId="354" priority="306" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="362" priority="310" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C291)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="353" priority="307" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="361" priority="311" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C291)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="352" priority="308" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="360" priority="312" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C291)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C291">
-    <cfRule type="containsText" dxfId="351" priority="305" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="359" priority="309" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C291)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C292">
-    <cfRule type="containsText" dxfId="350" priority="302" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="358" priority="306" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C292)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="349" priority="303" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="357" priority="307" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C292)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="348" priority="304" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="356" priority="308" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C292)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C292">
-    <cfRule type="containsText" dxfId="347" priority="301" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="355" priority="305" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C292)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C293">
-    <cfRule type="containsText" dxfId="346" priority="298" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="354" priority="302" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C293)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="345" priority="299" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="353" priority="303" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C293)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="344" priority="300" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="352" priority="304" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C293)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C293">
-    <cfRule type="containsText" dxfId="343" priority="297" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="351" priority="301" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C293)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C294">
-    <cfRule type="containsText" dxfId="342" priority="294" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="350" priority="298" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C294)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="341" priority="295" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="349" priority="299" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C294)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="340" priority="296" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="348" priority="300" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C294)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C294">
-    <cfRule type="containsText" dxfId="339" priority="293" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="347" priority="297" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C294)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C285">
-    <cfRule type="containsText" dxfId="338" priority="290" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="346" priority="294" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C285)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="337" priority="291" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="345" priority="295" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C285)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="336" priority="292" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="344" priority="296" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C285)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C110">
-    <cfRule type="containsText" dxfId="335" priority="286" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="343" priority="290" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C110)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="334" priority="287" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="342" priority="291" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C110)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="333" priority="288" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="341" priority="292" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C110">
-    <cfRule type="containsText" dxfId="332" priority="285" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="340" priority="289" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C110)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C147">
-    <cfRule type="containsText" dxfId="331" priority="278" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="339" priority="282" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C147)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="330" priority="279" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="338" priority="283" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C147)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="329" priority="280" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="337" priority="284" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C147)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C147">
-    <cfRule type="containsText" dxfId="328" priority="277" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="336" priority="281" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C147)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148">
-    <cfRule type="containsText" dxfId="327" priority="274" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="335" priority="278" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C148)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="326" priority="275" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="334" priority="279" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C148)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="325" priority="276" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="333" priority="280" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C148)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148">
-    <cfRule type="containsText" dxfId="324" priority="273" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="332" priority="277" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C148)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C149">
-    <cfRule type="containsText" dxfId="323" priority="270" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="331" priority="274" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C149)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="322" priority="271" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="330" priority="275" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C149)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="321" priority="272" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="329" priority="276" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C149)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C149">
-    <cfRule type="containsText" dxfId="320" priority="269" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="328" priority="273" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C149)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C150">
-    <cfRule type="containsText" dxfId="319" priority="266" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="327" priority="270" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C150)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="318" priority="267" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="326" priority="271" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C150)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="317" priority="268" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="325" priority="272" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C150)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C150">
-    <cfRule type="containsText" dxfId="316" priority="265" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="324" priority="269" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C150)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C151">
-    <cfRule type="containsText" dxfId="315" priority="262" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="323" priority="266" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C151)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="314" priority="263" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="322" priority="267" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C151)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="313" priority="264" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="321" priority="268" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C151)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C151">
-    <cfRule type="containsText" dxfId="312" priority="261" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="320" priority="265" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C151)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152">
-    <cfRule type="containsText" dxfId="311" priority="258" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="319" priority="262" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="310" priority="259" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="318" priority="263" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C152)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="309" priority="260" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="317" priority="264" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C152">
-    <cfRule type="containsText" dxfId="308" priority="257" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="316" priority="261" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C152)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C153">
-    <cfRule type="containsText" dxfId="307" priority="254" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="315" priority="258" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C153)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="306" priority="255" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="314" priority="259" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C153)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="305" priority="256" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="313" priority="260" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C153)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C153">
-    <cfRule type="containsText" dxfId="304" priority="253" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="312" priority="257" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C153)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C154">
-    <cfRule type="containsText" dxfId="303" priority="250" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="311" priority="254" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C154)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="302" priority="251" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="310" priority="255" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C154)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="301" priority="252" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="309" priority="256" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C154)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C154">
-    <cfRule type="containsText" dxfId="300" priority="249" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="308" priority="253" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C154)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C155">
-    <cfRule type="containsText" dxfId="299" priority="246" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="307" priority="250" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="298" priority="247" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="306" priority="251" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C155)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="297" priority="248" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="305" priority="252" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C155)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C155">
-    <cfRule type="containsText" dxfId="296" priority="245" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="304" priority="249" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C155)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C156">
-    <cfRule type="containsText" dxfId="295" priority="242" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="303" priority="246" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C156)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="294" priority="243" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="302" priority="247" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C156)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="293" priority="244" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="301" priority="248" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C156)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C156">
-    <cfRule type="containsText" dxfId="292" priority="241" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="300" priority="245" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C156)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C157">
-    <cfRule type="containsText" dxfId="291" priority="238" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="299" priority="242" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C157)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="290" priority="239" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="298" priority="243" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C157)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="289" priority="240" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="297" priority="244" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C157">
-    <cfRule type="containsText" dxfId="288" priority="237" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="296" priority="241" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C157)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C158">
-    <cfRule type="containsText" dxfId="287" priority="234" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="295" priority="238" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C158)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="286" priority="235" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="294" priority="239" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C158)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="285" priority="236" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="293" priority="240" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C158)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C158">
-    <cfRule type="containsText" dxfId="284" priority="233" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="292" priority="237" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C158)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C159">
-    <cfRule type="containsText" dxfId="283" priority="230" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="291" priority="234" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C159)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="282" priority="231" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="290" priority="235" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C159)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="281" priority="232" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="289" priority="236" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C159)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C159">
-    <cfRule type="containsText" dxfId="280" priority="229" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="288" priority="233" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C159)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C160">
-    <cfRule type="containsText" dxfId="279" priority="226" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="287" priority="230" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C160)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="278" priority="227" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="286" priority="231" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C160)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="277" priority="228" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="285" priority="232" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C160)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C160">
-    <cfRule type="containsText" dxfId="276" priority="225" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="284" priority="229" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C160)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C161">
-    <cfRule type="containsText" dxfId="275" priority="222" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="283" priority="226" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C161)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="274" priority="223" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="282" priority="227" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C161)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="273" priority="224" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="281" priority="228" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C161)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C161">
-    <cfRule type="containsText" dxfId="272" priority="221" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="280" priority="225" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C161)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C162">
-    <cfRule type="containsText" dxfId="271" priority="218" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="279" priority="222" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C162)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="270" priority="219" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="278" priority="223" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C162)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="269" priority="220" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="277" priority="224" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C162)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C162">
-    <cfRule type="containsText" dxfId="268" priority="217" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="276" priority="221" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C162)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C163">
-    <cfRule type="containsText" dxfId="267" priority="214" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="275" priority="218" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C163)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="266" priority="215" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="274" priority="219" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C163)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="265" priority="216" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="273" priority="220" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C163)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C163">
-    <cfRule type="containsText" dxfId="264" priority="213" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="272" priority="217" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C163)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C164">
-    <cfRule type="containsText" dxfId="263" priority="210" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="271" priority="214" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="262" priority="211" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="270" priority="215" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C164)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="261" priority="212" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="269" priority="216" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C164">
-    <cfRule type="containsText" dxfId="260" priority="209" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="268" priority="213" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C164)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C165:C167">
-    <cfRule type="containsText" dxfId="259" priority="206" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="267" priority="210" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C165)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="258" priority="207" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="266" priority="211" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C165)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="257" priority="208" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="265" priority="212" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C165)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C165:C167">
-    <cfRule type="containsText" dxfId="256" priority="205" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="264" priority="209" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C165)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C296">
-    <cfRule type="containsText" dxfId="255" priority="198" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="263" priority="202" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C296)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="254" priority="199" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="262" priority="203" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C296)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="253" priority="200" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="261" priority="204" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C296)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C296">
-    <cfRule type="containsText" dxfId="252" priority="197" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="260" priority="201" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C296)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C83">
-    <cfRule type="containsText" dxfId="251" priority="186" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="259" priority="190" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="250" priority="187" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="258" priority="191" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="249" priority="188" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="257" priority="192" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C83">
-    <cfRule type="containsText" dxfId="248" priority="185" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="256" priority="189" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C44">
-    <cfRule type="containsText" dxfId="247" priority="174" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="255" priority="178" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="246" priority="175" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="254" priority="179" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C43)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="245" priority="176" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="253" priority="180" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C43:C44">
-    <cfRule type="containsText" dxfId="244" priority="173" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="252" priority="177" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C43)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="containsText" dxfId="243" priority="162" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="251" priority="166" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="242" priority="163" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="250" priority="167" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="241" priority="164" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="249" priority="168" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C72">
-    <cfRule type="containsText" dxfId="240" priority="161" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="248" priority="165" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="containsText" dxfId="239" priority="166" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="247" priority="170" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="167" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="246" priority="171" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="237" priority="168" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="245" priority="172" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71">
-    <cfRule type="containsText" dxfId="236" priority="165" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="244" priority="169" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:C50">
-    <cfRule type="containsText" dxfId="235" priority="170" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="243" priority="174" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="171" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="242" priority="175" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="233" priority="172" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="241" priority="176" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C49:C50">
-    <cfRule type="containsText" dxfId="232" priority="169" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="240" priority="173" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C94">
-    <cfRule type="containsText" dxfId="231" priority="154" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="239" priority="158" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="230" priority="155" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="238" priority="159" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="156" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="237" priority="160" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C94">
-    <cfRule type="containsText" dxfId="228" priority="153" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="236" priority="157" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="containsText" dxfId="227" priority="150" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="235" priority="154" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="151" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="234" priority="155" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="225" priority="152" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="233" priority="156" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C45">
-    <cfRule type="containsText" dxfId="224" priority="149" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="232" priority="153" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="223" priority="146" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="231" priority="150" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="147" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="230" priority="151" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="221" priority="148" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="229" priority="152" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="220" priority="145" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="228" priority="149" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C47">
-    <cfRule type="containsText" dxfId="219" priority="142" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="227" priority="146" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="218" priority="143" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="226" priority="147" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="217" priority="144" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="225" priority="148" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C47">
-    <cfRule type="containsText" dxfId="216" priority="141" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="224" priority="145" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="containsText" dxfId="215" priority="138" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="223" priority="142" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="139" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="222" priority="143" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C38)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="140" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="221" priority="144" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="containsText" dxfId="212" priority="137" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="220" priority="141" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="containsText" dxfId="211" priority="134" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="219" priority="138" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="135" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="218" priority="139" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C39)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="209" priority="136" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="217" priority="140" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="containsText" dxfId="208" priority="133" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="216" priority="137" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C39)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="containsText" dxfId="207" priority="130" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="215" priority="134" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="131" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="214" priority="135" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="132" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="213" priority="136" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C48">
-    <cfRule type="containsText" dxfId="204" priority="129" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="212" priority="133" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C227">
-    <cfRule type="containsText" dxfId="203" priority="126" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="211" priority="130" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C227)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="127" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="210" priority="131" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C227)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="128" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="209" priority="132" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C227)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C227">
-    <cfRule type="containsText" dxfId="200" priority="125" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="208" priority="129" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C227)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C228">
-    <cfRule type="containsText" dxfId="199" priority="122" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="207" priority="126" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C228)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="123" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="206" priority="127" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C228)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="124" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="205" priority="128" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C228)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C228">
-    <cfRule type="containsText" dxfId="196" priority="121" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="204" priority="125" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C228)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C229">
-    <cfRule type="containsText" dxfId="195" priority="118" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="203" priority="122" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C229)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="119" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="202" priority="123" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C229)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="120" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="201" priority="124" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C229)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C229">
-    <cfRule type="containsText" dxfId="192" priority="117" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="200" priority="121" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C229)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C142:C143">
-    <cfRule type="containsText" dxfId="191" priority="114" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="199" priority="118" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C142)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="115" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="198" priority="119" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C142)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="116" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="197" priority="120" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C142:C143">
-    <cfRule type="containsText" dxfId="188" priority="113" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="196" priority="117" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C140">
-    <cfRule type="containsText" dxfId="187" priority="102" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="195" priority="106" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C140)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="103" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="194" priority="107" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C140)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="185" priority="104" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="193" priority="108" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C140">
-    <cfRule type="containsText" dxfId="184" priority="101" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="192" priority="105" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C140)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C135">
-    <cfRule type="containsText" dxfId="183" priority="98" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="191" priority="102" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C135)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="99" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="190" priority="103" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C135)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="100" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="189" priority="104" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C135)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C135">
-    <cfRule type="containsText" dxfId="180" priority="97" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="188" priority="101" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C135)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C236">
-    <cfRule type="containsText" dxfId="179" priority="90" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="187" priority="94" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C236)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="91" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="186" priority="95" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C236)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="92" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="185" priority="96" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C236)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C236">
-    <cfRule type="containsText" dxfId="176" priority="89" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="184" priority="93" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C236)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C238:C240">
-    <cfRule type="containsText" dxfId="175" priority="86" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="183" priority="90" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C238)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="87" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="182" priority="91" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C238)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="88" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="181" priority="92" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C238)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C238:C240">
-    <cfRule type="containsText" dxfId="172" priority="85" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="180" priority="89" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C238)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C235">
-    <cfRule type="containsText" dxfId="171" priority="82" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="179" priority="86" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C235)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="83" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="178" priority="87" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C235)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="84" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="177" priority="88" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C235)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C235">
-    <cfRule type="containsText" dxfId="168" priority="81" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="176" priority="85" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C235)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C252">
-    <cfRule type="containsText" dxfId="167" priority="78" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="175" priority="82" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C252)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="79" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="174" priority="83" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C252)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="80" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="173" priority="84" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C252)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C252">
-    <cfRule type="containsText" dxfId="164" priority="77" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="172" priority="81" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C252)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C253:C257">
-    <cfRule type="containsText" dxfId="163" priority="74" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="171" priority="78" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C253)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="75" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="170" priority="79" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C253)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="76" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="169" priority="80" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C253)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C253:C257">
-    <cfRule type="containsText" dxfId="160" priority="73" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="168" priority="77" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C253)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A251:E255">
-    <cfRule type="containsText" dxfId="159" priority="70" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="167" priority="74" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",A251)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="71" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="166" priority="75" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",A251)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="72" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="165" priority="76" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",A251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A251:E255">
-    <cfRule type="containsText" dxfId="156" priority="69" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="164" priority="73" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",A251)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C245">
-    <cfRule type="containsText" dxfId="155" priority="66" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="163" priority="70" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C245)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="67" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="162" priority="71" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C245)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="68" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="161" priority="72" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C245)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C245">
-    <cfRule type="containsText" dxfId="152" priority="65" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="160" priority="69" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C245)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C244">
-    <cfRule type="containsText" dxfId="151" priority="58" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="159" priority="62" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C244)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="59" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="158" priority="63" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C244)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="60" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="157" priority="64" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C244)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C244">
-    <cfRule type="containsText" dxfId="148" priority="57" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="156" priority="61" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C244)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C202">
-    <cfRule type="containsText" dxfId="147" priority="54" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="155" priority="58" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C202)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="55" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="154" priority="59" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C202)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="56" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="153" priority="60" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C202)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C202">
-    <cfRule type="containsText" dxfId="144" priority="53" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="152" priority="57" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C202)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C298">
+    <cfRule type="containsText" dxfId="151" priority="46" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C298)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="150" priority="47" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C298)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="149" priority="48" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C298)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C298">
+    <cfRule type="containsText" dxfId="148" priority="45" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C298)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C302">
+    <cfRule type="containsText" dxfId="147" priority="38" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C302)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="146" priority="39" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C302)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="145" priority="40" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C302)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C302">
+    <cfRule type="containsText" dxfId="144" priority="37" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C302)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C299:C301">
     <cfRule type="containsText" dxfId="143" priority="42" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C298)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Delete",C299)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="142" priority="43" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C298)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Change",C299)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="141" priority="44" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C298)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C298">
+      <formula>NOT(ISERROR(SEARCH("Create",C299)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C299:C301">
     <cfRule type="containsText" dxfId="140" priority="41" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C298)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C302">
+      <formula>NOT(ISERROR(SEARCH("None",C299)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C264:C265">
     <cfRule type="containsText" dxfId="139" priority="34" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C302)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Delete",C264)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="138" priority="35" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C302)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Change",C264)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="137" priority="36" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C302)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C302">
+      <formula>NOT(ISERROR(SEARCH("Create",C264)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C264:C265">
     <cfRule type="containsText" dxfId="136" priority="33" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C302)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C299:C301">
-    <cfRule type="containsText" dxfId="135" priority="38" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C299)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="39" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C299)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="40" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C299)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C299:C301">
-    <cfRule type="containsText" dxfId="132" priority="37" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C299)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C264:C265">
-    <cfRule type="containsText" dxfId="131" priority="30" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C264)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="31" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C264)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="32" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C264)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C264:C265">
-    <cfRule type="containsText" dxfId="128" priority="29" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C264)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A261:E263">
-    <cfRule type="containsText" dxfId="127" priority="14" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="135" priority="18" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",A261)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="15" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="134" priority="19" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",A261)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="16" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="133" priority="20" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",A261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A261:E263">
-    <cfRule type="containsText" dxfId="124" priority="13" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="132" priority="17" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",A261)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A269:E274">
-    <cfRule type="containsText" dxfId="123" priority="10" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="131" priority="14" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",A269)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="11" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="130" priority="15" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",A269)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="12" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="129" priority="16" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",A269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A269:E274">
-    <cfRule type="containsText" dxfId="120" priority="9" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="128" priority="13" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",A269)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92">
-    <cfRule type="containsText" dxfId="119" priority="6" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="127" priority="10" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="7" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="126" priority="11" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="8" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="125" priority="12" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C92">
-    <cfRule type="containsText" dxfId="116" priority="5" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="124" priority="9" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C237">
-    <cfRule type="containsText" dxfId="115" priority="2" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="123" priority="6" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C237)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="3" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="122" priority="7" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C237)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="4" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="121" priority="8" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C237)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C237">
-    <cfRule type="containsText" dxfId="112" priority="1" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="120" priority="5" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C237)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C296 C120:C143 C235:C240 C278:C294 C251:C257 C110:C116 C213:C223 C269:C274 C192:C197 C79:C96 C227:C231 C147:C167 C298:C302 C244:C247 C182:C188 C171:C178 C4:C75 C201:C209 C100:C106 C261:C265">
+  <conditionalFormatting sqref="C279">
+    <cfRule type="containsText" dxfId="7" priority="2" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C279)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C279)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C279)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C279">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C279)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C296 C120:C143 C235:C240 C261:C265 C251:C257 C110:C116 C213:C223 C269:C274 C192:C197 C79:C96 C227:C231 C147:C167 C298:C302 C244:C247 C182:C188 C171:C178 C4:C75 C201:C209 C100:C106 C278 C280:C294">
       <formula1>$F$4:$F$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C279">
+      <formula1>$G$6:$G$8</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12122,8 +12209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P221"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="52.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12135,24 +12222,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="95" t="s">
         <v>523</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-      <c r="L1" s="94"/>
-      <c r="M1" s="94"/>
-      <c r="N1" s="94"/>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="84" t="s">
@@ -12853,7 +12940,7 @@
       <c r="B68" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C68" s="95" t="s">
+      <c r="C68" s="94" t="s">
         <v>551</v>
       </c>
       <c r="D68" s="66" t="s">
@@ -13007,7 +13094,7 @@
       <c r="B83" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C83" s="95" t="s">
+      <c r="C83" s="94" t="s">
         <v>551</v>
       </c>
       <c r="D83" s="66" t="s">
@@ -13185,8 +13272,12 @@
       <c r="B98" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C98" s="69"/>
-      <c r="D98" s="69"/>
+      <c r="C98" s="69" t="s">
+        <v>551</v>
+      </c>
+      <c r="D98" s="69" t="s">
+        <v>574</v>
+      </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="35" t="s">
@@ -13514,7 +13605,7 @@
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="35" t="s">
-        <v>342</v>
+        <v>573</v>
       </c>
       <c r="B129" s="42" t="s">
         <v>3</v>
@@ -13642,15 +13733,19 @@
       <c r="C141" s="69"/>
       <c r="D141" s="69"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="35" t="s">
         <v>39</v>
       </c>
       <c r="B142" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C142" s="69"/>
-      <c r="D142" s="69"/>
+        <v>2</v>
+      </c>
+      <c r="C142" s="94" t="s">
+        <v>551</v>
+      </c>
+      <c r="D142" s="66" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="35" t="s">
@@ -13659,8 +13754,12 @@
       <c r="B143" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C143" s="69"/>
-      <c r="D143" s="69"/>
+      <c r="C143" s="69" t="s">
+        <v>551</v>
+      </c>
+      <c r="D143" s="69" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="35" t="s">
@@ -14459,419 +14558,435 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="B95">
-    <cfRule type="containsText" dxfId="111" priority="286" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="119" priority="290" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B95)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="287" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="118" priority="291" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B95)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="288" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="117" priority="292" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B95)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95">
-    <cfRule type="containsText" dxfId="108" priority="285" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="116" priority="289" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B95)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B13 B15:B39 B42:B44 B54:B73 B76:B90">
-    <cfRule type="containsText" dxfId="107" priority="302" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="115" priority="306" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="303" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="114" priority="307" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="304" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="113" priority="308" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B13 B15:B39 B42:B44 B54:B73 B76:B90">
-    <cfRule type="containsText" dxfId="104" priority="301" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="112" priority="305" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="containsText" dxfId="103" priority="298" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="111" priority="302" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="299" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="110" priority="303" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="300" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="109" priority="304" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="containsText" dxfId="100" priority="297" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="108" priority="301" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="containsText" dxfId="99" priority="289" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="107" priority="293" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="containsText" dxfId="98" priority="294" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="106" priority="298" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B93)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="295" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="105" priority="299" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B93)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="296" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="104" priority="300" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="containsText" dxfId="95" priority="293" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="103" priority="297" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="containsText" dxfId="94" priority="290" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="102" priority="294" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="291" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="101" priority="295" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="292" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="100" priority="296" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B207">
-    <cfRule type="containsText" dxfId="91" priority="273" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="99" priority="277" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B207)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B207">
-    <cfRule type="containsText" dxfId="90" priority="274" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="98" priority="278" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B207)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="275" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="97" priority="279" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B207)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="276" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="96" priority="280" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B207)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B208">
-    <cfRule type="containsText" dxfId="87" priority="270" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="95" priority="274" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B208)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="271" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="94" priority="275" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B208)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="272" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="93" priority="276" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B208)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B208">
-    <cfRule type="containsText" dxfId="84" priority="269" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="92" priority="273" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B208)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209">
-    <cfRule type="containsText" dxfId="83" priority="266" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="91" priority="270" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B209)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="267" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="90" priority="271" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B209)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="268" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="89" priority="272" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B209)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209">
-    <cfRule type="containsText" dxfId="80" priority="265" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="88" priority="269" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B209)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210">
-    <cfRule type="containsText" dxfId="79" priority="262" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="87" priority="266" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B210)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="263" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="86" priority="267" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B210)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="264" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="85" priority="268" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B210)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210">
-    <cfRule type="containsText" dxfId="76" priority="261" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="84" priority="265" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B210)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B211">
-    <cfRule type="containsText" dxfId="75" priority="258" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="83" priority="262" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B211)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="259" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="82" priority="263" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B211)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="260" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="81" priority="264" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B211)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B211">
-    <cfRule type="containsText" dxfId="72" priority="257" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="80" priority="261" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B211)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B213">
-    <cfRule type="containsText" dxfId="71" priority="170" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="79" priority="174" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="171" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="78" priority="175" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="172" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="77" priority="176" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B213)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B213">
-    <cfRule type="containsText" dxfId="68" priority="169" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="76" priority="173" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B213)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B46">
-    <cfRule type="containsText" dxfId="67" priority="162" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="75" priority="166" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="163" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="74" priority="167" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="164" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="73" priority="168" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B46">
-    <cfRule type="containsText" dxfId="64" priority="161" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="72" priority="165" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75">
-    <cfRule type="containsText" dxfId="63" priority="150" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="71" priority="154" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="151" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="70" priority="155" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="152" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="69" priority="156" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75">
-    <cfRule type="containsText" dxfId="60" priority="149" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="68" priority="153" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="containsText" dxfId="59" priority="154" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="67" priority="158" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="155" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="66" priority="159" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="156" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="65" priority="160" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="containsText" dxfId="56" priority="153" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="64" priority="157" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:B53">
-    <cfRule type="containsText" dxfId="55" priority="158" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="63" priority="162" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="159" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="62" priority="163" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="160" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="61" priority="164" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:B53">
-    <cfRule type="containsText" dxfId="52" priority="157" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="60" priority="161" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="containsText" dxfId="51" priority="142" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="59" priority="146" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="143" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="58" priority="147" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="144" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="57" priority="148" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="containsText" dxfId="48" priority="141" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="56" priority="145" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="containsText" dxfId="47" priority="138" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="55" priority="142" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="139" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="54" priority="143" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="140" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="53" priority="144" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="containsText" dxfId="44" priority="137" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="52" priority="141" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B49">
-    <cfRule type="containsText" dxfId="43" priority="134" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="51" priority="138" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="135" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="50" priority="139" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="136" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="49" priority="140" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B49">
-    <cfRule type="containsText" dxfId="40" priority="133" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="48" priority="137" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="containsText" dxfId="39" priority="130" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="47" priority="134" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="131" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="46" priority="135" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="132" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="45" priority="136" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="containsText" dxfId="36" priority="129" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="44" priority="133" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="containsText" dxfId="35" priority="126" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="43" priority="130" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="127" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="42" priority="131" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="128" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="41" priority="132" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="containsText" dxfId="32" priority="125" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="40" priority="129" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="containsText" dxfId="31" priority="122" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="39" priority="126" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="123" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="38" priority="127" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="124" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="37" priority="128" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="containsText" dxfId="28" priority="121" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="36" priority="125" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B215">
+    <cfRule type="containsText" dxfId="35" priority="62" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",B215)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="63" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",B215)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="64" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",B215)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B215">
+    <cfRule type="containsText" dxfId="32" priority="61" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",B215)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B219">
+    <cfRule type="containsText" dxfId="31" priority="54" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",B219)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="30" priority="55" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",B219)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="29" priority="56" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",B219)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B219">
+    <cfRule type="containsText" dxfId="28" priority="53" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",B219)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B216:B218">
     <cfRule type="containsText" dxfId="27" priority="58" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B215)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Delete",B216)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="26" priority="59" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B215)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Change",B216)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="25" priority="60" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B215)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B215">
+      <formula>NOT(ISERROR(SEARCH("Create",B216)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B216:B218">
     <cfRule type="containsText" dxfId="24" priority="57" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B215)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B219">
-    <cfRule type="containsText" dxfId="23" priority="50" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B219)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="51" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B219)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="52" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B219)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B219">
-    <cfRule type="containsText" dxfId="20" priority="49" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",B219)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B216:B218">
-    <cfRule type="containsText" dxfId="19" priority="54" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",B216)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="55" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",B216)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="56" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",B216)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B216:B218">
-    <cfRule type="containsText" dxfId="16" priority="53" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B216)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="containsText" dxfId="15" priority="34" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="23" priority="38" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="35" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="22" priority="39" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="36" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="21" priority="40" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="containsText" dxfId="12" priority="33" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="20" priority="37" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B91)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B96:B206">
-    <cfRule type="containsText" dxfId="11" priority="2" stopIfTrue="1" operator="containsText" text="Delete">
+  <conditionalFormatting sqref="B96:B141 B143:B206">
+    <cfRule type="containsText" dxfId="19" priority="6" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B96)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B96)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="17" priority="8" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B96)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B96:B206">
-    <cfRule type="containsText" dxfId="8" priority="1" operator="containsText" text="None">
+  <conditionalFormatting sqref="B96:B141 B143:B206">
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B96)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B142">
+    <cfRule type="containsText" dxfId="15" priority="2" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",B142)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",B142)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",B142)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B142">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",B142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -14888,8 +15003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A53:E104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Technical documentation/AL table analysis.xlsx
+++ b/Technical documentation/AL table analysis.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Table overview" sheetId="1" r:id="rId1"/>
@@ -1143,7 +1143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="588">
   <si>
     <t>Table name</t>
   </si>
@@ -2895,6 +2895,21 @@
   </si>
   <si>
     <t>Deleted using script nr 162</t>
+  </si>
+  <si>
+    <t>Created using DB script nr 176</t>
+  </si>
+  <si>
+    <t>Created using DB script nr 177</t>
+  </si>
+  <si>
+    <t>Deleted using script nr 180</t>
+  </si>
+  <si>
+    <t>Deleted using script nr 181</t>
+  </si>
+  <si>
+    <t>Deleted using script nr 182</t>
   </si>
 </sst>
 </file>
@@ -4129,6 +4144,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="0"/>
         </patternFill>
       </fill>
@@ -4157,6 +4193,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFC2E49C"/>
         </patternFill>
       </fill>
@@ -4185,6 +4228,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFC2E49C"/>
         </patternFill>
       </fill>
@@ -4200,41 +4250,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC2E49C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFDB69"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF5757"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6861,7 +6876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F304"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12208,18 +12223,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="containsText" dxfId="7" priority="2" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="115" priority="2" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="114" priority="3" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C24)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="4" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="113" priority="4" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="112" priority="1" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C24)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12241,8 +12256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P221"/>
   <sheetViews>
-    <sheetView topLeftCell="A192" workbookViewId="0">
-      <selection activeCell="D143" sqref="D143"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="52.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13289,8 +13304,12 @@
       <c r="B96" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C96" s="69"/>
-      <c r="D96" s="69"/>
+      <c r="C96" s="69" t="s">
+        <v>550</v>
+      </c>
+      <c r="D96" s="69" t="s">
+        <v>584</v>
+      </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="35" t="s">
@@ -13512,8 +13531,12 @@
       <c r="B116" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C116" s="69"/>
-      <c r="D116" s="69"/>
+      <c r="C116" s="69" t="s">
+        <v>550</v>
+      </c>
+      <c r="D116" s="69" t="s">
+        <v>587</v>
+      </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="35" t="s">
@@ -13532,8 +13555,12 @@
       <c r="B118" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C118" s="69"/>
-      <c r="D118" s="69"/>
+      <c r="C118" s="69" t="s">
+        <v>550</v>
+      </c>
+      <c r="D118" s="69" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="35" t="s">
@@ -13570,8 +13597,12 @@
       <c r="B121" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C121" s="69"/>
-      <c r="D121" s="69"/>
+      <c r="C121" s="69" t="s">
+        <v>550</v>
+      </c>
+      <c r="D121" s="69" t="s">
+        <v>585</v>
+      </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="35" t="s">
@@ -14210,8 +14241,12 @@
       <c r="B183" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C183" s="69"/>
-      <c r="D183" s="69"/>
+      <c r="C183" s="69" t="s">
+        <v>550</v>
+      </c>
+      <c r="D183" s="69" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="35" t="s">
@@ -14610,434 +14645,434 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="B95">
-    <cfRule type="containsText" dxfId="115" priority="294" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="111" priority="294" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B95)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="295" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="110" priority="295" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B95)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="296" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="109" priority="296" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B95)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95">
-    <cfRule type="containsText" dxfId="112" priority="293" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="108" priority="293" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B95)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B13 B15:B39 B42:B44 B54:B60 B76:B90 B62:B73">
-    <cfRule type="containsText" dxfId="111" priority="310" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="107" priority="310" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="311" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="106" priority="311" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="312" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="105" priority="312" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:B13 B15:B39 B42:B44 B54:B60 B76:B90 B62:B73">
-    <cfRule type="containsText" dxfId="108" priority="309" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="104" priority="309" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="containsText" dxfId="107" priority="306" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="103" priority="306" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="307" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="102" priority="307" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="308" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="101" priority="308" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="containsText" dxfId="104" priority="305" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="100" priority="305" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="containsText" dxfId="103" priority="297" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="99" priority="297" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="containsText" dxfId="102" priority="302" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="98" priority="302" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B93)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="303" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="97" priority="303" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B93)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="100" priority="304" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="96" priority="304" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="containsText" dxfId="99" priority="301" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="95" priority="301" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="containsText" dxfId="98" priority="298" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="94" priority="298" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="299" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="93" priority="299" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="300" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="92" priority="300" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B207">
-    <cfRule type="containsText" dxfId="95" priority="281" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="91" priority="281" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B207)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B207">
-    <cfRule type="containsText" dxfId="94" priority="282" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="90" priority="282" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B207)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="283" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="89" priority="283" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B207)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="284" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="88" priority="284" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B207)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B208">
-    <cfRule type="containsText" dxfId="91" priority="278" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="87" priority="278" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B208)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="90" priority="279" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="86" priority="279" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B208)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="280" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="85" priority="280" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B208)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B208">
-    <cfRule type="containsText" dxfId="88" priority="277" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="84" priority="277" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B208)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209">
-    <cfRule type="containsText" dxfId="87" priority="274" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="83" priority="274" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B209)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="275" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="82" priority="275" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B209)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="276" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="81" priority="276" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B209)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209">
-    <cfRule type="containsText" dxfId="84" priority="273" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="80" priority="273" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B209)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210">
-    <cfRule type="containsText" dxfId="83" priority="270" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="79" priority="270" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B210)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="271" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="78" priority="271" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B210)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="272" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="77" priority="272" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B210)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210">
-    <cfRule type="containsText" dxfId="80" priority="269" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="76" priority="269" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B210)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B211">
-    <cfRule type="containsText" dxfId="79" priority="266" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="75" priority="266" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B211)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="267" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="74" priority="267" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B211)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="268" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="73" priority="268" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B211)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B211">
-    <cfRule type="containsText" dxfId="76" priority="265" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="72" priority="265" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B211)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B213">
-    <cfRule type="containsText" dxfId="75" priority="178" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="71" priority="178" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="179" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="70" priority="179" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="180" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="69" priority="180" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B213)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B213">
-    <cfRule type="containsText" dxfId="72" priority="177" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="68" priority="177" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B213)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B46">
-    <cfRule type="containsText" dxfId="71" priority="170" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="67" priority="170" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="171" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="66" priority="171" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="172" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="65" priority="172" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B46">
-    <cfRule type="containsText" dxfId="68" priority="169" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="64" priority="169" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75">
-    <cfRule type="containsText" dxfId="67" priority="158" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="63" priority="158" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="159" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="62" priority="159" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="160" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="61" priority="160" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75">
-    <cfRule type="containsText" dxfId="64" priority="157" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="60" priority="157" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="containsText" dxfId="63" priority="162" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="59" priority="162" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="163" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="58" priority="163" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="164" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="57" priority="164" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="containsText" dxfId="60" priority="161" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="56" priority="161" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:B53">
-    <cfRule type="containsText" dxfId="59" priority="166" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="55" priority="166" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="167" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="54" priority="167" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="168" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="53" priority="168" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:B53">
-    <cfRule type="containsText" dxfId="56" priority="165" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="52" priority="165" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="containsText" dxfId="55" priority="150" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="51" priority="150" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="151" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="50" priority="151" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="152" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="49" priority="152" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="containsText" dxfId="52" priority="149" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="48" priority="149" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="containsText" dxfId="51" priority="146" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="47" priority="146" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="147" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="46" priority="147" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="148" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="45" priority="148" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="containsText" dxfId="48" priority="145" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="44" priority="145" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B49">
-    <cfRule type="containsText" dxfId="47" priority="142" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="43" priority="142" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="143" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="42" priority="143" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="144" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="41" priority="144" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B49">
-    <cfRule type="containsText" dxfId="44" priority="141" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="40" priority="141" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="containsText" dxfId="43" priority="138" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="39" priority="138" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="139" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="38" priority="139" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="140" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="37" priority="140" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="containsText" dxfId="40" priority="137" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="36" priority="137" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="containsText" dxfId="39" priority="134" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="35" priority="134" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="135" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="34" priority="135" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="136" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="33" priority="136" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="containsText" dxfId="36" priority="133" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="32" priority="133" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="containsText" dxfId="35" priority="130" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="31" priority="130" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="131" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="30" priority="131" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="132" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="29" priority="132" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="containsText" dxfId="32" priority="129" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="28" priority="129" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B215">
-    <cfRule type="containsText" dxfId="31" priority="66" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="27" priority="66" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B215)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="67" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="26" priority="67" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B215)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="68" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="25" priority="68" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B215)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B215">
-    <cfRule type="containsText" dxfId="28" priority="65" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="24" priority="65" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B215)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B219">
-    <cfRule type="containsText" dxfId="27" priority="58" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="23" priority="58" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B219)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="59" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="22" priority="59" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B219)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="60" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="21" priority="60" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B219)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B219">
-    <cfRule type="containsText" dxfId="24" priority="57" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="20" priority="57" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B219)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B216:B218">
-    <cfRule type="containsText" dxfId="23" priority="62" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="19" priority="62" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B216)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="63" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="18" priority="63" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B216)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="64" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="17" priority="64" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B216)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B216:B218">
-    <cfRule type="containsText" dxfId="20" priority="61" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="16" priority="61" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B216)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="containsText" dxfId="19" priority="42" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="15" priority="42" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="43" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="14" priority="43" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="44" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="13" priority="44" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B91">
-    <cfRule type="containsText" dxfId="16" priority="41" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="12" priority="41" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96:B141 B143:B206">
-    <cfRule type="containsText" dxfId="15" priority="10" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="11" priority="10" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B96)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B96)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="12" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B96:B141 B143:B206">
-    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142">
-    <cfRule type="containsText" dxfId="11" priority="6" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="7" priority="6" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B142)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B142)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B142)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B142">
-    <cfRule type="containsText" dxfId="8" priority="5" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B142)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15071,8 +15106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A53:E104"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Technical documentation/AL table analysis.xlsx
+++ b/Technical documentation/AL table analysis.xlsx
@@ -2897,19 +2897,19 @@
     <t>Deleted using script nr 162</t>
   </si>
   <si>
-    <t>Created using DB script nr 176</t>
-  </si>
-  <si>
-    <t>Created using DB script nr 177</t>
-  </si>
-  <si>
-    <t>Deleted using script nr 180</t>
-  </si>
-  <si>
-    <t>Deleted using script nr 181</t>
-  </si>
-  <si>
     <t>Deleted using script nr 182</t>
+  </si>
+  <si>
+    <t>Deleted using script nr 184</t>
+  </si>
+  <si>
+    <t>Deleted using script nr 183</t>
+  </si>
+  <si>
+    <t>Created using DB script nr 179</t>
+  </si>
+  <si>
+    <t>Created using DB script nr 178</t>
   </si>
 </sst>
 </file>
@@ -12256,8 +12256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="D116" sqref="D116"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="52.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13308,7 +13308,7 @@
         <v>550</v>
       </c>
       <c r="D96" s="69" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -13535,7 +13535,7 @@
         <v>550</v>
       </c>
       <c r="D116" s="69" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -13559,7 +13559,7 @@
         <v>550</v>
       </c>
       <c r="D118" s="69" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -13601,7 +13601,7 @@
         <v>550</v>
       </c>
       <c r="D121" s="69" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -14245,7 +14245,7 @@
         <v>550</v>
       </c>
       <c r="D183" s="69" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">

--- a/Technical documentation/AL table analysis.xlsx
+++ b/Technical documentation/AL table analysis.xlsx
@@ -1143,7 +1143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="590">
   <si>
     <t>Table name</t>
   </si>
@@ -2910,6 +2910,12 @@
   </si>
   <si>
     <t>Created using DB script nr 178</t>
+  </si>
+  <si>
+    <t>Changed using DB script nr 186 &amp; 187</t>
+  </si>
+  <si>
+    <t>Changed using DB script nr 188 &amp; 189</t>
   </si>
 </sst>
 </file>
@@ -6876,7 +6882,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F304"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -12257,7 +12265,7 @@
   <dimension ref="A1:P221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="52.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12913,7 +12921,7 @@
       <c r="C60" s="69"/>
       <c r="D60" s="69"/>
     </row>
-    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="35" t="s">
         <v>70</v>
       </c>
@@ -12921,7 +12929,7 @@
         <v>2</v>
       </c>
       <c r="C61" s="69"/>
-      <c r="D61" s="66" t="s">
+      <c r="D61" s="38" t="s">
         <v>577</v>
       </c>
     </row>
@@ -12965,27 +12973,35 @@
       <c r="C65" s="69"/>
       <c r="D65" s="69"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="41" t="s">
         <v>18</v>
       </c>
       <c r="B66" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="69"/>
-      <c r="D66" s="69"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C66" s="94" t="s">
+        <v>550</v>
+      </c>
+      <c r="D66" s="38" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A67" s="41" t="s">
         <v>14</v>
       </c>
       <c r="B67" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C67" s="69"/>
-      <c r="D67" s="69"/>
-    </row>
-    <row r="68" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="C67" s="94" t="s">
+        <v>550</v>
+      </c>
+      <c r="D67" s="38" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="35" t="s">
         <v>31</v>
       </c>
@@ -13243,25 +13259,33 @@
       <c r="C90" s="69"/>
       <c r="D90" s="69"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A91" s="41" t="s">
         <v>17</v>
       </c>
       <c r="B91" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C91" s="69"/>
-      <c r="D91" s="69"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C91" s="94" t="s">
+        <v>550</v>
+      </c>
+      <c r="D91" s="38" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="41" t="s">
         <v>15</v>
       </c>
       <c r="B92" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C92" s="69"/>
-      <c r="D92" s="69"/>
+      <c r="C92" s="94" t="s">
+        <v>550</v>
+      </c>
+      <c r="D92" s="38" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="41" t="s">
@@ -15106,7 +15130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A53:E104"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>

--- a/Technical documentation/AL table analysis.xlsx
+++ b/Technical documentation/AL table analysis.xlsx
@@ -1143,7 +1143,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1829" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1836" uniqueCount="593">
   <si>
     <t>Table name</t>
   </si>
@@ -2916,6 +2916,15 @@
   </si>
   <si>
     <t>Changed using DB script nr 188 &amp; 189</t>
+  </si>
+  <si>
+    <t>Will be renamed to individual_role</t>
+  </si>
+  <si>
+    <t>Changed using DB script nr 191 &amp; 192</t>
+  </si>
+  <si>
+    <t>Changed using DB script nr 190 &amp; 193</t>
   </si>
 </sst>
 </file>
@@ -3530,7 +3539,91 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="396">
+  <dxfs count="408">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC2E49C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFDB69"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF5757"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -6883,7 +6976,7 @@
   <dimension ref="A1:F304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A290" sqref="A290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10889,7 +10982,10 @@
         <v>230</v>
       </c>
       <c r="C290" s="42" t="s">
-        <v>204</v>
+        <v>2</v>
+      </c>
+      <c r="D290" s="39" t="s">
+        <v>590</v>
       </c>
       <c r="E290" s="43" t="s">
         <v>8</v>
@@ -11111,1146 +11207,1146 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C79:C82 C278 C286:C288 C95:C96 C73:C75 C51:C70 C4:C11 C84:C91 C13:C23 C40:C42 C178 C111:C112 C246:C247 C115:C116 C93 C280:C284 C25:C37">
-    <cfRule type="containsText" dxfId="395" priority="346" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="407" priority="350" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="394" priority="347" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="406" priority="351" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="393" priority="348" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="405" priority="352" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C79:C82 C278 C286:C288 C95:C96 C73:C75 C51:C70 C4:C11 C84:C91 C13:C23 C40:C42 C178 C111:C112 C246:C247 C115:C116 C93 C280:C284 C25:C37">
-    <cfRule type="containsText" dxfId="392" priority="345" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="404" priority="349" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100">
-    <cfRule type="containsText" dxfId="391" priority="342" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="403" priority="346" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C100)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="390" priority="343" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="402" priority="347" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C100)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="389" priority="344" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="401" priority="348" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C100">
-    <cfRule type="containsText" dxfId="388" priority="341" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="400" priority="345" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102">
-    <cfRule type="containsText" dxfId="387" priority="333" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="399" priority="337" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101">
-    <cfRule type="containsText" dxfId="386" priority="338" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="398" priority="342" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C101)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="385" priority="339" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="397" priority="343" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C101)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="384" priority="340" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="396" priority="344" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101">
-    <cfRule type="containsText" dxfId="383" priority="337" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="395" priority="341" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C101)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102">
-    <cfRule type="containsText" dxfId="382" priority="334" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="394" priority="338" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="381" priority="335" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="393" priority="339" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C102)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="380" priority="336" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="392" priority="340" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C104:C106">
+    <cfRule type="containsText" dxfId="391" priority="329" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C104)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C103">
+    <cfRule type="containsText" dxfId="390" priority="333" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C103)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C103">
+    <cfRule type="containsText" dxfId="389" priority="334" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C103)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="388" priority="335" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C103)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="387" priority="336" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C103)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C285">
+    <cfRule type="containsText" dxfId="386" priority="301" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C285)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C104:C106">
+    <cfRule type="containsText" dxfId="385" priority="330" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C104)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="384" priority="331" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C104)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="383" priority="332" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C104)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C289">
+    <cfRule type="containsText" dxfId="382" priority="326" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C289)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="381" priority="327" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C289)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="380" priority="328" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C289)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C289">
     <cfRule type="containsText" dxfId="379" priority="325" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C104)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C103">
-    <cfRule type="containsText" dxfId="378" priority="329" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C103)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C103">
-    <cfRule type="containsText" dxfId="377" priority="330" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C103)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="376" priority="331" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C103)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="375" priority="332" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C103)))</formula>
+      <formula>NOT(ISERROR(SEARCH("None",C289)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C291">
+    <cfRule type="containsText" dxfId="374" priority="318" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C291)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="373" priority="319" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C291)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="372" priority="320" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C291)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C291">
+    <cfRule type="containsText" dxfId="371" priority="317" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C291)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C292">
+    <cfRule type="containsText" dxfId="370" priority="314" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C292)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="369" priority="315" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C292)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="368" priority="316" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C292)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C292">
+    <cfRule type="containsText" dxfId="367" priority="313" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C292)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C293">
+    <cfRule type="containsText" dxfId="366" priority="310" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C293)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="365" priority="311" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C293)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="364" priority="312" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C293)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C293">
+    <cfRule type="containsText" dxfId="363" priority="309" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C293)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C294">
+    <cfRule type="containsText" dxfId="362" priority="306" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C294)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="361" priority="307" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C294)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="360" priority="308" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C294)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C294">
+    <cfRule type="containsText" dxfId="359" priority="305" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C294)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C285">
-    <cfRule type="containsText" dxfId="374" priority="297" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C285)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C104:C106">
-    <cfRule type="containsText" dxfId="373" priority="326" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C104)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="372" priority="327" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C104)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="371" priority="328" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C104)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C289">
-    <cfRule type="containsText" dxfId="370" priority="322" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C289)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="369" priority="323" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C289)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="368" priority="324" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C289)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C289">
-    <cfRule type="containsText" dxfId="367" priority="321" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C289)))</formula>
+    <cfRule type="containsText" dxfId="358" priority="302" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C285)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="357" priority="303" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C285)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="356" priority="304" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C285)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C110">
+    <cfRule type="containsText" dxfId="355" priority="298" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C110)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="354" priority="299" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C110)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="353" priority="300" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C110)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C110">
+    <cfRule type="containsText" dxfId="352" priority="297" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C110)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C147">
+    <cfRule type="containsText" dxfId="351" priority="290" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C147)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="350" priority="291" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C147)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="349" priority="292" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C147)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C147">
+    <cfRule type="containsText" dxfId="348" priority="289" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C147)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148">
+    <cfRule type="containsText" dxfId="347" priority="286" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C148)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="346" priority="287" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C148)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="345" priority="288" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C148)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C148">
+    <cfRule type="containsText" dxfId="344" priority="285" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C148)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C149">
+    <cfRule type="containsText" dxfId="343" priority="282" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C149)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="342" priority="283" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C149)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="341" priority="284" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C149)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C149">
+    <cfRule type="containsText" dxfId="340" priority="281" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C149)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C150">
+    <cfRule type="containsText" dxfId="339" priority="278" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C150)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="338" priority="279" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C150)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="337" priority="280" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C150)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C150">
+    <cfRule type="containsText" dxfId="336" priority="277" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C150)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C151">
+    <cfRule type="containsText" dxfId="335" priority="274" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C151)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="334" priority="275" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C151)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="333" priority="276" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C151)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C151">
+    <cfRule type="containsText" dxfId="332" priority="273" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C151)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C152">
+    <cfRule type="containsText" dxfId="331" priority="270" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C152)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="330" priority="271" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C152)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="329" priority="272" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C152)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C152">
+    <cfRule type="containsText" dxfId="328" priority="269" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C152)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C153">
+    <cfRule type="containsText" dxfId="327" priority="266" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C153)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="326" priority="267" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C153)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="325" priority="268" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C153)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C153">
+    <cfRule type="containsText" dxfId="324" priority="265" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C153)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C154">
+    <cfRule type="containsText" dxfId="323" priority="262" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C154)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="322" priority="263" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C154)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="321" priority="264" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C154)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C154">
+    <cfRule type="containsText" dxfId="320" priority="261" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C154)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C155">
+    <cfRule type="containsText" dxfId="319" priority="258" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C155)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="318" priority="259" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C155)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="317" priority="260" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C155)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C155">
+    <cfRule type="containsText" dxfId="316" priority="257" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C155)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C156">
+    <cfRule type="containsText" dxfId="315" priority="254" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C156)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="314" priority="255" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C156)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="313" priority="256" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C156)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C156">
+    <cfRule type="containsText" dxfId="312" priority="253" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C156)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C157">
+    <cfRule type="containsText" dxfId="311" priority="250" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C157)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="310" priority="251" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C157)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="309" priority="252" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C157)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C157">
+    <cfRule type="containsText" dxfId="308" priority="249" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C157)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C158">
+    <cfRule type="containsText" dxfId="307" priority="246" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C158)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="306" priority="247" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C158)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="305" priority="248" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C158)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C158">
+    <cfRule type="containsText" dxfId="304" priority="245" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C158)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C159">
+    <cfRule type="containsText" dxfId="303" priority="242" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C159)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="302" priority="243" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C159)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="301" priority="244" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C159)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C159">
+    <cfRule type="containsText" dxfId="300" priority="241" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C159)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C160">
+    <cfRule type="containsText" dxfId="299" priority="238" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C160)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="298" priority="239" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C160)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="297" priority="240" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C160)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C160">
+    <cfRule type="containsText" dxfId="296" priority="237" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C160)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C161">
+    <cfRule type="containsText" dxfId="295" priority="234" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C161)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="294" priority="235" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C161)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="293" priority="236" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C161)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C161">
+    <cfRule type="containsText" dxfId="292" priority="233" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C161)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C162">
+    <cfRule type="containsText" dxfId="291" priority="230" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C162)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="290" priority="231" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C162)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="289" priority="232" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C162)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C162">
+    <cfRule type="containsText" dxfId="288" priority="229" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C162)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C163">
+    <cfRule type="containsText" dxfId="287" priority="226" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C163)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="286" priority="227" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C163)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="285" priority="228" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C163)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C163">
+    <cfRule type="containsText" dxfId="284" priority="225" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C163)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C164">
+    <cfRule type="containsText" dxfId="283" priority="222" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C164)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="282" priority="223" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C164)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="281" priority="224" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C164)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C164">
+    <cfRule type="containsText" dxfId="280" priority="221" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C164)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C165:C167">
+    <cfRule type="containsText" dxfId="279" priority="218" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C165)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="278" priority="219" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C165)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="277" priority="220" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C165)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C165:C167">
+    <cfRule type="containsText" dxfId="276" priority="217" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C165)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C296">
+    <cfRule type="containsText" dxfId="275" priority="210" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C296)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="274" priority="211" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C296)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="273" priority="212" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C296)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C296">
+    <cfRule type="containsText" dxfId="272" priority="209" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C296)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C83">
+    <cfRule type="containsText" dxfId="271" priority="198" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C83)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="270" priority="199" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C83)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="269" priority="200" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C83)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C83">
+    <cfRule type="containsText" dxfId="268" priority="197" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C83)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43:C44">
+    <cfRule type="containsText" dxfId="267" priority="186" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="266" priority="187" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C43)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="265" priority="188" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C43:C44">
+    <cfRule type="containsText" dxfId="264" priority="185" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72">
+    <cfRule type="containsText" dxfId="263" priority="174" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C72)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="262" priority="175" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C72)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="261" priority="176" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C72)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72">
+    <cfRule type="containsText" dxfId="260" priority="173" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C72)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="containsText" dxfId="259" priority="178" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="258" priority="179" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C71)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="257" priority="180" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="containsText" dxfId="256" priority="177" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C71)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49:C50">
+    <cfRule type="containsText" dxfId="255" priority="182" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="254" priority="183" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C49)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="253" priority="184" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C49:C50">
+    <cfRule type="containsText" dxfId="252" priority="181" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C94">
+    <cfRule type="containsText" dxfId="251" priority="166" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C94)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="250" priority="167" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C94)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="249" priority="168" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C94)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C94">
+    <cfRule type="containsText" dxfId="248" priority="165" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C94)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="containsText" dxfId="247" priority="162" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="246" priority="163" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C45)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="245" priority="164" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C45">
+    <cfRule type="containsText" dxfId="244" priority="161" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="containsText" dxfId="243" priority="158" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="242" priority="159" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C12)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="241" priority="160" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12">
+    <cfRule type="containsText" dxfId="240" priority="157" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46:C47">
+    <cfRule type="containsText" dxfId="239" priority="154" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="238" priority="155" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C46)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="237" priority="156" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46:C47">
+    <cfRule type="containsText" dxfId="236" priority="153" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="containsText" dxfId="235" priority="150" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="234" priority="151" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="233" priority="152" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="containsText" dxfId="232" priority="149" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="containsText" dxfId="231" priority="146" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="230" priority="147" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C39)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="229" priority="148" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="containsText" dxfId="228" priority="145" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="containsText" dxfId="227" priority="142" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="226" priority="143" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C48)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="225" priority="144" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="containsText" dxfId="224" priority="141" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C48)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C227">
+    <cfRule type="containsText" dxfId="223" priority="138" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C227)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="222" priority="139" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C227)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="221" priority="140" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C227)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C227">
+    <cfRule type="containsText" dxfId="220" priority="137" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C227)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C228">
+    <cfRule type="containsText" dxfId="219" priority="134" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C228)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="218" priority="135" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C228)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="217" priority="136" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C228)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C228">
+    <cfRule type="containsText" dxfId="216" priority="133" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C228)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C229">
+    <cfRule type="containsText" dxfId="215" priority="130" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C229)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="214" priority="131" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C229)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="213" priority="132" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C229)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C229">
+    <cfRule type="containsText" dxfId="212" priority="129" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C229)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C142:C143">
+    <cfRule type="containsText" dxfId="211" priority="126" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C142)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="210" priority="127" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C142)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="209" priority="128" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C142)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C142:C143">
+    <cfRule type="containsText" dxfId="208" priority="125" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C142)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C140">
+    <cfRule type="containsText" dxfId="207" priority="114" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C140)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="206" priority="115" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C140)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="205" priority="116" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C140)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C140">
+    <cfRule type="containsText" dxfId="204" priority="113" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C140)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C135">
+    <cfRule type="containsText" dxfId="203" priority="110" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C135)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="202" priority="111" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C135)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="201" priority="112" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C135)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C135">
+    <cfRule type="containsText" dxfId="200" priority="109" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C135)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C236">
+    <cfRule type="containsText" dxfId="199" priority="102" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C236)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="198" priority="103" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C236)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="197" priority="104" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C236)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C236">
+    <cfRule type="containsText" dxfId="196" priority="101" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C236)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C238:C240">
+    <cfRule type="containsText" dxfId="195" priority="98" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C238)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="194" priority="99" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C238)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="193" priority="100" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C238)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C238:C240">
+    <cfRule type="containsText" dxfId="192" priority="97" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C238)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C235">
+    <cfRule type="containsText" dxfId="191" priority="94" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C235)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="190" priority="95" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C235)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="189" priority="96" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C235)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C235">
+    <cfRule type="containsText" dxfId="188" priority="93" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C235)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C252">
+    <cfRule type="containsText" dxfId="187" priority="90" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C252)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="186" priority="91" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C252)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="185" priority="92" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C252)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C252">
+    <cfRule type="containsText" dxfId="184" priority="89" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C252)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C253:C257">
+    <cfRule type="containsText" dxfId="183" priority="86" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C253)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="182" priority="87" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C253)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="181" priority="88" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C253)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C253:C257">
+    <cfRule type="containsText" dxfId="180" priority="85" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C253)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A251:E255">
+    <cfRule type="containsText" dxfId="179" priority="82" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",A251)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="178" priority="83" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",A251)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="177" priority="84" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",A251)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A251:E255">
+    <cfRule type="containsText" dxfId="176" priority="81" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",A251)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C245">
+    <cfRule type="containsText" dxfId="175" priority="78" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C245)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="174" priority="79" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C245)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="173" priority="80" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C245)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C245">
+    <cfRule type="containsText" dxfId="172" priority="77" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C245)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C244">
+    <cfRule type="containsText" dxfId="171" priority="70" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C244)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="170" priority="71" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C244)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="169" priority="72" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C244)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C244">
+    <cfRule type="containsText" dxfId="168" priority="69" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C244)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C202">
+    <cfRule type="containsText" dxfId="167" priority="66" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C202)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="166" priority="67" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C202)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="165" priority="68" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C202)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C202">
+    <cfRule type="containsText" dxfId="164" priority="65" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C202)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C298">
+    <cfRule type="containsText" dxfId="163" priority="54" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C298)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="162" priority="55" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C298)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="161" priority="56" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C298)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C298">
+    <cfRule type="containsText" dxfId="160" priority="53" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C298)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C302">
+    <cfRule type="containsText" dxfId="159" priority="46" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C302)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="158" priority="47" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C302)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="157" priority="48" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C302)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C302">
+    <cfRule type="containsText" dxfId="156" priority="45" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C302)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C299:C301">
+    <cfRule type="containsText" dxfId="155" priority="50" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C299)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="154" priority="51" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C299)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="153" priority="52" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C299)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C299:C301">
+    <cfRule type="containsText" dxfId="152" priority="49" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C299)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C264:C265">
+    <cfRule type="containsText" dxfId="151" priority="42" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C264)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="150" priority="43" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C264)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="149" priority="44" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C264)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C264:C265">
+    <cfRule type="containsText" dxfId="148" priority="41" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C264)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A261:E263">
+    <cfRule type="containsText" dxfId="147" priority="26" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",A261)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="146" priority="27" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",A261)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="145" priority="28" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",A261)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A261:E263">
+    <cfRule type="containsText" dxfId="144" priority="25" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",A261)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A269:E274">
+    <cfRule type="containsText" dxfId="143" priority="22" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",A269)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="142" priority="23" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",A269)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="141" priority="24" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",A269)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A269:E274">
+    <cfRule type="containsText" dxfId="140" priority="21" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",A269)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C92">
+    <cfRule type="containsText" dxfId="139" priority="18" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C92)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="138" priority="19" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C92)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="137" priority="20" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C92)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C92">
+    <cfRule type="containsText" dxfId="136" priority="17" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C92)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C237">
+    <cfRule type="containsText" dxfId="135" priority="14" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C237)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="134" priority="15" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C237)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="133" priority="16" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C237)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C237">
+    <cfRule type="containsText" dxfId="132" priority="13" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C237)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C279">
+    <cfRule type="containsText" dxfId="131" priority="10" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C279)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="130" priority="11" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C279)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="129" priority="12" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C279)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C279">
+    <cfRule type="containsText" dxfId="128" priority="9" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C279)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="containsText" dxfId="127" priority="6" stopIfTrue="1" operator="containsText" text="Delete">
+      <formula>NOT(ISERROR(SEARCH("Delete",C24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="126" priority="7" operator="containsText" text="Change">
+      <formula>NOT(ISERROR(SEARCH("Change",C24)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="125" priority="8" operator="containsText" text="Create">
+      <formula>NOT(ISERROR(SEARCH("Create",C24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="containsText" dxfId="124" priority="5" operator="containsText" text="None">
+      <formula>NOT(ISERROR(SEARCH("None",C24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C290">
-    <cfRule type="containsText" dxfId="366" priority="318" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="11" priority="2" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",C290)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="365" priority="319" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="10" priority="3" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",C290)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="364" priority="320" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",C290)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C290">
-    <cfRule type="containsText" dxfId="363" priority="317" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",C290)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C291">
-    <cfRule type="containsText" dxfId="362" priority="314" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C291)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="361" priority="315" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C291)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="360" priority="316" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C291)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C291">
-    <cfRule type="containsText" dxfId="359" priority="313" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C291)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C292">
-    <cfRule type="containsText" dxfId="358" priority="310" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C292)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="357" priority="311" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C292)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="356" priority="312" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C292)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C292">
-    <cfRule type="containsText" dxfId="355" priority="309" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C292)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C293">
-    <cfRule type="containsText" dxfId="354" priority="306" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C293)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="353" priority="307" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C293)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="352" priority="308" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C293)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C293">
-    <cfRule type="containsText" dxfId="351" priority="305" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C293)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C294">
-    <cfRule type="containsText" dxfId="350" priority="302" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C294)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="349" priority="303" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C294)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="348" priority="304" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C294)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C294">
-    <cfRule type="containsText" dxfId="347" priority="301" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C294)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C285">
-    <cfRule type="containsText" dxfId="346" priority="298" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C285)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="345" priority="299" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C285)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="344" priority="300" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C285)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C110">
-    <cfRule type="containsText" dxfId="343" priority="294" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C110)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="342" priority="295" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C110)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="341" priority="296" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C110)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C110">
-    <cfRule type="containsText" dxfId="340" priority="293" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C110)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C147">
-    <cfRule type="containsText" dxfId="339" priority="286" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C147)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="338" priority="287" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C147)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="337" priority="288" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C147)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C147">
-    <cfRule type="containsText" dxfId="336" priority="285" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C147)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148">
-    <cfRule type="containsText" dxfId="335" priority="282" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C148)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="334" priority="283" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C148)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="333" priority="284" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C148)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C148">
-    <cfRule type="containsText" dxfId="332" priority="281" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C148)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C149">
-    <cfRule type="containsText" dxfId="331" priority="278" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C149)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="330" priority="279" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C149)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="329" priority="280" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C149)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C149">
-    <cfRule type="containsText" dxfId="328" priority="277" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C149)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C150">
-    <cfRule type="containsText" dxfId="327" priority="274" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C150)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="326" priority="275" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C150)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="325" priority="276" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C150)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C150">
-    <cfRule type="containsText" dxfId="324" priority="273" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C150)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C151">
-    <cfRule type="containsText" dxfId="323" priority="270" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C151)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="322" priority="271" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C151)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="321" priority="272" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C151)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C151">
-    <cfRule type="containsText" dxfId="320" priority="269" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C151)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C152">
-    <cfRule type="containsText" dxfId="319" priority="266" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C152)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="318" priority="267" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C152)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="317" priority="268" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C152)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C152">
-    <cfRule type="containsText" dxfId="316" priority="265" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C152)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C153">
-    <cfRule type="containsText" dxfId="315" priority="262" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C153)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="314" priority="263" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C153)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="313" priority="264" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C153)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C153">
-    <cfRule type="containsText" dxfId="312" priority="261" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C153)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C154">
-    <cfRule type="containsText" dxfId="311" priority="258" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C154)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="310" priority="259" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C154)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="309" priority="260" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C154)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C154">
-    <cfRule type="containsText" dxfId="308" priority="257" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C154)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C155">
-    <cfRule type="containsText" dxfId="307" priority="254" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C155)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="306" priority="255" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C155)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="305" priority="256" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C155)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C155">
-    <cfRule type="containsText" dxfId="304" priority="253" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C155)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C156">
-    <cfRule type="containsText" dxfId="303" priority="250" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C156)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="302" priority="251" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C156)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="301" priority="252" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C156)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C156">
-    <cfRule type="containsText" dxfId="300" priority="249" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C156)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C157">
-    <cfRule type="containsText" dxfId="299" priority="246" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C157)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="298" priority="247" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C157)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="297" priority="248" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C157)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C157">
-    <cfRule type="containsText" dxfId="296" priority="245" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C157)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C158">
-    <cfRule type="containsText" dxfId="295" priority="242" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C158)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="294" priority="243" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C158)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="293" priority="244" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C158)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C158">
-    <cfRule type="containsText" dxfId="292" priority="241" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C158)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C159">
-    <cfRule type="containsText" dxfId="291" priority="238" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C159)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="290" priority="239" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C159)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="289" priority="240" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C159)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C159">
-    <cfRule type="containsText" dxfId="288" priority="237" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C159)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C160">
-    <cfRule type="containsText" dxfId="287" priority="234" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C160)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="286" priority="235" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C160)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="285" priority="236" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C160)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C160">
-    <cfRule type="containsText" dxfId="284" priority="233" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C160)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C161">
-    <cfRule type="containsText" dxfId="283" priority="230" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C161)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="282" priority="231" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C161)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="281" priority="232" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C161)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C161">
-    <cfRule type="containsText" dxfId="280" priority="229" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C161)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C162">
-    <cfRule type="containsText" dxfId="279" priority="226" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C162)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="278" priority="227" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C162)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="277" priority="228" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C162)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C162">
-    <cfRule type="containsText" dxfId="276" priority="225" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C162)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C163">
-    <cfRule type="containsText" dxfId="275" priority="222" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C163)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="274" priority="223" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C163)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="273" priority="224" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C163)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C163">
-    <cfRule type="containsText" dxfId="272" priority="221" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C163)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C164">
-    <cfRule type="containsText" dxfId="271" priority="218" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C164)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="270" priority="219" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C164)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="269" priority="220" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C164)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C164">
-    <cfRule type="containsText" dxfId="268" priority="217" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C164)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C165:C167">
-    <cfRule type="containsText" dxfId="267" priority="214" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C165)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="266" priority="215" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C165)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="265" priority="216" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C165)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C165:C167">
-    <cfRule type="containsText" dxfId="264" priority="213" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C165)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C296">
-    <cfRule type="containsText" dxfId="263" priority="206" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C296)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="262" priority="207" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C296)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="261" priority="208" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C296)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C296">
-    <cfRule type="containsText" dxfId="260" priority="205" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C296)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C83">
-    <cfRule type="containsText" dxfId="259" priority="194" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C83)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="258" priority="195" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C83)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="257" priority="196" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C83)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C83">
-    <cfRule type="containsText" dxfId="256" priority="193" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C83)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43:C44">
-    <cfRule type="containsText" dxfId="255" priority="182" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="254" priority="183" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C43)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="253" priority="184" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C43:C44">
-    <cfRule type="containsText" dxfId="252" priority="181" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C43)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C72">
-    <cfRule type="containsText" dxfId="251" priority="170" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C72)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="250" priority="171" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C72)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="249" priority="172" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C72)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C72">
-    <cfRule type="containsText" dxfId="248" priority="169" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C72)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C71">
-    <cfRule type="containsText" dxfId="247" priority="174" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C71)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="246" priority="175" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C71)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="245" priority="176" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C71)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C71">
-    <cfRule type="containsText" dxfId="244" priority="173" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C71)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49:C50">
-    <cfRule type="containsText" dxfId="243" priority="178" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="242" priority="179" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C49)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="241" priority="180" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C49:C50">
-    <cfRule type="containsText" dxfId="240" priority="177" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C49)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C94">
-    <cfRule type="containsText" dxfId="239" priority="162" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C94)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="238" priority="163" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C94)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="237" priority="164" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C94)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C94">
-    <cfRule type="containsText" dxfId="236" priority="161" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C94)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="containsText" dxfId="235" priority="158" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C45)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="159" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C45)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="233" priority="160" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C45)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C45">
-    <cfRule type="containsText" dxfId="232" priority="157" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C45)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="231" priority="154" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="230" priority="155" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C12)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="229" priority="156" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="containsText" dxfId="228" priority="153" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46:C47">
-    <cfRule type="containsText" dxfId="227" priority="150" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="151" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C46)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="225" priority="152" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C46:C47">
-    <cfRule type="containsText" dxfId="224" priority="149" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C46)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="containsText" dxfId="223" priority="146" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="222" priority="147" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C38)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="221" priority="148" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="containsText" dxfId="220" priority="145" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C38)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="containsText" dxfId="219" priority="142" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="218" priority="143" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C39)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="217" priority="144" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C39">
-    <cfRule type="containsText" dxfId="216" priority="141" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="containsText" dxfId="215" priority="138" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="214" priority="139" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C48)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="213" priority="140" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="containsText" dxfId="212" priority="137" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C48)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C227">
-    <cfRule type="containsText" dxfId="211" priority="134" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C227)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="135" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C227)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="209" priority="136" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C227)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C227">
-    <cfRule type="containsText" dxfId="208" priority="133" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C227)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C228">
-    <cfRule type="containsText" dxfId="207" priority="130" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C228)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="206" priority="131" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C228)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="205" priority="132" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C228)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C228">
-    <cfRule type="containsText" dxfId="204" priority="129" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C228)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C229">
-    <cfRule type="containsText" dxfId="203" priority="126" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C229)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="202" priority="127" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C229)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="128" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C229)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C229">
-    <cfRule type="containsText" dxfId="200" priority="125" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C229)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C142:C143">
-    <cfRule type="containsText" dxfId="199" priority="122" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C142)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="123" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C142)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="197" priority="124" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C142)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C142:C143">
-    <cfRule type="containsText" dxfId="196" priority="121" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C142)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C140">
-    <cfRule type="containsText" dxfId="195" priority="110" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C140)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="194" priority="111" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C140)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="193" priority="112" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C140)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C140">
-    <cfRule type="containsText" dxfId="192" priority="109" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C140)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C135">
-    <cfRule type="containsText" dxfId="191" priority="106" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C135)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="107" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C135)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="108" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C135)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C135">
-    <cfRule type="containsText" dxfId="188" priority="105" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C135)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C236">
-    <cfRule type="containsText" dxfId="187" priority="98" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C236)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="186" priority="99" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C236)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="185" priority="100" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C236)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C236">
-    <cfRule type="containsText" dxfId="184" priority="97" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C236)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C238:C240">
-    <cfRule type="containsText" dxfId="183" priority="94" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C238)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="95" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C238)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="96" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C238)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C238:C240">
-    <cfRule type="containsText" dxfId="180" priority="93" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C238)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C235">
-    <cfRule type="containsText" dxfId="179" priority="90" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C235)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="178" priority="91" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C235)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="177" priority="92" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C235)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C235">
-    <cfRule type="containsText" dxfId="176" priority="89" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C235)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C252">
-    <cfRule type="containsText" dxfId="175" priority="86" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C252)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="87" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C252)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="88" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C252)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C252">
-    <cfRule type="containsText" dxfId="172" priority="85" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C252)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C253:C257">
-    <cfRule type="containsText" dxfId="171" priority="82" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C253)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="170" priority="83" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C253)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="169" priority="84" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C253)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C253:C257">
-    <cfRule type="containsText" dxfId="168" priority="81" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C253)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A251:E255">
-    <cfRule type="containsText" dxfId="167" priority="78" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",A251)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="166" priority="79" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",A251)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="80" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",A251)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A251:E255">
-    <cfRule type="containsText" dxfId="164" priority="77" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",A251)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C245">
-    <cfRule type="containsText" dxfId="163" priority="74" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C245)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="75" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C245)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="161" priority="76" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C245)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C245">
-    <cfRule type="containsText" dxfId="160" priority="73" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C245)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C244">
-    <cfRule type="containsText" dxfId="159" priority="66" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C244)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="158" priority="67" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C244)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="157" priority="68" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C244)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C244">
-    <cfRule type="containsText" dxfId="156" priority="65" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C244)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C202">
-    <cfRule type="containsText" dxfId="155" priority="62" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C202)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="63" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C202)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="64" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C202)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C202">
-    <cfRule type="containsText" dxfId="152" priority="61" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C202)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C298">
-    <cfRule type="containsText" dxfId="151" priority="50" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C298)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="150" priority="51" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C298)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="149" priority="52" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C298)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C298">
-    <cfRule type="containsText" dxfId="148" priority="49" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C298)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C302">
-    <cfRule type="containsText" dxfId="147" priority="42" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C302)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="43" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C302)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="44" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C302)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C302">
-    <cfRule type="containsText" dxfId="144" priority="41" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C302)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C299:C301">
-    <cfRule type="containsText" dxfId="143" priority="46" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C299)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="142" priority="47" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C299)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="141" priority="48" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C299)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C299:C301">
-    <cfRule type="containsText" dxfId="140" priority="45" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C299)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C264:C265">
-    <cfRule type="containsText" dxfId="139" priority="38" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C264)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="39" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C264)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="40" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C264)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C264:C265">
-    <cfRule type="containsText" dxfId="136" priority="37" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C264)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A261:E263">
-    <cfRule type="containsText" dxfId="135" priority="22" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",A261)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="134" priority="23" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",A261)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="133" priority="24" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",A261)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A261:E263">
-    <cfRule type="containsText" dxfId="132" priority="21" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",A261)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A269:E274">
-    <cfRule type="containsText" dxfId="131" priority="18" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",A269)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="130" priority="19" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",A269)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="20" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",A269)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A269:E274">
-    <cfRule type="containsText" dxfId="128" priority="17" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",A269)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C92">
-    <cfRule type="containsText" dxfId="127" priority="14" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C92)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="15" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C92)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="125" priority="16" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C92)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C92">
-    <cfRule type="containsText" dxfId="124" priority="13" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C92)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C237">
-    <cfRule type="containsText" dxfId="123" priority="10" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C237)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="122" priority="11" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C237)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="121" priority="12" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C237)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C237">
-    <cfRule type="containsText" dxfId="120" priority="9" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C237)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C279">
-    <cfRule type="containsText" dxfId="119" priority="6" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C279)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="7" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C279)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="8" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C279)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C279">
-    <cfRule type="containsText" dxfId="116" priority="5" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C279)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="containsText" dxfId="115" priority="2" stopIfTrue="1" operator="containsText" text="Delete">
-      <formula>NOT(ISERROR(SEARCH("Delete",C24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="114" priority="3" operator="containsText" text="Change">
-      <formula>NOT(ISERROR(SEARCH("Change",C24)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="113" priority="4" operator="containsText" text="Create">
-      <formula>NOT(ISERROR(SEARCH("Create",C24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="containsText" dxfId="112" priority="1" operator="containsText" text="None">
-      <formula>NOT(ISERROR(SEARCH("None",C24)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C296 C120:C143 C235:C240 C261:C265 C251:C257 C110:C116 C213:C223 C269:C274 C192:C197 C79:C96 C227:C231 C147:C167 C298:C302 C244:C247 C182:C188 C171:C178 C280:C294 C201:C209 C100:C106 C278 C4:C75">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C296 C120:C143 C235:C240 C261:C265 C251:C257 C110:C116 C213:C223 C269:C274 C192:C197 C79:C96 C227:C231 C147:C167 C298:C302 C244:C247 C182:C188 C171:C178 C4:C75 C201:C209 C100:C106 C278 C280:C289 C291:C294">
       <formula1>$F$4:$F$6</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C279">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C279 C290">
       <formula1>$G$6:$G$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -12265,7 +12361,7 @@
   <dimension ref="A1:P221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="52.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12438,15 +12534,19 @@
       <c r="C12" s="69"/>
       <c r="D12" s="69"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>229</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>204</v>
-      </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
+        <v>2</v>
+      </c>
+      <c r="C13" s="94" t="s">
+        <v>550</v>
+      </c>
+      <c r="D13" s="38" t="s">
+        <v>591</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
@@ -12943,15 +13043,19 @@
       <c r="C62" s="69"/>
       <c r="D62" s="69"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="41" t="s">
         <v>5</v>
       </c>
       <c r="B63" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C63" s="69"/>
-      <c r="D63" s="69"/>
+      <c r="C63" s="94" t="s">
+        <v>550</v>
+      </c>
+      <c r="D63" s="38" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="35" t="s">
@@ -13287,15 +13391,19 @@
         <v>589</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="41" t="s">
         <v>19</v>
       </c>
       <c r="B93" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C93" s="69"/>
-      <c r="D93" s="69"/>
+      <c r="C93" s="69" t="s">
+        <v>550</v>
+      </c>
+      <c r="D93" s="38" t="s">
+        <v>592</v>
+      </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="35" t="s">
@@ -14669,450 +14777,450 @@
     <mergeCell ref="A1:P1"/>
   </mergeCells>
   <conditionalFormatting sqref="B95">
-    <cfRule type="containsText" dxfId="111" priority="294" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="123" priority="294" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B95)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="110" priority="295" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="122" priority="295" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B95)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="109" priority="296" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="121" priority="296" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B95)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B95">
-    <cfRule type="containsText" dxfId="108" priority="293" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="120" priority="293" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B95)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B13 B15:B39 B42:B44 B54:B60 B76:B90 B62:B73">
-    <cfRule type="containsText" dxfId="107" priority="310" stopIfTrue="1" operator="containsText" text="Delete">
+  <conditionalFormatting sqref="B15:B39 B42:B44 B54:B60 B76:B90 B62:B73 B6:B13">
+    <cfRule type="containsText" dxfId="119" priority="310" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="106" priority="311" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="118" priority="311" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="105" priority="312" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="117" priority="312" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:B13 B15:B39 B42:B44 B54:B60 B76:B90 B62:B73">
-    <cfRule type="containsText" dxfId="104" priority="309" operator="containsText" text="None">
+  <conditionalFormatting sqref="B15:B39 B42:B44 B54:B60 B76:B90 B62:B73 B6:B13">
+    <cfRule type="containsText" dxfId="116" priority="309" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="containsText" dxfId="103" priority="306" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="115" priority="306" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="102" priority="307" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="114" priority="307" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="101" priority="308" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="113" priority="308" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B92">
-    <cfRule type="containsText" dxfId="100" priority="305" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="112" priority="305" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="containsText" dxfId="99" priority="297" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="111" priority="297" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="containsText" dxfId="98" priority="302" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="110" priority="302" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B93)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="97" priority="303" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="109" priority="303" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B93)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="96" priority="304" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="108" priority="304" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B93">
-    <cfRule type="containsText" dxfId="95" priority="301" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="107" priority="301" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B94">
-    <cfRule type="containsText" dxfId="94" priority="298" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="106" priority="298" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="93" priority="299" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="105" priority="299" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="92" priority="300" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="104" priority="300" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B207">
-    <cfRule type="containsText" dxfId="91" priority="281" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="103" priority="281" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B207)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B207">
-    <cfRule type="containsText" dxfId="90" priority="282" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="102" priority="282" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B207)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="89" priority="283" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="101" priority="283" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B207)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="88" priority="284" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="100" priority="284" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B207)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B208">
-    <cfRule type="containsText" dxfId="87" priority="278" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="99" priority="278" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B208)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="86" priority="279" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="98" priority="279" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B208)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="85" priority="280" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="97" priority="280" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B208)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B208">
-    <cfRule type="containsText" dxfId="84" priority="277" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="96" priority="277" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B208)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209">
-    <cfRule type="containsText" dxfId="83" priority="274" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="95" priority="274" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B209)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="82" priority="275" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="94" priority="275" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B209)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="81" priority="276" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="93" priority="276" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B209)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B209">
-    <cfRule type="containsText" dxfId="80" priority="273" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="92" priority="273" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B209)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210">
-    <cfRule type="containsText" dxfId="79" priority="270" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="91" priority="270" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B210)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="78" priority="271" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="90" priority="271" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B210)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="77" priority="272" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="89" priority="272" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B210)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B210">
-    <cfRule type="containsText" dxfId="76" priority="269" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="88" priority="269" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B210)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B211">
-    <cfRule type="containsText" dxfId="75" priority="266" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="87" priority="266" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B211)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="74" priority="267" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="86" priority="267" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B211)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="73" priority="268" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="85" priority="268" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B211)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B211">
-    <cfRule type="containsText" dxfId="72" priority="265" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="84" priority="265" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B211)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B213">
-    <cfRule type="containsText" dxfId="71" priority="178" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="83" priority="178" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="70" priority="179" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="82" priority="179" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B213)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="69" priority="180" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="81" priority="180" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B213)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B213">
-    <cfRule type="containsText" dxfId="68" priority="177" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="80" priority="177" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B213)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B46">
-    <cfRule type="containsText" dxfId="67" priority="170" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="79" priority="170" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="66" priority="171" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="78" priority="171" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B45)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="65" priority="172" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="77" priority="172" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B46">
-    <cfRule type="containsText" dxfId="64" priority="169" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="76" priority="169" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B45)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75">
-    <cfRule type="containsText" dxfId="63" priority="158" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="75" priority="158" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="62" priority="159" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="74" priority="159" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="61" priority="160" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="73" priority="160" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B75">
-    <cfRule type="containsText" dxfId="60" priority="157" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="72" priority="157" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="containsText" dxfId="59" priority="162" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="71" priority="162" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="58" priority="163" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="70" priority="163" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="57" priority="164" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="69" priority="164" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B74">
-    <cfRule type="containsText" dxfId="56" priority="161" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="68" priority="161" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:B53">
-    <cfRule type="containsText" dxfId="55" priority="166" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="67" priority="166" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="167" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="66" priority="167" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B51)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="53" priority="168" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="65" priority="168" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B51:B53">
-    <cfRule type="containsText" dxfId="52" priority="165" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="64" priority="165" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B51)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="containsText" dxfId="51" priority="150" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="63" priority="150" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="151" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="62" priority="151" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B47)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="152" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="61" priority="152" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B47">
-    <cfRule type="containsText" dxfId="48" priority="149" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="60" priority="149" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B47)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="containsText" dxfId="47" priority="146" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="59" priority="146" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="147" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="58" priority="147" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="148" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="57" priority="148" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14">
-    <cfRule type="containsText" dxfId="44" priority="145" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="56" priority="145" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B49">
-    <cfRule type="containsText" dxfId="43" priority="142" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="55" priority="142" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="143" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="54" priority="143" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B48)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="144" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="53" priority="144" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:B49">
-    <cfRule type="containsText" dxfId="40" priority="141" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="52" priority="141" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B48)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="containsText" dxfId="39" priority="138" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="51" priority="138" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="139" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="50" priority="139" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="140" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="49" priority="140" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="containsText" dxfId="36" priority="137" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="48" priority="137" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="containsText" dxfId="35" priority="134" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="47" priority="134" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="135" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="46" priority="135" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B41)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="136" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="45" priority="136" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41">
-    <cfRule type="containsText" dxfId="32" priority="133" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="44" priority="133" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B41)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="containsText" dxfId="31" priority="130" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="43" priority="130" stopIfTrue="1" operator="containsText" text="Delete">
       <formula>NOT(ISERROR(SEARCH("Delete",B50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="131" operator="containsText" text="Change">
+    <cfRule type="containsText" dxfId="42" priority="131" operator="containsText" text="Change">
       <formula>NOT(ISERROR(SEARCH("Change",B50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="132" operator="containsText" text="Create">
+    <cfRule type="containsText" dxfId="41" priority="132" operator="containsText" text="Create">
       <formula>NOT(ISERROR(SEARCH("Create",B50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B50">
-    <cfRule type="containsText" dxfId="28" priority="129" operator="containsText" text="None">
+    <cfRule type="containsText" dxfId="40" priority="129" operator="containsText" text="None">
       <formula>NOT(ISERROR(SEARCH("None",B50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B215">
-    <cfRule type="containsText" dxfId="27" priority="66" stopIfTrue="1" operator="containsText" text="Delete">
+    <cfRule type="containsText" dxfId="39" priority="66" stopIfTrue="1" operator="containsText" text="Delete">
       <formu